--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69BAF61-CA00-461B-AD2B-F33831C09F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A4AF1-A29E-4849-8FC5-C7E96A60C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="3120" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -213,13 +213,22 @@
   </si>
   <si>
     <t>http://media.folha.uol.com.br/datafolha/2021/05/12/1984ppjlrm3poekfrblsintv2022pnc.pdf</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-30mai2022.pdf?utm_campaign=pesquisa_30_05_desk</t>
+  </si>
+  <si>
+    <t>maio/22_fsb</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +241,14 @@
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +289,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,1228 +613,1273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="15.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>44228</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2021</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>39</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>27</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>22</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>39</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>34</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>44256</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2021</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>28</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>44</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>22</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>44317</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>46</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>35</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>19</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>34</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>41</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>44348</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2021</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>42</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>28</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>17</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>28</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>49</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>44348</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2021</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>36</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>24</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>29</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>46</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>26</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>44378</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2021</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>37</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>27</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>28</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>43</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>26</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>44440</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>2021</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>44440</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>2021</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>44501</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>2021</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>44531</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>2021</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>46</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>26</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>16</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>31</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>48</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>44531</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2021</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>39</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>47</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>44562</v>
       </c>
-      <c r="D13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F13" s="3">
         <v>46</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>27</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>22</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>43</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>44</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>44562</v>
       </c>
-      <c r="D14" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="3">
         <v>44</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>37</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>44</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>44562</v>
       </c>
-      <c r="D15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="3">
         <v>50</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>45</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>44593</v>
       </c>
-      <c r="D16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F16" s="3">
         <v>44</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>31</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>24</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>41</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>40</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>44593</v>
       </c>
-      <c r="D17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F17" s="3">
         <v>45</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>44593</v>
       </c>
-      <c r="D18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="3">
         <v>45</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>44593</v>
       </c>
-      <c r="D19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F19" s="3">
         <v>50</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>34</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>19</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>35</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>45</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>44621</v>
       </c>
-      <c r="D20" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F20" s="3">
         <v>43</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>39</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>44621</v>
       </c>
-      <c r="D21" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F21" s="3">
         <v>48</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>44621</v>
       </c>
-      <c r="D22" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F22" s="3">
         <v>42</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>44621</v>
       </c>
-      <c r="D23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F23" s="3">
         <v>44</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>44621</v>
       </c>
-      <c r="D24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F24" s="3">
         <v>47</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>44621</v>
       </c>
-      <c r="D25" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F25" s="3">
         <v>43</v>
-      </c>
-      <c r="F25" s="3">
-        <v>29</v>
       </c>
       <c r="G25" s="3">
         <v>29</v>
       </c>
       <c r="H25" s="3">
+        <v>29</v>
+      </c>
+      <c r="I25" s="3">
         <v>46</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>40</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>44621</v>
       </c>
-      <c r="D26" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F26" s="3">
         <v>52</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>44652</v>
       </c>
-      <c r="D27" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="3">
         <v>43</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>40</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>44652</v>
       </c>
-      <c r="D28" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F28" s="3">
         <v>41</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>33</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>31</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>40</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>44</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>44652</v>
       </c>
-      <c r="D29" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F29" s="3">
         <v>43</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>34</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>30</v>
-      </c>
-      <c r="H29" s="3">
-        <v>45</v>
       </c>
       <c r="I29" s="3">
         <v>45</v>
       </c>
       <c r="J29" s="3">
+        <v>45</v>
+      </c>
+      <c r="K29" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>44652</v>
       </c>
-      <c r="D30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F30" s="3">
         <v>51</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>34</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>28</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>38</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>45</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>44652</v>
       </c>
-      <c r="D31" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F31" s="3">
         <v>46</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>31</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>29</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>46</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>41</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9"/>
+      <c r="D32" s="2">
         <v>44682</v>
       </c>
-      <c r="D32" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F32" s="3">
         <v>43</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>32</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>47</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>40</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>44682</v>
       </c>
-      <c r="D33" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F33" s="3">
         <v>42</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>44682</v>
       </c>
-      <c r="D34" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F34" s="3">
         <v>46</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>34</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>48</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>44</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>44682</v>
       </c>
-      <c r="D35" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F35" s="3">
         <v>41</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>44682</v>
       </c>
-      <c r="D36" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F36" s="3">
         <v>53</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>30</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>27</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>47</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>46</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>44682</v>
       </c>
-      <c r="D37" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F37" s="3">
         <v>54</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>36</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>23</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>39</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>48</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>27</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="L37" s="6" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="7">
+        <v>44711</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F38" s="3">
+        <v>52</v>
+      </c>
+      <c r="G38" s="3">
+        <v>35</v>
+      </c>
+      <c r="H38" s="3">
+        <v>27</v>
+      </c>
+      <c r="I38" s="3">
+        <v>46</v>
+      </c>
+      <c r="J38" s="4">
+        <v>46</v>
+      </c>
+      <c r="K38" s="3">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
+  <autoFilter ref="A1:L38" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A4AF1-A29E-4849-8FC5-C7E96A60C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B7AF5-9C92-4EBE-AF99-B8A6F57C4E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="2340" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$R$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -47,18 +47,6 @@
     <t>mês_ano</t>
   </si>
   <si>
-    <t>lula_cat</t>
-  </si>
-  <si>
-    <t>lula_ev</t>
-  </si>
-  <si>
-    <t>bolsonaro_cat</t>
-  </si>
-  <si>
-    <t>bolsonaro_ev</t>
-  </si>
-  <si>
     <t>ipec</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t>fev/21_ipec</t>
   </si>
   <si>
-    <t>mar/21_pr_pesq</t>
-  </si>
-  <si>
     <t>mai/21_datafolha</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t>mar/22_fsb</t>
   </si>
   <si>
-    <t>mar/22_CNT</t>
-  </si>
-  <si>
     <t>mar/22_quaest</t>
   </si>
   <si>
@@ -188,47 +170,251 @@
     <t>prpesquisas</t>
   </si>
   <si>
-    <t>bolsonaro_geral</t>
-  </si>
-  <si>
-    <t>lula_geral</t>
-  </si>
-  <si>
-    <t>maio/22_datafolha</t>
-  </si>
-  <si>
     <t>fonte</t>
   </si>
   <si>
-    <t>https://www1.folha.uol.com.br/poder/2022/05/datafolha-lula-abre-21-pontos-sobre-bolsonaro-no-1o-turno.shtml</t>
-  </si>
-  <si>
-    <t>https://www.fsb.com.br/wp-content/uploads/2022/03/Pesquisa-BTG-FSB-21Mar2022.pdf</t>
-  </si>
-  <si>
     <t>http://media.folha.uol.com.br/datafolha/2022/03/25/Intencao_de_voto_presidente_mar_22.pdf</t>
   </si>
   <si>
     <t>http://media.folha.uol.com.br/datafolha/2021/09/17/48inte432532nfasdfacao42352386568twet.pdf</t>
   </si>
   <si>
-    <t>http://media.folha.uol.com.br/datafolha/2021/05/12/1984ppjlrm3poekfrblsintv2022pnc.pdf</t>
-  </si>
-  <si>
-    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-30mai2022.pdf?utm_campaign=pesquisa_30_05_desk</t>
-  </si>
-  <si>
-    <t>maio/22_fsb</t>
-  </si>
-  <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>mar/21_poderdata</t>
+  </si>
+  <si>
+    <t>poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-17mar21-2-convertido.pdf</t>
+  </si>
+  <si>
+    <t>lula_geral_1t</t>
+  </si>
+  <si>
+    <t>bolsonaro_geral_1t</t>
+  </si>
+  <si>
+    <t>lula_geral_2t</t>
+  </si>
+  <si>
+    <t>bolsonaro_geral_2t</t>
+  </si>
+  <si>
+    <t>bolsonaro_ev_2t</t>
+  </si>
+  <si>
+    <t>lula_cat_1t</t>
+  </si>
+  <si>
+    <t>lula_ev_1t</t>
+  </si>
+  <si>
+    <t>bolsonaro_cat_1t</t>
+  </si>
+  <si>
+    <t>bolsonaro_ev_1t</t>
+  </si>
+  <si>
+    <t>lula_ev_2t</t>
+  </si>
+  <si>
+    <t>lula_cat_2t</t>
+  </si>
+  <si>
+    <t>bolsonaro_cat_2t</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-10-12mai21.pdf</t>
+  </si>
+  <si>
+    <t>jun/21_poderdata</t>
+  </si>
+  <si>
+    <t>mai/21_poderdata</t>
+  </si>
+  <si>
+    <t>abr/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf</t>
+  </si>
+  <si>
+    <t>jul/21_poderdata</t>
+  </si>
+  <si>
+    <t>ago/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-4ago21-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-30mai2022.pdf?utm_campaign=pesquisa_30_05_desk </t>
+  </si>
+  <si>
+    <t>set/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-1set21.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/10/PoderData-relatorio-final-Brasil-29set21.pdf</t>
+  </si>
+  <si>
+    <t>set/21_poderdata_2</t>
+  </si>
+  <si>
+    <t>out/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-27out21-1.pdf</t>
+  </si>
+  <si>
+    <t>nov/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-24nov21.pdf</t>
+  </si>
+  <si>
+    <t>dez/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-21dez21.pdf</t>
+  </si>
+  <si>
+    <t>jan/22_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-18jan22.pdf</t>
+  </si>
+  <si>
+    <t>fev/22_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-1fev22-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-15fev22-1.pdf</t>
+  </si>
+  <si>
+    <t>fev/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata_3</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-51-final-Brasil-15mar22.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-53-Brasil-12abr22.pdf</t>
+  </si>
+  <si>
+    <t>abr/22_poderdata</t>
+  </si>
+  <si>
+    <t>abr/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-26abr22-4.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/05/PoderData-55-10mai22-.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2021/05/12/1984ppjlrm3poekfrblsintv2022pnc.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fsb.com.br/wp-content/uploads/2022/03/Pesquisa-BTG-FSB-21Mar2022.pdf </t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www1.folha.uol.com.br/poder/2022/05/datafolha-lula-abre-21-pontos-sobre-bolsonaro-no-1o-turno.shtml </t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/16/14_Ipec_JOB_21_0042_Eleicoes_Relatorio_de_tabelas.pdf</t>
+  </si>
+  <si>
+    <t>mai/21_pr_pesq</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2021/05/MidiaBR_Mai21.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2021/06/Midia_BR_Jun21.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2021/07/BR_Jul21-Midia.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/02/Midia_BR_Jan22.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/03/Brasil.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/04/MidiaBR-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/2022_05_02-PESQUISA-IPESPE_compressed.pdf</t>
+  </si>
+  <si>
+    <t>mai/22_ipespe_4</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-4a-SEMANA-v2.pdf</t>
+  </si>
+  <si>
+    <t>mai/22_CNT</t>
+  </si>
+  <si>
+    <t>voxpopuli</t>
+  </si>
+  <si>
+    <t>https://www.voxpopuli.com.br/relatorio_vox_maio21.pdf</t>
+  </si>
+  <si>
+    <t>mai/21_voxpopuli</t>
+  </si>
+  <si>
+    <t>mai/22_datafolha</t>
+  </si>
+  <si>
+    <t>mai/22_fsb</t>
+  </si>
+  <si>
+    <t>mai/22_poderdata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,15 +423,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,10 +462,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,19 +483,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,14 +830,16 @@
     <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
     <col min="3" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="15.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="3"/>
+    <col min="16" max="17" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,42 +847,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44250</v>
       </c>
       <c r="D2" s="2">
         <v>44228</v>
@@ -701,13 +929,19 @@
       <c r="K2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44272</v>
       </c>
       <c r="D3" s="2">
         <v>44256</v>
@@ -715,1171 +949,2574 @@
       <c r="E3" s="1">
         <v>2021</v>
       </c>
-      <c r="F3" s="3">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4">
-        <v>22</v>
+      <c r="J3" s="3">
+        <v>34</v>
       </c>
       <c r="K3" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44300</v>
       </c>
       <c r="D4" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="E4" s="1">
         <v>2021</v>
       </c>
-      <c r="F4" s="3">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="J4" s="4">
         <v>34</v>
       </c>
-      <c r="J4" s="3">
-        <v>41</v>
-      </c>
       <c r="K4" s="3">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="P4" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44328</v>
       </c>
       <c r="D5" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="E5" s="1">
         <v>2021</v>
       </c>
-      <c r="F5" s="3">
-        <v>42</v>
-      </c>
-      <c r="G5" s="3">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3">
-        <v>49</v>
+      <c r="J5" s="4">
+        <v>32</v>
       </c>
       <c r="K5" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="P5" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44332</v>
       </c>
       <c r="D6" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="E6" s="1">
         <v>2021</v>
       </c>
       <c r="F6" s="3">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3">
         <v>36</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J6" s="4">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3">
         <v>24</v>
       </c>
-      <c r="H6" s="3">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4">
-        <v>26</v>
-      </c>
-      <c r="K6" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>105</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44323</v>
       </c>
       <c r="D7" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="E7" s="1">
         <v>2021</v>
       </c>
       <c r="F7" s="3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3">
         <v>28</v>
       </c>
       <c r="I7" s="3">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3">
+        <v>26</v>
+      </c>
+      <c r="L7" s="3">
         <v>43</v>
       </c>
-      <c r="J7" s="4">
-        <v>26</v>
-      </c>
-      <c r="K7" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3">
+        <v>31</v>
+      </c>
+      <c r="N7" s="3">
+        <v>37</v>
+      </c>
+      <c r="O7" s="3">
+        <v>54</v>
+      </c>
+      <c r="P7" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44328</v>
       </c>
       <c r="D8" s="2">
-        <v>44440</v>
+        <v>44317</v>
       </c>
       <c r="E8" s="1">
         <v>2021</v>
       </c>
       <c r="F8" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3">
         <v>19</v>
       </c>
       <c r="I8" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J8" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3">
+        <v>61</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45</v>
+      </c>
+      <c r="N8" s="3">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3">
+        <v>45</v>
+      </c>
+      <c r="P8" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>32</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44356</v>
       </c>
       <c r="D9" s="2">
-        <v>44440</v>
+        <v>44348</v>
       </c>
       <c r="E9" s="1">
         <v>2021</v>
       </c>
-      <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3">
-        <v>44</v>
+      <c r="J9" s="4">
+        <v>31</v>
       </c>
       <c r="K9" s="3">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="P9" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44733</v>
       </c>
       <c r="D10" s="2">
-        <v>44501</v>
+        <v>44348</v>
       </c>
       <c r="E10" s="1">
         <v>2021</v>
       </c>
       <c r="F10" s="3">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44363</v>
       </c>
       <c r="D11" s="2">
-        <v>44531</v>
+        <v>44348</v>
       </c>
       <c r="E11" s="1">
         <v>2021</v>
       </c>
       <c r="F11" s="3">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3">
         <v>46</v>
       </c>
-      <c r="G11" s="3">
+      <c r="J11" s="4">
         <v>26</v>
       </c>
-      <c r="H11" s="3">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3">
-        <v>48</v>
-      </c>
       <c r="K11" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3">
+        <v>44</v>
+      </c>
+      <c r="M11" s="3">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3">
+        <v>35</v>
+      </c>
+      <c r="O11" s="3">
+        <v>52</v>
+      </c>
+      <c r="P11" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44384</v>
       </c>
       <c r="D12" s="2">
-        <v>44531</v>
+        <v>44378</v>
       </c>
       <c r="E12" s="1">
         <v>2021</v>
       </c>
-      <c r="F12" s="3">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="J12" s="4">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3">
+        <v>29</v>
+      </c>
+      <c r="P12" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>32</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44406</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="3">
         <v>37</v>
-      </c>
-      <c r="H12" s="3">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3">
-        <v>39</v>
-      </c>
-      <c r="J12" s="3">
-        <v>47</v>
-      </c>
-      <c r="K12" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44562</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F13" s="3">
-        <v>46</v>
       </c>
       <c r="G13" s="3">
         <v>27</v>
       </c>
       <c r="H13" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I13" s="3">
         <v>43</v>
       </c>
-      <c r="J13" s="3">
-        <v>44</v>
+      <c r="J13" s="4">
+        <v>26</v>
       </c>
       <c r="K13" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3">
+        <v>48</v>
+      </c>
+      <c r="M13" s="3">
+        <v>34</v>
+      </c>
+      <c r="N13" s="3">
+        <v>34</v>
+      </c>
+      <c r="O13" s="3">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>38</v>
+      </c>
+      <c r="R13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44412</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="3">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
         <v>26</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44562</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3">
-        <v>37</v>
       </c>
       <c r="H14" s="3">
         <v>21</v>
       </c>
       <c r="I14" s="3">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3">
+        <v>57</v>
+      </c>
+      <c r="M14" s="3">
         <v>33</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
+        <v>23</v>
+      </c>
+      <c r="O14" s="3">
+        <v>60</v>
+      </c>
+      <c r="P14" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44825</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44440</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="3">
         <v>44</v>
       </c>
-      <c r="K14" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44562</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F15" s="3">
-        <v>50</v>
-      </c>
       <c r="G15" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
         <v>19</v>
       </c>
       <c r="I15" s="3">
+        <v>28</v>
+      </c>
+      <c r="J15" s="3">
         <v>38</v>
       </c>
-      <c r="J15" s="3">
-        <v>45</v>
-      </c>
       <c r="K15" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44454</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44440</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3">
+        <v>44</v>
+      </c>
+      <c r="K16" s="3">
+        <v>26</v>
+      </c>
+      <c r="L16" s="3">
+        <v>61</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44</v>
+      </c>
+      <c r="N16" s="3">
+        <v>27</v>
+      </c>
+      <c r="O16" s="3">
+        <v>43</v>
+      </c>
+      <c r="P16" s="4">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>30</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44440</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44440</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J17" s="4">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3">
         <v>28</v>
       </c>
-      <c r="D16" s="2">
-        <v>44593</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="P17" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44468</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44440</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="4">
+        <v>40</v>
+      </c>
+      <c r="K18" s="3">
+        <v>30</v>
+      </c>
+      <c r="P18" s="4">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>33</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44496</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="4">
+        <v>35</v>
+      </c>
+      <c r="K19" s="3">
+        <v>28</v>
+      </c>
+      <c r="P19" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3">
+        <v>30</v>
+      </c>
+      <c r="J20" s="3">
+        <v>48</v>
+      </c>
+      <c r="K20" s="3">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+      <c r="P20" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44527</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J21" s="4">
+        <v>34</v>
+      </c>
+      <c r="K21" s="3">
+        <v>29</v>
+      </c>
+      <c r="P21" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="4">
         <v>31</v>
       </c>
-      <c r="H16" s="3">
-        <v>24</v>
-      </c>
-      <c r="I16" s="3">
-        <v>41</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="R21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44551</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F22" s="3">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3">
+        <v>29</v>
+      </c>
+      <c r="I22" s="3">
+        <v>43</v>
+      </c>
+      <c r="J22" s="4">
         <v>40</v>
       </c>
-      <c r="K16" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44593</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K22" s="3">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3">
+        <v>59</v>
+      </c>
+      <c r="M22" s="3">
+        <v>37</v>
+      </c>
+      <c r="N22" s="3">
+        <v>32</v>
+      </c>
+      <c r="O22" s="3">
+        <v>47</v>
+      </c>
+      <c r="P22" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44542</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="3">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3">
+        <v>31</v>
+      </c>
+      <c r="J23" s="3">
+        <v>48</v>
+      </c>
+      <c r="K23" s="3">
+        <v>21</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="R23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F24" s="3">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3">
+        <v>37</v>
+      </c>
+      <c r="H24" s="3">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
         <v>39</v>
       </c>
-      <c r="J17" s="3">
-        <v>43</v>
-      </c>
-      <c r="K17" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44593</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3">
-        <v>29</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J24" s="3">
+        <v>47</v>
+      </c>
+      <c r="K24" s="3">
         <v>22</v>
       </c>
-      <c r="I18" s="3">
-        <v>40</v>
-      </c>
-      <c r="J18" s="3">
-        <v>43</v>
-      </c>
-      <c r="K18" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="L24"/>
+      <c r="P24" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="4">
         <v>31</v>
       </c>
-      <c r="D19" s="2">
-        <v>44593</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F19" s="3">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3">
-        <v>34</v>
-      </c>
-      <c r="H19" s="3">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3">
-        <v>35</v>
-      </c>
-      <c r="J19" s="3">
-        <v>45</v>
-      </c>
-      <c r="K19" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44621</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F20" s="3">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3">
-        <v>29</v>
-      </c>
-      <c r="H20" s="3">
-        <v>26</v>
-      </c>
-      <c r="I20" s="3">
-        <v>44</v>
-      </c>
-      <c r="J20" s="4">
-        <v>39</v>
-      </c>
-      <c r="K20" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44621</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F21" s="3">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3">
-        <v>34</v>
-      </c>
-      <c r="H21" s="3">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3">
-        <v>37</v>
-      </c>
-      <c r="J21" s="3">
-        <v>43</v>
-      </c>
-      <c r="K21" s="3">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2">
-        <v>44621</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F22" s="3">
-        <v>42</v>
-      </c>
-      <c r="G22" s="3">
-        <v>33</v>
-      </c>
-      <c r="H22" s="3">
-        <v>28</v>
-      </c>
-      <c r="I22" s="3">
-        <v>37</v>
-      </c>
-      <c r="J22" s="3">
-        <v>43</v>
-      </c>
-      <c r="K22" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44621</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44</v>
-      </c>
-      <c r="G23" s="3">
-        <v>39</v>
-      </c>
-      <c r="H23" s="3">
-        <v>25</v>
-      </c>
-      <c r="I23" s="3">
-        <v>34</v>
-      </c>
-      <c r="J23" s="3">
-        <v>44</v>
-      </c>
-      <c r="K23" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2">
-        <v>44621</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F24" s="3">
-        <v>47</v>
-      </c>
-      <c r="G24" s="3">
-        <v>38</v>
-      </c>
-      <c r="H24" s="3">
-        <v>25</v>
-      </c>
-      <c r="I24" s="3">
-        <v>37</v>
-      </c>
-      <c r="J24" s="3">
-        <v>43</v>
-      </c>
-      <c r="K24" s="3">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44579</v>
       </c>
       <c r="D25" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="E25" s="1">
         <v>2022</v>
       </c>
       <c r="F25" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H25" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I25" s="3">
-        <v>46</v>
-      </c>
-      <c r="J25" s="3">
         <v>40</v>
       </c>
+      <c r="J25" s="4">
+        <v>42</v>
+      </c>
       <c r="K25" s="3">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3">
+        <v>56</v>
+      </c>
+      <c r="M25" s="3">
+        <v>47</v>
+      </c>
+      <c r="N25" s="3">
+        <v>25</v>
+      </c>
+      <c r="O25" s="3">
+        <v>47</v>
+      </c>
+      <c r="P25" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="E26" s="1">
         <v>2022</v>
       </c>
       <c r="F26" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H26" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J26" s="3">
         <v>44</v>
       </c>
       <c r="K26" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="P26" s="3">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2">
-        <v>44652</v>
+        <v>44562</v>
       </c>
       <c r="E27" s="1">
         <v>2022</v>
       </c>
       <c r="F27" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I27" s="3">
-        <v>43</v>
-      </c>
-      <c r="J27" s="4">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="J27" s="3">
+        <v>44</v>
       </c>
       <c r="K27" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="P27" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2">
-        <v>44652</v>
+        <v>44562</v>
       </c>
       <c r="E28" s="1">
         <v>2022</v>
       </c>
       <c r="F28" s="3">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I28" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J28" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" s="3">
+        <v>23</v>
+      </c>
+      <c r="L28"/>
+      <c r="P28" s="3">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44593</v>
       </c>
       <c r="D29" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="E29" s="1">
         <v>2022</v>
       </c>
       <c r="F29" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29" s="3">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>42</v>
+      </c>
+      <c r="J29" s="4">
+        <v>41</v>
+      </c>
+      <c r="K29" s="3">
         <v>30</v>
       </c>
-      <c r="I29" s="3">
-        <v>45</v>
-      </c>
-      <c r="J29" s="3">
-        <v>45</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>59</v>
+      </c>
+      <c r="M29" s="3">
+        <v>42</v>
+      </c>
+      <c r="N29" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O29" s="3">
+        <v>51</v>
+      </c>
+      <c r="P29" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44607</v>
       </c>
       <c r="D30" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="E30" s="1">
         <v>2022</v>
       </c>
       <c r="F30" s="3">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I30" s="3">
-        <v>38</v>
-      </c>
-      <c r="J30" s="3">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="J30" s="4">
+        <v>40</v>
       </c>
       <c r="K30" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="3">
+        <v>56</v>
+      </c>
+      <c r="M30" s="3">
+        <v>40</v>
+      </c>
+      <c r="N30" s="3">
+        <v>29</v>
+      </c>
+      <c r="O30" s="3">
+        <v>48</v>
+      </c>
+      <c r="P30" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>35</v>
+      </c>
+      <c r="R30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44594</v>
       </c>
       <c r="D31" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="E31" s="1">
         <v>2022</v>
       </c>
       <c r="F31" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="3">
         <v>31</v>
       </c>
       <c r="H31" s="3">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3">
+        <v>41</v>
+      </c>
+      <c r="J31" s="4">
+        <v>40</v>
+      </c>
+      <c r="K31" s="3">
         <v>29</v>
       </c>
-      <c r="I31" s="3">
-        <v>46</v>
-      </c>
-      <c r="J31" s="3">
-        <v>41</v>
-      </c>
-      <c r="K31" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P31" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>35</v>
+      </c>
+      <c r="R31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D32" s="2">
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="E32" s="1">
         <v>2022</v>
       </c>
       <c r="F32" s="3">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3">
+        <v>23</v>
+      </c>
+      <c r="I32" s="3">
+        <v>39</v>
+      </c>
+      <c r="J32" s="3">
         <v>43</v>
       </c>
-      <c r="G32" s="3">
-        <v>32</v>
-      </c>
-      <c r="H32" s="3">
-        <v>30</v>
-      </c>
-      <c r="I32" s="3">
-        <v>47</v>
-      </c>
-      <c r="J32" s="4">
-        <v>40</v>
-      </c>
       <c r="K32" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="P32" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2">
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="E33" s="1">
         <v>2022</v>
       </c>
       <c r="F33" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G33" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H33" s="3">
+        <v>22</v>
+      </c>
+      <c r="I33" s="3">
+        <v>40</v>
+      </c>
+      <c r="J33" s="3">
+        <v>43</v>
+      </c>
+      <c r="K33" s="3">
+        <v>26</v>
+      </c>
+      <c r="P33" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="4">
         <v>32</v>
       </c>
-      <c r="I33" s="3">
-        <v>43</v>
-      </c>
-      <c r="J33" s="3">
-        <v>44</v>
-      </c>
-      <c r="K33" s="3">
-        <v>31</v>
-      </c>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2">
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="E34" s="1">
         <v>2022</v>
       </c>
       <c r="F34" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G34" s="3">
         <v>34</v>
       </c>
       <c r="H34" s="3">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3">
+        <v>35</v>
+      </c>
+      <c r="J34" s="3">
+        <v>45</v>
+      </c>
+      <c r="K34" s="3">
+        <v>23</v>
+      </c>
+      <c r="L34"/>
+      <c r="P34" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="4">
         <v>30</v>
       </c>
-      <c r="I34" s="3">
-        <v>48</v>
-      </c>
-      <c r="J34" s="3">
-        <v>44</v>
-      </c>
-      <c r="K34" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>86</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44621</v>
       </c>
       <c r="D35" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="E35" s="1">
         <v>2022</v>
       </c>
       <c r="F35" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G35" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H35" s="3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I35" s="3">
-        <v>47</v>
-      </c>
-      <c r="J35" s="3">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="J35" s="4">
+        <v>40</v>
       </c>
       <c r="K35" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L35" s="3">
+        <v>57</v>
+      </c>
+      <c r="M35" s="3">
+        <v>30</v>
+      </c>
+      <c r="N35" s="3">
+        <v>31</v>
+      </c>
+      <c r="O35" s="3">
+        <v>53</v>
+      </c>
+      <c r="P35" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44635</v>
       </c>
       <c r="D36" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
       </c>
       <c r="F36" s="3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3">
+        <v>46</v>
+      </c>
+      <c r="J36" s="4">
+        <v>40</v>
+      </c>
+      <c r="K36" s="3">
         <v>30</v>
       </c>
-      <c r="H36" s="3">
-        <v>27</v>
-      </c>
-      <c r="I36" s="3">
-        <v>47</v>
-      </c>
-      <c r="J36" s="3">
-        <v>46</v>
-      </c>
-      <c r="K36" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>8</v>
+      <c r="L36" s="3">
+        <v>56</v>
+      </c>
+      <c r="M36" s="3">
+        <v>34</v>
+      </c>
+      <c r="N36" s="3">
+        <v>28</v>
+      </c>
+      <c r="O36" s="3">
+        <v>50</v>
+      </c>
+      <c r="P36" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44649</v>
       </c>
       <c r="D37" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
       </c>
       <c r="F37" s="3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G37" s="3">
+        <v>31</v>
+      </c>
+      <c r="H37" s="3">
+        <v>29</v>
+      </c>
+      <c r="I37" s="3">
+        <v>43</v>
+      </c>
+      <c r="J37" s="4">
+        <v>41</v>
+      </c>
+      <c r="K37" s="3">
+        <v>32</v>
+      </c>
+      <c r="L37" s="3">
+        <v>52</v>
+      </c>
+      <c r="M37" s="3">
+        <v>43</v>
+      </c>
+      <c r="N37" s="3">
         <v>36</v>
       </c>
-      <c r="H37" s="3">
-        <v>23</v>
-      </c>
-      <c r="I37" s="3">
-        <v>39</v>
-      </c>
-      <c r="J37" s="4">
-        <v>48</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="O37" s="3">
+        <v>49</v>
+      </c>
+      <c r="P37" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>38</v>
+      </c>
+      <c r="R37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="7">
-        <v>44711</v>
+      <c r="C38" s="6">
+        <v>44629</v>
       </c>
       <c r="D38" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
       </c>
       <c r="F38" s="3">
+        <v>43</v>
+      </c>
+      <c r="G38" s="3">
+        <v>29</v>
+      </c>
+      <c r="H38" s="3">
+        <v>26</v>
+      </c>
+      <c r="I38" s="3">
+        <v>44</v>
+      </c>
+      <c r="J38" s="4">
+        <v>39</v>
+      </c>
+      <c r="K38" s="3">
+        <v>31</v>
+      </c>
+      <c r="L38" s="3">
+        <v>50</v>
+      </c>
+      <c r="M38" s="3">
+        <v>34</v>
+      </c>
+      <c r="N38" s="3">
+        <v>32</v>
+      </c>
+      <c r="O38" s="3">
+        <v>51</v>
+      </c>
+      <c r="P38" s="4">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44643</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F39" s="3">
+        <v>48</v>
+      </c>
+      <c r="G39" s="3">
+        <v>34</v>
+      </c>
+      <c r="H39" s="3">
+        <v>23</v>
+      </c>
+      <c r="I39" s="3">
+        <v>37</v>
+      </c>
+      <c r="J39" s="3">
+        <v>43</v>
+      </c>
+      <c r="K39" s="3">
+        <v>26</v>
+      </c>
+      <c r="L39" s="3">
+        <v>61</v>
+      </c>
+      <c r="M39" s="3">
+        <v>43</v>
+      </c>
+      <c r="N39" s="3">
+        <v>30</v>
+      </c>
+      <c r="O39" s="3">
+        <v>46</v>
+      </c>
+      <c r="P39" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>34</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F40" s="3">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3">
+        <v>37</v>
+      </c>
+      <c r="J40" s="3">
+        <v>43</v>
+      </c>
+      <c r="K40" s="3">
+        <v>28</v>
+      </c>
+      <c r="P40" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F41" s="3">
         <v>52</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G41" s="3">
+        <v>34</v>
+      </c>
+      <c r="H41" s="3">
+        <v>23</v>
+      </c>
+      <c r="I41" s="3">
+        <v>38</v>
+      </c>
+      <c r="J41" s="3">
+        <v>44</v>
+      </c>
+      <c r="K41" s="3">
+        <v>26</v>
+      </c>
+      <c r="L41"/>
+      <c r="P41" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44</v>
+      </c>
+      <c r="G42" s="3">
+        <v>39</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25</v>
+      </c>
+      <c r="I42" s="3">
+        <v>34</v>
+      </c>
+      <c r="J42" s="3">
+        <v>44</v>
+      </c>
+      <c r="K42" s="3">
+        <v>26</v>
+      </c>
+      <c r="P42" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44641</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="3">
+        <v>47</v>
+      </c>
+      <c r="G43" s="3">
+        <v>38</v>
+      </c>
+      <c r="H43" s="3">
+        <v>25</v>
+      </c>
+      <c r="I43" s="3">
+        <v>37</v>
+      </c>
+      <c r="J43" s="3">
+        <v>43</v>
+      </c>
+      <c r="K43" s="3">
+        <v>29</v>
+      </c>
+      <c r="P43" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="4">
         <v>35</v>
       </c>
-      <c r="H38" s="3">
+      <c r="R43" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44663</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F44" s="3">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3">
+        <v>29</v>
+      </c>
+      <c r="I44" s="3">
+        <v>53</v>
+      </c>
+      <c r="J44" s="4">
+        <v>40</v>
+      </c>
+      <c r="K44" s="3">
+        <v>35</v>
+      </c>
+      <c r="L44" s="3">
+        <v>54</v>
+      </c>
+      <c r="M44" s="3">
+        <v>23</v>
+      </c>
+      <c r="N44" s="3">
+        <v>32</v>
+      </c>
+      <c r="O44" s="3">
+        <v>55</v>
+      </c>
+      <c r="P44" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>38</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44675</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45</v>
+      </c>
+      <c r="G45" s="3">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3">
+        <v>33</v>
+      </c>
+      <c r="I45" s="3">
+        <v>52</v>
+      </c>
+      <c r="J45" s="4">
+        <v>41</v>
+      </c>
+      <c r="K45" s="3">
+        <v>36</v>
+      </c>
+      <c r="L45" s="3">
+        <v>51</v>
+      </c>
+      <c r="M45" s="3">
+        <v>34</v>
+      </c>
+      <c r="N45" s="3">
+        <v>34</v>
+      </c>
+      <c r="O45" s="3">
+        <v>56</v>
+      </c>
+      <c r="P45" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44664</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="3">
+        <v>43</v>
+      </c>
+      <c r="G46" s="3">
+        <v>31</v>
+      </c>
+      <c r="H46" s="3">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
+        <v>43</v>
+      </c>
+      <c r="J46" s="4">
+        <v>40</v>
+      </c>
+      <c r="K46" s="3">
+        <v>32</v>
+      </c>
+      <c r="L46" s="3">
+        <v>51</v>
+      </c>
+      <c r="M46" s="3">
+        <v>36</v>
+      </c>
+      <c r="N46" s="3">
+        <v>34</v>
+      </c>
+      <c r="O46" s="3">
+        <v>51</v>
+      </c>
+      <c r="P46" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>38</v>
+      </c>
+      <c r="R46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41</v>
+      </c>
+      <c r="G47" s="3">
+        <v>33</v>
+      </c>
+      <c r="H47" s="3">
+        <v>31</v>
+      </c>
+      <c r="I47" s="3">
+        <v>40</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44</v>
+      </c>
+      <c r="K47" s="3">
+        <v>30</v>
+      </c>
+      <c r="P47" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F48" s="3">
+        <v>43</v>
+      </c>
+      <c r="G48" s="3">
+        <v>34</v>
+      </c>
+      <c r="H48" s="3">
+        <v>30</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45</v>
+      </c>
+      <c r="J48" s="3">
+        <v>45</v>
+      </c>
+      <c r="K48" s="3">
+        <v>31</v>
+      </c>
+      <c r="P48" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F49" s="3">
+        <v>51</v>
+      </c>
+      <c r="G49" s="3">
+        <v>34</v>
+      </c>
+      <c r="H49" s="3">
+        <v>28</v>
+      </c>
+      <c r="I49" s="3">
+        <v>38</v>
+      </c>
+      <c r="J49" s="3">
+        <v>45</v>
+      </c>
+      <c r="K49" s="3">
+        <v>31</v>
+      </c>
+      <c r="L49"/>
+      <c r="P49" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44675</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F50" s="3">
+        <v>46</v>
+      </c>
+      <c r="G50" s="3">
+        <v>31</v>
+      </c>
+      <c r="H50" s="3">
+        <v>29</v>
+      </c>
+      <c r="I50" s="3">
+        <v>46</v>
+      </c>
+      <c r="J50" s="3">
+        <v>41</v>
+      </c>
+      <c r="K50" s="3">
+        <v>32</v>
+      </c>
+      <c r="P50" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44691</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F51" s="3">
+        <v>47</v>
+      </c>
+      <c r="G51" s="3">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3">
+        <v>30</v>
+      </c>
+      <c r="I51" s="3">
+        <v>52</v>
+      </c>
+      <c r="J51" s="3">
+        <v>42</v>
+      </c>
+      <c r="K51" s="3">
+        <v>32</v>
+      </c>
+      <c r="L51" s="3">
+        <v>55</v>
+      </c>
+      <c r="M51" s="3">
+        <v>28</v>
+      </c>
+      <c r="N51" s="3">
+        <v>33</v>
+      </c>
+      <c r="O51" s="3">
+        <v>55</v>
+      </c>
+      <c r="P51" s="4">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>38</v>
+      </c>
+      <c r="R51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="6">
+        <v>44691</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43</v>
+      </c>
+      <c r="G52" s="3">
+        <v>29</v>
+      </c>
+      <c r="H52" s="3">
+        <v>29</v>
+      </c>
+      <c r="I52" s="3">
+        <v>46</v>
+      </c>
+      <c r="J52" s="3">
+        <v>40</v>
+      </c>
+      <c r="K52" s="3">
+        <v>32</v>
+      </c>
+      <c r="P52" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="12">
+        <v>44685</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F53" s="3">
+        <v>43</v>
+      </c>
+      <c r="G53" s="3">
+        <v>32</v>
+      </c>
+      <c r="H53" s="3">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3">
+        <v>47</v>
+      </c>
+      <c r="J53" s="4">
+        <v>40</v>
+      </c>
+      <c r="K53" s="3">
+        <v>35</v>
+      </c>
+      <c r="L53" s="3">
+        <v>50</v>
+      </c>
+      <c r="M53" s="3">
+        <v>36</v>
+      </c>
+      <c r="N53" s="3">
+        <v>34</v>
+      </c>
+      <c r="O53" s="3">
+        <v>50</v>
+      </c>
+      <c r="P53" s="4">
+        <v>46</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>38</v>
+      </c>
+      <c r="R53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F54" s="3">
+        <v>42</v>
+      </c>
+      <c r="G54" s="3">
+        <v>35</v>
+      </c>
+      <c r="H54" s="3">
+        <v>32</v>
+      </c>
+      <c r="I54" s="3">
+        <v>43</v>
+      </c>
+      <c r="J54" s="3">
+        <v>44</v>
+      </c>
+      <c r="K54" s="3">
+        <v>31</v>
+      </c>
+      <c r="P54" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>34</v>
+      </c>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="6">
+        <v>44692</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F55" s="3">
+        <v>46</v>
+      </c>
+      <c r="G55" s="3">
+        <v>34</v>
+      </c>
+      <c r="H55" s="3">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3">
+        <v>48</v>
+      </c>
+      <c r="J55" s="3">
+        <v>44</v>
+      </c>
+      <c r="K55" s="3">
+        <v>32</v>
+      </c>
+      <c r="P55" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>35</v>
+      </c>
+      <c r="R55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F56" s="3">
+        <v>41</v>
+      </c>
+      <c r="G56" s="3">
+        <v>32</v>
+      </c>
+      <c r="H56" s="3">
+        <v>33</v>
+      </c>
+      <c r="I56" s="3">
+        <v>47</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44</v>
+      </c>
+      <c r="K56" s="3">
+        <v>32</v>
+      </c>
+      <c r="P56" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F57" s="3">
+        <v>53</v>
+      </c>
+      <c r="G57" s="3">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
         <v>27</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I57" s="3">
+        <v>47</v>
+      </c>
+      <c r="J57" s="3">
         <v>46</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K57" s="3">
+        <v>31</v>
+      </c>
+      <c r="L57"/>
+      <c r="P57" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>34</v>
+      </c>
+      <c r="R57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="6">
+        <v>44707</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F58" s="3">
+        <v>54</v>
+      </c>
+      <c r="G58" s="3">
+        <v>36</v>
+      </c>
+      <c r="H58" s="3">
+        <v>23</v>
+      </c>
+      <c r="I58" s="3">
+        <v>39</v>
+      </c>
+      <c r="J58" s="4">
+        <v>48</v>
+      </c>
+      <c r="K58" s="3">
+        <v>27</v>
+      </c>
+      <c r="L58" s="3">
+        <v>65</v>
+      </c>
+      <c r="O58" s="3">
+        <v>47</v>
+      </c>
+      <c r="P58" s="10">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>33</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44711</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F59" s="3">
+        <v>52</v>
+      </c>
+      <c r="G59" s="3">
+        <v>35</v>
+      </c>
+      <c r="H59" s="3">
+        <v>27</v>
+      </c>
+      <c r="I59" s="3">
         <v>46</v>
       </c>
-      <c r="K38" s="3">
+      <c r="J59" s="4">
+        <v>46</v>
+      </c>
+      <c r="K59" s="3">
         <v>32</v>
       </c>
-      <c r="L38" t="s">
-        <v>59</v>
+      <c r="P59" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>35</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="6">
+        <v>44706</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F60" s="3">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3">
+        <v>35</v>
+      </c>
+      <c r="H60" s="3">
+        <v>34</v>
+      </c>
+      <c r="I60" s="3">
+        <v>48</v>
+      </c>
+      <c r="J60" s="4">
+        <v>45</v>
+      </c>
+      <c r="K60" s="3">
+        <v>34</v>
+      </c>
+      <c r="P60" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>35</v>
+      </c>
+      <c r="R60" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R12" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>
+    <hyperlink ref="R59" r:id="rId2" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
+    <hyperlink ref="R18" r:id="rId3" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
+    <hyperlink ref="R44" r:id="rId4" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
+    <hyperlink ref="R39" r:id="rId5" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
+    <hyperlink ref="R16" r:id="rId6" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
+    <hyperlink ref="R8" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
+    <hyperlink ref="R43" r:id="rId8" xr:uid="{5C90E5D4-637F-4084-AE8F-46C7BDB988B7}"/>
+    <hyperlink ref="R58" r:id="rId9" xr:uid="{BE726553-2778-47CA-B050-292603BDC552}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B7AF5-9C92-4EBE-AF99-B8A6F57C4E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB80EA-351D-4F5A-9FBB-9ED26BEE8716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$R$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$U$63</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -344,9 +344,6 @@
     <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www1.folha.uol.com.br/poder/2022/05/datafolha-lula-abre-21-pontos-sobre-bolsonaro-no-1o-turno.shtml </t>
-  </si>
-  <si>
     <t>https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf</t>
   </si>
   <si>
-    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf</t>
-  </si>
-  <si>
     <t>https://ipespe.org.br/wp-content/uploads/2022/05/2022_05_02-PESQUISA-IPESPE_compressed.pdf</t>
   </si>
   <si>
@@ -408,6 +402,99 @@
   </si>
   <si>
     <t>mai/22_poderdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf </t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/04/06195508/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-abril.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/02/08214004/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-fevereiro.pdf </t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/12/07170347/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-dezembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/11/09182146/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-novembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>out/21_quaest</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/10/05173635/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-2021.pdf</t>
+  </si>
+  <si>
+    <t>set/21_quaest</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/09/01144504/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>jul/21_quaest</t>
+  </si>
+  <si>
+    <t>https://f.hubspotusercontent30.net/hubfs/4891137/GENIAL+QUAEST+JULHO21.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-3a-SEMANA.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/RELATORIO-PESQUISA-IPESPE-MAIO-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_02-PESQUISA-IPESPE_2_QUINZENA.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_01-PESQUISA-IPESPE_compressed.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-MAR-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-2.pdf </t>
+  </si>
+  <si>
+    <t>jun/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/06/Midia_BR.pdf</t>
+  </si>
+  <si>
+    <t>entrevistados</t>
+  </si>
+  <si>
+    <t>registro_tse</t>
+  </si>
+  <si>
+    <t>BR-09584/202</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/05/30/Intencao_de_voto_presidente_maio_22.pdf</t>
+  </si>
+  <si>
+    <t>BR-05166/2022</t>
+  </si>
+  <si>
+    <t>margem_erro</t>
   </si>
 </sst>
 </file>
@@ -818,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +923,10 @@
     <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
     <col min="11" max="15" width="9.140625" style="3"/>
-    <col min="16" max="17" width="9.140625" style="4"/>
+    <col min="16" max="20" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,11 +978,20 @@
       <c r="Q1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -929,11 +1025,11 @@
       <c r="K2" s="3">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -961,11 +1057,11 @@
       <c r="Q3" s="4">
         <v>36</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -994,15 +1090,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6">
-        <v>44328</v>
+        <v>44323</v>
       </c>
       <c r="D5" s="2">
         <v>44317</v>
@@ -1010,31 +1106,55 @@
       <c r="E5" s="1">
         <v>2021</v>
       </c>
+      <c r="F5" s="3">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44</v>
+      </c>
       <c r="J5" s="4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3">
+        <v>54</v>
       </c>
       <c r="P5" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4">
-        <v>35</v>
-      </c>
-      <c r="R5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>118</v>
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6">
-        <v>44332</v>
+        <v>44328</v>
       </c>
       <c r="D6" s="2">
         <v>44317</v>
@@ -1042,43 +1162,31 @@
       <c r="E6" s="1">
         <v>2021</v>
       </c>
-      <c r="F6" s="3">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3">
-        <v>36</v>
-      </c>
       <c r="J6" s="4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P6" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="4">
-        <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="D7" s="2">
         <v>44317</v>
@@ -1087,54 +1195,54 @@
         <v>2021</v>
       </c>
       <c r="F7" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3">
         <v>23</v>
       </c>
-      <c r="H7" s="3">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44</v>
-      </c>
-      <c r="J7" s="4">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3">
-        <v>26</v>
-      </c>
       <c r="L7" s="3">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M7" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N7" s="3">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O7" s="3">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P7" s="4">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="4">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="C8" s="6">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D8" s="2">
         <v>44317</v>
@@ -1143,46 +1251,34 @@
         <v>2021</v>
       </c>
       <c r="F8" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>34</v>
-      </c>
-      <c r="J8" s="3">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43</v>
       </c>
       <c r="K8" s="3">
-        <v>23</v>
-      </c>
-      <c r="L8" s="3">
-        <v>61</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3">
-        <v>27</v>
-      </c>
-      <c r="O8" s="3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P8" s="4">
         <v>55</v>
       </c>
       <c r="Q8" s="4">
-        <v>32</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1210,19 +1306,19 @@
       <c r="Q9" s="4">
         <v>37</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
-        <v>44733</v>
+        <v>44363</v>
       </c>
       <c r="D10" s="2">
         <v>44348</v>
@@ -1231,33 +1327,54 @@
         <v>2021</v>
       </c>
       <c r="F10" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I10" s="3">
-        <v>28</v>
-      </c>
-      <c r="J10" s="3">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="J10" s="4">
+        <v>26</v>
       </c>
       <c r="K10" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3">
+        <v>44</v>
+      </c>
+      <c r="M10" s="3">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3">
+        <v>35</v>
+      </c>
+      <c r="O10" s="3">
+        <v>52</v>
+      </c>
+      <c r="P10" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D11" s="2">
         <v>44348</v>
@@ -1266,57 +1383,36 @@
         <v>2021</v>
       </c>
       <c r="F11" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3">
-        <v>46</v>
-      </c>
-      <c r="J11" s="4">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J11" s="3">
+        <v>49</v>
       </c>
       <c r="K11" s="3">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3">
-        <v>44</v>
-      </c>
-      <c r="M11" s="3">
-        <v>30</v>
-      </c>
-      <c r="N11" s="3">
-        <v>35</v>
-      </c>
-      <c r="O11" s="3">
-        <v>52</v>
-      </c>
-      <c r="P11" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>40</v>
-      </c>
-      <c r="R11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C12" s="6">
-        <v>44384</v>
+        <v>44381</v>
       </c>
       <c r="D12" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="E12" s="1">
         <v>2021</v>
@@ -1325,27 +1421,27 @@
         <v>43</v>
       </c>
       <c r="K12" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="4">
-        <v>32</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6">
-        <v>44406</v>
+        <v>44384</v>
       </c>
       <c r="D13" s="2">
         <v>44378</v>
@@ -1353,194 +1449,167 @@
       <c r="E13" s="1">
         <v>2021</v>
       </c>
-      <c r="F13" s="3">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="4">
         <v>43</v>
       </c>
-      <c r="J13" s="4">
-        <v>26</v>
-      </c>
       <c r="K13" s="3">
-        <v>27</v>
-      </c>
-      <c r="L13" s="3">
-        <v>48</v>
-      </c>
-      <c r="M13" s="3">
-        <v>34</v>
-      </c>
-      <c r="N13" s="3">
-        <v>34</v>
-      </c>
-      <c r="O13" s="3">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="P13" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>32</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="4">
-        <v>38</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
-        <v>44412</v>
+        <v>44406</v>
       </c>
       <c r="D14" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="E14" s="1">
         <v>2021</v>
       </c>
       <c r="F14" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43</v>
+      </c>
+      <c r="J14" s="4">
         <v>26</v>
       </c>
-      <c r="H14" s="3">
-        <v>21</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4">
-        <v>39</v>
-      </c>
       <c r="K14" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L14" s="3">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M14" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O14" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P14" s="4">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="4">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6">
-        <v>44825</v>
+        <v>44412</v>
       </c>
       <c r="D15" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="E15" s="1">
         <v>2021</v>
       </c>
       <c r="F15" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" s="3">
-        <v>28</v>
-      </c>
-      <c r="J15" s="3">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="J15" s="4">
+        <v>39</v>
       </c>
       <c r="K15" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3">
+        <v>57</v>
+      </c>
+      <c r="M15" s="3">
+        <v>33</v>
+      </c>
+      <c r="N15" s="3">
+        <v>23</v>
+      </c>
+      <c r="O15" s="3">
+        <v>60</v>
+      </c>
+      <c r="P15" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="11">
-        <v>44454</v>
+        <v>131</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44437</v>
       </c>
       <c r="D16" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="E16" s="1">
         <v>2021</v>
       </c>
-      <c r="F16" s="3">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3">
-        <v>30</v>
-      </c>
       <c r="J16" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="3">
         <v>26</v>
       </c>
-      <c r="L16" s="3">
-        <v>61</v>
-      </c>
-      <c r="M16" s="3">
-        <v>44</v>
-      </c>
-      <c r="N16" s="3">
-        <v>27</v>
-      </c>
-      <c r="O16" s="3">
-        <v>43</v>
-      </c>
       <c r="P16" s="4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="4">
         <v>30</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1568,19 +1637,19 @@
       <c r="Q17" s="4">
         <v>30</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="6">
-        <v>44468</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44454</v>
       </c>
       <c r="D18" s="2">
         <v>44440</v>
@@ -1588,208 +1657,204 @@
       <c r="E18" s="1">
         <v>2021</v>
       </c>
-      <c r="J18" s="4">
-        <v>40</v>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3">
+        <v>44</v>
       </c>
       <c r="K18" s="3">
+        <v>26</v>
+      </c>
+      <c r="L18" s="3">
+        <v>61</v>
+      </c>
+      <c r="M18" s="3">
+        <v>44</v>
+      </c>
+      <c r="N18" s="3">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3">
+        <v>43</v>
+      </c>
+      <c r="P18" s="4">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="4">
         <v>30</v>
       </c>
-      <c r="P18" s="4">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>33</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U18" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6">
-        <v>44496</v>
+        <v>44460</v>
       </c>
       <c r="D19" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="E19" s="1">
         <v>2021</v>
       </c>
-      <c r="J19" s="4">
-        <v>35</v>
+      <c r="F19" s="3">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3">
+        <v>28</v>
+      </c>
+      <c r="J19" s="3">
+        <v>38</v>
       </c>
       <c r="K19" s="3">
-        <v>28</v>
-      </c>
-      <c r="P19" s="4">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44468</v>
       </c>
       <c r="D20" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="E20" s="1">
         <v>2021</v>
       </c>
-      <c r="F20" s="3">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3">
-        <v>39</v>
-      </c>
-      <c r="H20" s="3">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="4">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3">
         <v>30</v>
       </c>
-      <c r="J20" s="3">
-        <v>48</v>
-      </c>
-      <c r="K20" s="3">
-        <v>21</v>
-      </c>
-      <c r="L20"/>
-      <c r="P20" s="3">
-        <v>57</v>
+      <c r="P20" s="4">
+        <v>56</v>
       </c>
       <c r="Q20" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C21" s="6">
-        <v>44527</v>
+        <v>44472</v>
       </c>
       <c r="D21" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="E21" s="1">
         <v>2021</v>
       </c>
       <c r="J21" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K21" s="3">
+        <v>26</v>
+      </c>
+      <c r="P21" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="4">
         <v>29</v>
       </c>
-      <c r="P21" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>31</v>
-      </c>
-      <c r="R21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U21" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="6">
-        <v>44551</v>
+        <v>44496</v>
       </c>
       <c r="D22" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="E22" s="1">
         <v>2021</v>
       </c>
-      <c r="F22" s="3">
-        <v>46</v>
-      </c>
-      <c r="G22" s="3">
-        <v>26</v>
-      </c>
-      <c r="H22" s="3">
-        <v>29</v>
-      </c>
-      <c r="I22" s="3">
-        <v>43</v>
-      </c>
       <c r="J22" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3">
-        <v>30</v>
-      </c>
-      <c r="L22" s="3">
-        <v>59</v>
-      </c>
-      <c r="M22" s="3">
+        <v>28</v>
+      </c>
+      <c r="P22" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="4">
         <v>37</v>
       </c>
-      <c r="N22" s="3">
-        <v>32</v>
-      </c>
-      <c r="O22" s="3">
-        <v>47</v>
-      </c>
-      <c r="P22" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>34</v>
-      </c>
-      <c r="R22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="6">
-        <v>44542</v>
+        <v>44506</v>
       </c>
       <c r="D23" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="E23" s="1">
         <v>2021</v>
       </c>
       <c r="F23" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I23" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>48</v>
@@ -1797,189 +1862,199 @@
       <c r="K23" s="3">
         <v>21</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="R23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L23"/>
+      <c r="P23" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44527</v>
       </c>
       <c r="D24" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="E24" s="1">
         <v>2021</v>
       </c>
-      <c r="F24" s="3">
-        <v>51</v>
-      </c>
-      <c r="G24" s="3">
-        <v>37</v>
-      </c>
-      <c r="H24" s="3">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3">
-        <v>39</v>
-      </c>
-      <c r="J24" s="3">
-        <v>47</v>
+      <c r="J24" s="4">
+        <v>34</v>
       </c>
       <c r="K24" s="3">
-        <v>22</v>
-      </c>
-      <c r="L24"/>
-      <c r="P24" s="3">
+        <v>29</v>
+      </c>
+      <c r="P24" s="4">
         <v>54</v>
       </c>
       <c r="Q24" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6">
-        <v>44579</v>
+        <v>44535</v>
       </c>
       <c r="D25" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="E25" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F25" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G25" s="3">
+        <v>37</v>
+      </c>
+      <c r="H25" s="3">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3">
         <v>39</v>
       </c>
-      <c r="H25" s="3">
-        <v>21</v>
-      </c>
-      <c r="I25" s="3">
-        <v>40</v>
-      </c>
-      <c r="J25" s="4">
-        <v>42</v>
+      <c r="J25" s="3">
+        <v>47</v>
       </c>
       <c r="K25" s="3">
-        <v>28</v>
-      </c>
-      <c r="L25" s="3">
-        <v>56</v>
-      </c>
-      <c r="M25" s="3">
-        <v>47</v>
-      </c>
-      <c r="N25" s="3">
-        <v>25</v>
-      </c>
-      <c r="O25" s="3">
-        <v>47</v>
-      </c>
-      <c r="P25" s="4">
+        <v>22</v>
+      </c>
+      <c r="L25"/>
+      <c r="P25" s="3">
         <v>54</v>
       </c>
       <c r="Q25" s="4">
-        <v>32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44542</v>
       </c>
       <c r="D26" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="E26" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F26" s="3">
         <v>46</v>
       </c>
       <c r="G26" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="3">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3">
+        <v>21</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="U26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44551</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="3">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3">
+        <v>29</v>
+      </c>
+      <c r="I27" s="3">
         <v>43</v>
       </c>
-      <c r="J26" s="3">
-        <v>44</v>
-      </c>
-      <c r="K26" s="3">
-        <v>24</v>
-      </c>
-      <c r="P26" s="3">
-        <v>56</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="2">
-        <v>44562</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="J27" s="4">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3">
+        <v>30</v>
+      </c>
+      <c r="L27" s="3">
+        <v>59</v>
+      </c>
+      <c r="M27" s="3">
         <v>37</v>
       </c>
-      <c r="H27" s="3">
-        <v>21</v>
-      </c>
-      <c r="I27" s="3">
-        <v>33</v>
-      </c>
-      <c r="J27" s="3">
-        <v>44</v>
-      </c>
-      <c r="K27" s="3">
-        <v>24</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="N27" s="3">
+        <v>32</v>
+      </c>
+      <c r="O27" s="3">
+        <v>47</v>
+      </c>
+      <c r="P27" s="4">
         <v>54</v>
       </c>
       <c r="Q27" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C28" s="6">
+        <v>44570</v>
+      </c>
       <c r="D28" s="2">
         <v>44562</v>
       </c>
@@ -2006,136 +2081,127 @@
       </c>
       <c r="L28"/>
       <c r="P28" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C29" s="6">
-        <v>44593</v>
+        <v>44573</v>
       </c>
       <c r="D29" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="E29" s="1">
         <v>2022</v>
       </c>
       <c r="F29" s="3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G29" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H29" s="3">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43</v>
+      </c>
+      <c r="J29" s="3">
+        <v>44</v>
+      </c>
+      <c r="K29" s="3">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>42</v>
-      </c>
-      <c r="J29" s="4">
-        <v>41</v>
-      </c>
-      <c r="K29" s="3">
-        <v>30</v>
-      </c>
-      <c r="L29" s="3">
-        <v>59</v>
-      </c>
-      <c r="M29" s="3">
-        <v>42</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="4">
         <v>31</v>
       </c>
-      <c r="O29" s="3">
-        <v>51</v>
-      </c>
-      <c r="P29" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>37</v>
-      </c>
-      <c r="R29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6">
-        <v>44607</v>
+        <v>44579</v>
       </c>
       <c r="D30" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="E30" s="1">
         <v>2022</v>
       </c>
       <c r="F30" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H30" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I30" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J30" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K30" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L30" s="3">
         <v>56</v>
       </c>
       <c r="M30" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N30" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O30" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="4">
-        <v>35</v>
-      </c>
-      <c r="R30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="U30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="6">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="D31" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="E31" s="1">
         <v>2022</v>
@@ -2144,36 +2210,39 @@
         <v>44</v>
       </c>
       <c r="G31" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H31" s="3">
+        <v>21</v>
+      </c>
+      <c r="I31" s="3">
+        <v>33</v>
+      </c>
+      <c r="J31" s="3">
+        <v>44</v>
+      </c>
+      <c r="K31" s="3">
         <v>24</v>
-      </c>
-      <c r="I31" s="3">
-        <v>41</v>
-      </c>
-      <c r="J31" s="4">
-        <v>40</v>
-      </c>
-      <c r="K31" s="3">
-        <v>29</v>
       </c>
       <c r="P31" s="3">
         <v>54</v>
       </c>
       <c r="Q31" s="4">
-        <v>35</v>
-      </c>
-      <c r="R31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44593</v>
       </c>
       <c r="D32" s="2">
         <v>44593</v>
@@ -2182,36 +2251,54 @@
         <v>2022</v>
       </c>
       <c r="F32" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" s="3">
-        <v>39</v>
-      </c>
-      <c r="J32" s="3">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="J32" s="4">
+        <v>41</v>
       </c>
       <c r="K32" s="3">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="L32" s="3">
+        <v>59</v>
+      </c>
+      <c r="M32" s="3">
+        <v>42</v>
+      </c>
+      <c r="N32" s="3">
+        <v>31</v>
+      </c>
+      <c r="O32" s="3">
+        <v>51</v>
       </c>
       <c r="P32" s="4">
         <v>54</v>
       </c>
       <c r="Q32" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44594</v>
       </c>
       <c r="D33" s="2">
         <v>44593</v>
@@ -2220,36 +2307,42 @@
         <v>2022</v>
       </c>
       <c r="F33" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" s="3">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3">
+        <v>24</v>
+      </c>
+      <c r="I33" s="3">
+        <v>41</v>
+      </c>
+      <c r="J33" s="4">
+        <v>40</v>
+      </c>
+      <c r="K33" s="3">
         <v>29</v>
       </c>
-      <c r="H33" s="3">
-        <v>22</v>
-      </c>
-      <c r="I33" s="3">
-        <v>40</v>
-      </c>
-      <c r="J33" s="3">
-        <v>43</v>
-      </c>
-      <c r="K33" s="3">
-        <v>26</v>
-      </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>54</v>
       </c>
       <c r="Q33" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="U33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44598</v>
       </c>
       <c r="D34" s="2">
         <v>44593</v>
@@ -2282,184 +2375,163 @@
       <c r="Q34" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U34" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C35" s="6">
-        <v>44621</v>
+        <v>44601</v>
       </c>
       <c r="D35" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="E35" s="1">
         <v>2022</v>
       </c>
       <c r="F35" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H35" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I35" s="3">
-        <v>48</v>
-      </c>
-      <c r="J35" s="4">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="J35" s="3">
+        <v>43</v>
       </c>
       <c r="K35" s="3">
-        <v>32</v>
-      </c>
-      <c r="L35" s="3">
-        <v>57</v>
-      </c>
-      <c r="M35" s="3">
-        <v>30</v>
-      </c>
-      <c r="N35" s="3">
+        <v>25</v>
+      </c>
+      <c r="P35" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q35" s="4">
         <v>31</v>
       </c>
-      <c r="O35" s="3">
-        <v>53</v>
-      </c>
-      <c r="P35" s="4">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>37</v>
-      </c>
-      <c r="R35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U35" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6">
-        <v>44635</v>
+        <v>44607</v>
       </c>
       <c r="D36" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="E36" s="1">
         <v>2022</v>
       </c>
       <c r="F36" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H36" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36" s="4">
         <v>40</v>
       </c>
       <c r="K36" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L36" s="3">
         <v>56</v>
       </c>
       <c r="M36" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N36" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O36" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P36" s="4">
         <v>50</v>
       </c>
       <c r="Q36" s="4">
-        <v>36</v>
-      </c>
-      <c r="R36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C37" s="6">
-        <v>44649</v>
+        <v>44615</v>
       </c>
       <c r="D37" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="E37" s="1">
         <v>2022</v>
       </c>
       <c r="F37" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37" s="3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I37" s="3">
+        <v>40</v>
+      </c>
+      <c r="J37" s="3">
         <v>43</v>
       </c>
-      <c r="J37" s="4">
-        <v>41</v>
-      </c>
       <c r="K37" s="3">
+        <v>26</v>
+      </c>
+      <c r="P37" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q37" s="4">
         <v>32</v>
       </c>
-      <c r="L37" s="3">
-        <v>52</v>
-      </c>
-      <c r="M37" s="3">
-        <v>43</v>
-      </c>
-      <c r="N37" s="3">
-        <v>36</v>
-      </c>
-      <c r="O37" s="3">
+      <c r="U37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>38</v>
-      </c>
-      <c r="R37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="D38" s="2">
         <v>44621</v>
@@ -2468,54 +2540,54 @@
         <v>2022</v>
       </c>
       <c r="F38" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="3">
         <v>26</v>
       </c>
       <c r="I38" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J38" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" s="3">
+        <v>32</v>
+      </c>
+      <c r="L38" s="3">
+        <v>57</v>
+      </c>
+      <c r="M38" s="3">
+        <v>30</v>
+      </c>
+      <c r="N38" s="3">
         <v>31</v>
       </c>
-      <c r="L38" s="3">
-        <v>50</v>
-      </c>
-      <c r="M38" s="3">
-        <v>34</v>
-      </c>
-      <c r="N38" s="3">
-        <v>32</v>
-      </c>
       <c r="O38" s="3">
+        <v>53</v>
+      </c>
+      <c r="P38" s="4">
         <v>51</v>
-      </c>
-      <c r="P38" s="4">
-        <v>46</v>
       </c>
       <c r="Q38" s="4">
         <v>37</v>
       </c>
-      <c r="R38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="6">
-        <v>44643</v>
+        <v>44629</v>
       </c>
       <c r="D39" s="2">
         <v>44621</v>
@@ -2524,52 +2596,55 @@
         <v>2022</v>
       </c>
       <c r="F39" s="3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3">
+        <v>29</v>
+      </c>
+      <c r="H39" s="3">
+        <v>26</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44</v>
+      </c>
+      <c r="J39" s="4">
+        <v>39</v>
+      </c>
+      <c r="K39" s="3">
+        <v>31</v>
+      </c>
+      <c r="L39" s="3">
+        <v>50</v>
+      </c>
+      <c r="M39" s="3">
         <v>34</v>
       </c>
-      <c r="H39" s="3">
-        <v>23</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="N39" s="3">
+        <v>32</v>
+      </c>
+      <c r="O39" s="3">
+        <v>51</v>
+      </c>
+      <c r="P39" s="4">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="4">
         <v>37</v>
       </c>
-      <c r="J39" s="3">
-        <v>43</v>
-      </c>
-      <c r="K39" s="3">
-        <v>26</v>
-      </c>
-      <c r="L39" s="3">
-        <v>61</v>
-      </c>
-      <c r="M39" s="3">
-        <v>43</v>
-      </c>
-      <c r="N39" s="3">
-        <v>30</v>
-      </c>
-      <c r="O39" s="3">
-        <v>46</v>
-      </c>
-      <c r="P39" s="4">
-        <v>55</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>34</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C40" s="6">
+        <v>44629</v>
+      </c>
       <c r="D40" s="2">
         <v>44621</v>
       </c>
@@ -2600,13 +2675,19 @@
       <c r="Q40" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44633</v>
       </c>
       <c r="D41" s="2">
         <v>44621</v>
@@ -2639,13 +2720,19 @@
       <c r="Q41" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44635</v>
       </c>
       <c r="D42" s="2">
         <v>44621</v>
@@ -2654,31 +2741,46 @@
         <v>2022</v>
       </c>
       <c r="F42" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G42" s="3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H42" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I42" s="3">
+        <v>46</v>
+      </c>
+      <c r="J42" s="4">
+        <v>40</v>
+      </c>
+      <c r="K42" s="3">
+        <v>30</v>
+      </c>
+      <c r="L42" s="3">
+        <v>56</v>
+      </c>
+      <c r="M42" s="3">
         <v>34</v>
       </c>
-      <c r="J42" s="3">
-        <v>44</v>
-      </c>
-      <c r="K42" s="3">
-        <v>26</v>
+      <c r="N42" s="3">
+        <v>28</v>
+      </c>
+      <c r="O42" s="3">
+        <v>50</v>
       </c>
       <c r="P42" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2718,184 +2820,175 @@
       <c r="Q43" s="4">
         <v>35</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="U43" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C44" s="6">
-        <v>44663</v>
+        <v>44643</v>
       </c>
       <c r="D44" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E44" s="1">
         <v>2022</v>
       </c>
       <c r="F44" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H44" s="3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I44" s="3">
-        <v>53</v>
-      </c>
-      <c r="J44" s="4">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="J44" s="3">
+        <v>43</v>
       </c>
       <c r="K44" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L44" s="3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M44" s="3">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N44" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O44" s="3">
+        <v>46</v>
+      </c>
+      <c r="P44" s="4">
         <v>55</v>
       </c>
-      <c r="P44" s="4">
-        <v>47</v>
-      </c>
       <c r="Q44" s="4">
-        <v>38</v>
-      </c>
-      <c r="R44" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6">
-        <v>44675</v>
+        <v>44643</v>
       </c>
       <c r="D45" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E45" s="1">
         <v>2022</v>
       </c>
       <c r="F45" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H45" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3">
-        <v>52</v>
-      </c>
-      <c r="J45" s="4">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44</v>
       </c>
       <c r="K45" s="3">
-        <v>36</v>
-      </c>
-      <c r="L45" s="3">
-        <v>51</v>
-      </c>
-      <c r="M45" s="3">
-        <v>34</v>
-      </c>
-      <c r="N45" s="3">
-        <v>34</v>
-      </c>
-      <c r="O45" s="3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="P45" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="4">
-        <v>39</v>
-      </c>
-      <c r="R45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="U45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C46" s="6">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="D46" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E46" s="1">
         <v>2022</v>
       </c>
       <c r="F46" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" s="3">
         <v>31</v>
       </c>
       <c r="H46" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3">
         <v>43</v>
       </c>
       <c r="J46" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K46" s="3">
         <v>32</v>
       </c>
       <c r="L46" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M46" s="3">
+        <v>43</v>
+      </c>
+      <c r="N46" s="3">
         <v>36</v>
       </c>
-      <c r="N46" s="3">
-        <v>34</v>
-      </c>
       <c r="O46" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P46" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="4">
         <v>38</v>
       </c>
-      <c r="R46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44654</v>
       </c>
       <c r="D47" s="2">
         <v>44652</v>
@@ -2904,36 +2997,43 @@
         <v>2022</v>
       </c>
       <c r="F47" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47" s="3">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3">
+        <v>38</v>
+      </c>
+      <c r="J47" s="3">
+        <v>45</v>
+      </c>
+      <c r="K47" s="3">
         <v>31</v>
       </c>
-      <c r="I47" s="3">
-        <v>40</v>
-      </c>
-      <c r="J47" s="3">
-        <v>44</v>
-      </c>
-      <c r="K47" s="3">
-        <v>30</v>
-      </c>
+      <c r="L47"/>
       <c r="P47" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44656</v>
       </c>
       <c r="D48" s="2">
         <v>44652</v>
@@ -2942,36 +3042,42 @@
         <v>2022</v>
       </c>
       <c r="F48" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" s="3">
+        <v>31</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44</v>
+      </c>
+      <c r="K48" s="3">
         <v>30</v>
       </c>
-      <c r="I48" s="3">
-        <v>45</v>
-      </c>
-      <c r="J48" s="3">
-        <v>45</v>
-      </c>
-      <c r="K48" s="3">
-        <v>31</v>
-      </c>
       <c r="P48" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q48" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="U48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44663</v>
       </c>
       <c r="D49" s="2">
         <v>44652</v>
@@ -2980,40 +3086,54 @@
         <v>2022</v>
       </c>
       <c r="F49" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G49" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H49" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="3">
+        <v>53</v>
+      </c>
+      <c r="J49" s="4">
+        <v>40</v>
+      </c>
+      <c r="K49" s="3">
+        <v>35</v>
+      </c>
+      <c r="L49" s="3">
+        <v>54</v>
+      </c>
+      <c r="M49" s="3">
+        <v>23</v>
+      </c>
+      <c r="N49" s="3">
+        <v>32</v>
+      </c>
+      <c r="O49" s="3">
+        <v>55</v>
+      </c>
+      <c r="P49" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="4">
         <v>38</v>
       </c>
-      <c r="J49" s="3">
-        <v>45</v>
-      </c>
-      <c r="K49" s="3">
-        <v>31</v>
-      </c>
-      <c r="L49"/>
-      <c r="P49" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U49" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C50" s="6">
-        <v>44675</v>
+        <v>44664</v>
       </c>
       <c r="D50" s="2">
         <v>44652</v>
@@ -3022,193 +3142,199 @@
         <v>2022</v>
       </c>
       <c r="F50" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G50" s="3">
         <v>31</v>
       </c>
       <c r="H50" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3">
-        <v>46</v>
-      </c>
-      <c r="J50" s="3">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="J50" s="4">
+        <v>40</v>
       </c>
       <c r="K50" s="3">
         <v>32</v>
       </c>
+      <c r="L50" s="3">
+        <v>51</v>
+      </c>
+      <c r="M50" s="3">
+        <v>36</v>
+      </c>
+      <c r="N50" s="3">
+        <v>34</v>
+      </c>
+      <c r="O50" s="3">
+        <v>51</v>
+      </c>
       <c r="P50" s="4">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q50" s="4">
-        <v>37</v>
-      </c>
-      <c r="R50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="U50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C51" s="6">
-        <v>44691</v>
+        <v>44671</v>
       </c>
       <c r="D51" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E51" s="1">
         <v>2022</v>
       </c>
       <c r="F51" s="3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G51" s="3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H51" s="3">
         <v>30</v>
       </c>
       <c r="I51" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J51" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K51" s="3">
-        <v>32</v>
-      </c>
-      <c r="L51" s="3">
-        <v>55</v>
-      </c>
-      <c r="M51" s="3">
-        <v>28</v>
-      </c>
-      <c r="N51" s="3">
-        <v>33</v>
-      </c>
-      <c r="O51" s="3">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P51" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>34</v>
+      </c>
+      <c r="U51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="Q51" s="4">
-        <v>38</v>
-      </c>
-      <c r="R51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
       <c r="B52" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C52" s="6">
-        <v>44691</v>
+        <v>44675</v>
       </c>
       <c r="D52" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E52" s="1">
         <v>2022</v>
       </c>
       <c r="F52" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I52" s="3">
-        <v>46</v>
-      </c>
-      <c r="J52" s="3">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="J52" s="4">
+        <v>41</v>
       </c>
       <c r="K52" s="3">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="L52" s="3">
+        <v>51</v>
+      </c>
+      <c r="M52" s="3">
+        <v>34</v>
+      </c>
+      <c r="N52" s="3">
+        <v>34</v>
+      </c>
+      <c r="O52" s="3">
+        <v>56</v>
       </c>
       <c r="P52" s="4">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q52" s="4">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="12">
-        <v>44685</v>
+      <c r="C53" s="6">
+        <v>44675</v>
       </c>
       <c r="D53" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E53" s="1">
         <v>2022</v>
       </c>
       <c r="F53" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G53" s="3">
+        <v>31</v>
+      </c>
+      <c r="H53" s="3">
+        <v>29</v>
+      </c>
+      <c r="I53" s="3">
+        <v>46</v>
+      </c>
+      <c r="J53" s="3">
+        <v>41</v>
+      </c>
+      <c r="K53" s="3">
         <v>32</v>
       </c>
-      <c r="H53" s="3">
-        <v>30</v>
-      </c>
-      <c r="I53" s="3">
-        <v>47</v>
-      </c>
-      <c r="J53" s="4">
-        <v>40</v>
-      </c>
-      <c r="K53" s="3">
-        <v>35</v>
-      </c>
-      <c r="L53" s="3">
-        <v>50</v>
-      </c>
-      <c r="M53" s="3">
-        <v>36</v>
-      </c>
-      <c r="N53" s="3">
-        <v>34</v>
-      </c>
-      <c r="O53" s="3">
-        <v>50</v>
-      </c>
       <c r="P53" s="4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q53" s="4">
-        <v>38</v>
-      </c>
-      <c r="R53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C54" s="6">
+        <v>44683</v>
+      </c>
       <c r="D54" s="2">
         <v>44682</v>
       </c>
@@ -3239,17 +3365,19 @@
       <c r="Q54" s="4">
         <v>34</v>
       </c>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="6">
-        <v>44692</v>
+        <v>43</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="12">
+        <v>44685</v>
       </c>
       <c r="D55" s="2">
         <v>44682</v>
@@ -3258,39 +3386,54 @@
         <v>2022</v>
       </c>
       <c r="F55" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G55" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H55" s="3">
         <v>30</v>
       </c>
       <c r="I55" s="3">
-        <v>48</v>
-      </c>
-      <c r="J55" s="3">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J55" s="4">
+        <v>40</v>
       </c>
       <c r="K55" s="3">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="L55" s="3">
+        <v>50</v>
+      </c>
+      <c r="M55" s="3">
+        <v>36</v>
+      </c>
+      <c r="N55" s="3">
+        <v>34</v>
+      </c>
+      <c r="O55" s="3">
+        <v>50</v>
       </c>
       <c r="P55" s="4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q55" s="4">
-        <v>35</v>
-      </c>
-      <c r="R55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="U55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44689</v>
       </c>
       <c r="D56" s="2">
         <v>44682</v>
@@ -3299,36 +3442,43 @@
         <v>2022</v>
       </c>
       <c r="F56" s="3">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I56" s="3">
         <v>47</v>
       </c>
       <c r="J56" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K56" s="3">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L56"/>
       <c r="P56" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q56" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U56" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
+        <v>121</v>
+      </c>
+      <c r="C57" s="6">
+        <v>44691</v>
       </c>
       <c r="D57" s="2">
         <v>44682</v>
@@ -3337,43 +3487,55 @@
         <v>2022</v>
       </c>
       <c r="F57" s="3">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G57" s="3">
+        <v>25</v>
+      </c>
+      <c r="H57" s="3">
         <v>30</v>
       </c>
-      <c r="H57" s="3">
-        <v>27</v>
-      </c>
       <c r="I57" s="3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J57" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K57" s="3">
-        <v>31</v>
-      </c>
-      <c r="L57"/>
+        <v>32</v>
+      </c>
+      <c r="L57" s="3">
+        <v>55</v>
+      </c>
+      <c r="M57" s="3">
+        <v>28</v>
+      </c>
+      <c r="N57" s="3">
+        <v>33</v>
+      </c>
+      <c r="O57" s="3">
+        <v>55</v>
+      </c>
       <c r="P57" s="4">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="4">
-        <v>34</v>
-      </c>
-      <c r="R57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="U57" t="s">
+        <v>98</v>
+      </c>
+      <c r="X57" s="7"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C58" s="6">
-        <v>44707</v>
+        <v>44691</v>
       </c>
       <c r="D58" s="2">
         <v>44682</v>
@@ -3382,48 +3544,39 @@
         <v>2022</v>
       </c>
       <c r="F58" s="3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G58" s="3">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H58" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I58" s="3">
-        <v>39</v>
-      </c>
-      <c r="J58" s="4">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="J58" s="3">
+        <v>40</v>
       </c>
       <c r="K58" s="3">
-        <v>27</v>
-      </c>
-      <c r="L58" s="3">
-        <v>65</v>
-      </c>
-      <c r="O58" s="3">
-        <v>47</v>
-      </c>
-      <c r="P58" s="10">
-        <v>58</v>
-      </c>
-      <c r="Q58" s="10">
-        <v>33</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="P58" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C59" s="6">
-        <v>44711</v>
+        <v>44692</v>
       </c>
       <c r="D59" s="2">
         <v>44682</v>
@@ -3432,19 +3585,19 @@
         <v>2022</v>
       </c>
       <c r="F59" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G59" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I59" s="3">
-        <v>46</v>
-      </c>
-      <c r="J59" s="4">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44</v>
       </c>
       <c r="K59" s="3">
         <v>32</v>
@@ -3455,19 +3608,19 @@
       <c r="Q59" s="4">
         <v>35</v>
       </c>
-      <c r="R59" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C60" s="6">
-        <v>44706</v>
+        <v>44699</v>
       </c>
       <c r="D60" s="2">
         <v>44682</v>
@@ -3479,44 +3632,271 @@
         <v>41</v>
       </c>
       <c r="G60" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H60" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" s="3">
-        <v>48</v>
-      </c>
-      <c r="J60" s="4">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="J60" s="3">
+        <v>44</v>
       </c>
       <c r="K60" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P60" s="4">
         <v>53</v>
       </c>
       <c r="Q60" s="4">
+        <v>34</v>
+      </c>
+      <c r="U60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44706</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F61" s="3">
+        <v>41</v>
+      </c>
+      <c r="G61" s="3">
         <v>35</v>
       </c>
-      <c r="R60" t="s">
-        <v>116</v>
+      <c r="H61" s="3">
+        <v>34</v>
+      </c>
+      <c r="I61" s="3">
+        <v>48</v>
+      </c>
+      <c r="J61" s="4">
+        <v>45</v>
+      </c>
+      <c r="K61" s="3">
+        <v>34</v>
+      </c>
+      <c r="P61" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>35</v>
+      </c>
+      <c r="U61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="6">
+        <v>44707</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F62" s="3">
+        <v>60</v>
+      </c>
+      <c r="G62" s="3">
+        <v>40</v>
+      </c>
+      <c r="H62" s="3">
+        <v>26</v>
+      </c>
+      <c r="I62" s="3">
+        <v>44</v>
+      </c>
+      <c r="J62" s="4">
+        <v>48</v>
+      </c>
+      <c r="K62" s="3">
+        <v>27</v>
+      </c>
+      <c r="L62" s="3">
+        <v>65</v>
+      </c>
+      <c r="M62" s="3">
+        <v>45</v>
+      </c>
+      <c r="N62" s="3">
+        <v>27</v>
+      </c>
+      <c r="O62" s="3">
+        <v>47</v>
+      </c>
+      <c r="P62" s="10">
+        <v>58</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>33</v>
+      </c>
+      <c r="R62" s="4">
+        <v>2556</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T62" s="10">
+        <v>2</v>
+      </c>
+      <c r="U62" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="6">
+        <v>44711</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F63" s="3">
+        <v>52</v>
+      </c>
+      <c r="G63" s="3">
+        <v>35</v>
+      </c>
+      <c r="H63" s="3">
+        <v>27</v>
+      </c>
+      <c r="I63" s="3">
+        <v>46</v>
+      </c>
+      <c r="J63" s="4">
+        <v>46</v>
+      </c>
+      <c r="K63" s="3">
+        <v>32</v>
+      </c>
+      <c r="P63" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>35</v>
+      </c>
+      <c r="U63" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44714</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44713</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F64" s="3">
+        <v>46</v>
+      </c>
+      <c r="G64" s="3">
+        <v>30</v>
+      </c>
+      <c r="H64" s="3">
+        <v>30</v>
+      </c>
+      <c r="I64" s="3">
+        <v>49</v>
+      </c>
+      <c r="J64" s="4">
+        <v>41</v>
+      </c>
+      <c r="K64" s="3">
+        <v>35</v>
+      </c>
+      <c r="L64" s="3">
+        <v>53</v>
+      </c>
+      <c r="M64" s="3">
+        <v>34</v>
+      </c>
+      <c r="N64" s="3">
+        <v>33</v>
+      </c>
+      <c r="O64" s="3">
+        <v>54</v>
+      </c>
+      <c r="P64" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>39</v>
+      </c>
+      <c r="R64" s="4">
+        <v>1540</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T64" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="U64" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U63" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U64">
+      <sortCondition ref="C1:C63"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R12" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>
-    <hyperlink ref="R59" r:id="rId2" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
-    <hyperlink ref="R18" r:id="rId3" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
-    <hyperlink ref="R44" r:id="rId4" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
-    <hyperlink ref="R39" r:id="rId5" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
-    <hyperlink ref="R16" r:id="rId6" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
-    <hyperlink ref="R8" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
-    <hyperlink ref="R43" r:id="rId8" xr:uid="{5C90E5D4-637F-4084-AE8F-46C7BDB988B7}"/>
-    <hyperlink ref="R58" r:id="rId9" xr:uid="{BE726553-2778-47CA-B050-292603BDC552}"/>
+    <hyperlink ref="U13" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>
+    <hyperlink ref="U63" r:id="rId2" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
+    <hyperlink ref="U20" r:id="rId3" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
+    <hyperlink ref="U49" r:id="rId4" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
+    <hyperlink ref="U44" r:id="rId5" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
+    <hyperlink ref="U18" r:id="rId6" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
+    <hyperlink ref="U7" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
+    <hyperlink ref="U43" r:id="rId8" xr:uid="{5C90E5D4-637F-4084-AE8F-46C7BDB988B7}"/>
+    <hyperlink ref="U56" r:id="rId9" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
+    <hyperlink ref="U34" r:id="rId10" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
+    <hyperlink ref="U25" r:id="rId11" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
+    <hyperlink ref="U35" r:id="rId12" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
+    <hyperlink ref="U31" r:id="rId13" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB80EA-351D-4F5A-9FBB-9ED26BEE8716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FA486-C0D0-471F-BDE5-092AFF2850BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,11 +3875,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U63" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U64">
-      <sortCondition ref="C1:C63"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="U13" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3896968-3E32-4147-8321-D01A218BAB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94BCBB-5AD2-42D2-B029-ECC82F295572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1035" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AX$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="245">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -296,484 +296,481 @@
     <t>out/21_quaest</t>
   </si>
   <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-3a-SEMANA.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/RELATORIO-PESQUISA-IPESPE-MAIO-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_02-PESQUISA-IPESPE_2_QUINZENA.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_01-PESQUISA-IPESPE_compressed.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-MAR-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-2.pdf </t>
+  </si>
+  <si>
+    <t>jun/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>entrevistados</t>
+  </si>
+  <si>
+    <t>registro_tse</t>
+  </si>
+  <si>
+    <t>BR-05166/2022</t>
+  </si>
+  <si>
+    <t>margem_erro</t>
+  </si>
+  <si>
+    <t>jun/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-02893/2022</t>
+  </si>
+  <si>
+    <t>confiança</t>
+  </si>
+  <si>
+    <t>ciro_cat_1t</t>
+  </si>
+  <si>
+    <t>ciro_ev_1t</t>
+  </si>
+  <si>
+    <t>lul_out_1t</t>
+  </si>
+  <si>
+    <t>ciro_out_1t</t>
+  </si>
+  <si>
+    <t>bol_out_1t</t>
+  </si>
+  <si>
+    <t>BR-04618/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/06/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUN-2022-1a-SEMANA-VF.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/06/Midia_BR.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/04/MidiaBR-1.pdf </t>
+  </si>
+  <si>
+    <t>BR-08065/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/03/Brasil.pdf </t>
+  </si>
+  <si>
+    <t>BR-06682/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/02/Midia_BR_Jan22.pdf </t>
+  </si>
+  <si>
+    <t>BR-09055/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/07/BR_Jul21-Midia.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/06/Midia_BR_Jun21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/05/MidiaBR_Mai21.pdf </t>
+  </si>
+  <si>
+    <t>lul_non_1t</t>
+  </si>
+  <si>
+    <t>bol_non_1t</t>
+  </si>
+  <si>
+    <t>ciro_non_1t</t>
+  </si>
+  <si>
+    <t>lul_non_2t</t>
+  </si>
+  <si>
+    <t>bol_non_2t</t>
+  </si>
+  <si>
+    <t>sem registro</t>
+  </si>
+  <si>
+    <t>lul_cat_1t</t>
+  </si>
+  <si>
+    <t>lul_ev_1t</t>
+  </si>
+  <si>
+    <t>bol_cat_1t</t>
+  </si>
+  <si>
+    <t>bol_ev_1t</t>
+  </si>
+  <si>
+    <t>lul_cat_2t</t>
+  </si>
+  <si>
+    <t>lul_ev_2t</t>
+  </si>
+  <si>
+    <t>lul_out_2t</t>
+  </si>
+  <si>
+    <t>bol_cat_2t</t>
+  </si>
+  <si>
+    <t>bol_ev_2t</t>
+  </si>
+  <si>
+    <t>lul_ateu_1t</t>
+  </si>
+  <si>
+    <t>bol_ateu_1t</t>
+  </si>
+  <si>
+    <t>ciro_ateu_1t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/05/PoderData-55-10mai22-.pdf </t>
+  </si>
+  <si>
+    <t>BR-08423/2022</t>
+  </si>
+  <si>
+    <t>lul_espi_1t</t>
+  </si>
+  <si>
+    <t>bol_espi_1t</t>
+  </si>
+  <si>
+    <t>ciro_espi_1t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_1t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_1t</t>
+  </si>
+  <si>
+    <t>ciro_umb_can_1t</t>
+  </si>
+  <si>
+    <t>lul_espi_2t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_2t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_2t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-26abr22-4.pdf </t>
+  </si>
+  <si>
+    <t>BR-07167/2022</t>
+  </si>
+  <si>
+    <t>lul_ateu_2t</t>
+  </si>
+  <si>
+    <t>bol_ateu_2t</t>
+  </si>
+  <si>
+    <t>BR-00368/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-06661/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-51-final-Brasil-15mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-00835/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-01570/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-15fev22-1.pdf </t>
+  </si>
+  <si>
+    <t>BR-06942/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-1fev22-FINAL.pdf </t>
+  </si>
+  <si>
+    <t>BR-09445/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-18jan22.pdf </t>
+  </si>
+  <si>
+    <t>BR-02137/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-21dez21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-24nov21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-27out21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-1set21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-4ago21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-10-12mai21.pdf </t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/04/PoderData-relatorio-final-Brasil-14abr21-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-17mar21-2-convertido.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf </t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/40/JOB_0046-9_AVALIA%C3%87%C3%83O%20E%20VOTO%20-%20Relat%C3%B3rio%20de%20tabelas%20(Imprensa).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/27/03_14_Ipec_JOB_21_0046-7_Intencao_de_voto_Relatorio_de_tabelas.pdf</t>
+  </si>
+  <si>
+    <t>BR-01603/2022</t>
+  </si>
+  <si>
+    <t>BR-08857/2022</t>
+  </si>
+  <si>
+    <t>BR-00075/2022</t>
+  </si>
+  <si>
+    <t>ago/21_quaest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/04/06195508/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-abril.pdf </t>
+  </si>
+  <si>
+    <t>BR-00372/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf </t>
+  </si>
+  <si>
+    <t>BR-06693/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/11/09182146/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-novembro-2021.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/10/05173635/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-2021.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/09/01144504/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-2021.pdf </t>
+  </si>
+  <si>
+    <t>mai/22_mda</t>
+  </si>
+  <si>
+    <t>mda</t>
+  </si>
+  <si>
+    <t>fev/22_mda</t>
+  </si>
+  <si>
+    <t>dez/21_mda</t>
+  </si>
+  <si>
+    <t>jul/21_mda</t>
+  </si>
+  <si>
+    <t>pp 4 e 13</t>
+  </si>
+  <si>
+    <t>BR-05757/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2022/05/30/Intencao_de_voto_presidente_maio_22.pdf </t>
+  </si>
+  <si>
+    <t>BR-08967/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.voxpopuli.com.br/relatorio_vox_maio21.pdf </t>
+  </si>
+  <si>
+    <t>BR-03196/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf </t>
+  </si>
+  <si>
+    <t>BR-04676/2022</t>
+  </si>
+  <si>
+    <t>BR-09630/2022</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-21mar2022.pdf</t>
+  </si>
+  <si>
+    <t>futura</t>
+  </si>
+  <si>
+    <t>mai/22_futura</t>
+  </si>
+  <si>
+    <t>BR-05658/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>abr/22_futura</t>
+  </si>
+  <si>
+    <t> BR-08858/2022</t>
+  </si>
+  <si>
+    <t>mar/22_futura</t>
+  </si>
+  <si>
+    <t>fev/22_futura</t>
+  </si>
+  <si>
+    <t>jan/22_futura</t>
+  </si>
+  <si>
+    <t>dez/21_futura</t>
+  </si>
+  <si>
+    <t>nov/21_futura</t>
+  </si>
+  <si>
+    <t>ago/21_futura</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>BR-00758/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>BR-03014/2022</t>
+  </si>
+  <si>
+    <t>BR-08869/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lXF_R_qNELgK3sqgkNG_hvqElo01T5aU/edit</t>
+  </si>
+  <si>
+    <t>out/21_futura</t>
+  </si>
+  <si>
+    <t>nov/21_voxpopuli</t>
+  </si>
+  <si>
+    <t>BR-05638/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-24mai22.pdf</t>
+  </si>
+  <si>
+    <t>lul_ger_1t</t>
+  </si>
+  <si>
+    <t>bol_ger_1t</t>
+  </si>
+  <si>
+    <t>ciro_ger_1t</t>
+  </si>
+  <si>
+    <t>lul_ger_2t</t>
+  </si>
+  <si>
+    <t>bol_ger_2t</t>
+  </si>
+  <si>
+    <t>mai/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>bol_espi_2t</t>
+  </si>
+  <si>
+    <t>bol_out_2t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.cnt.org.br/diretorioVirtualPrd/49d4ba08-67a9-4ec3-8c6b-f3f7e20c0311.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pt.org.br/wp-content/uploads/2021/11/pesquisavoxpopuli-nov21.pptx </t>
+  </si>
+  <si>
     <t>jul/21_quaest</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-3a-SEMANA.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/RELATORIO-PESQUISA-IPESPE-MAIO-2022.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_02-PESQUISA-IPESPE_2_QUINZENA.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_01-PESQUISA-IPESPE_compressed.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-MAR-1.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-1.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-2.pdf </t>
-  </si>
-  <si>
-    <t>jun/22_pr_pesq</t>
-  </si>
-  <si>
-    <t>entrevistados</t>
-  </si>
-  <si>
-    <t>registro_tse</t>
-  </si>
-  <si>
-    <t>BR-05166/2022</t>
-  </si>
-  <si>
-    <t>margem_erro</t>
-  </si>
-  <si>
-    <t>jun/22_ipespe</t>
-  </si>
-  <si>
-    <t>BR-02893/2022</t>
-  </si>
-  <si>
-    <t>confiança</t>
-  </si>
-  <si>
-    <t>ciro_cat_1t</t>
-  </si>
-  <si>
-    <t>ciro_ev_1t</t>
-  </si>
-  <si>
-    <t>lul_out_1t</t>
-  </si>
-  <si>
-    <t>ciro_out_1t</t>
-  </si>
-  <si>
-    <t>bol_out_1t</t>
-  </si>
-  <si>
-    <t>BR-04618/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/06/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUN-2022-1a-SEMANA-VF.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/06/Midia_BR.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/04/MidiaBR-1.pdf </t>
-  </si>
-  <si>
-    <t>BR-08065/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/03/Brasil.pdf </t>
-  </si>
-  <si>
-    <t>BR-06682/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/02/Midia_BR_Jan22.pdf </t>
-  </si>
-  <si>
-    <t>BR-09055/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/07/BR_Jul21-Midia.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/06/Midia_BR_Jun21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/05/MidiaBR_Mai21.pdf </t>
-  </si>
-  <si>
-    <t>lul_non_1t</t>
-  </si>
-  <si>
-    <t>bol_non_1t</t>
-  </si>
-  <si>
-    <t>ciro_non_1t</t>
-  </si>
-  <si>
-    <t>lul_non_2t</t>
-  </si>
-  <si>
-    <t>bol_non_2t</t>
-  </si>
-  <si>
-    <t>sem registro</t>
-  </si>
-  <si>
-    <t>lul_cat_1t</t>
-  </si>
-  <si>
-    <t>lul_ev_1t</t>
-  </si>
-  <si>
-    <t>bol_cat_1t</t>
-  </si>
-  <si>
-    <t>bol_ev_1t</t>
-  </si>
-  <si>
-    <t>lul_cat_2t</t>
-  </si>
-  <si>
-    <t>lul_ev_2t</t>
-  </si>
-  <si>
-    <t>lul_out_2t</t>
-  </si>
-  <si>
-    <t>bol_cat_2t</t>
-  </si>
-  <si>
-    <t>bol_ev_2t</t>
-  </si>
-  <si>
-    <t>lul_ateu_1t</t>
-  </si>
-  <si>
-    <t>bol_ateu_1t</t>
-  </si>
-  <si>
-    <t>ciro_ateu_1t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/05/PoderData-55-10mai22-.pdf </t>
-  </si>
-  <si>
-    <t>BR-08423/2022</t>
-  </si>
-  <si>
-    <t>lul_espi_1t</t>
-  </si>
-  <si>
-    <t>bol_espi_1t</t>
-  </si>
-  <si>
-    <t>ciro_espi_1t</t>
-  </si>
-  <si>
-    <t>lul_umb_can_1t</t>
-  </si>
-  <si>
-    <t>bol_umb_can_1t</t>
-  </si>
-  <si>
-    <t>ciro_umb_can_1t</t>
-  </si>
-  <si>
-    <t>lul_espi_2t</t>
-  </si>
-  <si>
-    <t>lul_umb_can_2t</t>
-  </si>
-  <si>
-    <t>bol_umb_can_2t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-26abr22-4.pdf </t>
-  </si>
-  <si>
-    <t>BR-07167/2022</t>
-  </si>
-  <si>
-    <t>lul_ateu_2t</t>
-  </si>
-  <si>
-    <t>bol_ateu_2t</t>
-  </si>
-  <si>
-    <t>BR-00368/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-06661/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-51-final-Brasil-15mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-00835/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-01570/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-15fev22-1.pdf </t>
-  </si>
-  <si>
-    <t>BR-06942/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-1fev22-FINAL.pdf </t>
-  </si>
-  <si>
-    <t>BR-09445/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-18jan22.pdf </t>
-  </si>
-  <si>
-    <t>BR-02137/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-21dez21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-24nov21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-27out21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-1set21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-4ago21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-10-12mai21.pdf </t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2021/04/PoderData-relatorio-final-Brasil-14abr21-2.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-17mar21-2-convertido.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf </t>
-  </si>
-  <si>
-    <t>https://www.ipec-inteligencia.com.br/Repository/Files/40/JOB_0046-9_AVALIA%C3%87%C3%83O%20E%20VOTO%20-%20Relat%C3%B3rio%20de%20tabelas%20(Imprensa).pdf</t>
-  </si>
-  <si>
-    <t>https://www.ipec-inteligencia.com.br/Repository/Files/27/03_14_Ipec_JOB_21_0046-7_Intencao_de_voto_Relatorio_de_tabelas.pdf</t>
-  </si>
-  <si>
-    <t>BR-01603/2022</t>
-  </si>
-  <si>
-    <t>BR-08857/2022</t>
-  </si>
-  <si>
-    <t>BR-00075/2022</t>
-  </si>
-  <si>
-    <t>ago/21_quaest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/04/06195508/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-abril.pdf </t>
-  </si>
-  <si>
-    <t>BR-00372/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf </t>
-  </si>
-  <si>
-    <t>BR-06693/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/11/09182146/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-novembro-2021.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/10/05173635/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-2021.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/09/01144504/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-2021.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://f.hubspotusercontent30.net/hubfs/4891137/GENIAL+QUAEST+JULHO21.pdf </t>
-  </si>
-  <si>
-    <t>mai/22_mda</t>
-  </si>
-  <si>
-    <t>https://cdn.cnt.org.br/diretorioVirtualPrd/49d4ba08-67a9-4ec3-8c6b-f3f7e20c0311.pdf</t>
-  </si>
-  <si>
-    <t>mda</t>
-  </si>
-  <si>
-    <t>fev/22_mda</t>
-  </si>
-  <si>
-    <t>dez/21_mda</t>
-  </si>
-  <si>
-    <t>jul/21_mda</t>
-  </si>
-  <si>
-    <t>pp 4 e 13</t>
-  </si>
-  <si>
-    <t>BR-05757/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2022/05/30/Intencao_de_voto_presidente_maio_22.pdf </t>
-  </si>
-  <si>
-    <t>BR-08967/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.voxpopuli.com.br/relatorio_vox_maio21.pdf </t>
-  </si>
-  <si>
-    <t>BR-03196/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf </t>
-  </si>
-  <si>
-    <t>BR-04676/2022</t>
-  </si>
-  <si>
-    <t>BR-09630/2022</t>
-  </si>
-  <si>
-    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-21mar2022.pdf</t>
-  </si>
-  <si>
-    <t>futura</t>
-  </si>
-  <si>
-    <t>mai/22_futura</t>
-  </si>
-  <si>
-    <t>BR-05658/2022</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>abr/22_futura</t>
-  </si>
-  <si>
-    <t> BR-08858/2022</t>
-  </si>
-  <si>
-    <t>mar/22_futura</t>
-  </si>
-  <si>
-    <t>fev/22_futura</t>
-  </si>
-  <si>
-    <t>jan/22_futura</t>
-  </si>
-  <si>
-    <t>dez/21_futura</t>
-  </si>
-  <si>
-    <t>nov/21_futura</t>
-  </si>
-  <si>
-    <t>ago/21_futura</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>BR-00758/2022</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>BR-03014/2022</t>
-  </si>
-  <si>
-    <t>BR-08869/2022</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lXF_R_qNELgK3sqgkNG_hvqElo01T5aU/edit</t>
-  </si>
-  <si>
-    <t>out/21_futura</t>
-  </si>
-  <si>
-    <t>nov/21_voxpopuli</t>
-  </si>
-  <si>
-    <t>https://pt.org.br/wp-content/uploads/2021/11/pesquisavoxpopuli-nov21.pptx</t>
-  </si>
-  <si>
-    <t>BR-05638/2022</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-24mai22.pdf</t>
-  </si>
-  <si>
-    <t>lul_ger_1t</t>
-  </si>
-  <si>
-    <t>bol_ger_1t</t>
-  </si>
-  <si>
-    <t>ciro_ger_1t</t>
-  </si>
-  <si>
-    <t>lul_ger_2t</t>
-  </si>
-  <si>
-    <t>bol_ger_2t</t>
-  </si>
-  <si>
-    <t>mai/22_poderdata_2</t>
-  </si>
-  <si>
-    <t>bol_espi_2t</t>
-  </si>
-  <si>
-    <t>bol_out_2t</t>
   </si>
 </sst>
 </file>
@@ -1233,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:BA79"/>
+  <dimension ref="A1:BA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ9" sqref="AQ9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,136 +1296,136 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AK1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AO1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW1" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="AX1" s="14" t="s">
         <v>43</v>
@@ -1451,7 +1448,7 @@
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1">
         <v>2002</v>
@@ -1522,7 +1519,7 @@
         <v>2021</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1">
         <v>3500</v>
@@ -1549,7 +1546,7 @@
         <v>36</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -1569,7 +1566,7 @@
         <v>2021</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1">
         <v>3500</v>
@@ -1596,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="AX4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -1616,7 +1613,7 @@
         <v>2021</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1">
         <v>2010</v>
@@ -1706,7 +1703,7 @@
         <v>42</v>
       </c>
       <c r="AX5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
@@ -1726,7 +1723,7 @@
         <v>2021</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1">
         <v>2500</v>
@@ -1753,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
@@ -1773,7 +1770,7 @@
         <v>2021</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1">
         <v>2071</v>
@@ -1865,7 +1862,7 @@
         <v>2021</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="1">
         <v>2000</v>
@@ -1929,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="AX8" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
@@ -1949,7 +1946,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="1">
         <v>2500</v>
@@ -1977,7 +1974,7 @@
         <v>37</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -1997,7 +1994,7 @@
         <v>2021</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1">
         <v>2040</v>
@@ -2075,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="AX10" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -2095,7 +2092,7 @@
         <v>2021</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1">
         <v>2002</v>
@@ -2143,15 +2140,15 @@
         <v>7</v>
       </c>
       <c r="AX11" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>199</v>
       </c>
       <c r="C12" s="3">
         <v>44380</v>
@@ -2163,7 +2160,7 @@
         <v>2021</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1">
         <v>2002</v>
@@ -2190,7 +2187,7 @@
         <v>33</v>
       </c>
       <c r="AX12" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
@@ -2198,19 +2195,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C13" s="3">
         <v>44381</v>
       </c>
       <c r="D13" s="11">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="E13" s="2">
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1">
         <v>1500</v>
@@ -2221,12 +2218,6 @@
       <c r="I13" s="2">
         <v>95</v>
       </c>
-      <c r="J13" s="1">
-        <v>47</v>
-      </c>
-      <c r="R13" s="1">
-        <v>35</v>
-      </c>
       <c r="AE13" s="1">
         <v>43</v>
       </c>
@@ -2241,9 +2232,6 @@
       </c>
       <c r="AW13" s="1">
         <v>33</v>
-      </c>
-      <c r="AX13" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
@@ -2263,7 +2251,7 @@
         <v>2021</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="1">
         <v>2500</v>
@@ -2310,7 +2298,7 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="1">
         <v>2010</v>
@@ -2388,7 +2376,7 @@
         <v>38</v>
       </c>
       <c r="AX15" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
@@ -2408,7 +2396,7 @@
         <v>2021</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="1">
         <v>2500</v>
@@ -2525,15 +2513,15 @@
         <v>32</v>
       </c>
       <c r="AX16" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" s="3">
         <v>44428</v>
@@ -2545,7 +2533,7 @@
         <v>2021</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1">
         <v>2000</v>
@@ -2581,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="AX17" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
@@ -2589,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="3">
         <v>44437</v>
@@ -2601,7 +2589,7 @@
         <v>2021</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
         <v>2000</v>
@@ -2628,7 +2616,7 @@
         <v>30</v>
       </c>
       <c r="AX18" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
@@ -2648,7 +2636,7 @@
         <v>2021</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1">
         <v>2500</v>
@@ -2675,7 +2663,7 @@
         <v>30</v>
       </c>
       <c r="AX19" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
@@ -2695,7 +2683,7 @@
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="1">
         <v>3667</v>
@@ -2787,7 +2775,7 @@
         <v>2021</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1">
         <v>1008</v>
@@ -2835,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="AX21" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
@@ -2855,7 +2843,7 @@
         <v>2021</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1">
         <v>2500</v>
@@ -2902,7 +2890,7 @@
         <v>2021</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1">
         <v>2048</v>
@@ -2929,15 +2917,15 @@
         <v>29</v>
       </c>
       <c r="AX23" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3">
         <v>44491</v>
@@ -2949,7 +2937,7 @@
         <v>2021</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1">
         <v>2000</v>
@@ -2976,7 +2964,7 @@
         <v>37</v>
       </c>
       <c r="AX24" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
@@ -2996,7 +2984,7 @@
         <v>2021</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1">
         <v>2500</v>
@@ -3023,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="AX25" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
@@ -3031,19 +3019,19 @@
         <v>77</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C26" s="3">
         <v>44504</v>
       </c>
       <c r="D26" s="11">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="E26" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1">
         <v>2000</v>
@@ -3106,7 +3094,7 @@
         <v>24</v>
       </c>
       <c r="AX26" s="13" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
@@ -3126,7 +3114,7 @@
         <v>2021</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="1">
         <v>2063</v>
@@ -3166,15 +3154,15 @@
         <v>27</v>
       </c>
       <c r="AX27" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3">
         <v>44520</v>
@@ -3186,7 +3174,7 @@
         <v>2021</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="1">
         <v>2000</v>
@@ -3213,7 +3201,7 @@
         <v>38</v>
       </c>
       <c r="AX28" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
@@ -3233,7 +3221,7 @@
         <v>2021</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="1">
         <v>2500</v>
@@ -3260,18 +3248,18 @@
         <v>31</v>
       </c>
       <c r="AX29" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="C30" s="3">
-        <v>44535</v>
+        <v>44541</v>
       </c>
       <c r="D30" s="11">
         <v>44531</v>
@@ -3280,10 +3268,10 @@
         <v>2021</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="1">
-        <v>2037</v>
+        <v>2002</v>
       </c>
       <c r="H30" s="1">
         <v>2.2000000000000002</v>
@@ -3291,47 +3279,34 @@
       <c r="I30" s="2">
         <v>95</v>
       </c>
-      <c r="J30" s="1">
-        <v>51</v>
-      </c>
-      <c r="K30" s="1">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>17</v>
-      </c>
-      <c r="R30" s="1">
-        <v>38</v>
-      </c>
       <c r="AE30" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF30" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG30" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH30" s="2"/>
+        <v>5</v>
+      </c>
       <c r="AV30" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AW30" s="1">
         <v>31</v>
       </c>
-      <c r="AX30" s="16" t="s">
-        <v>84</v>
+      <c r="AX30" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3">
-        <v>44541</v>
+        <v>44535</v>
       </c>
       <c r="D31" s="11">
         <v>44531</v>
@@ -3340,10 +3315,10 @@
         <v>2021</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="1">
-        <v>2002</v>
+        <v>2037</v>
       </c>
       <c r="H31" s="1">
         <v>2.2000000000000002</v>
@@ -3351,23 +3326,36 @@
       <c r="I31" s="2">
         <v>95</v>
       </c>
+      <c r="J31" s="1">
+        <v>51</v>
+      </c>
+      <c r="K31" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>17</v>
+      </c>
+      <c r="R31" s="1">
+        <v>38</v>
+      </c>
       <c r="AE31" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AF31" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG31" s="2">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AH31" s="2"/>
       <c r="AV31" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AW31" s="1">
         <v>31</v>
       </c>
-      <c r="AX31" s="17" t="s">
-        <v>200</v>
+      <c r="AX31" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
@@ -3387,7 +3375,7 @@
         <v>2021</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="1">
         <v>2002</v>
@@ -3435,15 +3423,15 @@
         <v>5</v>
       </c>
       <c r="AX32" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" s="3">
         <v>44543</v>
@@ -3455,7 +3443,7 @@
         <v>2021</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="1">
         <v>2000</v>
@@ -3483,7 +3471,7 @@
         <v>37</v>
       </c>
       <c r="AX33" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
@@ -3497,13 +3485,13 @@
         <v>44551</v>
       </c>
       <c r="D34" s="11">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="E34" s="2">
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1">
         <v>3000</v>
@@ -3620,7 +3608,7 @@
         <v>34</v>
       </c>
       <c r="AX34" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
@@ -3640,7 +3628,7 @@
         <v>2022</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="1">
         <v>2000</v>
@@ -3685,7 +3673,7 @@
         <v>30</v>
       </c>
       <c r="AX35" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
@@ -3749,7 +3737,7 @@
         <v>31</v>
       </c>
       <c r="AX36" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
@@ -3769,7 +3757,7 @@
         <v>2022</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G37" s="1">
         <v>3000</v>
@@ -3886,15 +3874,15 @@
         <v>32</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3">
         <v>44582</v>
@@ -3906,7 +3894,7 @@
         <v>2022</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G38" s="1">
         <v>2000</v>
@@ -3950,7 +3938,7 @@
         <v>20</v>
       </c>
       <c r="X38" s="1">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="Y38" s="1">
         <v>6</v>
@@ -4010,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="AX38" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
@@ -4074,7 +4062,7 @@
         <v>30</v>
       </c>
       <c r="AX39" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
@@ -4094,7 +4082,7 @@
         <v>2022</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="1">
         <v>3000</v>
@@ -4211,7 +4199,7 @@
         <v>37</v>
       </c>
       <c r="AX40" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
@@ -4231,7 +4219,7 @@
         <v>2022</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1">
         <v>2020</v>
@@ -4287,7 +4275,7 @@
         <v>34</v>
       </c>
       <c r="AX41" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
@@ -4307,7 +4295,7 @@
         <v>2022</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G42" s="1">
         <v>2000</v>
@@ -4411,7 +4399,7 @@
         <v>31</v>
       </c>
       <c r="AX43" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
@@ -4431,7 +4419,7 @@
         <v>2022</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44" s="1">
         <v>3000</v>
@@ -4548,15 +4536,15 @@
         <v>35</v>
       </c>
       <c r="AX44" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C45" s="3">
         <v>44609</v>
@@ -4568,7 +4556,7 @@
         <v>2022</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G45" s="1">
         <v>2000</v>
@@ -4656,15 +4644,15 @@
         <v>40</v>
       </c>
       <c r="AX45" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C46" s="3">
         <v>44611</v>
@@ -4676,7 +4664,7 @@
         <v>2022</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="1">
         <v>2002</v>
@@ -4704,7 +4692,7 @@
         <v>35</v>
       </c>
       <c r="AX46" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
@@ -4768,7 +4756,7 @@
         <v>32</v>
       </c>
       <c r="AX47" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
@@ -4788,7 +4776,7 @@
         <v>2022</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G48" s="1">
         <v>3000</v>
@@ -4905,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="AX48" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
@@ -4925,7 +4913,7 @@
         <v>2022</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="1">
         <v>2020</v>
@@ -5003,7 +4991,7 @@
         <v>35</v>
       </c>
       <c r="AX49" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
@@ -5067,7 +5055,7 @@
         <v>33</v>
       </c>
       <c r="AX50" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
@@ -5087,7 +5075,7 @@
         <v>2022</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G51" s="1">
         <v>2000</v>
@@ -5151,7 +5139,7 @@
         <v>32</v>
       </c>
       <c r="AX51" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
@@ -5171,7 +5159,7 @@
         <v>2022</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G52" s="1">
         <v>3000</v>
@@ -5290,7 +5278,7 @@
         <v>36</v>
       </c>
       <c r="AX52" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
@@ -5310,7 +5298,7 @@
         <v>2022</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G53" s="1">
         <v>2000</v>
@@ -5373,7 +5361,7 @@
         <v>35</v>
       </c>
       <c r="AX53" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
@@ -5393,7 +5381,7 @@
         <v>2022</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G54" s="1">
         <v>2556</v>
@@ -5529,15 +5517,15 @@
         <v>31</v>
       </c>
       <c r="AX55" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3">
         <v>44645</v>
@@ -5549,7 +5537,7 @@
         <v>2022</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G56" s="1">
         <v>2000</v>
@@ -5639,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="AX56" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
@@ -5659,7 +5647,7 @@
         <v>2022</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G57" s="1">
         <v>3000</v>
@@ -5778,7 +5766,7 @@
         <v>38</v>
       </c>
       <c r="AX57" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
@@ -5798,7 +5786,7 @@
         <v>2022</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
@@ -5838,7 +5826,7 @@
         <v>34</v>
       </c>
       <c r="AX58" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
@@ -5902,7 +5890,7 @@
         <v>33</v>
       </c>
       <c r="AX59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
@@ -5922,7 +5910,7 @@
         <v>2022</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1">
         <v>3000</v>
@@ -6061,7 +6049,7 @@
         <v>2022</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="1">
         <v>2020</v>
@@ -6139,7 +6127,7 @@
         <v>38</v>
       </c>
       <c r="AX61" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
@@ -6203,7 +6191,7 @@
         <v>34</v>
       </c>
       <c r="AX62" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
@@ -6223,7 +6211,7 @@
         <v>2022</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G63" s="1">
         <v>3000</v>
@@ -6342,7 +6330,7 @@
         <v>39</v>
       </c>
       <c r="AX63" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
@@ -6362,7 +6350,7 @@
         <v>2022</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
@@ -6425,15 +6413,15 @@
         <v>37</v>
       </c>
       <c r="AX64" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C65" s="3">
         <v>44676</v>
@@ -6445,7 +6433,7 @@
         <v>2022</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
@@ -6472,7 +6460,7 @@
       <c r="AS65" s="1"/>
       <c r="AU65" s="1"/>
       <c r="AX65" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.25">
@@ -6536,7 +6524,7 @@
         <v>34</v>
       </c>
       <c r="AX66" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.25">
@@ -6556,7 +6544,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G67" s="1">
         <v>2020</v>
@@ -6634,15 +6622,15 @@
         <v>38</v>
       </c>
       <c r="AX67" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="3">
         <v>44688</v>
@@ -6654,7 +6642,7 @@
         <v>2022</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G68" s="1">
         <v>2002</v>
@@ -6698,8 +6686,8 @@
       <c r="AW68" s="1">
         <v>37</v>
       </c>
-      <c r="AX68" s="15" t="s">
-        <v>195</v>
+      <c r="AX68" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="BA68" s="19"/>
     </row>
@@ -6720,7 +6708,7 @@
         <v>2022</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
@@ -6780,7 +6768,7 @@
         <v>2022</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70" s="1">
         <v>3000</v>
@@ -6899,7 +6887,7 @@
         <v>38</v>
       </c>
       <c r="AX70" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.25">
@@ -7027,15 +7015,15 @@
         <v>34</v>
       </c>
       <c r="AX72" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C73" s="3">
         <v>44701</v>
@@ -7047,7 +7035,7 @@
         <v>2022</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G73" s="1">
         <v>2000</v>
@@ -7134,7 +7122,7 @@
         <v>41</v>
       </c>
       <c r="AX73" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.25">
@@ -7142,7 +7130,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C74" s="3">
         <v>44705</v>
@@ -7154,7 +7142,7 @@
         <v>2022</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G74" s="1">
         <v>3000</v>
@@ -7271,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="AX74" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.25">
@@ -7355,7 +7343,7 @@
         <v>2022</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G76" s="1">
         <v>2556</v>
@@ -7427,7 +7415,7 @@
         <v>33</v>
       </c>
       <c r="AX76" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
@@ -7447,7 +7435,7 @@
         <v>2022</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G77" s="1">
         <v>2000</v>
@@ -7518,19 +7506,19 @@
         <v>6</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="3">
         <v>44713</v>
       </c>
       <c r="D78" s="11">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="E78" s="2">
         <v>2022</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G78" s="1">
         <v>1000</v>
@@ -7586,7 +7574,7 @@
         <v>35</v>
       </c>
       <c r="AX78" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
@@ -7594,7 +7582,7 @@
         <v>42</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="3">
         <v>44714</v>
@@ -7606,7 +7594,7 @@
         <v>2022</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G79" s="1">
         <v>2020</v>
@@ -7684,8 +7672,11 @@
         <v>39</v>
       </c>
       <c r="AX79" s="16" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7699,7 +7690,7 @@
     <hyperlink ref="AX7" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
     <hyperlink ref="AX69" r:id="rId8" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
     <hyperlink ref="AX42" r:id="rId9" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
-    <hyperlink ref="AX30" r:id="rId10" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
+    <hyperlink ref="AX31" r:id="rId10" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
     <hyperlink ref="AX43" r:id="rId11" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
     <hyperlink ref="AX39" r:id="rId12" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
     <hyperlink ref="AX78" r:id="rId13" xr:uid="{AF073CA8-C6FA-45C2-9158-F330AD248DD7}"/>
@@ -7734,21 +7725,22 @@
     <hyperlink ref="AX27" r:id="rId42" xr:uid="{7CF60E77-FC4B-4154-A419-93891C0BFE7F}"/>
     <hyperlink ref="AX23" r:id="rId43" xr:uid="{8D6FCD2A-AFCC-42FC-A5DD-EE4A1AF5A060}"/>
     <hyperlink ref="AX18" r:id="rId44" xr:uid="{1F3CDC72-3AEF-4ED5-BB7A-149C1A538964}"/>
-    <hyperlink ref="AX13" r:id="rId45" xr:uid="{1A9E7920-C2EE-49EB-857C-E5C4C0E37FE5}"/>
-    <hyperlink ref="AX76" r:id="rId46" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
-    <hyperlink ref="AX8" r:id="rId47" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
-    <hyperlink ref="AX64" r:id="rId48" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
-    <hyperlink ref="AX73" r:id="rId49" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{08BD6BEA-83FB-4FE1-8EFB-933A54797B8F}"/>
-    <hyperlink ref="AX65" r:id="rId50" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{71F43687-4DFA-4CE1-9C02-169894097985}"/>
-    <hyperlink ref="AX56" r:id="rId51" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{44A588A4-58D5-4766-9A0D-4940E1171480}"/>
-    <hyperlink ref="AX45" r:id="rId52" display="https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{538D6084-1D57-4387-8145-2766B35EC4F1}"/>
-    <hyperlink ref="AX38" r:id="rId53" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{2EDEEE05-3A23-489C-B2F0-282840E79D57}"/>
-    <hyperlink ref="AX33" r:id="rId54" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{65CFF0B4-F2F2-42B9-B142-D122E81376E2}"/>
-    <hyperlink ref="AX28" r:id="rId55" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{73A46F42-1BCC-4014-B85F-51A97CDA3C49}"/>
-    <hyperlink ref="AX24" r:id="rId56" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{E9A72215-4C1C-44DC-857E-7B039B3D5600}"/>
-    <hyperlink ref="AX17" r:id="rId57" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
+    <hyperlink ref="AX76" r:id="rId45" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
+    <hyperlink ref="AX8" r:id="rId46" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
+    <hyperlink ref="AX64" r:id="rId47" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
+    <hyperlink ref="AX73" r:id="rId48" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{08BD6BEA-83FB-4FE1-8EFB-933A54797B8F}"/>
+    <hyperlink ref="AX65" r:id="rId49" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{71F43687-4DFA-4CE1-9C02-169894097985}"/>
+    <hyperlink ref="AX56" r:id="rId50" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{44A588A4-58D5-4766-9A0D-4940E1171480}"/>
+    <hyperlink ref="AX45" r:id="rId51" display="https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{538D6084-1D57-4387-8145-2766B35EC4F1}"/>
+    <hyperlink ref="AX33" r:id="rId52" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{65CFF0B4-F2F2-42B9-B142-D122E81376E2}"/>
+    <hyperlink ref="AX28" r:id="rId53" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{73A46F42-1BCC-4014-B85F-51A97CDA3C49}"/>
+    <hyperlink ref="AX24" r:id="rId54" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{E9A72215-4C1C-44DC-857E-7B039B3D5600}"/>
+    <hyperlink ref="AX17" r:id="rId55" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
+    <hyperlink ref="AX68" r:id="rId56" xr:uid="{62D6A31F-EC60-434E-A8D9-FBE1714CB972}"/>
+    <hyperlink ref="AX26" r:id="rId57" xr:uid="{C510C399-2AAD-4481-ABC8-DCFEC4746788}"/>
+    <hyperlink ref="AX38" r:id="rId58" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{2EDEEE05-3A23-489C-B2F0-282840E79D57}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94BCBB-5AD2-42D2-B029-ECC82F295572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA1854B-7044-4CA7-98C7-F8E17328CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="16815" yWindow="1365" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$BV$88</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="297">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -771,6 +771,162 @@
   </si>
   <si>
     <t>jul/21_quaest</t>
+  </si>
+  <si>
+    <t>jun/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-03552/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/06/07233729/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-junho.pdf</t>
+  </si>
+  <si>
+    <t>gerp</t>
+  </si>
+  <si>
+    <t>mar/22_gerp</t>
+  </si>
+  <si>
+    <t>BR-07402/2022</t>
+  </si>
+  <si>
+    <t>https://www.gerp.com.br/download/relatorios/202204_Presidente_2022_1.pdf</t>
+  </si>
+  <si>
+    <t>lul_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_out_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_non_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_out_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_non_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_out_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_non_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>abr/22_gerp</t>
+  </si>
+  <si>
+    <t>BR-02346/2022</t>
+  </si>
+  <si>
+    <t>https://www.gerp.com.br/download/relatorios/202204_Presidente_2022_2.pdf</t>
+  </si>
+  <si>
+    <t>BR-00123/2022</t>
+  </si>
+  <si>
+    <t>https://multimidia.gazetadopovo.com.br/media/docs/1654544303_pesquisa-gerp-junho-presidente.pdf</t>
+  </si>
+  <si>
+    <t>mai/22_gerp</t>
+  </si>
+  <si>
+    <t>jun/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-01975/2022</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>mai/22_idea</t>
+  </si>
+  <si>
+    <t>BR-01734/2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/05/EXAME-IDEIA-19-DE-MAIO_-ELEICOES-2022-editorial.pdf</t>
+  </si>
+  <si>
+    <t>BR-02495/2022</t>
+  </si>
+  <si>
+    <t>BR-04244/2022</t>
+  </si>
+  <si>
+    <t>mar/22_idea</t>
+  </si>
+  <si>
+    <t>abr/22_idea</t>
+  </si>
+  <si>
+    <t>fev/22_idea</t>
+  </si>
+  <si>
+    <t>BR-05955/2022</t>
+  </si>
+  <si>
+    <t>https://exame-membercenter-static.s3.us-east-2.amazonaws.com/EXAME+IDEIA+24+FEVEREIRO+2022+EDITORIAL.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/03/EXAME-IDEIA-24-DE-MARCO_ESPECIAL-ELEICOES-2022-EDITORIAL.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/04/EXAME-IDEIA-21-DE-ABRIL_-ELEICOES-2022-editorial.pdf</t>
   </si>
 </sst>
 </file>
@@ -814,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +989,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -847,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +1076,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1230,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:BA83"/>
+  <dimension ref="A1:BY92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU67" sqref="BU67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1413,7 @@
     <col min="1" max="1" width="16" style="21" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
@@ -1261,25 +1432,25 @@
     <col min="28" max="30" width="9.140625" style="2"/>
     <col min="31" max="31" width="10.28515625" style="1" customWidth="1"/>
     <col min="32" max="32" width="9.140625" style="1"/>
-    <col min="33" max="33" width="9.140625" style="2"/>
-    <col min="34" max="34" width="11.5703125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="11" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" style="1" customWidth="1"/>
-    <col min="38" max="40" width="11.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="10.85546875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.28515625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="11.28515625" style="2" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="12.28515625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="14.5703125" style="15" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="2"/>
+    <col min="33" max="57" width="9.140625" style="2"/>
+    <col min="58" max="58" width="11.5703125" style="1" customWidth="1"/>
+    <col min="59" max="60" width="11" style="1" customWidth="1"/>
+    <col min="61" max="61" width="16.85546875" style="1" customWidth="1"/>
+    <col min="62" max="64" width="11.7109375" style="2" customWidth="1"/>
+    <col min="65" max="65" width="10.85546875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="10" style="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.28515625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="12.28515625" style="2" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" style="2" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" style="2" customWidth="1"/>
+    <col min="72" max="72" width="11.85546875" style="1" customWidth="1"/>
+    <col min="73" max="73" width="12.28515625" style="1" customWidth="1"/>
+    <col min="74" max="74" width="14.5703125" style="15" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1379,59 +1550,131 @@
       <c r="AG1" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="BF1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BV1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1498,11 +1741,11 @@
       <c r="AG2" s="2">
         <v>8</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="BV2" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
@@ -1539,17 +1782,17 @@
       <c r="AG3" s="2">
         <v>5</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="BT3" s="1">
         <v>41</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="BU3" s="1">
         <v>36</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="BV3" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>48</v>
       </c>
@@ -1586,17 +1829,17 @@
       <c r="AG4" s="2">
         <v>6</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="BT4" s="1">
         <v>52</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="BU4" s="1">
         <v>34</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="BV4" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -1670,43 +1913,43 @@
       <c r="AG5" s="2">
         <v>6</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="BF5" s="1">
         <v>43</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="BG5" s="1">
         <v>31</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1">
         <v>42</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="BL5" s="1">
         <v>42</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="BM5" s="1">
         <v>37</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="BN5" s="1">
         <v>54</v>
       </c>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1">
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1">
         <v>32</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="BS5" s="1">
         <v>41</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="BT5" s="1">
         <v>40</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="BU5" s="1">
         <v>42</v>
       </c>
-      <c r="AX5" s="16" t="s">
+      <c r="BV5" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
@@ -1743,17 +1986,17 @@
       <c r="AG6" s="2">
         <v>6</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="BT6" s="1">
         <v>50</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="BU6" s="1">
         <v>35</v>
       </c>
-      <c r="AX6" s="13" t="s">
+      <c r="BV6" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -1817,35 +2060,35 @@
       <c r="AG7" s="2">
         <v>6</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="BF7" s="1">
         <v>61</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="BG7" s="1">
         <v>45</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="BH7" s="1">
         <v>51</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="BM7" s="1">
         <v>27</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="BN7" s="1">
         <v>45</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="BO7" s="1">
         <v>24</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="BT7" s="1">
         <v>55</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="BU7" s="1">
         <v>32</v>
       </c>
-      <c r="AX7" s="16" t="s">
+      <c r="BV7" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>77</v>
       </c>
@@ -1919,17 +2162,17 @@
       <c r="AG8" s="2">
         <v>5</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="BT8" s="1">
         <v>55</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="BU8" s="1">
         <v>28</v>
       </c>
-      <c r="AX8" s="13" t="s">
+      <c r="BV8" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
@@ -1966,18 +2209,18 @@
       <c r="AG9" s="2">
         <v>10</v>
       </c>
-      <c r="AT9" s="19"/>
-      <c r="AV9" s="1">
+      <c r="BR9" s="19"/>
+      <c r="BT9" s="1">
         <v>48</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="BU9" s="1">
         <v>37</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="BV9" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2043,39 +2286,39 @@
       <c r="AG10" s="2">
         <v>6</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="BF10" s="1">
         <v>44</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="BG10" s="1">
         <v>30</v>
       </c>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1">
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1">
         <v>47</v>
       </c>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1">
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1">
         <v>35</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="BN10" s="1">
         <v>52</v>
       </c>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1">
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1">
         <v>33</v>
       </c>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1">
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1">
         <v>40</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="BU10" s="1">
         <v>40</v>
       </c>
-      <c r="AX10" s="16" t="s">
+      <c r="BV10" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -2139,11 +2382,11 @@
       <c r="AG11" s="2">
         <v>7</v>
       </c>
-      <c r="AX11" s="15" t="s">
+      <c r="BV11" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>193</v>
       </c>
@@ -2180,17 +2423,17 @@
       <c r="AG12" s="2">
         <v>6</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="BT12" s="1">
         <v>53</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="BU12" s="1">
         <v>33</v>
       </c>
-      <c r="AX12" s="17" t="s">
+      <c r="BV12" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -2227,14 +2470,14 @@
       <c r="AG13" s="2">
         <v>10</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="BT13" s="1">
         <v>54</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="BU13" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>48</v>
       </c>
@@ -2271,17 +2514,17 @@
       <c r="AG14" s="2">
         <v>10</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="BT14" s="1">
         <v>55</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="BU14" s="1">
         <v>32</v>
       </c>
-      <c r="AX14" s="16" t="s">
+      <c r="BV14" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>42</v>
       </c>
@@ -2347,39 +2590,39 @@
       <c r="AG15" s="2">
         <v>7</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="BF15" s="1">
         <v>48</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="BG15" s="1">
         <v>34</v>
       </c>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1">
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1">
         <v>43</v>
       </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1">
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1">
         <v>34</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="BN15" s="1">
         <v>50</v>
       </c>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1">
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1">
         <v>27</v>
       </c>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1">
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1">
         <v>43</v>
       </c>
-      <c r="AW15" s="1">
+      <c r="BU15" s="1">
         <v>38</v>
       </c>
-      <c r="AX15" s="16" t="s">
+      <c r="BV15" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>48</v>
       </c>
@@ -2470,53 +2713,53 @@
       <c r="AG16" s="2">
         <v>8</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="BF16" s="1">
         <v>57</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="BG16" s="1">
         <v>33</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="BH16" s="1">
         <v>63</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="BI16" s="1">
         <v>47</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="BJ16" s="1">
         <v>62</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="BL16" s="1">
         <v>66</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="BM16" s="1">
         <v>23</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="BN16" s="1">
         <v>60</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="BO16" s="1">
         <v>29</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="BP16" s="1">
         <v>3</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="BQ16" s="1">
         <v>22</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="BS16" s="1">
         <v>22</v>
       </c>
-      <c r="AV16" s="1">
+      <c r="BT16" s="1">
         <v>52</v>
       </c>
-      <c r="AW16" s="1">
+      <c r="BU16" s="1">
         <v>32</v>
       </c>
-      <c r="AX16" s="13" t="s">
+      <c r="BV16" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>207</v>
       </c>
@@ -2556,23 +2799,23 @@
       <c r="AG17" s="2">
         <v>4</v>
       </c>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1">
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1">
         <v>47</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="BU17" s="1">
         <v>39</v>
       </c>
-      <c r="AX17" s="13" t="s">
+      <c r="BV17" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
@@ -2609,17 +2852,17 @@
       <c r="AG18" s="2">
         <v>8</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="BT18" s="1">
         <v>55</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="BU18" s="1">
         <v>30</v>
       </c>
-      <c r="AX18" s="13" t="s">
+      <c r="BV18" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
@@ -2656,17 +2899,17 @@
       <c r="AG19" s="2">
         <v>8</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="BT19" s="1">
         <v>55</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="BU19" s="1">
         <v>30</v>
       </c>
-      <c r="AX19" s="13" t="s">
+      <c r="BV19" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2730,35 +2973,35 @@
       <c r="AG20" s="2">
         <v>9</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="BF20" s="1">
         <v>61</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="BG20" s="1">
         <v>44</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="BH20" s="1">
         <v>65</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="BM20" s="1">
         <v>27</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="BN20" s="1">
         <v>43</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="BO20" s="1">
         <v>19</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="BT20" s="1">
         <v>56</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="BU20" s="1">
         <v>31</v>
       </c>
-      <c r="AX20" s="16" t="s">
+      <c r="BV20" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>3</v>
       </c>
@@ -2822,11 +3065,11 @@
       <c r="AG21" s="2">
         <v>6</v>
       </c>
-      <c r="AX21" s="15" t="s">
+      <c r="BV21" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>48</v>
       </c>
@@ -2863,17 +3106,17 @@
       <c r="AG22" s="2">
         <v>5</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="BT22" s="1">
         <v>56</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="BU22" s="1">
         <v>33</v>
       </c>
-      <c r="AX22" s="16" t="s">
+      <c r="BV22" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>5</v>
       </c>
@@ -2910,17 +3153,17 @@
       <c r="AG23" s="2">
         <v>11</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="BT23" s="1">
         <v>53</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="BU23" s="1">
         <v>29</v>
       </c>
-      <c r="AX23" s="13" t="s">
+      <c r="BV23" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>207</v>
       </c>
@@ -2957,17 +3200,17 @@
       <c r="AG24" s="2">
         <v>10</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="BT24" s="1">
         <v>49</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="BU24" s="1">
         <v>37</v>
       </c>
-      <c r="AX24" s="13" t="s">
+      <c r="BV24" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>48</v>
       </c>
@@ -3004,17 +3247,17 @@
       <c r="AG25" s="2">
         <v>5</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="BT25" s="1">
         <v>52</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="BU25" s="1">
         <v>37</v>
       </c>
-      <c r="AX25" s="13" t="s">
+      <c r="BV25" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>77</v>
       </c>
@@ -3087,17 +3330,17 @@
       <c r="AG26" s="2">
         <v>4</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="BT26" s="1">
         <v>52</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="BU26" s="1">
         <v>24</v>
       </c>
-      <c r="AX26" s="13" t="s">
+      <c r="BV26" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>5</v>
       </c>
@@ -3146,18 +3389,18 @@
       <c r="AG27" s="2">
         <v>6</v>
       </c>
-      <c r="AH27" s="2"/>
-      <c r="AV27" s="1">
+      <c r="BF27" s="2"/>
+      <c r="BT27" s="1">
         <v>57</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="BU27" s="1">
         <v>27</v>
       </c>
-      <c r="AX27" s="13" t="s">
+      <c r="BV27" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>207</v>
       </c>
@@ -3194,17 +3437,17 @@
       <c r="AG28" s="2">
         <v>6</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="BT28" s="1">
         <v>51</v>
       </c>
-      <c r="AW28" s="1">
+      <c r="BU28" s="1">
         <v>38</v>
       </c>
-      <c r="AX28" s="13" t="s">
+      <c r="BV28" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
@@ -3241,17 +3484,17 @@
       <c r="AG29" s="2">
         <v>7</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="BT29" s="1">
         <v>54</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="BU29" s="1">
         <v>31</v>
       </c>
-      <c r="AX29" s="13" t="s">
+      <c r="BV29" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>193</v>
       </c>
@@ -3288,17 +3531,17 @@
       <c r="AG30" s="2">
         <v>5</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="BT30" s="1">
         <v>53</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="BU30" s="1">
         <v>31</v>
       </c>
-      <c r="AX30" s="17" t="s">
+      <c r="BV30" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>5</v>
       </c>
@@ -3347,18 +3590,18 @@
       <c r="AG31" s="2">
         <v>7</v>
       </c>
-      <c r="AH31" s="2"/>
-      <c r="AV31" s="1">
+      <c r="BF31" s="2"/>
+      <c r="BT31" s="1">
         <v>54</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="BU31" s="1">
         <v>31</v>
       </c>
-      <c r="AX31" s="16" t="s">
+      <c r="BV31" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>3</v>
       </c>
@@ -3422,11 +3665,11 @@
       <c r="AG32" s="2">
         <v>5</v>
       </c>
-      <c r="AX32" s="13" t="s">
+      <c r="BV32" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>207</v>
       </c>
@@ -3463,18 +3706,18 @@
       <c r="AG33" s="2">
         <v>6</v>
       </c>
-      <c r="AH33" s="2"/>
-      <c r="AV33" s="1">
+      <c r="BF33" s="2"/>
+      <c r="BT33" s="1">
         <v>51</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="BU33" s="1">
         <v>37</v>
       </c>
-      <c r="AX33" s="13" t="s">
+      <c r="BV33" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>48</v>
       </c>
@@ -3565,53 +3808,53 @@
       <c r="AG34" s="2">
         <v>4</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="BF34" s="1">
         <v>59</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="BG34" s="1">
         <v>37</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="BH34" s="1">
         <v>62</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="BI34" s="1">
         <v>87</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="BJ34" s="1">
         <v>72</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="BL34" s="1">
         <v>65</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="BM34" s="1">
         <v>32</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="BN34" s="1">
         <v>47</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="BO34" s="1">
         <v>23</v>
       </c>
-      <c r="AR34" s="1">
+      <c r="BP34" s="1">
         <v>13</v>
       </c>
-      <c r="AS34" s="1">
+      <c r="BQ34" s="1">
         <v>3</v>
       </c>
-      <c r="AU34" s="1">
+      <c r="BS34" s="1">
         <v>30</v>
       </c>
-      <c r="AV34" s="1">
+      <c r="BT34" s="1">
         <v>54</v>
       </c>
-      <c r="AW34" s="1">
+      <c r="BU34" s="1">
         <v>34</v>
       </c>
-      <c r="AX34" s="13" t="s">
+      <c r="BV34" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>5</v>
       </c>
@@ -3665,18 +3908,18 @@
       <c r="AG35" s="2">
         <v>5</v>
       </c>
-      <c r="AH35" s="2"/>
-      <c r="AV35" s="1">
+      <c r="BF35" s="2"/>
+      <c r="BT35" s="1">
         <v>54</v>
       </c>
-      <c r="AW35" s="1">
+      <c r="BU35" s="1">
         <v>30</v>
       </c>
-      <c r="AX35" s="13" t="s">
+      <c r="BV35" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>6</v>
       </c>
@@ -3730,17 +3973,41 @@
       <c r="AG36" s="1">
         <v>7</v>
       </c>
-      <c r="AV36" s="1">
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BT36" s="1">
         <v>56</v>
       </c>
-      <c r="AW36" s="1">
+      <c r="BU36" s="1">
         <v>31</v>
       </c>
-      <c r="AX36" s="15" t="s">
+      <c r="BV36" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>48</v>
       </c>
@@ -3831,53 +4098,53 @@
       <c r="AG37" s="2">
         <v>3</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="BF37" s="1">
         <v>56</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="BG37" s="1">
         <v>47</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="BH37" s="1">
         <v>50</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="BI37" s="1">
         <v>58</v>
       </c>
-      <c r="AL37" s="1">
+      <c r="BJ37" s="1">
         <v>37</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="BL37" s="1">
         <v>57</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="BM37" s="1">
         <v>25</v>
       </c>
-      <c r="AP37" s="1">
+      <c r="BN37" s="1">
         <v>47</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="BO37" s="1">
         <v>32</v>
       </c>
-      <c r="AR37" s="1">
+      <c r="BP37" s="1">
         <v>17</v>
       </c>
-      <c r="AS37" s="1">
+      <c r="BQ37" s="1">
         <v>63</v>
       </c>
-      <c r="AU37" s="1">
+      <c r="BS37" s="1">
         <v>30</v>
       </c>
-      <c r="AV37" s="1">
+      <c r="BT37" s="1">
         <v>54</v>
       </c>
-      <c r="AW37" s="1">
+      <c r="BU37" s="1">
         <v>32</v>
       </c>
-      <c r="AX37" s="13" t="s">
+      <c r="BV37" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>207</v>
       </c>
@@ -3961,47 +4228,47 @@
       <c r="AG38" s="2">
         <v>6</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="BF38" s="2">
         <v>54</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="BG38" s="1">
         <v>38</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="BH38" s="1">
         <v>46</v>
       </c>
-      <c r="AM38" s="2">
+      <c r="BK38" s="2">
         <v>40</v>
       </c>
-      <c r="AN38" s="2">
+      <c r="BL38" s="2">
         <v>63</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="BM38" s="1">
         <v>33</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="BN38" s="1">
         <v>52</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="BO38" s="1">
         <v>31</v>
       </c>
-      <c r="AT38" s="2">
+      <c r="BR38" s="2">
         <v>39</v>
       </c>
-      <c r="AU38" s="2">
+      <c r="BS38" s="2">
         <v>27</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="BT38" s="1">
         <v>50</v>
       </c>
-      <c r="AW38" s="1">
+      <c r="BU38" s="1">
         <v>38</v>
       </c>
-      <c r="AX38" s="13" t="s">
+      <c r="BV38" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>6</v>
       </c>
@@ -4055,17 +4322,41 @@
       <c r="AG39" s="1">
         <v>8</v>
       </c>
-      <c r="AV39" s="1">
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BT39" s="1">
         <v>54</v>
       </c>
-      <c r="AW39" s="1">
+      <c r="BU39" s="1">
         <v>30</v>
       </c>
-      <c r="AX39" s="16" t="s">
+      <c r="BV39" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>48</v>
       </c>
@@ -4156,53 +4447,53 @@
       <c r="AG40" s="2">
         <v>7</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="BF40" s="1">
         <v>59</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="BG40" s="1">
         <v>42</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="BH40" s="1">
         <v>57</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="BI40" s="1">
         <v>62</v>
       </c>
-      <c r="AL40" s="1">
+      <c r="BJ40" s="1">
         <v>45</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="BL40" s="1">
         <v>61</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="BM40" s="1">
         <v>31</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="BN40" s="1">
         <v>51</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="BO40" s="1">
         <v>34</v>
       </c>
-      <c r="AR40" s="1">
+      <c r="BP40" s="1">
         <v>2</v>
       </c>
-      <c r="AS40" s="1">
+      <c r="BQ40" s="1">
         <v>45</v>
       </c>
-      <c r="AU40" s="1">
+      <c r="BS40" s="1">
         <v>29</v>
       </c>
-      <c r="AV40" s="1">
+      <c r="BT40" s="1">
         <v>54</v>
       </c>
-      <c r="AW40" s="1">
+      <c r="BU40" s="1">
         <v>37</v>
       </c>
-      <c r="AX40" s="13" t="s">
+      <c r="BV40" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>42</v>
       </c>
@@ -4268,17 +4559,17 @@
       <c r="AG41" s="2">
         <v>5</v>
       </c>
-      <c r="AV41" s="1">
+      <c r="BT41" s="1">
         <v>49</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="BU41" s="1">
         <v>34</v>
       </c>
-      <c r="AX41" s="16" t="s">
+      <c r="BV41" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>5</v>
       </c>
@@ -4327,18 +4618,18 @@
       <c r="AG42" s="2">
         <v>7</v>
       </c>
-      <c r="AH42" s="2"/>
-      <c r="AV42" s="1">
+      <c r="BF42" s="2"/>
+      <c r="BT42" s="1">
         <v>54</v>
       </c>
-      <c r="AW42" s="1">
+      <c r="BU42" s="1">
         <v>30</v>
       </c>
-      <c r="AX42" s="16" t="s">
+      <c r="BV42" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>6</v>
       </c>
@@ -4392,17 +4683,41 @@
       <c r="AG43" s="1">
         <v>8</v>
       </c>
-      <c r="AV43" s="1">
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BT43" s="1">
         <v>54</v>
       </c>
-      <c r="AW43" s="1">
+      <c r="BU43" s="1">
         <v>31</v>
       </c>
-      <c r="AX43" s="16" t="s">
+      <c r="BV43" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>48</v>
       </c>
@@ -4493,53 +4808,53 @@
       <c r="AG44" s="2">
         <v>7</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="BF44" s="1">
         <v>56</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="BG44" s="1">
         <v>40</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="BH44" s="1">
         <v>36</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="BI44" s="1">
         <v>98</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="BJ44" s="1">
         <v>60</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="BL44" s="1">
         <v>57</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="BM44" s="1">
         <v>29</v>
       </c>
-      <c r="AP44" s="1">
+      <c r="BN44" s="1">
         <v>48</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="BO44" s="1">
         <v>35</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="BP44" s="1">
         <v>2</v>
       </c>
-      <c r="AS44" s="1">
+      <c r="BQ44" s="1">
         <v>10</v>
       </c>
-      <c r="AU44" s="1">
+      <c r="BS44" s="1">
         <v>27</v>
       </c>
-      <c r="AV44" s="1">
+      <c r="BT44" s="1">
         <v>50</v>
       </c>
-      <c r="AW44" s="1">
+      <c r="BU44" s="1">
         <v>35</v>
       </c>
-      <c r="AX44" s="13" t="s">
+      <c r="BV44" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>207</v>
       </c>
@@ -4613,41 +4928,41 @@
       <c r="AG45" s="2">
         <v>6</v>
       </c>
-      <c r="AH45" s="1">
+      <c r="BF45" s="1">
         <v>53</v>
       </c>
-      <c r="AI45" s="1">
+      <c r="BG45" s="1">
         <v>33</v>
       </c>
-      <c r="AM45" s="2">
+      <c r="BK45" s="2">
         <v>50</v>
       </c>
-      <c r="AN45" s="2">
+      <c r="BL45" s="2">
         <v>57</v>
       </c>
-      <c r="AO45" s="1">
+      <c r="BM45" s="1">
         <v>35</v>
       </c>
-      <c r="AP45" s="1">
+      <c r="BN45" s="1">
         <v>56</v>
       </c>
-      <c r="AT45" s="2">
+      <c r="BR45" s="2">
         <v>36</v>
       </c>
-      <c r="AU45" s="2">
+      <c r="BS45" s="2">
         <v>29</v>
       </c>
-      <c r="AV45" s="1">
+      <c r="BT45" s="1">
         <v>48</v>
       </c>
-      <c r="AW45" s="1">
+      <c r="BU45" s="1">
         <v>40</v>
       </c>
-      <c r="AX45" s="13" t="s">
+      <c r="BV45" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>193</v>
       </c>
@@ -4684,26 +4999,26 @@
       <c r="AG46" s="2">
         <v>7</v>
       </c>
-      <c r="AH46" s="2"/>
-      <c r="AV46" s="1">
+      <c r="BF46" s="2"/>
+      <c r="BT46" s="1">
         <v>53</v>
       </c>
-      <c r="AW46" s="1">
+      <c r="BU46" s="1">
         <v>35</v>
       </c>
-      <c r="AX46" s="17" t="s">
+      <c r="BV46" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="C47" s="3">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="D47" s="11">
         <v>44593</v>
@@ -4711,200 +5026,144 @@
       <c r="E47" s="2">
         <v>2022</v>
       </c>
-      <c r="J47" s="1">
-        <v>45</v>
-      </c>
-      <c r="K47" s="1">
-        <v>29</v>
-      </c>
-      <c r="O47" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>22</v>
-      </c>
-      <c r="R47" s="1">
-        <v>40</v>
-      </c>
-      <c r="V47" s="1">
+      <c r="F47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>27</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>8</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>37</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>47</v>
+      </c>
+      <c r="BE47" s="2">
         <v>20</v>
       </c>
-      <c r="X47" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1">
-        <v>43</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>26</v>
-      </c>
-      <c r="AG47" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV47" s="1">
-        <v>54</v>
-      </c>
-      <c r="AW47" s="1">
-        <v>32</v>
-      </c>
-      <c r="AX47" s="15" t="s">
-        <v>92</v>
+      <c r="BF47" s="2"/>
+      <c r="BT47" s="1">
+        <v>49</v>
+      </c>
+      <c r="BU47" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV47" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C48" s="3">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="D48" s="11">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="E48" s="2">
         <v>2022</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2">
-        <v>95</v>
-      </c>
       <c r="J48" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" s="1">
-        <v>27</v>
-      </c>
-      <c r="L48" s="1">
+        <v>29</v>
+      </c>
+      <c r="O48" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>22</v>
+      </c>
+      <c r="R48" s="1">
+        <v>40</v>
+      </c>
+      <c r="V48" s="1">
+        <v>20</v>
+      </c>
+      <c r="X48" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF48" s="1">
         <v>26</v>
       </c>
-      <c r="M48" s="1">
-        <v>36</v>
-      </c>
-      <c r="N48" s="1">
-        <v>30</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="AG48" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BT48" s="1">
         <v>54</v>
       </c>
-      <c r="Q48" s="1">
-        <v>26</v>
-      </c>
-      <c r="R48" s="1">
+      <c r="BU48" s="1">
+        <v>32</v>
+      </c>
+      <c r="BV48" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S48" s="1">
-        <v>30</v>
-      </c>
-      <c r="T48" s="1">
-        <v>48</v>
-      </c>
-      <c r="U48" s="1">
-        <v>59</v>
-      </c>
-      <c r="W48" s="1">
-        <v>19</v>
-      </c>
-      <c r="X48" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>26</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>12</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>32</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>57</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>53</v>
-      </c>
-      <c r="AK48" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL48" s="1">
-        <v>30</v>
-      </c>
-      <c r="AN48" s="1">
-        <v>69</v>
-      </c>
-      <c r="AO48" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP48" s="1">
-        <v>53</v>
-      </c>
-      <c r="AQ48" s="1">
-        <v>37</v>
-      </c>
-      <c r="AR48" s="1">
-        <v>57</v>
-      </c>
-      <c r="AS48" s="1">
-        <v>63</v>
-      </c>
-      <c r="AU48" s="1">
-        <v>24</v>
-      </c>
-      <c r="AV48" s="1">
-        <v>51</v>
-      </c>
-      <c r="AW48" s="1">
-        <v>37</v>
-      </c>
-      <c r="AX48" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="B49" s="21" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="D49" s="11">
         <v>44621</v>
@@ -4912,94 +5171,133 @@
       <c r="E49" s="2">
         <v>2022</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>116</v>
+      <c r="F49" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="G49" s="1">
-        <v>2020</v>
+        <v>3000</v>
       </c>
       <c r="H49" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2">
         <v>95</v>
       </c>
       <c r="J49" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49" s="1">
-        <v>29</v>
-      </c>
-      <c r="O49" s="1">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="L49" s="1">
+        <v>26</v>
+      </c>
+      <c r="M49" s="1">
+        <v>36</v>
+      </c>
+      <c r="N49" s="1">
+        <v>30</v>
+      </c>
+      <c r="P49" s="1">
+        <v>54</v>
       </c>
       <c r="Q49" s="1">
         <v>26</v>
       </c>
       <c r="R49" s="1">
-        <v>44</v>
-      </c>
-      <c r="V49" s="1">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="S49" s="1">
+        <v>30</v>
+      </c>
+      <c r="T49" s="1">
+        <v>48</v>
+      </c>
+      <c r="U49" s="1">
+        <v>59</v>
+      </c>
+      <c r="W49" s="1">
+        <v>19</v>
       </c>
       <c r="X49" s="1">
         <v>7</v>
       </c>
       <c r="Y49" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD49" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>12</v>
+      </c>
       <c r="AE49" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF49" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG49" s="2">
         <v>7</v>
       </c>
-      <c r="AH49" s="1">
-        <v>50</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>34</v>
-      </c>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1">
+      <c r="BF49" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG49" s="1">
+        <v>30</v>
+      </c>
+      <c r="BH49" s="1">
         <v>53</v>
       </c>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1">
-        <v>32</v>
-      </c>
-      <c r="AP49" s="1">
+      <c r="BI49" s="1">
+        <v>36</v>
+      </c>
+      <c r="BJ49" s="1">
+        <v>30</v>
+      </c>
+      <c r="BL49" s="1">
+        <v>69</v>
+      </c>
+      <c r="BM49" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN49" s="1">
+        <v>53</v>
+      </c>
+      <c r="BO49" s="1">
+        <v>37</v>
+      </c>
+      <c r="BP49" s="1">
+        <v>57</v>
+      </c>
+      <c r="BQ49" s="1">
+        <v>63</v>
+      </c>
+      <c r="BS49" s="1">
+        <v>24</v>
+      </c>
+      <c r="BT49" s="1">
         <v>51</v>
       </c>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1">
-        <v>27</v>
-      </c>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW49" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX49" s="16" t="s">
-        <v>115</v>
+      <c r="BU49" s="1">
+        <v>37</v>
+      </c>
+      <c r="BV49" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" s="3">
         <v>44629</v>
@@ -5010,63 +5308,97 @@
       <c r="E50" s="2">
         <v>2022</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I50" s="2">
+        <v>95</v>
+      </c>
       <c r="J50" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O50" s="1">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="Q50" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R50" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="V50" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X50" s="1">
         <v>7</v>
       </c>
       <c r="Y50" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AF50" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF50" s="1">
+        <v>50</v>
+      </c>
+      <c r="BG50" s="1">
+        <v>34</v>
+      </c>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1">
+        <v>32</v>
+      </c>
+      <c r="BN50" s="1">
+        <v>51</v>
+      </c>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1">
+        <v>27</v>
+      </c>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1">
+        <v>46</v>
+      </c>
+      <c r="BU50" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV50" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AG50" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV50" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW50" s="1">
-        <v>33</v>
-      </c>
-      <c r="AX50" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="C51" s="3">
-        <v>44633</v>
+        <v>44629</v>
       </c>
       <c r="D51" s="11">
         <v>44621</v>
@@ -5074,83 +5406,87 @@
       <c r="E51" s="2">
         <v>2022</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2">
-        <v>95</v>
-      </c>
       <c r="J51" s="1">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K51" s="1">
         <v>33</v>
       </c>
       <c r="O51" s="1">
-        <v>36</v>
-      </c>
-      <c r="P51" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R51" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V51" s="1">
-        <v>17</v>
-      </c>
-      <c r="W51" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X51" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y51" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD51" s="2">
         <v>9</v>
       </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD51" s="1"/>
       <c r="AE51" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF51" s="1">
-        <v>26</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH51" s="2"/>
-      <c r="AV51" s="1">
-        <v>54</v>
-      </c>
-      <c r="AW51" s="1">
-        <v>32</v>
-      </c>
-      <c r="AX51" s="13" t="s">
-        <v>186</v>
+        <v>28</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BT51" s="1">
+        <v>53</v>
+      </c>
+      <c r="BU51" s="1">
+        <v>33</v>
+      </c>
+      <c r="BV51" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="C52" s="3">
-        <v>44635</v>
+        <v>44630</v>
       </c>
       <c r="D52" s="11">
         <v>44621</v>
@@ -5159,137 +5495,160 @@
         <v>2022</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="G52" s="1">
-        <v>3000</v>
+        <v>2095</v>
       </c>
       <c r="H52" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I52" s="2">
         <v>95</v>
       </c>
       <c r="J52" s="1">
+        <v>40</v>
+      </c>
+      <c r="K52" s="1">
+        <v>29</v>
+      </c>
+      <c r="L52" s="1">
+        <v>56</v>
+      </c>
+      <c r="M52" s="1">
+        <v>49</v>
+      </c>
+      <c r="O52" s="1">
+        <v>24</v>
+      </c>
+      <c r="P52" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>29</v>
+      </c>
+      <c r="R52" s="1">
+        <v>40</v>
+      </c>
+      <c r="S52" s="1">
+        <v>25</v>
+      </c>
+      <c r="T52" s="1">
+        <v>25</v>
+      </c>
+      <c r="V52" s="1">
+        <v>39</v>
+      </c>
+      <c r="W52" s="1">
+        <v>14</v>
+      </c>
+      <c r="X52" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>38</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>38</v>
+      </c>
+      <c r="AI52" s="1">
         <v>48</v>
       </c>
-      <c r="K52" s="1">
+      <c r="AJ52" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1">
+        <v>58</v>
+      </c>
+      <c r="AN52" s="1">
         <v>22</v>
       </c>
-      <c r="L52" s="1">
-        <v>45</v>
-      </c>
-      <c r="M52" s="1">
-        <v>56</v>
-      </c>
-      <c r="N52" s="1">
-        <v>50</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="1">
-        <v>47</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>20</v>
-      </c>
-      <c r="R52" s="1">
-        <v>46</v>
-      </c>
-      <c r="S52" s="1">
-        <v>18</v>
-      </c>
-      <c r="T52" s="1">
-        <v>33</v>
-      </c>
-      <c r="U52" s="1">
-        <v>19</v>
-      </c>
-      <c r="V52" s="2"/>
-      <c r="W52" s="1">
-        <v>27</v>
-      </c>
-      <c r="X52" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD52" s="1">
+      <c r="AO52" s="1">
+        <v>52</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>37</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>67</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>57</v>
+      </c>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1">
+        <v>36</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>63</v>
+      </c>
+      <c r="AV52" s="1">
         <v>10</v>
       </c>
-      <c r="AE52" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG52" s="2">
+      <c r="AW52" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>13</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB52" s="1">
         <v>7</v>
       </c>
-      <c r="AH52" s="1">
-        <v>56</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ52" s="1">
-        <v>66</v>
-      </c>
-      <c r="AK52" s="1">
-        <v>60</v>
-      </c>
-      <c r="AL52" s="1">
-        <v>69</v>
-      </c>
-      <c r="AN52" s="1">
-        <v>57</v>
-      </c>
-      <c r="AO52" s="1">
-        <v>28</v>
-      </c>
-      <c r="AP52" s="1">
-        <v>50</v>
-      </c>
-      <c r="AQ52" s="1">
-        <v>21</v>
-      </c>
-      <c r="AR52" s="1">
-        <v>35</v>
-      </c>
-      <c r="AS52" s="1">
-        <v>19</v>
-      </c>
-      <c r="AU52" s="1">
-        <v>34</v>
-      </c>
-      <c r="AV52" s="1">
-        <v>50</v>
-      </c>
-      <c r="AW52" s="1">
-        <v>36</v>
-      </c>
-      <c r="AX52" s="13" t="s">
-        <v>158</v>
+      <c r="BC52" s="1">
+        <v>39</v>
+      </c>
+      <c r="BD52" s="1">
+        <v>49</v>
+      </c>
+      <c r="BE52" s="1">
+        <v>11</v>
+      </c>
+      <c r="BV52" s="15" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3">
-        <v>44640</v>
+        <v>44633</v>
       </c>
       <c r="D53" s="11">
         <v>44621</v>
@@ -5298,7 +5657,7 @@
         <v>2022</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G53" s="1">
         <v>2000</v>
@@ -5310,69 +5669,70 @@
         <v>95</v>
       </c>
       <c r="J53" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K53" s="1">
+        <v>33</v>
+      </c>
+      <c r="O53" s="1">
+        <v>36</v>
+      </c>
+      <c r="P53" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>21</v>
+      </c>
+      <c r="R53" s="1">
         <v>38</v>
       </c>
-      <c r="O53" s="1">
-        <v>35</v>
-      </c>
-      <c r="P53" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>25</v>
-      </c>
-      <c r="R53" s="1">
-        <v>37</v>
-      </c>
       <c r="V53" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="W53" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X53" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG53" s="2">
         <v>7</v>
       </c>
-      <c r="AC53" s="2">
-        <v>9</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE53" s="1">
-        <v>43</v>
-      </c>
-      <c r="AF53" s="1">
-        <v>29</v>
-      </c>
-      <c r="AG53" s="2">
-        <v>9</v>
-      </c>
-      <c r="AV53" s="1">
+      <c r="BF53" s="2"/>
+      <c r="BT53" s="1">
         <v>54</v>
       </c>
-      <c r="AW53" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX53" s="16" t="s">
-        <v>206</v>
+      <c r="BU53" s="1">
+        <v>32</v>
+      </c>
+      <c r="BV53" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C54" s="3">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="D54" s="11">
         <v>44621</v>
@@ -5381,12 +5741,12 @@
         <v>2022</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="G54" s="1">
-        <v>2556</v>
-      </c>
-      <c r="H54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H54" s="1">
         <v>2</v>
       </c>
       <c r="I54" s="2">
@@ -5396,75 +5756,122 @@
         <v>48</v>
       </c>
       <c r="K54" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L54" s="1">
         <v>45</v>
       </c>
+      <c r="M54" s="1">
+        <v>56</v>
+      </c>
+      <c r="N54" s="1">
+        <v>50</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="1">
+        <v>47</v>
+      </c>
       <c r="Q54" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R54" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S54" s="1">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="T54" s="1">
+        <v>33</v>
+      </c>
+      <c r="U54" s="1">
+        <v>19</v>
+      </c>
+      <c r="V54" s="2"/>
+      <c r="W54" s="1">
+        <v>27</v>
       </c>
       <c r="X54" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z54" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>10</v>
       </c>
       <c r="AE54" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AF54" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG54" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH54" s="1">
-        <v>61</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>43</v>
-      </c>
-      <c r="AJ54" s="1">
-        <v>58</v>
-      </c>
-      <c r="AO54" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF54" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG54" s="1">
+        <v>34</v>
+      </c>
+      <c r="BH54" s="1">
+        <v>66</v>
+      </c>
+      <c r="BI54" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ54" s="1">
+        <v>69</v>
+      </c>
+      <c r="BL54" s="1">
+        <v>57</v>
+      </c>
+      <c r="BM54" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN54" s="1">
+        <v>50</v>
+      </c>
+      <c r="BO54" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP54" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ54" s="1">
+        <v>19</v>
+      </c>
+      <c r="BS54" s="1">
+        <v>34</v>
+      </c>
+      <c r="BT54" s="1">
+        <v>50</v>
+      </c>
+      <c r="BU54" s="1">
+        <v>36</v>
+      </c>
+      <c r="BV54" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AP54" s="1">
-        <v>46</v>
-      </c>
-      <c r="AQ54" s="1">
-        <v>31</v>
-      </c>
-      <c r="AV54" s="1">
-        <v>55</v>
-      </c>
-      <c r="AW54" s="1">
-        <v>34</v>
-      </c>
-      <c r="AX54" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="C55" s="3">
-        <v>44643</v>
+        <v>44640</v>
       </c>
       <c r="D55" s="11">
         <v>44621</v>
@@ -5472,63 +5879,82 @@
       <c r="E55" s="2">
         <v>2022</v>
       </c>
+      <c r="F55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <v>95</v>
+      </c>
       <c r="J55" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K55" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O55" s="1">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="P55" s="1">
+        <v>49</v>
       </c>
       <c r="Q55" s="1">
         <v>25</v>
       </c>
       <c r="R55" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="V55" s="1">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="W55" s="1">
+        <v>19</v>
       </c>
       <c r="X55" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y55" s="1">
         <v>7</v>
       </c>
-      <c r="Y55" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD55" s="1"/>
+      <c r="AC55" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>3</v>
+      </c>
       <c r="AE55" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF55" s="1">
-        <v>26</v>
-      </c>
-      <c r="AG55" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV55" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT55" s="1">
         <v>54</v>
       </c>
-      <c r="AW55" s="1">
-        <v>31</v>
-      </c>
-      <c r="AX55" s="15" t="s">
-        <v>90</v>
+      <c r="BU55" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV55" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C56" s="3">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="D56" s="11">
         <v>44621</v>
@@ -5537,108 +5963,90 @@
         <v>2022</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G56" s="1">
-        <v>2000</v>
+        <v>2556</v>
       </c>
       <c r="H56" s="2">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2">
         <v>95</v>
       </c>
       <c r="J56" s="1">
+        <v>48</v>
+      </c>
+      <c r="K56" s="1">
+        <v>34</v>
+      </c>
+      <c r="L56" s="1">
         <v>45</v>
       </c>
-      <c r="K56" s="1">
+      <c r="Q56" s="1">
+        <v>23</v>
+      </c>
+      <c r="R56" s="1">
+        <v>37</v>
+      </c>
+      <c r="S56" s="1">
+        <v>23</v>
+      </c>
+      <c r="X56" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF56" s="1">
         <v>26</v>
       </c>
-      <c r="O56" s="2">
+      <c r="AG56" s="2">
+        <v>6</v>
+      </c>
+      <c r="BF56" s="1">
+        <v>61</v>
+      </c>
+      <c r="BG56" s="1">
+        <v>43</v>
+      </c>
+      <c r="BH56" s="1">
+        <v>58</v>
+      </c>
+      <c r="BM56" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN56" s="1">
+        <v>46</v>
+      </c>
+      <c r="BO56" s="1">
+        <v>31</v>
+      </c>
+      <c r="BT56" s="1">
+        <v>55</v>
+      </c>
+      <c r="BU56" s="1">
         <v>34</v>
       </c>
-      <c r="P56" s="1">
-        <v>43</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>28</v>
-      </c>
-      <c r="R56" s="1">
-        <v>51</v>
-      </c>
-      <c r="V56" s="2">
-        <v>31</v>
-      </c>
-      <c r="W56" s="1">
-        <v>28</v>
-      </c>
-      <c r="X56" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>38</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>35</v>
-      </c>
-      <c r="AG56" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH56" s="1">
-        <v>55</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN56" s="1">
-        <v>56</v>
-      </c>
-      <c r="AO56" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP56" s="1">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="2">
-        <v>39</v>
-      </c>
-      <c r="AU56" s="1">
-        <v>33</v>
-      </c>
-      <c r="AV56" s="1">
-        <v>48</v>
-      </c>
-      <c r="AW56" s="1">
-        <v>41</v>
-      </c>
-      <c r="AX56" s="13" t="s">
-        <v>219</v>
+      <c r="BV56" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="C57" s="3">
-        <v>44649</v>
+        <v>44643</v>
       </c>
       <c r="D57" s="11">
         <v>44621</v>
@@ -5647,270 +6055,261 @@
         <v>2022</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="G57" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2">
         <v>95</v>
       </c>
-      <c r="J57" s="1">
-        <v>44</v>
-      </c>
-      <c r="K57" s="1">
-        <v>31</v>
-      </c>
-      <c r="L57" s="1">
-        <v>36</v>
-      </c>
-      <c r="M57" s="1">
-        <v>73</v>
-      </c>
-      <c r="N57" s="1">
-        <v>26</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="1">
+      <c r="AE57" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>9</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>47</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>35</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>14</v>
+      </c>
+      <c r="BT57" s="1">
         <v>50</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="BU57" s="1">
+        <v>37</v>
+      </c>
+      <c r="BV57" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="R57" s="1">
-        <v>43</v>
-      </c>
-      <c r="S57" s="1">
-        <v>38</v>
-      </c>
-      <c r="T57" s="1">
-        <v>0</v>
-      </c>
-      <c r="U57" s="1">
-        <v>13</v>
-      </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="1">
-        <v>22</v>
-      </c>
-      <c r="X57" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>11</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>41</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>32</v>
-      </c>
-      <c r="AG57" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH57" s="1">
-        <v>52</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>43</v>
-      </c>
-      <c r="AJ57" s="1">
-        <v>43</v>
-      </c>
-      <c r="AK57" s="1">
-        <v>75</v>
-      </c>
-      <c r="AL57" s="1">
-        <v>33</v>
-      </c>
-      <c r="AN57" s="1">
-        <v>58</v>
-      </c>
-      <c r="AO57" s="1">
-        <v>36</v>
-      </c>
-      <c r="AP57" s="1">
-        <v>49</v>
-      </c>
-      <c r="AQ57" s="1">
-        <v>37</v>
-      </c>
-      <c r="AR57" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS57" s="1">
-        <v>17</v>
-      </c>
-      <c r="AU57" s="1">
-        <v>32</v>
-      </c>
-      <c r="AV57" s="1">
-        <v>50</v>
-      </c>
-      <c r="AW57" s="1">
-        <v>38</v>
-      </c>
-      <c r="AX57" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="C58" s="3">
-        <v>44654</v>
+        <v>44643</v>
       </c>
       <c r="D58" s="11">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E58" s="2">
         <v>2022</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2</v>
-      </c>
-      <c r="I58" s="2">
-        <v>95</v>
-      </c>
       <c r="J58" s="1">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K58" s="1">
+        <v>39</v>
+      </c>
+      <c r="O58" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>25</v>
+      </c>
+      <c r="R58" s="1">
         <v>34</v>
       </c>
-      <c r="Q58" s="1">
-        <v>28</v>
-      </c>
-      <c r="R58" s="1">
-        <v>38</v>
-      </c>
+      <c r="V58" s="1">
+        <v>20</v>
+      </c>
+      <c r="X58" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="1"/>
       <c r="AE58" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF58" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BT58" s="1">
+        <v>54</v>
+      </c>
+      <c r="BU58" s="1">
         <v>31</v>
       </c>
-      <c r="AG58" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH58" s="2"/>
-      <c r="AV58" s="1">
-        <v>54</v>
-      </c>
-      <c r="AW58" s="1">
-        <v>34</v>
-      </c>
-      <c r="AX58" s="13" t="s">
-        <v>184</v>
+      <c r="BV58" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3">
-        <v>44656</v>
+        <v>44645</v>
       </c>
       <c r="D59" s="11">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E59" s="2">
         <v>2022</v>
       </c>
+      <c r="F59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I59" s="2">
+        <v>95</v>
+      </c>
       <c r="J59" s="1">
+        <v>45</v>
+      </c>
+      <c r="K59" s="1">
+        <v>26</v>
+      </c>
+      <c r="O59" s="2">
+        <v>34</v>
+      </c>
+      <c r="P59" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>28</v>
+      </c>
+      <c r="R59" s="1">
+        <v>51</v>
+      </c>
+      <c r="V59" s="2">
+        <v>31</v>
+      </c>
+      <c r="W59" s="1">
+        <v>28</v>
+      </c>
+      <c r="X59" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>38</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF59" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG59" s="1">
+        <v>35</v>
+      </c>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="2">
+        <v>45</v>
+      </c>
+      <c r="BL59" s="1">
+        <v>56</v>
+      </c>
+      <c r="BM59" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN59" s="1">
+        <v>58</v>
+      </c>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="2">
+        <v>39</v>
+      </c>
+      <c r="BS59" s="1">
+        <v>33</v>
+      </c>
+      <c r="BT59" s="1">
+        <v>48</v>
+      </c>
+      <c r="BU59" s="1">
         <v>41</v>
       </c>
-      <c r="K59" s="1">
-        <v>33</v>
-      </c>
-      <c r="O59" s="1">
-        <v>59</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>31</v>
-      </c>
-      <c r="R59" s="1">
-        <v>40</v>
-      </c>
-      <c r="V59" s="1">
-        <v>17</v>
-      </c>
-      <c r="X59" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1">
-        <v>44</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG59" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV59" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW59" s="1">
-        <v>33</v>
-      </c>
-      <c r="AX59" s="15" t="s">
-        <v>89</v>
+      <c r="BV59" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3">
-        <v>44663</v>
+        <v>44649</v>
       </c>
       <c r="D60" s="11">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="E60" s="2">
         <v>2022</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1">
         <v>3000</v>
@@ -5922,125 +6321,125 @@
         <v>95</v>
       </c>
       <c r="J60" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K60" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L60" s="1">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M60" s="1">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N60" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q60" s="1">
         <v>29</v>
       </c>
       <c r="R60" s="1">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="S60" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="T60" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U60" s="1">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X60" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>41</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG60" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF60" s="1">
+        <v>52</v>
+      </c>
+      <c r="BG60" s="1">
+        <v>43</v>
+      </c>
+      <c r="BH60" s="1">
+        <v>43</v>
+      </c>
+      <c r="BI60" s="1">
+        <v>75</v>
+      </c>
+      <c r="BJ60" s="1">
+        <v>33</v>
+      </c>
+      <c r="BL60" s="1">
+        <v>58</v>
+      </c>
+      <c r="BM60" s="1">
+        <v>36</v>
+      </c>
+      <c r="BN60" s="1">
+        <v>49</v>
+      </c>
+      <c r="BO60" s="1">
+        <v>37</v>
+      </c>
+      <c r="BP60" s="1">
         <v>5</v>
       </c>
-      <c r="Y60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="1">
+      <c r="BQ60" s="1">
+        <v>17</v>
+      </c>
+      <c r="BS60" s="1">
+        <v>32</v>
+      </c>
+      <c r="BT60" s="1">
+        <v>50</v>
+      </c>
+      <c r="BU60" s="1">
+        <v>38</v>
+      </c>
+      <c r="BV60" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>10</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF60" s="1">
+      <c r="B61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AG60" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>54</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>23</v>
-      </c>
-      <c r="AJ60" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK60" s="1">
-        <v>51</v>
-      </c>
-      <c r="AL60" s="1">
-        <v>21</v>
-      </c>
-      <c r="AN60" s="1">
-        <v>66</v>
-      </c>
-      <c r="AO60" s="1">
-        <v>32</v>
-      </c>
-      <c r="AP60" s="1">
-        <v>55</v>
-      </c>
-      <c r="AQ60" s="1">
-        <v>23</v>
-      </c>
-      <c r="AR60" s="1">
-        <v>49</v>
-      </c>
-      <c r="AS60" s="1">
-        <v>79</v>
-      </c>
-      <c r="AU60" s="1">
-        <v>25</v>
-      </c>
-      <c r="AV60" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW60" s="1">
-        <v>38</v>
-      </c>
-      <c r="AX60" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="C61" s="3">
-        <v>44664</v>
+        <v>44654</v>
       </c>
       <c r="D61" s="11">
         <v>44652</v>
@@ -6048,97 +6447,59 @@
       <c r="E61" s="2">
         <v>2022</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>114</v>
+      <c r="F61" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="G61" s="1">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="H61" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I61" s="2">
         <v>95</v>
       </c>
       <c r="J61" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K61" s="1">
-        <v>31</v>
-      </c>
-      <c r="O61" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q61" s="1">
         <v>28</v>
       </c>
       <c r="R61" s="1">
-        <v>43</v>
-      </c>
-      <c r="V61" s="1">
-        <v>28</v>
-      </c>
-      <c r="X61" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y61" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD61" s="1"/>
+        <v>38</v>
+      </c>
       <c r="AE61" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF61" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG61" s="2">
         <v>5</v>
       </c>
-      <c r="AH61" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1">
-        <v>52</v>
-      </c>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1">
+      <c r="BF61" s="2"/>
+      <c r="BT61" s="1">
+        <v>54</v>
+      </c>
+      <c r="BU61" s="1">
         <v>34</v>
       </c>
-      <c r="AP61" s="1">
-        <v>51</v>
-      </c>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1">
-        <v>34</v>
-      </c>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW61" s="1">
-        <v>38</v>
-      </c>
-      <c r="AX61" s="16" t="s">
-        <v>113</v>
+      <c r="BV61" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="C62" s="3">
-        <v>44671</v>
+        <v>44656</v>
       </c>
       <c r="D62" s="11">
         <v>44652</v>
@@ -6146,63 +6507,157 @@
       <c r="E62" s="2">
         <v>2022</v>
       </c>
+      <c r="F62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2095</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I62" s="2">
+        <v>95</v>
+      </c>
       <c r="J62" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K62" s="1">
+        <v>13</v>
+      </c>
+      <c r="L62" s="1">
+        <v>13</v>
+      </c>
+      <c r="M62" s="1">
+        <v>49</v>
+      </c>
+      <c r="O62" s="1">
         <v>34</v>
       </c>
-      <c r="O62" s="1">
-        <v>58</v>
+      <c r="P62" s="1">
+        <v>41</v>
       </c>
       <c r="Q62" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R62" s="1">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="S62" s="1">
+        <v>53</v>
+      </c>
+      <c r="T62" s="1">
+        <v>10</v>
       </c>
       <c r="V62" s="1">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="W62" s="1">
+        <v>26</v>
       </c>
       <c r="X62" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y62" s="1">
         <v>6</v>
       </c>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD62" s="1"/>
+      <c r="Z62" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>9</v>
+      </c>
       <c r="AE62" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AF62" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG62" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV62" s="1">
-        <v>54</v>
-      </c>
-      <c r="AW62" s="1">
-        <v>34</v>
-      </c>
-      <c r="AX62" s="15" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK62" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM62" s="2">
+        <v>32</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>55</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>26</v>
+      </c>
+      <c r="AQ62" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR62" s="2">
+        <v>50</v>
+      </c>
+      <c r="AT62" s="2">
+        <v>41</v>
+      </c>
+      <c r="AU62" s="2">
+        <v>61</v>
+      </c>
+      <c r="AV62" s="2">
+        <v>14</v>
+      </c>
+      <c r="AW62" s="2">
+        <v>26</v>
+      </c>
+      <c r="AX62" s="2">
+        <v>27</v>
+      </c>
+      <c r="AY62" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA62" s="2">
+        <v>30</v>
+      </c>
+      <c r="BB62" s="2">
+        <v>23</v>
+      </c>
+      <c r="BC62" s="2">
+        <v>42</v>
+      </c>
+      <c r="BD62" s="2">
+        <v>47</v>
+      </c>
+      <c r="BE62" s="2">
+        <v>17</v>
+      </c>
+      <c r="BV62" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C63" s="3">
-        <v>44675</v>
+        <v>44656</v>
       </c>
       <c r="D63" s="11">
         <v>44652</v>
@@ -6210,138 +6665,87 @@
       <c r="E63" s="2">
         <v>2022</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H63" s="1">
-        <v>2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>95</v>
-      </c>
       <c r="J63" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K63" s="1">
+        <v>33</v>
+      </c>
+      <c r="O63" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>31</v>
+      </c>
+      <c r="R63" s="1">
+        <v>40</v>
+      </c>
+      <c r="V63" s="1">
+        <v>17</v>
+      </c>
+      <c r="X63" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF63" s="1">
         <v>30</v>
       </c>
-      <c r="L63" s="1">
-        <v>49</v>
-      </c>
-      <c r="M63" s="1">
-        <v>68</v>
-      </c>
-      <c r="N63" s="1">
-        <v>12</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q63" s="1">
+      <c r="AG63" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BT63" s="1">
+        <v>53</v>
+      </c>
+      <c r="BU63" s="1">
         <v>33</v>
       </c>
-      <c r="R63" s="1">
-        <v>52</v>
-      </c>
-      <c r="S63" s="1">
-        <v>19</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1">
-        <v>59</v>
-      </c>
-      <c r="V63" s="2"/>
-      <c r="W63" s="1">
-        <v>22</v>
-      </c>
-      <c r="X63" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>14</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>41</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>36</v>
-      </c>
-      <c r="AG63" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>63</v>
-      </c>
-      <c r="AK63" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL63" s="1">
-        <v>50</v>
-      </c>
-      <c r="AN63" s="1">
-        <v>58</v>
-      </c>
-      <c r="AO63" s="1">
-        <v>34</v>
-      </c>
-      <c r="AP63" s="1">
-        <v>56</v>
-      </c>
-      <c r="AQ63" s="1">
-        <v>22</v>
-      </c>
-      <c r="AR63" s="1">
-        <v>14</v>
-      </c>
-      <c r="AS63" s="1">
-        <v>50</v>
-      </c>
-      <c r="AU63" s="1">
-        <v>28</v>
-      </c>
-      <c r="AV63" s="1">
+      <c r="BV63" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AW63" s="1">
-        <v>39</v>
-      </c>
-      <c r="AX63" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="B64" s="21" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C64" s="3">
-        <v>44675</v>
+        <v>44663</v>
       </c>
       <c r="D64" s="11">
         <v>44652</v>
@@ -6350,10 +6754,10 @@
         <v>2022</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="G64" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H64" s="1">
         <v>2</v>
@@ -6362,69 +6766,125 @@
         <v>95</v>
       </c>
       <c r="J64" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" s="1">
-        <v>31</v>
-      </c>
-      <c r="O64" s="1">
-        <v>33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L64" s="1">
+        <v>63</v>
+      </c>
+      <c r="M64" s="1">
+        <v>41</v>
+      </c>
+      <c r="N64" s="1">
+        <v>21</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q64" s="1">
         <v>29</v>
       </c>
       <c r="R64" s="1">
-        <v>46</v>
-      </c>
-      <c r="V64" s="1">
+        <v>53</v>
+      </c>
+      <c r="S64" s="1">
+        <v>17</v>
+      </c>
+      <c r="T64" s="1">
+        <v>47</v>
+      </c>
+      <c r="U64" s="1">
+        <v>79</v>
+      </c>
+      <c r="V64" s="2"/>
+      <c r="W64" s="1">
+        <v>21</v>
+      </c>
+      <c r="X64" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF64" s="1">
+        <v>54</v>
+      </c>
+      <c r="BG64" s="1">
+        <v>23</v>
+      </c>
+      <c r="BH64" s="1">
+        <v>72</v>
+      </c>
+      <c r="BI64" s="1">
+        <v>51</v>
+      </c>
+      <c r="BJ64" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL64" s="1">
+        <v>66</v>
+      </c>
+      <c r="BM64" s="1">
         <v>32</v>
       </c>
-      <c r="W64" s="1">
-        <v>17</v>
-      </c>
-      <c r="X64" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC64" s="2">
-        <v>9</v>
-      </c>
-      <c r="AD64" s="2">
-        <v>14</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>41</v>
-      </c>
-      <c r="AF64" s="1">
+      <c r="BN64" s="1">
+        <v>55</v>
+      </c>
+      <c r="BO64" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP64" s="1">
+        <v>49</v>
+      </c>
+      <c r="BQ64" s="1">
+        <v>79</v>
+      </c>
+      <c r="BS64" s="1">
+        <v>25</v>
+      </c>
+      <c r="BT64" s="1">
+        <v>47</v>
+      </c>
+      <c r="BU64" s="1">
+        <v>38</v>
+      </c>
+      <c r="BV64" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AG64" s="2">
-        <v>9</v>
-      </c>
-      <c r="AV64" s="1">
-        <v>52</v>
-      </c>
-      <c r="AW64" s="1">
-        <v>37</v>
-      </c>
-      <c r="AX64" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="C65" s="3">
-        <v>44676</v>
+        <v>44664</v>
       </c>
       <c r="D65" s="11">
         <v>44652</v>
@@ -6432,84 +6892,135 @@
       <c r="E65" s="2">
         <v>2022</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>212</v>
+      <c r="F65" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G65" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H65" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H65" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="I65" s="2">
         <v>95</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="V65" s="2"/>
+      <c r="J65" s="1">
+        <v>43</v>
+      </c>
+      <c r="K65" s="1">
+        <v>31</v>
+      </c>
+      <c r="O65" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>28</v>
+      </c>
+      <c r="R65" s="1">
+        <v>43</v>
+      </c>
+      <c r="V65" s="1">
+        <v>28</v>
+      </c>
+      <c r="X65" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD65" s="1"/>
       <c r="AE65" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF65" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG65" s="2">
-        <v>7</v>
-      </c>
-      <c r="AL65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AX65" s="13" t="s">
-        <v>221</v>
+        <v>5</v>
+      </c>
+      <c r="BF65" s="1">
+        <v>51</v>
+      </c>
+      <c r="BG65" s="1">
+        <v>36</v>
+      </c>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1">
+        <v>52</v>
+      </c>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1">
+        <v>34</v>
+      </c>
+      <c r="BN65" s="1">
+        <v>51</v>
+      </c>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1">
+        <v>34</v>
+      </c>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1">
+        <v>47</v>
+      </c>
+      <c r="BU65" s="1">
+        <v>38</v>
+      </c>
+      <c r="BV65" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C66" s="3">
-        <v>44683</v>
+        <v>44671</v>
       </c>
       <c r="D66" s="11">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E66" s="2">
         <v>2022</v>
       </c>
       <c r="J66" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O66" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q66" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R66" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V66" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X66" s="1">
         <v>8</v>
       </c>
       <c r="Y66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF66" s="1">
         <v>31</v>
@@ -6517,198 +7028,261 @@
       <c r="AG66" s="1">
         <v>8</v>
       </c>
-      <c r="AV66" s="1">
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BT66" s="1">
         <v>54</v>
       </c>
-      <c r="AW66" s="1">
+      <c r="BU66" s="1">
         <v>34</v>
       </c>
-      <c r="AX66" s="15" t="s">
-        <v>87</v>
+      <c r="BV66" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="18">
-        <v>44685</v>
+        <v>284</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44671</v>
       </c>
       <c r="D67" s="11">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E67" s="2">
         <v>2022</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="G67" s="1">
-        <v>2020</v>
+        <v>1500</v>
       </c>
       <c r="H67" s="1">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="I67" s="2">
         <v>95</v>
       </c>
-      <c r="J67" s="1">
-        <v>43</v>
-      </c>
-      <c r="K67" s="1">
-        <v>32</v>
-      </c>
-      <c r="O67" s="1">
-        <v>43</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>30</v>
-      </c>
-      <c r="R67" s="1">
-        <v>47</v>
-      </c>
-      <c r="V67" s="1">
-        <v>29</v>
-      </c>
-      <c r="X67" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>5</v>
-      </c>
+      <c r="O67" s="2"/>
+      <c r="V67" s="2"/>
       <c r="AB67" s="1"/>
-      <c r="AC67" s="1">
-        <v>10</v>
-      </c>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF67" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AG67" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>50</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1">
-        <v>51</v>
-      </c>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1">
-        <v>34</v>
-      </c>
-      <c r="AP67" s="1">
-        <v>50</v>
-      </c>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1">
-        <v>32</v>
-      </c>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW67" s="1">
-        <v>38</v>
-      </c>
-      <c r="AX67" s="16" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>39</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>45</v>
+      </c>
+      <c r="BE67" s="2">
+        <v>18</v>
+      </c>
+      <c r="BJ67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1">
+        <v>48</v>
+      </c>
+      <c r="BU67" s="1">
+        <v>39</v>
+      </c>
+      <c r="BV67" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="C68" s="3">
-        <v>44688</v>
+        <v>44675</v>
       </c>
       <c r="D68" s="11">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E68" s="2">
         <v>2022</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>198</v>
+      <c r="F68" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G68" s="1">
-        <v>2002</v>
+        <v>3000</v>
       </c>
       <c r="H68" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I68" s="2">
         <v>95</v>
       </c>
       <c r="J68" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68" s="1">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="L68" s="1">
+        <v>49</v>
+      </c>
+      <c r="M68" s="1">
+        <v>68</v>
+      </c>
+      <c r="N68" s="1">
+        <v>12</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="1">
+        <v>42</v>
       </c>
       <c r="Q68" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R68" s="1">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="S68" s="1">
+        <v>19</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>59</v>
+      </c>
+      <c r="V68" s="2"/>
+      <c r="W68" s="1">
+        <v>22</v>
       </c>
       <c r="X68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA68" s="1">
         <v>8</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="AB68" s="1">
         <v>6</v>
       </c>
+      <c r="AD68" s="1">
+        <v>14</v>
+      </c>
       <c r="AE68" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF68" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AG68" s="2">
+        <v>6</v>
+      </c>
+      <c r="BF68" s="1">
+        <v>51</v>
+      </c>
+      <c r="BG68" s="1">
+        <v>34</v>
+      </c>
+      <c r="BH68" s="1">
+        <v>63</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>70</v>
+      </c>
+      <c r="BJ68" s="1">
+        <v>50</v>
+      </c>
+      <c r="BL68" s="1">
+        <v>58</v>
+      </c>
+      <c r="BM68" s="1">
+        <v>34</v>
+      </c>
+      <c r="BN68" s="1">
+        <v>56</v>
+      </c>
+      <c r="BO68" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP68" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ68" s="1">
+        <v>50</v>
+      </c>
+      <c r="BS68" s="1">
+        <v>28</v>
+      </c>
+      <c r="BT68" s="1">
+        <v>48</v>
+      </c>
+      <c r="BU68" s="1">
+        <v>39</v>
+      </c>
+      <c r="BV68" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AV68" s="1">
-        <v>51</v>
-      </c>
-      <c r="AW68" s="1">
-        <v>37</v>
-      </c>
-      <c r="AX68" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="BA68" s="19"/>
-    </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="B69" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="3">
-        <v>44689</v>
+        <v>36</v>
+      </c>
+      <c r="C69" s="25">
+        <v>44675</v>
       </c>
       <c r="D69" s="11">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E69" s="2">
         <v>2022</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
@@ -6720,185 +7294,116 @@
         <v>95</v>
       </c>
       <c r="J69" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K69" s="1">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="O69" s="1">
+        <v>33</v>
+      </c>
+      <c r="P69" s="1">
+        <v>51</v>
       </c>
       <c r="Q69" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R69" s="1">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="V69" s="1">
+        <v>32</v>
+      </c>
+      <c r="W69" s="1">
+        <v>17</v>
+      </c>
+      <c r="X69" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>14</v>
       </c>
       <c r="AE69" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AF69" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG69" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH69" s="2"/>
-      <c r="AV69" s="1">
-        <v>55</v>
-      </c>
-      <c r="AW69" s="1">
-        <v>34</v>
-      </c>
-      <c r="AX69" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="BT69" s="1">
+        <v>52</v>
+      </c>
+      <c r="BU69" s="1">
+        <v>37</v>
+      </c>
+      <c r="BV69" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="C70" s="3">
-        <v>44691</v>
+        <v>44676</v>
       </c>
       <c r="D70" s="11">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="E70" s="2">
         <v>2022</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="G70" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H70" s="1">
-        <v>2</v>
+        <v>2000</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I70" s="2">
         <v>95</v>
       </c>
-      <c r="J70" s="1">
-        <v>47</v>
-      </c>
-      <c r="K70" s="1">
-        <v>25</v>
-      </c>
-      <c r="L70" s="1">
-        <v>61</v>
-      </c>
-      <c r="M70" s="1">
-        <v>45</v>
-      </c>
-      <c r="N70" s="1">
-        <v>23</v>
-      </c>
       <c r="O70" s="2"/>
-      <c r="P70" s="1">
-        <v>56</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>30</v>
-      </c>
-      <c r="R70" s="1">
-        <v>52</v>
-      </c>
-      <c r="S70" s="1">
-        <v>16</v>
-      </c>
-      <c r="T70" s="1">
-        <v>40</v>
-      </c>
-      <c r="U70" s="1">
-        <v>50</v>
-      </c>
       <c r="V70" s="2"/>
-      <c r="W70" s="1">
-        <v>22</v>
-      </c>
-      <c r="X70" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>9</v>
-      </c>
       <c r="AE70" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF70" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG70" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH70" s="1">
-        <v>55</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>28</v>
-      </c>
-      <c r="AJ70" s="1">
-        <v>71</v>
-      </c>
-      <c r="AK70" s="1">
-        <v>52</v>
-      </c>
-      <c r="AL70" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN70" s="1">
-        <v>66</v>
-      </c>
-      <c r="AO70" s="1">
-        <v>33</v>
-      </c>
-      <c r="AP70" s="1">
-        <v>55</v>
-      </c>
-      <c r="AQ70" s="1">
-        <v>23</v>
-      </c>
-      <c r="AR70" s="1">
-        <v>45</v>
-      </c>
-      <c r="AS70" s="1">
-        <v>80</v>
-      </c>
-      <c r="AU70" s="1">
-        <v>25</v>
-      </c>
-      <c r="AV70" s="1">
-        <v>49</v>
-      </c>
-      <c r="AW70" s="1">
-        <v>38</v>
-      </c>
-      <c r="AX70" s="13" t="s">
-        <v>140</v>
+        <v>7</v>
+      </c>
+      <c r="BJ70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BV70" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="3">
-        <v>44692</v>
+        <v>44683</v>
       </c>
       <c r="D71" s="11">
         <v>44682</v>
@@ -6907,62 +7412,86 @@
         <v>2022</v>
       </c>
       <c r="J71" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K71" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O71" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q71" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R71" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V71" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X71" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y71" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1">
         <v>44</v>
       </c>
       <c r="AF71" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG71" s="1">
         <v>8</v>
       </c>
-      <c r="AV71" s="1">
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BT71" s="1">
         <v>54</v>
       </c>
-      <c r="AW71" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX71" s="15" t="s">
-        <v>74</v>
+      <c r="BU71" s="1">
+        <v>34</v>
+      </c>
+      <c r="BV71" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="3">
-        <v>44699</v>
+        <v>42</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="18">
+        <v>44685</v>
       </c>
       <c r="D72" s="11">
         <v>44682</v>
@@ -6970,63 +7499,97 @@
       <c r="E72" s="2">
         <v>2022</v>
       </c>
+      <c r="F72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I72" s="2">
+        <v>95</v>
+      </c>
       <c r="J72" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K72" s="1">
         <v>32</v>
       </c>
       <c r="O72" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q72" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R72" s="1">
         <v>47</v>
       </c>
       <c r="V72" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X72" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y72" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF72" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF72" s="1">
+        <v>50</v>
+      </c>
+      <c r="BG72" s="1">
+        <v>36</v>
+      </c>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1">
+        <v>51</v>
+      </c>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1">
+        <v>34</v>
+      </c>
+      <c r="BN72" s="1">
+        <v>50</v>
+      </c>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1">
         <v>32</v>
       </c>
-      <c r="AG72" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV72" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW72" s="1">
-        <v>34</v>
-      </c>
-      <c r="AX72" s="15" t="s">
-        <v>86</v>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1">
+        <v>46</v>
+      </c>
+      <c r="BU72" s="1">
+        <v>38</v>
+      </c>
+      <c r="BV72" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C73" s="3">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="D73" s="11">
         <v>44682</v>
@@ -7034,106 +7597,65 @@
       <c r="E73" s="2">
         <v>2022</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>209</v>
+      <c r="F73" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G73" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H73" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H73" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="I73" s="2">
         <v>95</v>
       </c>
       <c r="J73" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K73" s="1">
-        <v>26</v>
-      </c>
-      <c r="O73" s="1">
-        <v>43</v>
-      </c>
-      <c r="P73" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q73" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R73" s="1">
-        <v>52</v>
-      </c>
-      <c r="V73" s="1">
-        <v>34</v>
-      </c>
-      <c r="W73" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="X73" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y73" s="1">
         <v>6</v>
       </c>
-      <c r="Y73" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD73" s="2">
+      <c r="AE73" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG73" s="2">
         <v>7</v>
       </c>
-      <c r="AE73" s="1">
+      <c r="BT73" s="1">
+        <v>51</v>
+      </c>
+      <c r="BU73" s="1">
         <v>37</v>
       </c>
-      <c r="AF73" s="1">
-        <v>34</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH73" s="1">
-        <v>55</v>
-      </c>
-      <c r="AI73" s="1">
-        <v>33</v>
-      </c>
-      <c r="AM73" s="2">
-        <v>51</v>
-      </c>
-      <c r="AN73" s="2">
-        <v>30</v>
-      </c>
-      <c r="AO73" s="1">
-        <v>35</v>
-      </c>
-      <c r="AP73" s="1">
-        <v>58</v>
-      </c>
-      <c r="AT73" s="2">
-        <v>36</v>
-      </c>
-      <c r="AU73" s="2">
-        <v>30</v>
-      </c>
-      <c r="AV73" s="2">
-        <v>49</v>
-      </c>
-      <c r="AW73" s="2">
+      <c r="BV73" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY73" s="19"/>
+    </row>
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AX73" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="C74" s="3">
-        <v>44705</v>
+        <v>44689</v>
       </c>
       <c r="D74" s="11">
         <v>44682</v>
@@ -7141,136 +7663,59 @@
       <c r="E74" s="2">
         <v>2022</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>232</v>
+      <c r="F74" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="G74" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H74" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H74" s="1">
         <v>2</v>
       </c>
       <c r="I74" s="2">
         <v>95</v>
       </c>
       <c r="J74" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K74" s="1">
-        <v>33</v>
-      </c>
-      <c r="L74" s="1">
-        <v>50</v>
-      </c>
-      <c r="M74" s="1">
-        <v>57</v>
-      </c>
-      <c r="N74" s="1">
-        <v>41</v>
-      </c>
-      <c r="P74" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>27</v>
+      </c>
+      <c r="R74" s="1">
+        <v>47</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF74" s="2"/>
+      <c r="BT74" s="1">
         <v>55</v>
       </c>
-      <c r="Q74" s="1">
-        <v>35</v>
-      </c>
-      <c r="R74" s="1">
-        <v>46</v>
-      </c>
-      <c r="S74" s="1">
-        <v>31</v>
-      </c>
-      <c r="T74" s="1">
-        <v>30</v>
-      </c>
-      <c r="U74" s="1">
-        <v>23</v>
-      </c>
-      <c r="W74" s="1">
-        <v>23</v>
-      </c>
-      <c r="X74" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>7</v>
-      </c>
-      <c r="AE74" s="1">
-        <v>43</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>35</v>
-      </c>
-      <c r="AG74" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH74" s="1">
-        <v>49</v>
-      </c>
-      <c r="AI74" s="1">
-        <v>42</v>
-      </c>
-      <c r="AJ74" s="1">
-        <v>53</v>
-      </c>
-      <c r="AK74" s="1">
-        <v>58</v>
-      </c>
-      <c r="AL74" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>63</v>
-      </c>
-      <c r="AO74" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP74" s="1">
-        <v>46</v>
-      </c>
-      <c r="AQ74" s="1">
-        <v>35</v>
-      </c>
-      <c r="AR74" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS74" s="2">
-        <v>23</v>
-      </c>
-      <c r="AU74" s="2">
-        <v>28</v>
-      </c>
-      <c r="AV74" s="2">
-        <v>50</v>
-      </c>
-      <c r="AW74" s="2">
-        <v>39</v>
-      </c>
-      <c r="AX74" s="13" t="s">
-        <v>233</v>
+      <c r="BU74" s="1">
+        <v>34</v>
+      </c>
+      <c r="BV74" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3">
-        <v>44706</v>
+        <v>44691</v>
       </c>
       <c r="D75" s="11">
         <v>44682</v>
@@ -7278,63 +7723,138 @@
       <c r="E75" s="2">
         <v>2022</v>
       </c>
+      <c r="F75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>95</v>
+      </c>
       <c r="J75" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K75" s="1">
-        <v>35</v>
-      </c>
-      <c r="O75" s="1">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="L75" s="1">
+        <v>61</v>
+      </c>
+      <c r="M75" s="1">
+        <v>45</v>
+      </c>
+      <c r="N75" s="1">
+        <v>23</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="1">
+        <v>56</v>
       </c>
       <c r="Q75" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R75" s="1">
-        <v>48</v>
-      </c>
-      <c r="V75" s="1">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="S75" s="1">
+        <v>16</v>
+      </c>
+      <c r="T75" s="1">
+        <v>40</v>
+      </c>
+      <c r="U75" s="1">
+        <v>50</v>
+      </c>
+      <c r="V75" s="2"/>
+      <c r="W75" s="1">
+        <v>22</v>
       </c>
       <c r="X75" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD75" s="1">
         <v>9</v>
       </c>
-      <c r="Y75" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD75" s="1"/>
       <c r="AE75" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG75" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF75" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG75" s="1">
+        <v>28</v>
+      </c>
+      <c r="BH75" s="1">
+        <v>71</v>
+      </c>
+      <c r="BI75" s="1">
+        <v>52</v>
+      </c>
+      <c r="BJ75" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL75" s="1">
+        <v>66</v>
+      </c>
+      <c r="BM75" s="1">
+        <v>33</v>
+      </c>
+      <c r="BN75" s="1">
+        <v>55</v>
+      </c>
+      <c r="BO75" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP75" s="1">
         <v>45</v>
       </c>
-      <c r="AF75" s="1">
-        <v>34</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV75" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW75" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX75" s="15" t="s">
-        <v>76</v>
+      <c r="BQ75" s="1">
+        <v>80</v>
+      </c>
+      <c r="BS75" s="1">
+        <v>25</v>
+      </c>
+      <c r="BT75" s="1">
+        <v>49</v>
+      </c>
+      <c r="BU75" s="1">
+        <v>38</v>
+      </c>
+      <c r="BV75" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C76" s="3">
-        <v>44707</v>
+        <v>44692</v>
       </c>
       <c r="D76" s="11">
         <v>44682</v>
@@ -7342,91 +7862,87 @@
       <c r="E76" s="2">
         <v>2022</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" s="1">
-        <v>2556</v>
-      </c>
-      <c r="H76" s="2">
-        <v>2</v>
-      </c>
-      <c r="I76" s="2">
-        <v>95</v>
-      </c>
       <c r="J76" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K76" s="1">
+        <v>34</v>
+      </c>
+      <c r="O76" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>30</v>
+      </c>
+      <c r="R76" s="1">
+        <v>48</v>
+      </c>
+      <c r="V76" s="1">
+        <v>22</v>
+      </c>
+      <c r="X76" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BT76" s="1">
+        <v>54</v>
+      </c>
+      <c r="BU76" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV76" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>26</v>
-      </c>
-      <c r="R76" s="1">
-        <v>44</v>
-      </c>
-      <c r="S76" s="1">
-        <v>37</v>
-      </c>
-      <c r="X76" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>9</v>
-      </c>
-      <c r="AE76" s="1">
-        <v>54</v>
-      </c>
-      <c r="AF76" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG76" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH76" s="1">
-        <v>65</v>
-      </c>
-      <c r="AI76" s="1">
-        <v>45</v>
-      </c>
-      <c r="AJ76" s="1">
-        <v>56</v>
-      </c>
-      <c r="AO76" s="1">
-        <v>27</v>
-      </c>
-      <c r="AP76" s="1">
-        <v>47</v>
-      </c>
-      <c r="AQ76" s="1">
-        <v>37</v>
-      </c>
-      <c r="AV76" s="2">
-        <v>58</v>
-      </c>
-      <c r="AW76" s="2">
-        <v>33</v>
-      </c>
-      <c r="AX76" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="C77" s="3">
-        <v>44710</v>
+        <v>44699</v>
       </c>
       <c r="D77" s="11">
         <v>44682</v>
@@ -7434,313 +7950,1111 @@
       <c r="E77" s="2">
         <v>2022</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G77" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H77" s="1">
-        <v>2</v>
-      </c>
-      <c r="I77" s="2">
-        <v>95</v>
-      </c>
       <c r="J77" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K77" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O77" s="1">
-        <v>38</v>
-      </c>
-      <c r="P77" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q77" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R77" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V77" s="1">
-        <v>36</v>
-      </c>
-      <c r="W77" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X77" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y77" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC77" s="2">
-        <v>10</v>
-      </c>
-      <c r="AD77" s="2">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD77" s="1"/>
       <c r="AE77" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF77" s="1">
         <v>32</v>
       </c>
-      <c r="AG77" s="2">
-        <v>9</v>
-      </c>
-      <c r="AV77" s="1">
-        <v>54</v>
-      </c>
-      <c r="AW77" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX77" s="16" t="s">
-        <v>55</v>
+      <c r="AG77" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BT77" s="1">
+        <v>53</v>
+      </c>
+      <c r="BU77" s="1">
+        <v>34</v>
+      </c>
+      <c r="BV77" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3">
-        <v>44713</v>
+        <v>44700</v>
       </c>
       <c r="D78" s="11">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="E78" s="2">
         <v>2022</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>102</v>
+      <c r="F78" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="G78" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H78" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I78" s="2">
-        <v>95.5</v>
-      </c>
-      <c r="J78" s="1">
-        <v>46</v>
-      </c>
-      <c r="K78" s="1">
-        <v>34</v>
-      </c>
-      <c r="O78" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>33</v>
-      </c>
-      <c r="R78" s="1">
-        <v>49</v>
-      </c>
-      <c r="V78" s="1">
-        <v>23</v>
-      </c>
-      <c r="X78" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="AB78" s="1"/>
-      <c r="AC78" s="1">
-        <v>11</v>
-      </c>
+      <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AF78" s="1">
-        <v>34</v>
-      </c>
-      <c r="AG78" s="2">
+        <v>32</v>
+      </c>
+      <c r="AG78" s="1">
         <v>9</v>
       </c>
-      <c r="AV78" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW78" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX78" s="16" t="s">
-        <v>110</v>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1">
+        <v>40</v>
+      </c>
+      <c r="BD78" s="1">
+        <v>43</v>
+      </c>
+      <c r="BE78" s="1">
+        <v>22</v>
+      </c>
+      <c r="BT78" s="1">
+        <v>46</v>
+      </c>
+      <c r="BU78" s="1">
+        <v>39</v>
+      </c>
+      <c r="BV78" s="15" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C79" s="3">
-        <v>44714</v>
+        <v>44701</v>
       </c>
       <c r="D79" s="11">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="E79" s="2">
         <v>2022</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="G79" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H79" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H79" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="I79" s="2">
         <v>95</v>
       </c>
       <c r="J79" s="1">
+        <v>47</v>
+      </c>
+      <c r="K79" s="1">
+        <v>26</v>
+      </c>
+      <c r="O79" s="1">
+        <v>43</v>
+      </c>
+      <c r="P79" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>31</v>
+      </c>
+      <c r="R79" s="1">
+        <v>52</v>
+      </c>
+      <c r="V79" s="1">
+        <v>34</v>
+      </c>
+      <c r="W79" s="1">
+        <v>25</v>
+      </c>
+      <c r="X79" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>37</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG79" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK79" s="2">
+        <v>51</v>
+      </c>
+      <c r="BL79" s="2">
+        <v>30</v>
+      </c>
+      <c r="BM79" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN79" s="1">
+        <v>58</v>
+      </c>
+      <c r="BR79" s="2">
+        <v>36</v>
+      </c>
+      <c r="BS79" s="2">
+        <v>30</v>
+      </c>
+      <c r="BT79" s="2">
+        <v>49</v>
+      </c>
+      <c r="BU79" s="2">
+        <v>41</v>
+      </c>
+      <c r="BV79" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44705</v>
+      </c>
+      <c r="D80" s="11">
+        <v>44682</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2</v>
+      </c>
+      <c r="I80" s="2">
+        <v>95</v>
+      </c>
+      <c r="J80" s="1">
+        <v>44</v>
+      </c>
+      <c r="K80" s="1">
+        <v>33</v>
+      </c>
+      <c r="L80" s="1">
+        <v>50</v>
+      </c>
+      <c r="M80" s="1">
+        <v>57</v>
+      </c>
+      <c r="N80" s="1">
+        <v>41</v>
+      </c>
+      <c r="P80" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>35</v>
+      </c>
+      <c r="R80" s="1">
         <v>46</v>
       </c>
-      <c r="K79" s="1">
+      <c r="S80" s="1">
+        <v>31</v>
+      </c>
+      <c r="T80" s="1">
         <v>30</v>
       </c>
-      <c r="O79" s="1">
+      <c r="U80" s="1">
+        <v>23</v>
+      </c>
+      <c r="W80" s="1">
+        <v>23</v>
+      </c>
+      <c r="X80" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF80" s="1">
+        <v>49</v>
+      </c>
+      <c r="BG80" s="1">
+        <v>42</v>
+      </c>
+      <c r="BH80" s="1">
+        <v>53</v>
+      </c>
+      <c r="BI80" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ80" s="2">
+        <v>73</v>
+      </c>
+      <c r="BL80" s="2">
+        <v>63</v>
+      </c>
+      <c r="BM80" s="1">
+        <v>40</v>
+      </c>
+      <c r="BN80" s="1">
+        <v>46</v>
+      </c>
+      <c r="BO80" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP80" s="1">
+        <v>42</v>
+      </c>
+      <c r="BQ80" s="2">
+        <v>23</v>
+      </c>
+      <c r="BS80" s="2">
+        <v>28</v>
+      </c>
+      <c r="BT80" s="2">
+        <v>50</v>
+      </c>
+      <c r="BU80" s="2">
+        <v>39</v>
+      </c>
+      <c r="BV80" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44706</v>
+      </c>
+      <c r="D81" s="11">
+        <v>44682</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J81" s="1">
+        <v>41</v>
+      </c>
+      <c r="K81" s="1">
+        <v>35</v>
+      </c>
+      <c r="O81" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>34</v>
+      </c>
+      <c r="R81" s="1">
+        <v>48</v>
+      </c>
+      <c r="V81" s="1">
+        <v>21</v>
+      </c>
+      <c r="X81" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1">
         <v>45</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="AF81" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BT81" s="1">
+        <v>53</v>
+      </c>
+      <c r="BU81" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV81" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D82" s="11">
+        <v>44682</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2556</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2</v>
+      </c>
+      <c r="I82" s="2">
+        <v>95</v>
+      </c>
+      <c r="J82" s="1">
+        <v>60</v>
+      </c>
+      <c r="K82" s="1">
+        <v>40</v>
+      </c>
+      <c r="L82" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>26</v>
+      </c>
+      <c r="R82" s="1">
+        <v>44</v>
+      </c>
+      <c r="S82" s="1">
+        <v>37</v>
+      </c>
+      <c r="X82" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF82" s="1">
         <v>30</v>
       </c>
-      <c r="R79" s="1">
+      <c r="AG82" s="2">
+        <v>8</v>
+      </c>
+      <c r="BF82" s="1">
+        <v>65</v>
+      </c>
+      <c r="BG82" s="1">
+        <v>45</v>
+      </c>
+      <c r="BH82" s="1">
+        <v>56</v>
+      </c>
+      <c r="BM82" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN82" s="1">
+        <v>47</v>
+      </c>
+      <c r="BO82" s="1">
+        <v>37</v>
+      </c>
+      <c r="BT82" s="2">
+        <v>58</v>
+      </c>
+      <c r="BU82" s="2">
+        <v>33</v>
+      </c>
+      <c r="BV82" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44710</v>
+      </c>
+      <c r="D83" s="11">
+        <v>44682</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2</v>
+      </c>
+      <c r="I83" s="2">
+        <v>95</v>
+      </c>
+      <c r="J83" s="1">
+        <v>52</v>
+      </c>
+      <c r="K83" s="1">
+        <v>35</v>
+      </c>
+      <c r="O83" s="1">
+        <v>38</v>
+      </c>
+      <c r="P83" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>27</v>
+      </c>
+      <c r="R83" s="1">
+        <v>46</v>
+      </c>
+      <c r="V83" s="1">
+        <v>36</v>
+      </c>
+      <c r="W83" s="1">
+        <v>18</v>
+      </c>
+      <c r="X83" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG83" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT83" s="1">
+        <v>54</v>
+      </c>
+      <c r="BU83" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV83" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D84" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J84" s="1">
+        <v>46</v>
+      </c>
+      <c r="K84" s="1">
+        <v>34</v>
+      </c>
+      <c r="O84" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>33</v>
+      </c>
+      <c r="R84" s="1">
         <v>49</v>
       </c>
-      <c r="V79" s="1">
+      <c r="V84" s="1">
+        <v>23</v>
+      </c>
+      <c r="X84" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG84" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT84" s="1">
+        <v>53</v>
+      </c>
+      <c r="BU84" s="1">
+        <v>35</v>
+      </c>
+      <c r="BV84" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44714</v>
+      </c>
+      <c r="D85" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I85" s="2">
+        <v>95</v>
+      </c>
+      <c r="J85" s="1">
+        <v>46</v>
+      </c>
+      <c r="K85" s="1">
+        <v>30</v>
+      </c>
+      <c r="O85" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>30</v>
+      </c>
+      <c r="R85" s="1">
+        <v>49</v>
+      </c>
+      <c r="V85" s="1">
         <v>26</v>
       </c>
-      <c r="X79" s="1">
+      <c r="X85" s="1">
         <v>8</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Y85" s="1">
         <v>5</v>
       </c>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1">
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1">
         <v>11</v>
       </c>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1">
         <v>41</v>
       </c>
-      <c r="AF79" s="1">
+      <c r="AF85" s="1">
         <v>35</v>
       </c>
-      <c r="AG79" s="1">
+      <c r="AG85" s="1">
         <v>7</v>
       </c>
-      <c r="AH79" s="1">
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1">
         <v>53</v>
       </c>
-      <c r="AI79" s="1">
+      <c r="BG85" s="1">
         <v>34</v>
       </c>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1">
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1">
         <v>51</v>
       </c>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1">
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1">
         <v>33</v>
       </c>
-      <c r="AP79" s="1">
+      <c r="BN85" s="1">
         <v>54</v>
       </c>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1">
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1">
         <v>31</v>
       </c>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1">
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1">
         <v>47</v>
       </c>
-      <c r="AW79" s="1">
+      <c r="BU85" s="1">
         <v>39</v>
       </c>
-      <c r="AX79" s="16" t="s">
+      <c r="BV85" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="19"/>
+    <row r="86" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="3">
+        <v>44715</v>
+      </c>
+      <c r="D86" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2095</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I86" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>39</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>37</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>7</v>
+      </c>
+      <c r="BC86" s="2">
+        <v>43</v>
+      </c>
+      <c r="BD86" s="2">
+        <v>49</v>
+      </c>
+      <c r="BE86" s="2">
+        <v>14</v>
+      </c>
+      <c r="BV86" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44717</v>
+      </c>
+      <c r="D87" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2">
+        <v>95</v>
+      </c>
+      <c r="J87" s="1">
+        <v>53</v>
+      </c>
+      <c r="K87" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>24</v>
+      </c>
+      <c r="R87" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG87" s="2">
+        <v>7</v>
+      </c>
+      <c r="BT87" s="1">
+        <v>54</v>
+      </c>
+      <c r="BU87" s="1">
+        <v>32</v>
+      </c>
+      <c r="BV87" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44719</v>
+      </c>
+      <c r="D88" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG88" s="2">
+        <v>6</v>
+      </c>
+      <c r="BT88" s="1">
+        <v>50</v>
+      </c>
+      <c r="BU88" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="D90" s="19"/>
+    </row>
+    <row r="92" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E92" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BV88" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AX14" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>
-    <hyperlink ref="AX77" r:id="rId2" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
-    <hyperlink ref="AX22" r:id="rId3" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
-    <hyperlink ref="AX60" r:id="rId4" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
-    <hyperlink ref="AX54" r:id="rId5" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
-    <hyperlink ref="AX20" r:id="rId6" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
-    <hyperlink ref="AX7" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
-    <hyperlink ref="AX69" r:id="rId8" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
-    <hyperlink ref="AX42" r:id="rId9" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
-    <hyperlink ref="AX31" r:id="rId10" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
-    <hyperlink ref="AX43" r:id="rId11" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
-    <hyperlink ref="AX39" r:id="rId12" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
-    <hyperlink ref="AX78" r:id="rId13" xr:uid="{AF073CA8-C6FA-45C2-9158-F330AD248DD7}"/>
-    <hyperlink ref="AX79" r:id="rId14" xr:uid="{8C294AC6-DB3A-40CB-89C2-0BEF6BB88EFF}"/>
-    <hyperlink ref="AX67" r:id="rId15" xr:uid="{32677706-12DF-493B-A25C-8E73B2C32554}"/>
-    <hyperlink ref="AX61" r:id="rId16" xr:uid="{D7C9F95E-C799-4911-B61B-1E4E4CC72B88}"/>
-    <hyperlink ref="AX49" r:id="rId17" xr:uid="{1D04A4EC-AB17-45BA-B5CD-4EDF0618FBBB}"/>
-    <hyperlink ref="AX41" r:id="rId18" xr:uid="{CF59A843-C708-41C6-88E8-C8E947554B0A}"/>
-    <hyperlink ref="AX15" r:id="rId19" xr:uid="{8A722C2D-656F-4745-8E1B-FAA1FEFA0F36}"/>
-    <hyperlink ref="AX10" r:id="rId20" xr:uid="{353EA0C0-FDD3-4BE9-80D5-6A2013AE562E}"/>
-    <hyperlink ref="AX5" r:id="rId21" xr:uid="{75AAA869-99CA-4335-8AD1-6F1D0ACCE7EC}"/>
-    <hyperlink ref="AX70" r:id="rId22" xr:uid="{A9D3CDB8-FACE-43D0-BA20-9948F80816FD}"/>
-    <hyperlink ref="AX63" r:id="rId23" xr:uid="{79DB663C-9279-4EF4-9A80-33D1A78009DD}"/>
-    <hyperlink ref="AX57" r:id="rId24" xr:uid="{9DC97AAB-BEF2-44D1-8D86-204EE2871D60}"/>
-    <hyperlink ref="AX52" r:id="rId25" xr:uid="{3E3D9DE5-75CB-47AD-8F14-C11525253CB3}"/>
-    <hyperlink ref="AX48" r:id="rId26" xr:uid="{B5349ED6-2358-4FA9-AB0B-4290D95FB0E8}"/>
-    <hyperlink ref="AX44" r:id="rId27" xr:uid="{B9CD8FC6-2076-40CB-8794-B22D5738905D}"/>
-    <hyperlink ref="AX40" r:id="rId28" xr:uid="{9AFFE17F-81CB-43FC-A27B-9BD088113430}"/>
-    <hyperlink ref="AX37" r:id="rId29" xr:uid="{A0066DA8-0EAA-4C86-8DD1-6D9998B39084}"/>
-    <hyperlink ref="AX34" r:id="rId30" xr:uid="{F51433DD-3D11-4FB1-BBAD-0530F7D69814}"/>
-    <hyperlink ref="AX29" r:id="rId31" xr:uid="{0C81DC96-FC54-4F1B-9481-9AE73D8B8CCE}"/>
-    <hyperlink ref="AX25" r:id="rId32" xr:uid="{03ED404E-FB18-482D-B81B-34E0BB731446}"/>
-    <hyperlink ref="AX19" r:id="rId33" xr:uid="{73ABB494-76B6-451C-9A8B-E5839B4BB142}"/>
-    <hyperlink ref="AX16" r:id="rId34" xr:uid="{09B15F78-C6F2-421E-94D9-430AAC035553}"/>
-    <hyperlink ref="AX9" r:id="rId35" xr:uid="{B623A43C-79FF-42E2-9058-E6483A924825}"/>
-    <hyperlink ref="AX6" r:id="rId36" xr:uid="{99127D2B-44C9-4F91-A1B8-7EEF98E29C09}"/>
-    <hyperlink ref="AX3" r:id="rId37" xr:uid="{F2661EBE-F76D-4B78-AF9D-71C6FD0D0A16}"/>
-    <hyperlink ref="AX32" r:id="rId38" xr:uid="{669D4776-8AA9-42BA-A61B-AAA38CF39E2E}"/>
-    <hyperlink ref="AX58" r:id="rId39" xr:uid="{ED616366-A3C0-4497-8D5A-4211684E32E3}"/>
-    <hyperlink ref="AX51" r:id="rId40" xr:uid="{61B22AF7-8FDD-45C0-BE3E-F3206C6AF799}"/>
-    <hyperlink ref="AX35" r:id="rId41" xr:uid="{6E3D8DFC-56EF-4531-ABD3-5A0E15FC95A8}"/>
-    <hyperlink ref="AX27" r:id="rId42" xr:uid="{7CF60E77-FC4B-4154-A419-93891C0BFE7F}"/>
-    <hyperlink ref="AX23" r:id="rId43" xr:uid="{8D6FCD2A-AFCC-42FC-A5DD-EE4A1AF5A060}"/>
-    <hyperlink ref="AX18" r:id="rId44" xr:uid="{1F3CDC72-3AEF-4ED5-BB7A-149C1A538964}"/>
-    <hyperlink ref="AX76" r:id="rId45" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
-    <hyperlink ref="AX8" r:id="rId46" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
-    <hyperlink ref="AX64" r:id="rId47" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
-    <hyperlink ref="AX73" r:id="rId48" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{08BD6BEA-83FB-4FE1-8EFB-933A54797B8F}"/>
-    <hyperlink ref="AX65" r:id="rId49" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{71F43687-4DFA-4CE1-9C02-169894097985}"/>
-    <hyperlink ref="AX56" r:id="rId50" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{44A588A4-58D5-4766-9A0D-4940E1171480}"/>
-    <hyperlink ref="AX45" r:id="rId51" display="https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{538D6084-1D57-4387-8145-2766B35EC4F1}"/>
-    <hyperlink ref="AX33" r:id="rId52" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{65CFF0B4-F2F2-42B9-B142-D122E81376E2}"/>
-    <hyperlink ref="AX28" r:id="rId53" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{73A46F42-1BCC-4014-B85F-51A97CDA3C49}"/>
-    <hyperlink ref="AX24" r:id="rId54" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{E9A72215-4C1C-44DC-857E-7B039B3D5600}"/>
-    <hyperlink ref="AX17" r:id="rId55" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
-    <hyperlink ref="AX68" r:id="rId56" xr:uid="{62D6A31F-EC60-434E-A8D9-FBE1714CB972}"/>
-    <hyperlink ref="AX26" r:id="rId57" xr:uid="{C510C399-2AAD-4481-ABC8-DCFEC4746788}"/>
-    <hyperlink ref="AX38" r:id="rId58" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{2EDEEE05-3A23-489C-B2F0-282840E79D57}"/>
+    <hyperlink ref="BV14" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>
+    <hyperlink ref="BV83" r:id="rId2" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
+    <hyperlink ref="BV22" r:id="rId3" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
+    <hyperlink ref="BV64" r:id="rId4" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
+    <hyperlink ref="BV56" r:id="rId5" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
+    <hyperlink ref="BV20" r:id="rId6" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
+    <hyperlink ref="BV7" r:id="rId7" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
+    <hyperlink ref="BV74" r:id="rId8" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
+    <hyperlink ref="BV42" r:id="rId9" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
+    <hyperlink ref="BV31" r:id="rId10" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
+    <hyperlink ref="BV43" r:id="rId11" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
+    <hyperlink ref="BV39" r:id="rId12" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
+    <hyperlink ref="BV84" r:id="rId13" xr:uid="{AF073CA8-C6FA-45C2-9158-F330AD248DD7}"/>
+    <hyperlink ref="BV85" r:id="rId14" xr:uid="{8C294AC6-DB3A-40CB-89C2-0BEF6BB88EFF}"/>
+    <hyperlink ref="BV72" r:id="rId15" xr:uid="{32677706-12DF-493B-A25C-8E73B2C32554}"/>
+    <hyperlink ref="BV65" r:id="rId16" xr:uid="{D7C9F95E-C799-4911-B61B-1E4E4CC72B88}"/>
+    <hyperlink ref="BV50" r:id="rId17" xr:uid="{1D04A4EC-AB17-45BA-B5CD-4EDF0618FBBB}"/>
+    <hyperlink ref="BV41" r:id="rId18" xr:uid="{CF59A843-C708-41C6-88E8-C8E947554B0A}"/>
+    <hyperlink ref="BV15" r:id="rId19" xr:uid="{8A722C2D-656F-4745-8E1B-FAA1FEFA0F36}"/>
+    <hyperlink ref="BV10" r:id="rId20" xr:uid="{353EA0C0-FDD3-4BE9-80D5-6A2013AE562E}"/>
+    <hyperlink ref="BV5" r:id="rId21" xr:uid="{75AAA869-99CA-4335-8AD1-6F1D0ACCE7EC}"/>
+    <hyperlink ref="BV75" r:id="rId22" xr:uid="{A9D3CDB8-FACE-43D0-BA20-9948F80816FD}"/>
+    <hyperlink ref="BV68" r:id="rId23" xr:uid="{79DB663C-9279-4EF4-9A80-33D1A78009DD}"/>
+    <hyperlink ref="BV60" r:id="rId24" xr:uid="{9DC97AAB-BEF2-44D1-8D86-204EE2871D60}"/>
+    <hyperlink ref="BV54" r:id="rId25" xr:uid="{3E3D9DE5-75CB-47AD-8F14-C11525253CB3}"/>
+    <hyperlink ref="BV49" r:id="rId26" xr:uid="{B5349ED6-2358-4FA9-AB0B-4290D95FB0E8}"/>
+    <hyperlink ref="BV44" r:id="rId27" xr:uid="{B9CD8FC6-2076-40CB-8794-B22D5738905D}"/>
+    <hyperlink ref="BV40" r:id="rId28" xr:uid="{9AFFE17F-81CB-43FC-A27B-9BD088113430}"/>
+    <hyperlink ref="BV37" r:id="rId29" xr:uid="{A0066DA8-0EAA-4C86-8DD1-6D9998B39084}"/>
+    <hyperlink ref="BV34" r:id="rId30" xr:uid="{F51433DD-3D11-4FB1-BBAD-0530F7D69814}"/>
+    <hyperlink ref="BV29" r:id="rId31" xr:uid="{0C81DC96-FC54-4F1B-9481-9AE73D8B8CCE}"/>
+    <hyperlink ref="BV25" r:id="rId32" xr:uid="{03ED404E-FB18-482D-B81B-34E0BB731446}"/>
+    <hyperlink ref="BV19" r:id="rId33" xr:uid="{73ABB494-76B6-451C-9A8B-E5839B4BB142}"/>
+    <hyperlink ref="BV16" r:id="rId34" xr:uid="{09B15F78-C6F2-421E-94D9-430AAC035553}"/>
+    <hyperlink ref="BV9" r:id="rId35" xr:uid="{B623A43C-79FF-42E2-9058-E6483A924825}"/>
+    <hyperlink ref="BV6" r:id="rId36" xr:uid="{99127D2B-44C9-4F91-A1B8-7EEF98E29C09}"/>
+    <hyperlink ref="BV3" r:id="rId37" xr:uid="{F2661EBE-F76D-4B78-AF9D-71C6FD0D0A16}"/>
+    <hyperlink ref="BV32" r:id="rId38" xr:uid="{669D4776-8AA9-42BA-A61B-AAA38CF39E2E}"/>
+    <hyperlink ref="BV61" r:id="rId39" xr:uid="{ED616366-A3C0-4497-8D5A-4211684E32E3}"/>
+    <hyperlink ref="BV53" r:id="rId40" xr:uid="{61B22AF7-8FDD-45C0-BE3E-F3206C6AF799}"/>
+    <hyperlink ref="BV35" r:id="rId41" xr:uid="{6E3D8DFC-56EF-4531-ABD3-5A0E15FC95A8}"/>
+    <hyperlink ref="BV27" r:id="rId42" xr:uid="{7CF60E77-FC4B-4154-A419-93891C0BFE7F}"/>
+    <hyperlink ref="BV23" r:id="rId43" xr:uid="{8D6FCD2A-AFCC-42FC-A5DD-EE4A1AF5A060}"/>
+    <hyperlink ref="BV18" r:id="rId44" xr:uid="{1F3CDC72-3AEF-4ED5-BB7A-149C1A538964}"/>
+    <hyperlink ref="BV82" r:id="rId45" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
+    <hyperlink ref="BV8" r:id="rId46" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
+    <hyperlink ref="BV69" r:id="rId47" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
+    <hyperlink ref="BV79" r:id="rId48" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202205%5F11%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV00%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{08BD6BEA-83FB-4FE1-8EFB-933A54797B8F}"/>
+    <hyperlink ref="BV70" r:id="rId49" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F10%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{71F43687-4DFA-4CE1-9C02-169894097985}"/>
+    <hyperlink ref="BV59" r:id="rId50" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202203%5F9%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{44A588A4-58D5-4766-9A0D-4940E1171480}"/>
+    <hyperlink ref="BV45" r:id="rId51" display="https://futurainteligencia-my.sharepoint.com/personal/gabrieli_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202202%5F%20Divulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fgabrieli%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{538D6084-1D57-4387-8145-2766B35EC4F1}"/>
+    <hyperlink ref="BV33" r:id="rId52" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202110%5F6%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{65CFF0B4-F2F2-42B9-B142-D122E81376E2}"/>
+    <hyperlink ref="BV28" r:id="rId53" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FPesquisa%5FModalmais%5FFutura%5F5%C2%AA%5FEdi%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{73A46F42-1BCC-4014-B85F-51A97CDA3C49}"/>
+    <hyperlink ref="BV24" r:id="rId54" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalmais%5F202110%5FRelat%C3%B3rioDivulga%C3%A7%C3%A3o%5FV02%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{E9A72215-4C1C-44DC-857E-7B039B3D5600}"/>
+    <hyperlink ref="BV17" r:id="rId55" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
+    <hyperlink ref="BV73" r:id="rId56" xr:uid="{62D6A31F-EC60-434E-A8D9-FBE1714CB972}"/>
+    <hyperlink ref="BV26" r:id="rId57" xr:uid="{C510C399-2AAD-4481-ABC8-DCFEC4746788}"/>
+    <hyperlink ref="BV38" r:id="rId58" display="https://futurainteligencia-my.sharepoint.com/personal/simone_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202201%5FDivulga%C3%A7%C3%A3o%5FV01%2Epdf&amp;parent=%2Fpersonal%2Fsimone%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{2EDEEE05-3A23-489C-B2F0-282840E79D57}"/>
+    <hyperlink ref="BV86" r:id="rId59" xr:uid="{1C262FAB-3434-4A0A-9190-63D6DE991E22}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B4C28-7815-4E45-A254-58198891D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1E8C7D-3549-4B0E-BD5A-96CCC32497C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14250" yWindow="1755" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="3510" yWindow="1965" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1516,10 +1516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CP88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BN1" sqref="BN1"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BG7" sqref="BG7:BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1971,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>47</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>75</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>47</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>188</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2945,7 @@
       </c>
       <c r="CM13" s="14"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>47</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>47</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>201</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>47</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>47</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>5</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>201</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>47</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>75</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>201</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>47</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>188</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>201</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>47</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>6</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>47</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>6</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>47</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>41</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>6</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>47</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>201</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>188</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>260</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>6</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>47</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>41</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>6</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>5</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>47</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>260</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>6</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>47</v>
       </c>
@@ -7447,7 +7448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>5</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>6</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>47</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>41</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>6</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>260</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>47</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>7</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>201</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>6</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>41</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>188</v>
       </c>
@@ -8625,7 +8626,7 @@
       </c>
       <c r="CP71" s="18"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>5</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>47</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>6</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>6</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>260</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>47</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>6</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>7</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>41</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>6</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>5</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>7</v>
       </c>
@@ -10443,6 +10444,13 @@
       <c r="E88" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CO86" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
+    <filterColumn colId="44">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="CM14" r:id="rId1" xr:uid="{A42E47F4-9086-4CD3-81D2-35191F5CC461}"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1E8C7D-3549-4B0E-BD5A-96CCC32497C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FC3911-E85C-4410-8811-143BCF63A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="1965" windowWidth="21585" windowHeight="14235" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$CO$86</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,948 +36,996 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="330">
   <si>
     <t>nome_instituto</t>
   </si>
   <si>
+    <t>mês_ano</t>
+  </si>
+  <si>
+    <t>ipec</t>
+  </si>
+  <si>
+    <t>datafolha</t>
+  </si>
+  <si>
+    <t>quaest</t>
+  </si>
+  <si>
+    <t>ipespe</t>
+  </si>
+  <si>
+    <t>fsb</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>fev/21_ipec</t>
+  </si>
+  <si>
+    <t>mai/21_datafolha</t>
+  </si>
+  <si>
+    <t>jun/21_ipec</t>
+  </si>
+  <si>
+    <t>jun/21_pr_pesq</t>
+  </si>
+  <si>
+    <t>jul/21_pr_pesq</t>
+  </si>
+  <si>
+    <t>set/21_ipec</t>
+  </si>
+  <si>
+    <t>set/21_datafolha</t>
+  </si>
+  <si>
+    <t>nov/21_quaest</t>
+  </si>
+  <si>
+    <t>dez/21_ipec</t>
+  </si>
+  <si>
+    <t>dez/21_quaest</t>
+  </si>
+  <si>
+    <t>jan/22_ipespe</t>
+  </si>
+  <si>
+    <t>jan/22_ipespe_2</t>
+  </si>
+  <si>
+    <t>jan/22_quaest</t>
+  </si>
+  <si>
+    <t>fev/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>fev/22_ipespe</t>
+  </si>
+  <si>
+    <t>fev/22_ipespe_2</t>
+  </si>
+  <si>
+    <t>fev/22_quaest</t>
+  </si>
+  <si>
+    <t>mar/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>mar/22_datafolha</t>
+  </si>
+  <si>
+    <t>mar/22_ipespe</t>
+  </si>
+  <si>
+    <t>mar/22_ipespe_2</t>
+  </si>
+  <si>
+    <t>mar/22_fsb</t>
+  </si>
+  <si>
+    <t>mar/22_quaest</t>
+  </si>
+  <si>
+    <t>abr/22_ipespe</t>
+  </si>
+  <si>
+    <t>abr/22_ipespe_2</t>
+  </si>
+  <si>
+    <t>abr/22_quaest</t>
+  </si>
+  <si>
+    <t>abr/22_fsb</t>
+  </si>
+  <si>
+    <t>mai/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>mai/22_ipespe</t>
+  </si>
+  <si>
+    <t>mai/22_ipespe_2</t>
+  </si>
+  <si>
+    <t>mai/22_ipespe_3</t>
+  </si>
+  <si>
+    <t>mai/22_quaest</t>
+  </si>
+  <si>
+    <t>prpesquisas</t>
+  </si>
+  <si>
+    <t>fonte</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/03/25/Intencao_de_voto_presidente_mar_22.pdf</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2021/09/17/48inte432532nfasdfacao42352386568twet.pdf</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>mar/21_poderdata</t>
+  </si>
+  <si>
+    <t>poderdata</t>
+  </si>
+  <si>
+    <t>jun/21_poderdata</t>
+  </si>
+  <si>
+    <t>mai/21_poderdata</t>
+  </si>
+  <si>
+    <t>abr/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf</t>
+  </si>
+  <si>
+    <t>jul/21_poderdata</t>
+  </si>
+  <si>
+    <t>ago/21_poderdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-30mai2022.pdf?utm_campaign=pesquisa_30_05_desk </t>
+  </si>
+  <si>
+    <t>set/21_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/10/PoderData-relatorio-final-Brasil-29set21.pdf</t>
+  </si>
+  <si>
+    <t>set/21_poderdata_2</t>
+  </si>
+  <si>
+    <t>out/21_poderdata</t>
+  </si>
+  <si>
+    <t>nov/21_poderdata</t>
+  </si>
+  <si>
+    <t>dez/21_poderdata</t>
+  </si>
+  <si>
+    <t>jan/22_poderdata</t>
+  </si>
+  <si>
+    <t>fev/22_poderdata</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata</t>
+  </si>
+  <si>
+    <t>fev/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata_3</t>
+  </si>
+  <si>
+    <t>mar/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/PoderData-53-Brasil-12abr22.pdf</t>
+  </si>
+  <si>
+    <t>abr/22_poderdata</t>
+  </si>
+  <si>
+    <t>abr/22_poderdata_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2021/05/12/1984ppjlrm3poekfrblsintv2022pnc.pdf </t>
+  </si>
+  <si>
+    <t>mai/21_pr_pesq</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/2022_05_02-PESQUISA-IPESPE_compressed.pdf</t>
+  </si>
+  <si>
+    <t>mai/22_ipespe_4</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-4a-SEMANA-v2.pdf</t>
+  </si>
+  <si>
+    <t>voxpopuli</t>
+  </si>
+  <si>
+    <t>mai/21_voxpopuli</t>
+  </si>
+  <si>
+    <t>mai/22_datafolha</t>
+  </si>
+  <si>
+    <t>mai/22_fsb</t>
+  </si>
+  <si>
+    <t>mai/22_poderdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/02/08214004/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-fevereiro.pdf </t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/12/07170347/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-dezembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>out/21_quaest</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/05/RELATORIO-PESQUISA-IPESPE-MAIO-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_02-PESQUISA-IPESPE_2_QUINZENA.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_01-PESQUISA-IPESPE_compressed.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-MAR-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-2.pdf </t>
+  </si>
+  <si>
+    <t>entrevistados</t>
+  </si>
+  <si>
+    <t>registro_tse</t>
+  </si>
+  <si>
+    <t>BR-05166/2022</t>
+  </si>
+  <si>
+    <t>margem_erro</t>
+  </si>
+  <si>
+    <t>jun/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-02893/2022</t>
+  </si>
+  <si>
+    <t>confiança</t>
+  </si>
+  <si>
+    <t>ciro_cat_1t</t>
+  </si>
+  <si>
+    <t>ciro_ev_1t</t>
+  </si>
+  <si>
+    <t>lul_out_1t</t>
+  </si>
+  <si>
+    <t>ciro_out_1t</t>
+  </si>
+  <si>
+    <t>bol_out_1t</t>
+  </si>
+  <si>
+    <t>BR-04618/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/06/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUN-2022-1a-SEMANA-VF.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/06/Midia_BR.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/04/MidiaBR-1.pdf </t>
+  </si>
+  <si>
+    <t>BR-08065/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/03/Brasil.pdf </t>
+  </si>
+  <si>
+    <t>BR-06682/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/02/Midia_BR_Jan22.pdf </t>
+  </si>
+  <si>
+    <t>BR-09055/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/07/BR_Jul21-Midia.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/06/Midia_BR_Jun21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/05/MidiaBR_Mai21.pdf </t>
+  </si>
+  <si>
+    <t>lul_non_1t</t>
+  </si>
+  <si>
+    <t>bol_non_1t</t>
+  </si>
+  <si>
+    <t>ciro_non_1t</t>
+  </si>
+  <si>
+    <t>lul_non_2t</t>
+  </si>
+  <si>
+    <t>bol_non_2t</t>
+  </si>
+  <si>
+    <t>sem registro</t>
+  </si>
+  <si>
+    <t>lul_cat_1t</t>
+  </si>
+  <si>
+    <t>lul_ev_1t</t>
+  </si>
+  <si>
+    <t>bol_cat_1t</t>
+  </si>
+  <si>
+    <t>bol_ev_1t</t>
+  </si>
+  <si>
+    <t>lul_cat_2t</t>
+  </si>
+  <si>
+    <t>lul_ev_2t</t>
+  </si>
+  <si>
+    <t>lul_out_2t</t>
+  </si>
+  <si>
+    <t>bol_cat_2t</t>
+  </si>
+  <si>
+    <t>bol_ev_2t</t>
+  </si>
+  <si>
+    <t>lul_ateu_1t</t>
+  </si>
+  <si>
+    <t>bol_ateu_1t</t>
+  </si>
+  <si>
+    <t>ciro_ateu_1t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/05/PoderData-55-10mai22-.pdf </t>
+  </si>
+  <si>
+    <t>BR-08423/2022</t>
+  </si>
+  <si>
+    <t>lul_espi_1t</t>
+  </si>
+  <si>
+    <t>bol_espi_1t</t>
+  </si>
+  <si>
+    <t>ciro_espi_1t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_1t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_1t</t>
+  </si>
+  <si>
+    <t>ciro_umb_can_1t</t>
+  </si>
+  <si>
+    <t>lul_espi_2t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_2t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_2t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-26abr22-4.pdf </t>
+  </si>
+  <si>
+    <t>BR-07167/2022</t>
+  </si>
+  <si>
+    <t>lul_ateu_2t</t>
+  </si>
+  <si>
+    <t>bol_ateu_2t</t>
+  </si>
+  <si>
+    <t>BR-00368/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-06661/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-51-final-Brasil-15mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-00835/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf </t>
+  </si>
+  <si>
+    <t>BR-01570/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-15fev22-1.pdf </t>
+  </si>
+  <si>
+    <t>BR-06942/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-1fev22-FINAL.pdf </t>
+  </si>
+  <si>
+    <t>BR-09445/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-18jan22.pdf </t>
+  </si>
+  <si>
+    <t>BR-02137/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-21dez21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-24nov21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-27out21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-1set21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-4ago21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-10-12mai21.pdf </t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2021/04/PoderData-relatorio-final-Brasil-14abr21-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-17mar21-2-convertido.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf </t>
+  </si>
+  <si>
+    <t>BR-01603/2022</t>
+  </si>
+  <si>
+    <t>BR-08857/2022</t>
+  </si>
+  <si>
+    <t>BR-00075/2022</t>
+  </si>
+  <si>
+    <t>ago/21_quaest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/04/06195508/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-abril.pdf </t>
+  </si>
+  <si>
+    <t>BR-00372/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf </t>
+  </si>
+  <si>
+    <t>BR-06693/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/11/09182146/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-novembro-2021.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/10/05173635/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-2021.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/09/01144504/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-2021.pdf </t>
+  </si>
+  <si>
+    <t>mai/22_mda</t>
+  </si>
+  <si>
+    <t>mda</t>
+  </si>
+  <si>
+    <t>fev/22_mda</t>
+  </si>
+  <si>
+    <t>dez/21_mda</t>
+  </si>
+  <si>
+    <t>jul/21_mda</t>
+  </si>
+  <si>
+    <t>pp 4 e 13</t>
+  </si>
+  <si>
+    <t>BR-05757/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2022/05/30/Intencao_de_voto_presidente_maio_22.pdf </t>
+  </si>
+  <si>
+    <t>BR-08967/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.voxpopuli.com.br/relatorio_vox_maio21.pdf </t>
+  </si>
+  <si>
+    <t>BR-03196/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf </t>
+  </si>
+  <si>
+    <t>BR-04676/2022</t>
+  </si>
+  <si>
+    <t>BR-09630/2022</t>
+  </si>
+  <si>
+    <t>futura</t>
+  </si>
+  <si>
+    <t>mai/22_futura</t>
+  </si>
+  <si>
+    <t>BR-05658/2022</t>
+  </si>
+  <si>
+    <t>abr/22_futura</t>
+  </si>
+  <si>
+    <t> BR-08858/2022</t>
+  </si>
+  <si>
+    <t>mar/22_futura</t>
+  </si>
+  <si>
+    <t>fev/22_futura</t>
+  </si>
+  <si>
+    <t>jan/22_futura</t>
+  </si>
+  <si>
+    <t>dez/21_futura</t>
+  </si>
+  <si>
+    <t>nov/21_futura</t>
+  </si>
+  <si>
+    <t>ago/21_futura</t>
+  </si>
+  <si>
+    <t>BR-00758/2022</t>
+  </si>
+  <si>
+    <t>BR-03014/2022</t>
+  </si>
+  <si>
+    <t>BR-08869/2022</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lXF_R_qNELgK3sqgkNG_hvqElo01T5aU/edit</t>
+  </si>
+  <si>
+    <t>out/21_futura</t>
+  </si>
+  <si>
+    <t>nov/21_voxpopuli</t>
+  </si>
+  <si>
+    <t>BR-05638/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-24mai22.pdf</t>
+  </si>
+  <si>
+    <t>lul_ger_1t</t>
+  </si>
+  <si>
+    <t>bol_ger_1t</t>
+  </si>
+  <si>
+    <t>ciro_ger_1t</t>
+  </si>
+  <si>
+    <t>lul_ger_2t</t>
+  </si>
+  <si>
+    <t>bol_ger_2t</t>
+  </si>
+  <si>
+    <t>mai/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>bol_espi_2t</t>
+  </si>
+  <si>
+    <t>bol_out_2t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.cnt.org.br/diretorioVirtualPrd/49d4ba08-67a9-4ec3-8c6b-f3f7e20c0311.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pt.org.br/wp-content/uploads/2021/11/pesquisavoxpopuli-nov21.pptx </t>
+  </si>
+  <si>
+    <t>jul/21_quaest</t>
+  </si>
+  <si>
+    <t>jun/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-03552/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/06/07233729/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-junho.pdf</t>
+  </si>
+  <si>
+    <t>lul_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_out_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_non_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_out_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_non_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_cat_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ev_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_espi_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_umb_can_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ateu_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_out_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_non_rej_1t</t>
+  </si>
+  <si>
+    <t>lul_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>bol_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>ciro_ger_rej_1t</t>
+  </si>
+  <si>
+    <t>jun/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-01975/2022</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>mai/22_idea</t>
+  </si>
+  <si>
+    <t>BR-01734/2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/05/EXAME-IDEIA-19-DE-MAIO_-ELEICOES-2022-editorial.pdf</t>
+  </si>
+  <si>
+    <t>BR-02495/2022</t>
+  </si>
+  <si>
+    <t>BR-04244/2022</t>
+  </si>
+  <si>
+    <t>mar/22_idea</t>
+  </si>
+  <si>
+    <t>abr/22_idea</t>
+  </si>
+  <si>
+    <t>fev/22_idea</t>
+  </si>
+  <si>
+    <t>BR-05955/2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/04/EXAME-IDEIA-21-DE-ABRIL_-ELEICOES-2022-editorial.pdf</t>
+  </si>
+  <si>
+    <t>tipo_coleta</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>municípios</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>am_non</t>
+  </si>
+  <si>
+    <t>am_cat</t>
+  </si>
+  <si>
+    <t>am_ev</t>
+  </si>
+  <si>
+    <t>am_umb_can</t>
+  </si>
+  <si>
+    <t>am_ateu</t>
+  </si>
+  <si>
+    <t>am_nr</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/PoderData-57-7jun22.pdf</t>
+  </si>
+  <si>
+    <t>jun/22_fsb</t>
+  </si>
+  <si>
+    <t>BR-03958/2022</t>
+  </si>
+  <si>
+    <t>am_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-21mar2022.pdf </t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>avaliação do governo apenas ruim+péssimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-13jun2022.pdf </t>
+  </si>
+  <si>
+    <t>presencial</t>
+  </si>
+  <si>
+    <t>am_espi</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_cat</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_ev</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_out</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_non</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_GERAL</t>
+  </si>
+  <si>
+    <t>ava_gov_bol_espi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://classic.exame.com/wp-content/uploads/2022/03/EXAME-IDEIA-24-DE-MARCO_ESPECIAL-ELEICOES-2022-EDITORIAL.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://exame-membercenter-static.s3.us-east-2.amazonaws.com/EXAME+IDEIA+24+FEVEREIRO+2022+EDITORIAL.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#175 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#176 </t>
+  </si>
+  <si>
+    <t>Obs2</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#170 </t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#174</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#173</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#168</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#166</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/16/14_Ipec_JOB_21_0042_Eleicoes_Relatorio_de_tabelas.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/27/03_14_Ipec_JOB_21_0046-7_Intencao_de_voto_Relatorio_de_tabelas.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/40/JOB_0046-9_AVALIA%C3%87%C3%83O%20E%20VOTO%20-%20Relat%C3%B3rio%20de%20tabelas%20(Imprensa).pdf </t>
+  </si>
+  <si>
+    <t>mai/22_pr_pesq_2</t>
+  </si>
+  <si>
+    <t>abr/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>dados - cesop - https://www.cesop.unicamp.br/por/banco_de_dados/v/4593</t>
+  </si>
+  <si>
+    <t>dados - cesop - https://www.cesop.unicamp.br/por/banco_de_dados/v/4611</t>
+  </si>
+  <si>
+    <t>dados - cesop - https://www.cesop.unicamp.br/por/banco_de_dados/v/4612</t>
+  </si>
+  <si>
+    <t>dados - cesop - https://www.cesop.unicamp.br/por/banco_de_dados/v/4613</t>
+  </si>
+  <si>
     <t>sigla</t>
   </si>
   <si>
-    <t>mês_ano</t>
-  </si>
-  <si>
-    <t>ipec</t>
-  </si>
-  <si>
-    <t>datafolha</t>
-  </si>
-  <si>
-    <t>quaest</t>
-  </si>
-  <si>
-    <t>ipespe</t>
-  </si>
-  <si>
-    <t>fsb</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>fev/21_ipec</t>
-  </si>
-  <si>
-    <t>mai/21_datafolha</t>
-  </si>
-  <si>
-    <t>jun/21_ipec</t>
-  </si>
-  <si>
-    <t>jun/21_pr_pesq</t>
-  </si>
-  <si>
-    <t>jul/21_pr_pesq</t>
-  </si>
-  <si>
-    <t>set/21_ipec</t>
-  </si>
-  <si>
-    <t>set/21_datafolha</t>
-  </si>
-  <si>
-    <t>nov/21_quaest</t>
-  </si>
-  <si>
-    <t>dez/21_ipec</t>
-  </si>
-  <si>
-    <t>dez/21_quaest</t>
-  </si>
-  <si>
-    <t>jan/22_ipespe</t>
-  </si>
-  <si>
-    <t>jan/22_ipespe_2</t>
-  </si>
-  <si>
-    <t>jan/22_quaest</t>
-  </si>
-  <si>
-    <t>fev/22_pr_pesq</t>
-  </si>
-  <si>
-    <t>fev/22_ipespe</t>
-  </si>
-  <si>
-    <t>fev/22_ipespe_2</t>
-  </si>
-  <si>
-    <t>fev/22_quaest</t>
-  </si>
-  <si>
-    <t>mar/22_pr_pesq</t>
-  </si>
-  <si>
-    <t>mar/22_datafolha</t>
-  </si>
-  <si>
-    <t>mar/22_ipespe</t>
-  </si>
-  <si>
-    <t>mar/22_ipespe_2</t>
-  </si>
-  <si>
-    <t>mar/22_fsb</t>
-  </si>
-  <si>
-    <t>mar/22_quaest</t>
-  </si>
-  <si>
-    <t>abr/22_ipespe</t>
-  </si>
-  <si>
-    <t>abr/22_ipespe_2</t>
-  </si>
-  <si>
-    <t>abr/22_quaest</t>
-  </si>
-  <si>
-    <t>abr/22_fsb</t>
-  </si>
-  <si>
-    <t>mai/22_pr_pesq</t>
-  </si>
-  <si>
-    <t>mai/22_ipespe</t>
-  </si>
-  <si>
-    <t>mai/22_ipespe_2</t>
-  </si>
-  <si>
-    <t>mai/22_ipespe_3</t>
-  </si>
-  <si>
-    <t>mai/22_quaest</t>
-  </si>
-  <si>
-    <t>prpesquisas</t>
-  </si>
-  <si>
-    <t>fonte</t>
-  </si>
-  <si>
-    <t>http://media.folha.uol.com.br/datafolha/2022/03/25/Intencao_de_voto_presidente_mar_22.pdf</t>
-  </si>
-  <si>
-    <t>http://media.folha.uol.com.br/datafolha/2021/09/17/48inte432532nfasdfacao42352386568twet.pdf</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>mar/21_poderdata</t>
-  </si>
-  <si>
-    <t>poderdata</t>
-  </si>
-  <si>
-    <t>jun/21_poderdata</t>
-  </si>
-  <si>
-    <t>mai/21_poderdata</t>
-  </si>
-  <si>
-    <t>abr/21_poderdata</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf</t>
-  </si>
-  <si>
-    <t>jul/21_poderdata</t>
-  </si>
-  <si>
-    <t>ago/21_poderdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-30mai2022.pdf?utm_campaign=pesquisa_30_05_desk </t>
-  </si>
-  <si>
-    <t>set/21_poderdata</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2021/10/PoderData-relatorio-final-Brasil-29set21.pdf</t>
-  </si>
-  <si>
-    <t>set/21_poderdata_2</t>
-  </si>
-  <si>
-    <t>out/21_poderdata</t>
-  </si>
-  <si>
-    <t>nov/21_poderdata</t>
-  </si>
-  <si>
-    <t>dez/21_poderdata</t>
-  </si>
-  <si>
-    <t>jan/22_poderdata</t>
-  </si>
-  <si>
-    <t>fev/22_poderdata</t>
-  </si>
-  <si>
-    <t>mar/22_poderdata</t>
-  </si>
-  <si>
-    <t>fev/22_poderdata_2</t>
-  </si>
-  <si>
-    <t>mar/22_poderdata_3</t>
-  </si>
-  <si>
-    <t>mar/22_poderdata_2</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2020/04/PoderData-53-Brasil-12abr22.pdf</t>
-  </si>
-  <si>
-    <t>abr/22_poderdata</t>
-  </si>
-  <si>
-    <t>abr/22_poderdata_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2021/05/12/1984ppjlrm3poekfrblsintv2022pnc.pdf </t>
-  </si>
-  <si>
-    <t>mai/21_pr_pesq</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/2022_05_02-PESQUISA-IPESPE_compressed.pdf</t>
-  </si>
-  <si>
-    <t>mai/22_ipespe_4</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-4a-SEMANA-v2.pdf</t>
-  </si>
-  <si>
-    <t>voxpopuli</t>
-  </si>
-  <si>
-    <t>mai/21_voxpopuli</t>
-  </si>
-  <si>
-    <t>mai/22_datafolha</t>
-  </si>
-  <si>
-    <t>mai/22_fsb</t>
-  </si>
-  <si>
-    <t>mai/22_poderdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/02/08214004/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-fevereiro.pdf </t>
-  </si>
-  <si>
-    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/12/07170347/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-dezembro-2021.pdf</t>
-  </si>
-  <si>
-    <t>out/21_quaest</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-3a-SEMANA.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/05/RELATORIO-PESQUISA-IPESPE-MAIO-2022.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_02-PESQUISA-IPESPE_2_QUINZENA.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/04/2022_04_01-PESQUISA-IPESPE_compressed.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-MAR-1.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-1.pdf</t>
-  </si>
-  <si>
-    <t>https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-JAN-2.pdf </t>
-  </si>
-  <si>
-    <t>entrevistados</t>
-  </si>
-  <si>
-    <t>registro_tse</t>
-  </si>
-  <si>
-    <t>BR-05166/2022</t>
-  </si>
-  <si>
-    <t>margem_erro</t>
-  </si>
-  <si>
-    <t>jun/22_ipespe</t>
-  </si>
-  <si>
-    <t>BR-02893/2022</t>
-  </si>
-  <si>
-    <t>confiança</t>
-  </si>
-  <si>
-    <t>ciro_cat_1t</t>
-  </si>
-  <si>
-    <t>ciro_ev_1t</t>
-  </si>
-  <si>
-    <t>lul_out_1t</t>
-  </si>
-  <si>
-    <t>ciro_out_1t</t>
-  </si>
-  <si>
-    <t>bol_out_1t</t>
-  </si>
-  <si>
-    <t>BR-04618/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/06/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUN-2022-1a-SEMANA-VF.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/06/Midia_BR.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/05/BR_Mai22_Midia.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/04/MidiaBR-1.pdf </t>
-  </si>
-  <si>
-    <t>BR-08065/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/03/Brasil.pdf </t>
-  </si>
-  <si>
-    <t>BR-06682/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2022/02/Midia_BR_Jan22.pdf </t>
-  </si>
-  <si>
-    <t>BR-09055/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/07/BR_Jul21-Midia.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/06/Midia_BR_Jun21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paranapesquisas.com.br/wp-content/uploads/2021/05/MidiaBR_Mai21.pdf </t>
-  </si>
-  <si>
-    <t>lul_non_1t</t>
-  </si>
-  <si>
-    <t>bol_non_1t</t>
-  </si>
-  <si>
-    <t>ciro_non_1t</t>
-  </si>
-  <si>
-    <t>lul_non_2t</t>
-  </si>
-  <si>
-    <t>bol_non_2t</t>
-  </si>
-  <si>
-    <t>sem registro</t>
-  </si>
-  <si>
-    <t>lul_cat_1t</t>
-  </si>
-  <si>
-    <t>lul_ev_1t</t>
-  </si>
-  <si>
-    <t>bol_cat_1t</t>
-  </si>
-  <si>
-    <t>bol_ev_1t</t>
-  </si>
-  <si>
-    <t>lul_cat_2t</t>
-  </si>
-  <si>
-    <t>lul_ev_2t</t>
-  </si>
-  <si>
-    <t>lul_out_2t</t>
-  </si>
-  <si>
-    <t>bol_cat_2t</t>
-  </si>
-  <si>
-    <t>bol_ev_2t</t>
-  </si>
-  <si>
-    <t>lul_ateu_1t</t>
-  </si>
-  <si>
-    <t>bol_ateu_1t</t>
-  </si>
-  <si>
-    <t>ciro_ateu_1t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/05/PoderData-55-10mai22-.pdf </t>
-  </si>
-  <si>
-    <t>BR-08423/2022</t>
-  </si>
-  <si>
-    <t>lul_espi_1t</t>
-  </si>
-  <si>
-    <t>bol_espi_1t</t>
-  </si>
-  <si>
-    <t>ciro_espi_1t</t>
-  </si>
-  <si>
-    <t>lul_umb_can_1t</t>
-  </si>
-  <si>
-    <t>bol_umb_can_1t</t>
-  </si>
-  <si>
-    <t>ciro_umb_can_1t</t>
-  </si>
-  <si>
-    <t>lul_espi_2t</t>
-  </si>
-  <si>
-    <t>lul_umb_can_2t</t>
-  </si>
-  <si>
-    <t>bol_umb_can_2t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-26abr22-4.pdf </t>
-  </si>
-  <si>
-    <t>BR-07167/2022</t>
-  </si>
-  <si>
-    <t>lul_ateu_2t</t>
-  </si>
-  <si>
-    <t>bol_ateu_2t</t>
-  </si>
-  <si>
-    <t>BR-00368/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-29mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-06661/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-51-final-Brasil-15mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-00835/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-Brasil-1mar22.pdf </t>
-  </si>
-  <si>
-    <t>BR-01570/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-15fev22-1.pdf </t>
-  </si>
-  <si>
-    <t>BR-06942/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-1fev22-FINAL.pdf </t>
-  </si>
-  <si>
-    <t>BR-09445/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2022/02/PoderData-relatorio-final-Brasil-18jan22.pdf </t>
-  </si>
-  <si>
-    <t>BR-02137/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-21dez21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-24nov21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/11/PoderData-relatorio-final-Brasil-27out21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-1set21.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-4ago21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2021/06/PoderData-relatorio-final-Brasil-9jun21-1.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-10-12mai21.pdf </t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2021/04/PoderData-relatorio-final-Brasil-14abr21-2.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-17mar21-2-convertido.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/47/JOB_0046-12_AVALIACAO%20E%20VOTO_Relatorio%20de%20tabelas%20(Imprensa).pdf </t>
-  </si>
-  <si>
-    <t>BR-01603/2022</t>
-  </si>
-  <si>
-    <t>BR-08857/2022</t>
-  </si>
-  <si>
-    <t>BR-00075/2022</t>
-  </si>
-  <si>
-    <t>ago/21_quaest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/04/06195508/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-abril.pdf </t>
-  </si>
-  <si>
-    <t>BR-00372/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf </t>
-  </si>
-  <si>
-    <t>BR-06693/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/11/09182146/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-novembro-2021.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/10/05173635/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-2021.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/09/01144504/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-2021.pdf </t>
-  </si>
-  <si>
-    <t>mai/22_mda</t>
-  </si>
-  <si>
-    <t>mda</t>
-  </si>
-  <si>
-    <t>fev/22_mda</t>
-  </si>
-  <si>
-    <t>dez/21_mda</t>
-  </si>
-  <si>
-    <t>jul/21_mda</t>
-  </si>
-  <si>
-    <t>pp 4 e 13</t>
-  </si>
-  <si>
-    <t>BR-05757/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://media.folha.uol.com.br/datafolha/2022/05/30/Intencao_de_voto_presidente_maio_22.pdf </t>
-  </si>
-  <si>
-    <t>BR-08967/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.voxpopuli.com.br/relatorio_vox_maio21.pdf </t>
-  </si>
-  <si>
-    <t>BR-03196/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-25abr2022.pdf </t>
-  </si>
-  <si>
-    <t>BR-04676/2022</t>
-  </si>
-  <si>
-    <t>BR-09630/2022</t>
-  </si>
-  <si>
-    <t>futura</t>
-  </si>
-  <si>
-    <t>mai/22_futura</t>
-  </si>
-  <si>
-    <t>BR-05658/2022</t>
-  </si>
-  <si>
-    <t>abr/22_futura</t>
-  </si>
-  <si>
-    <t> BR-08858/2022</t>
-  </si>
-  <si>
-    <t>mar/22_futura</t>
-  </si>
-  <si>
-    <t>fev/22_futura</t>
-  </si>
-  <si>
-    <t>jan/22_futura</t>
-  </si>
-  <si>
-    <t>dez/21_futura</t>
-  </si>
-  <si>
-    <t>nov/21_futura</t>
-  </si>
-  <si>
-    <t>ago/21_futura</t>
-  </si>
-  <si>
-    <t>BR-00758/2022</t>
-  </si>
-  <si>
-    <t>BR-03014/2022</t>
-  </si>
-  <si>
-    <t>BR-08869/2022</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lXF_R_qNELgK3sqgkNG_hvqElo01T5aU/edit</t>
-  </si>
-  <si>
-    <t>out/21_futura</t>
-  </si>
-  <si>
-    <t>nov/21_voxpopuli</t>
-  </si>
-  <si>
-    <t>BR-05638/2022</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-24mai22.pdf</t>
-  </si>
-  <si>
-    <t>lul_ger_1t</t>
-  </si>
-  <si>
-    <t>bol_ger_1t</t>
-  </si>
-  <si>
-    <t>ciro_ger_1t</t>
-  </si>
-  <si>
-    <t>lul_ger_2t</t>
-  </si>
-  <si>
-    <t>bol_ger_2t</t>
-  </si>
-  <si>
-    <t>mai/22_poderdata_2</t>
-  </si>
-  <si>
-    <t>bol_espi_2t</t>
-  </si>
-  <si>
-    <t>bol_out_2t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.cnt.org.br/diretorioVirtualPrd/49d4ba08-67a9-4ec3-8c6b-f3f7e20c0311.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pt.org.br/wp-content/uploads/2021/11/pesquisavoxpopuli-nov21.pptx </t>
-  </si>
-  <si>
-    <t>jul/21_quaest</t>
-  </si>
-  <si>
-    <t>jun/22_quaest</t>
-  </si>
-  <si>
-    <t>BR-03552/2022</t>
-  </si>
-  <si>
-    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/06/07233729/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-junho.pdf</t>
-  </si>
-  <si>
-    <t>lul_cat_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_ev_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_espi_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_umb_can_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_ateu_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_out_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_non_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_cat_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_ev_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_espi_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_umb_can_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_ateu_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_out_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_non_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_cat_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_ev_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_espi_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_umb_can_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_ateu_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_out_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_non_rej_1t</t>
-  </si>
-  <si>
-    <t>lul_ger_rej_1t</t>
-  </si>
-  <si>
-    <t>bol_ger_rej_1t</t>
-  </si>
-  <si>
-    <t>ciro_ger_rej_1t</t>
-  </si>
-  <si>
-    <t>jun/22_poderdata</t>
-  </si>
-  <si>
-    <t>BR-01975/2022</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>mai/22_idea</t>
-  </si>
-  <si>
-    <t>BR-01734/2022</t>
-  </si>
-  <si>
-    <t>https://classic.exame.com/wp-content/uploads/2022/05/EXAME-IDEIA-19-DE-MAIO_-ELEICOES-2022-editorial.pdf</t>
-  </si>
-  <si>
-    <t>BR-02495/2022</t>
-  </si>
-  <si>
-    <t>BR-04244/2022</t>
-  </si>
-  <si>
-    <t>mar/22_idea</t>
-  </si>
-  <si>
-    <t>abr/22_idea</t>
-  </si>
-  <si>
-    <t>fev/22_idea</t>
-  </si>
-  <si>
-    <t>BR-05955/2022</t>
-  </si>
-  <si>
-    <t>https://classic.exame.com/wp-content/uploads/2022/04/EXAME-IDEIA-21-DE-ABRIL_-ELEICOES-2022-editorial.pdf</t>
-  </si>
-  <si>
-    <t>tipo_coleta</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
-    <t>municípios</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>am_non</t>
-  </si>
-  <si>
-    <t>am_cat</t>
-  </si>
-  <si>
-    <t>am_ev</t>
-  </si>
-  <si>
-    <t>am_umb_can</t>
-  </si>
-  <si>
-    <t>am_ateu</t>
-  </si>
-  <si>
-    <t>am_nr</t>
-  </si>
-  <si>
-    <t>https://static.poder360.com.br/2022/06/PoderData-57-7jun22.pdf</t>
-  </si>
-  <si>
-    <t>jun/22_fsb</t>
-  </si>
-  <si>
-    <t>BR-03958/2022</t>
-  </si>
-  <si>
-    <t>am_out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-21mar2022.pdf </t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>avaliação do governo apenas ruim+péssimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-13jun2022.pdf </t>
-  </si>
-  <si>
-    <t>presencial</t>
-  </si>
-  <si>
-    <t>am_espi</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_cat</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_ev</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_out</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_non</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_GERAL</t>
-  </si>
-  <si>
-    <t>ava_gov_bol_espi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://classic.exame.com/wp-content/uploads/2022/03/EXAME-IDEIA-24-DE-MARCO_ESPECIAL-ELEICOES-2022-EDITORIAL.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://exame-membercenter-static.s3.us-east-2.amazonaws.com/EXAME+IDEIA+24+FEVEREIRO+2022+EDITORIAL.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#175 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#176 </t>
-  </si>
-  <si>
-    <t>Obs2</t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.futurainteligencia.com.br/blog/conteudo/#170 </t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#174</t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#173</t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#168</t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#166</t>
-  </si>
-  <si>
-    <t>https://www.futurainteligencia.com.br/blog/conteudo/#165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/16/14_Ipec_JOB_21_0042_Eleicoes_Relatorio_de_tabelas.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/27/03_14_Ipec_JOB_21_0046-7_Intencao_de_voto_Relatorio_de_tabelas.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipec-inteligencia.com.br/Repository/Files/40/JOB_0046-9_AVALIA%C3%87%C3%83O%20E%20VOTO%20-%20Relat%C3%B3rio%20de%20tabelas%20(Imprensa).pdf </t>
-  </si>
-  <si>
-    <t>mai/22_pr_pesq_2</t>
-  </si>
-  <si>
-    <t>abr/22_pr_pesq</t>
+    <t>BR-02603/2022</t>
+  </si>
+  <si>
+    <t>BR-08011/2022</t>
+  </si>
+  <si>
+    <t>BR-07856/2022</t>
+  </si>
+  <si>
+    <t>BR-03473/2022</t>
+  </si>
+  <si>
+    <t>BR-05747/2022</t>
+  </si>
+  <si>
+    <t>BR-03874/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/RELATORIO-PESQUISA-IPESPE-MAR-2022-SEGUNDA-QUINZENA_compressed.pdf </t>
+  </si>
+  <si>
+    <t>BR-04222/2022</t>
+  </si>
+  <si>
+    <t>BR-03573/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/03/PESQUISA-IPESPE-FEV-2.pdf </t>
+  </si>
+  <si>
+    <t>BR-05015/2022</t>
+  </si>
+  <si>
+    <t>BR-03828/2022</t>
+  </si>
+  <si>
+    <t>BR-06408/2022</t>
+  </si>
+  <si>
+    <t>BR-09080/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipespe.org.br/wp-content/uploads/2022/05/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-MAI-2022-3a-SEMANA.pdf </t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,6 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,11 +1570,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CP88"/>
+  <dimension ref="A1:CP99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BG7" sqref="BG7:BG11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1530,7 +1581,7 @@
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="37" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
@@ -1572,288 +1623,288 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA1" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="BB1" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD1" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="BI1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG1" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="CH1" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="CI1" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ1" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK1" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL1" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO1" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B2" s="30" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS1" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT1" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU1" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV1" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW1" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX1" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY1" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AZ1" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA1" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF1" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="BG1" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="BH1" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="BI1" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK1" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL1" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM1" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="BO1" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP1" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS1" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BY1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BZ1" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="CA1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC1" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CD1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE1" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="CF1" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="CG1" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH1" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="CI1" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="CJ1" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="CK1" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="CL1" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="CM1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="CO1" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>44250</v>
@@ -1865,7 +1916,7 @@
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
         <v>2002</v>
@@ -1877,7 +1928,7 @@
         <v>95</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2">
         <v>143</v>
@@ -1888,10 +1939,13 @@
       <c r="N2" s="2">
         <v>28</v>
       </c>
+      <c r="P2" s="2">
+        <v>1.2</v>
+      </c>
       <c r="R2">
         <v>19</v>
       </c>
-      <c r="T2"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="1">
         <v>39</v>
       </c>
@@ -1968,15 +2022,18 @@
         <v>39</v>
       </c>
       <c r="CM2" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="CO2" s="30" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>44272</v>
@@ -1988,7 +2045,7 @@
         <v>2021</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1">
         <v>3500</v>
@@ -2017,15 +2074,15 @@
         <v>36</v>
       </c>
       <c r="CM3" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3">
         <v>44300</v>
@@ -2037,7 +2094,7 @@
         <v>2021</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <v>3500</v>
@@ -2066,15 +2123,15 @@
         <v>34</v>
       </c>
       <c r="CM4" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3">
         <v>44323</v>
@@ -2086,7 +2143,7 @@
         <v>2021</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
         <v>2010</v>
@@ -2226,15 +2283,15 @@
         <v>43</v>
       </c>
       <c r="CM5" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3">
         <v>44328</v>
@@ -2246,7 +2303,7 @@
         <v>2021</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <v>2500</v>
@@ -2275,15 +2332,15 @@
         <v>35</v>
       </c>
       <c r="CM6" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>44328</v>
@@ -2295,7 +2352,7 @@
         <v>2021</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1">
         <v>2071</v>
@@ -2307,7 +2364,7 @@
         <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K7" s="2">
         <v>146</v>
@@ -2448,15 +2505,15 @@
         <v>42</v>
       </c>
       <c r="CM7" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="3">
         <v>44332</v>
@@ -2468,7 +2525,7 @@
         <v>2021</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1">
         <v>2000</v>
@@ -2534,15 +2591,15 @@
         <v>28</v>
       </c>
       <c r="CM8" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>44356</v>
@@ -2554,7 +2611,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
         <v>2500</v>
@@ -2584,15 +2641,15 @@
         <v>37</v>
       </c>
       <c r="CM9" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>44363</v>
@@ -2604,7 +2661,7 @@
         <v>2021</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1">
         <v>2040</v>
@@ -2723,15 +2780,15 @@
         <v>45.6</v>
       </c>
       <c r="CM10" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>44368</v>
@@ -2743,7 +2800,7 @@
         <v>2021</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1">
         <v>2002</v>
@@ -2755,21 +2812,32 @@
         <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K11" s="2">
         <v>141</v>
       </c>
       <c r="M11" s="2">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="N11" s="2">
         <v>28</v>
       </c>
+      <c r="O11" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6.5</v>
+      </c>
       <c r="R11">
         <v>20</v>
       </c>
-      <c r="T11"/>
+      <c r="T11" s="2">
+        <v>1.2</v>
+      </c>
       <c r="U11" s="1">
         <v>52</v>
       </c>
@@ -2846,15 +2914,18 @@
         <v>49</v>
       </c>
       <c r="CM11" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="CO11" s="35" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C12" s="3">
         <v>44380</v>
@@ -2866,7 +2937,7 @@
         <v>2021</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
         <v>2002</v>
@@ -2895,15 +2966,15 @@
         <v>33</v>
       </c>
       <c r="CM12" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C13" s="3">
         <v>44381</v>
@@ -2915,7 +2986,7 @@
         <v>2021</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1">
         <v>1500</v>
@@ -2947,10 +3018,10 @@
     </row>
     <row r="14" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
         <v>44386</v>
@@ -2962,7 +3033,7 @@
         <v>2021</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <v>2500</v>
@@ -2991,15 +3062,15 @@
         <v>32</v>
       </c>
       <c r="CM14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>44405</v>
@@ -3011,7 +3082,7 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G15" s="1">
         <v>2010</v>
@@ -3130,15 +3201,15 @@
         <v>47.5</v>
       </c>
       <c r="CM15" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3">
         <v>44412</v>
@@ -3150,7 +3221,7 @@
         <v>2021</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1">
         <v>2500</v>
@@ -3269,15 +3340,15 @@
         <v>32</v>
       </c>
       <c r="CM16" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3">
         <v>44428</v>
@@ -3289,7 +3360,7 @@
         <v>2021</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="1">
         <v>2000</v>
@@ -3352,15 +3423,15 @@
         <v>38.799999999999997</v>
       </c>
       <c r="CM17" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3">
         <v>44437</v>
@@ -3372,7 +3443,7 @@
         <v>2021</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1">
         <v>2000</v>
@@ -3401,15 +3472,15 @@
         <v>30</v>
       </c>
       <c r="CM18" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>44440</v>
@@ -3421,7 +3492,7 @@
         <v>2021</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G19" s="1">
         <v>2500</v>
@@ -3450,15 +3521,15 @@
         <v>30</v>
       </c>
       <c r="CM19" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>44454</v>
@@ -3470,7 +3541,7 @@
         <v>2021</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
         <v>3667</v>
@@ -3482,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K20" s="2">
         <v>190</v>
@@ -3602,15 +3673,15 @@
         <v>31</v>
       </c>
       <c r="CM20" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>44459</v>
@@ -3622,7 +3693,7 @@
         <v>2021</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>2002</v>
@@ -3634,7 +3705,7 @@
         <v>95</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K21" s="2">
         <v>141</v>
@@ -3645,10 +3716,21 @@
       <c r="N21" s="2">
         <v>29</v>
       </c>
+      <c r="O21" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>6.5</v>
+      </c>
       <c r="R21">
         <v>20</v>
       </c>
-      <c r="T21"/>
+      <c r="T21" s="21">
+        <v>1.4</v>
+      </c>
       <c r="U21" s="1">
         <v>51</v>
       </c>
@@ -3698,15 +3780,18 @@
         <v>53</v>
       </c>
       <c r="CM21" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="CO21" s="30" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3">
         <v>44468</v>
@@ -3718,7 +3803,7 @@
         <v>2021</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
         <v>2500</v>
@@ -3747,15 +3832,15 @@
         <v>33</v>
       </c>
       <c r="CM22" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3">
         <v>44472</v>
@@ -3767,7 +3852,7 @@
         <v>2021</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1">
         <v>2048</v>
@@ -3796,15 +3881,15 @@
         <v>29</v>
       </c>
       <c r="CM23" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C24" s="3">
         <v>44491</v>
@@ -3816,7 +3901,7 @@
         <v>2021</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1">
         <v>2000</v>
@@ -3828,7 +3913,7 @@
         <v>95</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M24" s="2">
         <v>52.5</v>
@@ -3873,15 +3958,15 @@
         <v>37</v>
       </c>
       <c r="CM24" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3">
         <v>44496</v>
@@ -3893,7 +3978,7 @@
         <v>2021</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1">
         <v>2500</v>
@@ -3922,15 +4007,15 @@
         <v>37</v>
       </c>
       <c r="CM25" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C26" s="3">
         <v>44504</v>
@@ -3942,7 +4027,7 @@
         <v>2021</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1">
         <v>2000</v>
@@ -4007,15 +4092,15 @@
         <v>24</v>
       </c>
       <c r="CM26" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>44506</v>
@@ -4027,7 +4112,7 @@
         <v>2021</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" s="1">
         <v>2063</v>
@@ -4069,15 +4154,15 @@
         <v>27</v>
       </c>
       <c r="CM27" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C28" s="3">
         <v>44520</v>
@@ -4089,7 +4174,7 @@
         <v>2021</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G28" s="1">
         <v>2000</v>
@@ -4101,7 +4186,7 @@
         <v>95</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M28" s="2">
         <v>53.2</v>
@@ -4146,15 +4231,15 @@
         <v>38</v>
       </c>
       <c r="CM28" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3">
         <v>44524</v>
@@ -4166,7 +4251,7 @@
         <v>2021</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G29" s="1">
         <v>2500</v>
@@ -4195,15 +4280,15 @@
         <v>31</v>
       </c>
       <c r="CM29" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3">
         <v>44535</v>
@@ -4215,7 +4300,7 @@
         <v>2021</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G30" s="1">
         <v>2037</v>
@@ -4257,15 +4342,15 @@
         <v>31</v>
       </c>
       <c r="CM30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C31" s="3">
         <v>44541</v>
@@ -4277,7 +4362,7 @@
         <v>2021</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G31" s="1">
         <v>2002</v>
@@ -4306,15 +4391,15 @@
         <v>31</v>
       </c>
       <c r="CM31" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3">
         <v>44542</v>
@@ -4326,7 +4411,7 @@
         <v>2021</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1">
         <v>2002</v>
@@ -4338,7 +4423,7 @@
         <v>95</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K32" s="2">
         <v>144</v>
@@ -4352,7 +4437,7 @@
       <c r="R32">
         <v>20</v>
       </c>
-      <c r="T32"/>
+      <c r="T32" s="21"/>
       <c r="U32" s="1">
         <v>54</v>
       </c>
@@ -4438,15 +4523,18 @@
         <v>51</v>
       </c>
       <c r="CM32" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="CO32" s="30" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C33" s="3">
         <v>44543</v>
@@ -4458,7 +4546,7 @@
         <v>2021</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1">
         <v>2000</v>
@@ -4470,7 +4558,7 @@
         <v>95</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2">
         <v>51.7</v>
@@ -4516,15 +4604,15 @@
         <v>37</v>
       </c>
       <c r="CM33" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3">
         <v>44551</v>
@@ -4536,7 +4624,7 @@
         <v>2021</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G34" s="1">
         <v>3000</v>
@@ -4658,15 +4746,15 @@
         <v>34</v>
       </c>
       <c r="CM34" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
         <v>44570</v>
@@ -4678,7 +4766,7 @@
         <v>2022</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1">
         <v>2000</v>
@@ -4725,15 +4813,15 @@
         <v>30</v>
       </c>
       <c r="CM35" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>44573</v>
@@ -4744,7 +4832,30 @@
       <c r="E36" s="2">
         <v>2022</v>
       </c>
-      <c r="R36"/>
+      <c r="F36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" s="2">
+        <v>53</v>
+      </c>
+      <c r="N36" s="2">
+        <v>22</v>
+      </c>
+      <c r="R36">
+        <v>25</v>
+      </c>
       <c r="T36"/>
       <c r="U36" s="1">
         <v>46</v>
@@ -4805,25 +4916,34 @@
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
+      <c r="BN36" s="2">
+        <v>44</v>
+      </c>
+      <c r="BO36" s="2">
+        <v>64</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>43</v>
+      </c>
       <c r="CE36" s="1">
         <v>56</v>
       </c>
       <c r="CF36" s="1">
         <v>31</v>
       </c>
+      <c r="CL36" s="2">
+        <v>54</v>
+      </c>
       <c r="CM36" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3">
         <v>44579</v>
@@ -4835,7 +4955,7 @@
         <v>2022</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G37" s="1">
         <v>3000</v>
@@ -4954,15 +5074,15 @@
         <v>32</v>
       </c>
       <c r="CM37" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3">
         <v>44582</v>
@@ -4974,7 +5094,7 @@
         <v>2022</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G38" s="1">
         <v>2000</v>
@@ -4986,7 +5106,7 @@
         <v>95</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K38" s="2">
         <v>865</v>
@@ -5156,19 +5276,19 @@
         <v>38</v>
       </c>
       <c r="CM38" s="13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CN38" s="30"/>
       <c r="CO38" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
         <v>44586</v>
@@ -5179,7 +5299,30 @@
       <c r="E39" s="2">
         <v>2022</v>
       </c>
-      <c r="R39"/>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" s="2">
+        <v>49</v>
+      </c>
+      <c r="N39" s="2">
+        <v>25</v>
+      </c>
+      <c r="R39">
+        <v>26</v>
+      </c>
       <c r="T39"/>
       <c r="U39" s="1">
         <v>44</v>
@@ -5240,25 +5383,34 @@
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
+      <c r="BN39" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO39" s="2">
+        <v>64</v>
+      </c>
+      <c r="BP39" s="2">
+        <v>42</v>
+      </c>
       <c r="CE39" s="1">
         <v>54</v>
       </c>
       <c r="CF39" s="1">
         <v>30</v>
       </c>
+      <c r="CL39" s="2">
+        <v>55</v>
+      </c>
       <c r="CM39" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3">
         <v>44593</v>
@@ -5270,7 +5422,7 @@
         <v>2022</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G40" s="1">
         <v>3000</v>
@@ -5389,15 +5541,15 @@
         <v>37</v>
       </c>
       <c r="CM40" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
         <v>44594</v>
@@ -5409,7 +5561,7 @@
         <v>2022</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G41" s="1">
         <v>2020</v>
@@ -5479,15 +5631,15 @@
         <v>50.2</v>
       </c>
       <c r="CM41" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="3">
         <v>44598</v>
@@ -5499,7 +5651,7 @@
         <v>2022</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G42" s="1">
         <v>2000</v>
@@ -5541,15 +5693,15 @@
         <v>30</v>
       </c>
       <c r="CM42" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3">
         <v>44601</v>
@@ -5560,7 +5712,30 @@
       <c r="E43" s="2">
         <v>2022</v>
       </c>
-      <c r="R43"/>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M43" s="2">
+        <v>53</v>
+      </c>
+      <c r="N43" s="2">
+        <v>24</v>
+      </c>
+      <c r="R43">
+        <v>24</v>
+      </c>
       <c r="T43"/>
       <c r="U43" s="1">
         <v>45</v>
@@ -5621,25 +5796,34 @@
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
+      <c r="BN43" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO43" s="2">
+        <v>62</v>
+      </c>
+      <c r="BP43" s="2">
+        <v>45</v>
+      </c>
       <c r="CE43" s="1">
         <v>54</v>
       </c>
       <c r="CF43" s="1">
         <v>31</v>
       </c>
+      <c r="CL43" s="2">
+        <v>54</v>
+      </c>
       <c r="CM43" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3">
         <v>44607</v>
@@ -5651,7 +5835,7 @@
         <v>2022</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G44" s="1">
         <v>3000</v>
@@ -5770,15 +5954,15 @@
         <v>35</v>
       </c>
       <c r="CM44" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C45" s="3">
         <v>44609</v>
@@ -5790,7 +5974,7 @@
         <v>2022</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G45" s="1">
         <v>2000</v>
@@ -5802,7 +5986,7 @@
         <v>95</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K45" s="2">
         <v>862</v>
@@ -5914,18 +6098,18 @@
         <v>38</v>
       </c>
       <c r="CM45" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="CN45" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3">
         <v>44611</v>
@@ -5937,7 +6121,7 @@
         <v>2022</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G46" s="1">
         <v>2002</v>
@@ -5967,15 +6151,15 @@
         <v>35</v>
       </c>
       <c r="CM46" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C47" s="3">
         <v>44614</v>
@@ -5987,7 +6171,7 @@
         <v>2022</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G47" s="1">
         <v>1500</v>
@@ -6029,15 +6213,15 @@
         <v>50</v>
       </c>
       <c r="CM47" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="3">
         <v>44615</v>
@@ -6048,7 +6232,30 @@
       <c r="E48" s="2">
         <v>2022</v>
       </c>
-      <c r="R48"/>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M48" s="2">
+        <v>51</v>
+      </c>
+      <c r="N48" s="2">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>26</v>
+      </c>
       <c r="T48"/>
       <c r="U48" s="1">
         <v>45</v>
@@ -6109,25 +6316,34 @@
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
       <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
+      <c r="BN48" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO48" s="2">
+        <v>61</v>
+      </c>
+      <c r="BP48" s="2">
+        <v>44</v>
+      </c>
       <c r="CE48" s="1">
         <v>54</v>
       </c>
       <c r="CF48" s="1">
         <v>32</v>
       </c>
-      <c r="CM48" s="14" t="s">
-        <v>90</v>
+      <c r="CL48" s="2">
+        <v>53</v>
+      </c>
+      <c r="CM48" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3">
         <v>44621</v>
@@ -6139,7 +6355,7 @@
         <v>2022</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1">
         <v>3000</v>
@@ -6258,15 +6474,15 @@
         <v>37</v>
       </c>
       <c r="CM49" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3">
         <v>44629</v>
@@ -6278,7 +6494,7 @@
         <v>2022</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G50" s="1">
         <v>2020</v>
@@ -6370,15 +6586,15 @@
         <v>48</v>
       </c>
       <c r="CM50" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="3">
         <v>44629</v>
@@ -6389,7 +6605,30 @@
       <c r="E51" s="2">
         <v>2022</v>
       </c>
-      <c r="R51"/>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M51" s="2">
+        <v>53</v>
+      </c>
+      <c r="N51" s="2">
+        <v>24</v>
+      </c>
+      <c r="R51">
+        <v>23</v>
+      </c>
       <c r="T51"/>
       <c r="U51" s="1">
         <v>42</v>
@@ -6450,25 +6689,34 @@
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
       <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
+      <c r="BN51" s="2">
+        <v>42</v>
+      </c>
+      <c r="BO51" s="2">
+        <v>61</v>
+      </c>
+      <c r="BP51" s="2">
+        <v>43</v>
+      </c>
       <c r="CE51" s="1">
         <v>53</v>
       </c>
       <c r="CF51" s="1">
         <v>33</v>
       </c>
+      <c r="CL51" s="2">
+        <v>52</v>
+      </c>
       <c r="CM51" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="3">
         <v>44633</v>
@@ -6480,7 +6728,7 @@
         <v>2022</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G52" s="1">
         <v>2000</v>
@@ -6546,15 +6794,15 @@
         <v>32</v>
       </c>
       <c r="CM52" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="3">
         <v>44635</v>
@@ -6566,7 +6814,7 @@
         <v>2022</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G53" s="1">
         <v>3000</v>
@@ -6687,15 +6935,15 @@
         <v>36</v>
       </c>
       <c r="CM53" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="3">
         <v>44640</v>
@@ -6707,7 +6955,7 @@
         <v>2022</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G54" s="1">
         <v>2000</v>
@@ -6719,7 +6967,7 @@
         <v>95</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M54" s="2">
         <v>48</v>
@@ -6810,18 +7058,18 @@
         <v>53</v>
       </c>
       <c r="CM54" s="13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="CN54" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="3">
         <v>44643</v>
@@ -6833,7 +7081,7 @@
         <v>2022</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G55" s="1">
         <v>2556</v>
@@ -6845,7 +7093,7 @@
         <v>95</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K55" s="2">
         <v>181</v>
@@ -6965,15 +7213,15 @@
         <v>34</v>
       </c>
       <c r="CM55" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C56" s="3">
         <v>44643</v>
@@ -6985,7 +7233,7 @@
         <v>2022</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G56" s="1">
         <v>1500</v>
@@ -7026,15 +7274,15 @@
         <v>45</v>
       </c>
       <c r="CM56" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="3">
         <v>44643</v>
@@ -7045,7 +7293,30 @@
       <c r="E57" s="2">
         <v>2022</v>
       </c>
-      <c r="R57"/>
+      <c r="F57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M57" s="2">
+        <v>52</v>
+      </c>
+      <c r="N57" s="2">
+        <v>23</v>
+      </c>
+      <c r="R57">
+        <v>26</v>
+      </c>
       <c r="T57"/>
       <c r="U57" s="1">
         <v>44</v>
@@ -7106,25 +7377,34 @@
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
+      <c r="BN57" s="2">
+        <v>42</v>
+      </c>
+      <c r="BO57" s="2">
+        <v>63</v>
+      </c>
+      <c r="BP57" s="2">
+        <v>45</v>
+      </c>
       <c r="CE57" s="1">
         <v>54</v>
       </c>
       <c r="CF57" s="1">
         <v>31</v>
       </c>
-      <c r="CM57" s="14" t="s">
-        <v>88</v>
+      <c r="CL57" s="2">
+        <v>54</v>
+      </c>
+      <c r="CM57" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C58" s="3">
         <v>44645</v>
@@ -7136,7 +7416,7 @@
         <v>2022</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
@@ -7148,7 +7428,7 @@
         <v>95</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K58" s="2">
         <v>828</v>
@@ -7304,15 +7584,15 @@
         <v>41</v>
       </c>
       <c r="CM58" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3">
         <v>44649</v>
@@ -7324,7 +7604,7 @@
         <v>2022</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G59" s="1">
         <v>3000</v>
@@ -7445,15 +7725,15 @@
         <v>38</v>
       </c>
       <c r="CM59" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="3">
         <v>44654</v>
@@ -7465,7 +7745,7 @@
         <v>2022</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
@@ -7507,15 +7787,15 @@
         <v>34</v>
       </c>
       <c r="CM60" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="3">
         <v>44656</v>
@@ -7526,7 +7806,30 @@
       <c r="E61" s="2">
         <v>2022</v>
       </c>
-      <c r="R61"/>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I61" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M61" s="2">
+        <v>50</v>
+      </c>
+      <c r="N61" s="2">
+        <v>24</v>
+      </c>
+      <c r="R61">
+        <v>26</v>
+      </c>
       <c r="T61"/>
       <c r="U61" s="1">
         <v>41</v>
@@ -7587,25 +7890,34 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="1"/>
+      <c r="BN61" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO61" s="2">
+        <v>61</v>
+      </c>
+      <c r="BP61" s="2">
+        <v>43</v>
+      </c>
       <c r="CE61" s="1">
         <v>53</v>
       </c>
       <c r="CF61" s="1">
         <v>33</v>
       </c>
+      <c r="CL61" s="2">
+        <v>54</v>
+      </c>
       <c r="CM61" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
         <v>44663</v>
@@ -7617,7 +7929,7 @@
         <v>2022</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G62" s="1">
         <v>3000</v>
@@ -7738,15 +8050,15 @@
         <v>38</v>
       </c>
       <c r="CM62" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C63" s="3">
         <v>44664</v>
@@ -7758,7 +8070,7 @@
         <v>2022</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G63" s="1">
         <v>2020</v>
@@ -7850,15 +8162,15 @@
         <v>45.7</v>
       </c>
       <c r="CM63" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:92" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="3">
         <v>44671</v>
@@ -7869,7 +8181,30 @@
       <c r="E64" s="2">
         <v>2022</v>
       </c>
-      <c r="R64"/>
+      <c r="F64" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M64" s="2">
+        <v>53</v>
+      </c>
+      <c r="N64" s="2">
+        <v>23</v>
+      </c>
+      <c r="R64">
+        <v>25</v>
+      </c>
       <c r="T64"/>
       <c r="U64" s="1">
         <v>43</v>
@@ -7930,25 +8265,34 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="1"/>
+      <c r="BN64" s="2">
+        <v>42</v>
+      </c>
+      <c r="BO64" s="2">
+        <v>61</v>
+      </c>
+      <c r="BP64" s="2">
+        <v>44</v>
+      </c>
       <c r="CE64" s="1">
         <v>54</v>
       </c>
       <c r="CF64" s="1">
         <v>34</v>
       </c>
+      <c r="CL64" s="2">
+        <v>52</v>
+      </c>
       <c r="CM64" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C65" s="3">
         <v>44671</v>
@@ -7960,7 +8304,7 @@
         <v>2022</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G65" s="1">
         <v>1500</v>
@@ -8009,15 +8353,15 @@
         <v>44</v>
       </c>
       <c r="CM65" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3">
         <v>44675</v>
@@ -8029,7 +8373,7 @@
         <v>2022</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G66" s="1">
         <v>3000</v>
@@ -8150,15 +8494,15 @@
         <v>39</v>
       </c>
       <c r="CM66" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" s="17">
         <v>44675</v>
@@ -8170,7 +8514,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
@@ -8182,7 +8526,7 @@
         <v>95</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M67" s="2">
         <v>50</v>
@@ -8273,15 +8617,15 @@
         <v>51</v>
       </c>
       <c r="CM67" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C68" s="3">
         <v>44676</v>
@@ -8293,7 +8637,7 @@
         <v>2022</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
@@ -8305,7 +8649,7 @@
         <v>95</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K68" s="2">
         <v>842</v>
@@ -8353,15 +8697,15 @@
       <c r="CB68" s="1"/>
       <c r="CD68" s="1"/>
       <c r="CM68" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="3">
         <v>44683</v>
@@ -8372,7 +8716,30 @@
       <c r="E69" s="2">
         <v>2022</v>
       </c>
-      <c r="R69"/>
+      <c r="F69" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M69" s="2">
+        <v>51</v>
+      </c>
+      <c r="N69" s="2">
+        <v>24</v>
+      </c>
+      <c r="R69">
+        <v>25</v>
+      </c>
       <c r="T69"/>
       <c r="U69" s="1">
         <v>42</v>
@@ -8433,25 +8800,34 @@
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
       <c r="BM69" s="1"/>
-      <c r="BN69" s="1"/>
-      <c r="BO69" s="1"/>
-      <c r="BP69" s="1"/>
+      <c r="BN69" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO69" s="2">
+        <v>60</v>
+      </c>
+      <c r="BP69" s="2">
+        <v>43</v>
+      </c>
       <c r="CE69" s="1">
         <v>54</v>
       </c>
       <c r="CF69" s="1">
         <v>34</v>
       </c>
+      <c r="CL69" s="2">
+        <v>52</v>
+      </c>
       <c r="CM69" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="17">
         <v>44685</v>
@@ -8463,7 +8839,7 @@
         <v>2022</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G70" s="1">
         <v>2020</v>
@@ -8555,15 +8931,15 @@
         <v>45.4</v>
       </c>
       <c r="CM70" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C71" s="3">
         <v>44688</v>
@@ -8575,7 +8951,7 @@
         <v>2022</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G71" s="1">
         <v>2002</v>
@@ -8622,16 +8998,16 @@
         <v>37</v>
       </c>
       <c r="CM71" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="CP71" s="18"/>
     </row>
     <row r="72" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3">
         <v>44689</v>
@@ -8643,7 +9019,7 @@
         <v>2022</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G72" s="1">
         <v>2000</v>
@@ -8685,15 +9061,15 @@
         <v>34</v>
       </c>
       <c r="CM72" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="3">
         <v>44691</v>
@@ -8705,7 +9081,7 @@
         <v>2022</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G73" s="1">
         <v>3000</v>
@@ -8826,15 +9202,15 @@
         <v>38</v>
       </c>
       <c r="CM73" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="3">
         <v>44692</v>
@@ -8845,7 +9221,30 @@
       <c r="E74" s="2">
         <v>2022</v>
       </c>
-      <c r="R74"/>
+      <c r="F74" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M74" s="2">
+        <v>50</v>
+      </c>
+      <c r="N74" s="2">
+        <v>25</v>
+      </c>
+      <c r="R74">
+        <v>25</v>
+      </c>
       <c r="T74"/>
       <c r="U74" s="1">
         <v>46</v>
@@ -8906,25 +9305,34 @@
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
       <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
-      <c r="BO74" s="1"/>
-      <c r="BP74" s="1"/>
+      <c r="BN74" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO74" s="2">
+        <v>59</v>
+      </c>
+      <c r="BP74" s="2">
+        <v>42</v>
+      </c>
       <c r="CE74" s="1">
         <v>54</v>
       </c>
       <c r="CF74" s="1">
         <v>35</v>
       </c>
+      <c r="CL74" s="2">
+        <v>51</v>
+      </c>
       <c r="CM74" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" s="3">
         <v>44699</v>
@@ -8935,7 +9343,30 @@
       <c r="E75" s="2">
         <v>2022</v>
       </c>
-      <c r="R75"/>
+      <c r="F75" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M75" s="2">
+        <v>50</v>
+      </c>
+      <c r="N75" s="2">
+        <v>22</v>
+      </c>
+      <c r="R75">
+        <v>28</v>
+      </c>
       <c r="T75"/>
       <c r="U75" s="1">
         <v>41</v>
@@ -8996,25 +9427,34 @@
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1"/>
-      <c r="BN75" s="1"/>
-      <c r="BO75" s="1"/>
-      <c r="BP75" s="1"/>
+      <c r="BN75" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO75" s="2">
+        <v>59</v>
+      </c>
+      <c r="BP75" s="2">
+        <v>42</v>
+      </c>
       <c r="CE75" s="1">
         <v>53</v>
       </c>
       <c r="CF75" s="1">
         <v>34</v>
       </c>
-      <c r="CM75" s="14" t="s">
-        <v>84</v>
+      <c r="CL75" s="2">
+        <v>52</v>
+      </c>
+      <c r="CM75" s="13" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C76" s="3">
         <v>44700</v>
@@ -9026,7 +9466,7 @@
         <v>2022</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G76" s="1">
         <v>1500</v>
@@ -9091,15 +9531,15 @@
         <v>47</v>
       </c>
       <c r="CM76" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C77" s="3">
         <v>44701</v>
@@ -9111,7 +9551,7 @@
         <v>2022</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G77" s="1">
         <v>2000</v>
@@ -9123,7 +9563,7 @@
         <v>95</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K77" s="2">
         <v>803</v>
@@ -9298,15 +9738,15 @@
         <v>39.1</v>
       </c>
       <c r="CM77" s="13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C78" s="3">
         <v>44705</v>
@@ -9318,7 +9758,7 @@
         <v>2022</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G78" s="1">
         <v>3000</v>
@@ -9443,15 +9883,15 @@
       <c r="CK78" s="2"/>
       <c r="CL78" s="2"/>
       <c r="CM78" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="3">
         <v>44706</v>
@@ -9462,7 +9902,30 @@
       <c r="E79" s="2">
         <v>2022</v>
       </c>
-      <c r="R79"/>
+      <c r="F79" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I79" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M79" s="2">
+        <v>49</v>
+      </c>
+      <c r="N79" s="2">
+        <v>23</v>
+      </c>
+      <c r="R79">
+        <v>28</v>
+      </c>
       <c r="T79"/>
       <c r="U79" s="1">
         <v>41</v>
@@ -9523,25 +9986,34 @@
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
       <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
-      <c r="BO79" s="1"/>
-      <c r="BP79" s="1"/>
+      <c r="BN79" s="2">
+        <v>43</v>
+      </c>
+      <c r="BO79" s="2">
+        <v>59</v>
+      </c>
+      <c r="BP79" s="2">
+        <v>41</v>
+      </c>
       <c r="CE79" s="1">
         <v>53</v>
       </c>
       <c r="CF79" s="1">
         <v>35</v>
       </c>
+      <c r="CL79" s="2">
+        <v>51</v>
+      </c>
       <c r="CM79" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:94" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="3">
         <v>44707</v>
@@ -9553,7 +10025,7 @@
         <v>2022</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G80" s="1">
         <v>2556</v>
@@ -9565,7 +10037,7 @@
         <v>95</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K80" s="2">
         <v>181</v>
@@ -9698,15 +10170,15 @@
         <v>48</v>
       </c>
       <c r="CM80" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="3">
         <v>44710</v>
@@ -9718,7 +10190,7 @@
         <v>2022</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G81" s="1">
         <v>2000</v>
@@ -9730,7 +10202,7 @@
         <v>95</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M81" s="2">
         <v>54</v>
@@ -9821,15 +10293,15 @@
         <v>50</v>
       </c>
       <c r="CM81" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C82" s="3">
         <v>44711</v>
@@ -9841,7 +10313,7 @@
         <v>2022</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G82" s="1">
         <v>2020</v>
@@ -9954,15 +10426,15 @@
         <v>44.4</v>
       </c>
       <c r="CM82" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C83" s="3">
         <v>44713</v>
@@ -9973,8 +10445,8 @@
       <c r="E83" s="2">
         <v>2022</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>99</v>
+      <c r="F83" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="G83" s="1">
         <v>1000</v>
@@ -9985,7 +10457,18 @@
       <c r="I83" s="2">
         <v>95.5</v>
       </c>
-      <c r="R83"/>
+      <c r="J83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M83" s="2">
+        <v>49</v>
+      </c>
+      <c r="N83" s="2">
+        <v>22</v>
+      </c>
+      <c r="R83">
+        <v>29</v>
+      </c>
       <c r="T83"/>
       <c r="U83" s="1">
         <v>46</v>
@@ -10025,22 +10508,34 @@
       <c r="AR83" s="2">
         <v>9</v>
       </c>
+      <c r="BN83" s="29">
+        <v>43</v>
+      </c>
+      <c r="BO83" s="29">
+        <v>59</v>
+      </c>
+      <c r="BP83" s="29">
+        <v>40</v>
+      </c>
       <c r="CE83" s="1">
         <v>53</v>
       </c>
       <c r="CF83" s="1">
         <v>35</v>
       </c>
+      <c r="CL83" s="29">
+        <v>50</v>
+      </c>
       <c r="CM83" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C84" s="3">
         <v>44717</v>
@@ -10052,7 +10547,7 @@
         <v>2022</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G84" s="1">
         <v>2000</v>
@@ -10093,15 +10588,15 @@
         <v>32</v>
       </c>
       <c r="CM84" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C85" s="3">
         <v>44719</v>
@@ -10113,7 +10608,7 @@
         <v>2022</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G85" s="1">
         <v>3000</v>
@@ -10125,7 +10620,7 @@
         <v>95</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K85" s="2">
         <v>309</v>
@@ -10314,15 +10809,15 @@
         <v>40</v>
       </c>
       <c r="CM85" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:91" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C86" s="3">
         <v>44724</v>
@@ -10334,7 +10829,7 @@
         <v>2022</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G86" s="1">
         <v>2000</v>
@@ -10346,7 +10841,7 @@
         <v>95</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M86" s="2">
         <v>53</v>
@@ -10437,18 +10932,25 @@
         <v>49</v>
       </c>
       <c r="CM86" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="E88" s="18"/>
     </row>
+    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:CO86" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-    <filterColumn colId="44">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="prpesquisas"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10515,8 +11017,11 @@
     <hyperlink ref="CM2" r:id="rId60" xr:uid="{DE5E52D1-FE7D-4A7E-95B5-EF37AC09AA68}"/>
     <hyperlink ref="CM11" r:id="rId61" xr:uid="{6B4ADC5A-8532-433A-8545-93A62AD90854}"/>
     <hyperlink ref="CM21" r:id="rId62" xr:uid="{F778156A-84AD-414E-A57F-5183B652CD84}"/>
+    <hyperlink ref="CM57" r:id="rId63" xr:uid="{7BE1C3EF-C9D6-4997-A432-DB17E034EE7B}"/>
+    <hyperlink ref="CM48" r:id="rId64" xr:uid="{F416B041-1FE9-480E-BB7F-B79FFF7C2EA7}"/>
+    <hyperlink ref="CM75" r:id="rId65" xr:uid="{FDCC40C2-8859-4EAB-BCD0-762DE1787734}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C78798-C952-4DB1-98CB-6A45B2ECC37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150146AE-1516-4361-867E-C71239997B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="150" windowWidth="19245" windowHeight="8325" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19245" windowHeight="8325" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$CQ$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="352">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1028,19 +1028,70 @@
     <t xml:space="preserve">https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-24mai22.pdf </t>
   </si>
   <si>
-    <t>https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-7jul21.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://static.poder360.com.br/2021/04/PoderData-relatorio-final-Brasil-14abr21-2.pdf </t>
   </si>
   <si>
     <t xml:space="preserve">https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/06/07233729/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-junho.pdf </t>
   </si>
   <si>
-    <t>https://f.hubspotusercontent30.net/hubfs/4891137/GENIAL+QUAEST+JULHO21.pdf</t>
-  </si>
-  <si>
     <t>fev/21_mda</t>
+  </si>
+  <si>
+    <t>bra_nulo_ger_1t</t>
+  </si>
+  <si>
+    <t>ns_nr_ger_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_ger_2t</t>
+  </si>
+  <si>
+    <t>ns_nr_ger_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_cat_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_ev_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_espi_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_non_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_out_1t</t>
+  </si>
+  <si>
+    <t>bra_nulo_cat_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_ev_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_espi_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_out_2t</t>
+  </si>
+  <si>
+    <t>bra_nulo_non_2t</t>
+  </si>
+  <si>
+    <t>SM_ger_1t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/PoderData-relatorio-final-Brasil-7jul21.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://f.hubspotusercontent30.net/hubfs/4891137/GENIAL+QUAEST+JULHO21.pdf </t>
+  </si>
+  <si>
+    <t>bra_nul_ns_nr_ger_1t</t>
+  </si>
+  <si>
+    <t>bra_nul_ns_nr_ger_2t</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,6 +1193,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1156,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,6 +1336,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:CR100"/>
+  <dimension ref="A1:DI131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="CQ46" workbookViewId="0">
+      <selection activeCell="CW57" sqref="CW57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,25 +1698,33 @@
     <col min="39" max="41" width="9.140625" style="2"/>
     <col min="42" max="42" width="10.28515625" style="1" customWidth="1"/>
     <col min="43" max="43" width="9.140625" style="1"/>
-    <col min="44" max="68" width="9.140625" style="2"/>
-    <col min="69" max="69" width="11.5703125" style="1" customWidth="1"/>
-    <col min="70" max="71" width="11" style="1" customWidth="1"/>
-    <col min="72" max="72" width="16.85546875" style="1" customWidth="1"/>
-    <col min="73" max="75" width="11.7109375" style="2" customWidth="1"/>
-    <col min="76" max="76" width="10.85546875" style="1" customWidth="1"/>
-    <col min="77" max="77" width="10" style="1" customWidth="1"/>
-    <col min="78" max="78" width="11.140625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="17.28515625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="12.28515625" style="2" customWidth="1"/>
-    <col min="81" max="81" width="10.28515625" style="2" customWidth="1"/>
-    <col min="82" max="82" width="11.28515625" style="2" customWidth="1"/>
-    <col min="83" max="83" width="11.85546875" style="1" customWidth="1"/>
-    <col min="84" max="92" width="12.28515625" style="1" customWidth="1"/>
-    <col min="93" max="93" width="14.5703125" style="18" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="2"/>
+    <col min="44" max="50" width="9.140625" style="2"/>
+    <col min="51" max="51" width="9.140625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="2"/>
+    <col min="53" max="53" width="11.140625" style="2" customWidth="1"/>
+    <col min="54" max="77" width="9.140625" style="2"/>
+    <col min="78" max="78" width="11.5703125" style="1" customWidth="1"/>
+    <col min="79" max="80" width="11" style="1" customWidth="1"/>
+    <col min="81" max="81" width="16.85546875" style="1" customWidth="1"/>
+    <col min="82" max="84" width="11.7109375" style="2" customWidth="1"/>
+    <col min="85" max="85" width="10.85546875" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10" style="1" customWidth="1"/>
+    <col min="87" max="87" width="11.140625" style="1" customWidth="1"/>
+    <col min="88" max="88" width="17.28515625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="12.28515625" style="2" customWidth="1"/>
+    <col min="90" max="90" width="10.28515625" style="2" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="2" customWidth="1"/>
+    <col min="92" max="92" width="11.85546875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="12.28515625" style="1" customWidth="1"/>
+    <col min="94" max="97" width="12.28515625" customWidth="1"/>
+    <col min="98" max="98" width="12.28515625" style="2" customWidth="1"/>
+    <col min="99" max="99" width="12.28515625" style="21" customWidth="1"/>
+    <col min="100" max="109" width="12.28515625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="14.5703125" style="18" customWidth="1"/>
+    <col min="111" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1759,175 +1848,226 @@
       <c r="AO1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AS1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT1" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU1" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW1" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX1" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY1" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ1" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA1" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="BC1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="BE1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="BF1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="BG1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="BH1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="BI1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BK1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BL1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="BD1" s="20" t="s">
+      <c r="BM1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="BE1" s="20" t="s">
+      <c r="BN1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="BF1" s="20" t="s">
+      <c r="BO1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BP1" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BQ1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="BI1" s="20" t="s">
+      <c r="BR1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="BJ1" s="20" t="s">
+      <c r="BS1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BT1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BU1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BV1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BW1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BX1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BY1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CN1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CP1" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="CQ1" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="CR1" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="CS1" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="CT1" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="CU1" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="CV1" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="CW1" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="CX1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CY1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CZ1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="DA1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="CK1" s="22" t="s">
+      <c r="DB1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="CL1" s="22" t="s">
+      <c r="DC1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="CM1" s="22" t="s">
+      <c r="DD1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="CN1" s="22" t="s">
+      <c r="DE1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="CO1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="DH1" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:112" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C2" s="37">
         <v>44247</v>
@@ -2038,14 +2178,31 @@
       <c r="CK2" s="2"/>
       <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
-      <c r="CN2" s="2">
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="2">
         <v>35.5</v>
       </c>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
     </row>
-    <row r="3" spans="1:95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
@@ -2127,53 +2284,59 @@
       <c r="AR3" s="2">
         <v>8</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="BB3" s="2">
         <v>42</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="BC3" s="2">
         <v>51</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BG3" s="2">
         <v>42</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BI3" s="2">
         <v>60</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BJ3" s="2">
         <v>42</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BN3" s="2">
         <v>66</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>53</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>58</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>45</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>44</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>56</v>
       </c>
       <c r="BP3" s="2">
         <v>53</v>
       </c>
-      <c r="CN3" s="1">
+      <c r="BQ3" s="2">
+        <v>58</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>45</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>44</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>56</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>53</v>
+      </c>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="DE3" s="1">
         <v>39</v>
       </c>
-      <c r="CO3" s="13" t="s">
+      <c r="DF3" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="CQ3" s="30" t="s">
+      <c r="DH3" s="30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>46</v>
       </c>
@@ -2219,29 +2382,51 @@
       <c r="AR4" s="2">
         <v>5</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="AS4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="2">
+        <f>AZ4+AY4</f>
+        <v>13</v>
+      </c>
+      <c r="BW4" s="2">
         <v>40</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BX4" s="2">
         <v>53</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BY4" s="2">
         <v>56</v>
       </c>
-      <c r="CE4" s="1">
+      <c r="CN4" s="1">
         <v>41</v>
       </c>
-      <c r="CF4" s="1">
+      <c r="CO4" s="1">
         <v>36</v>
       </c>
-      <c r="CN4" s="1">
+      <c r="CU4" s="2">
+        <v>18</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>23</v>
+      </c>
+      <c r="DE4" s="1">
         <v>52</v>
       </c>
-      <c r="CO4" s="13" t="s">
+      <c r="DF4" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2472,51 @@
       <c r="AR5" s="2">
         <v>6</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="AS5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="2">
+        <f t="shared" ref="BA5:BA68" si="0">AZ5+AY5</f>
+        <v>9</v>
+      </c>
+      <c r="BW5" s="2">
         <v>41</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BX5" s="2">
         <v>50</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BY5" s="2">
         <v>57</v>
       </c>
-      <c r="CE5" s="1">
+      <c r="CN5" s="1">
         <v>52</v>
       </c>
-      <c r="CF5" s="1">
+      <c r="CO5" s="1">
         <v>34</v>
       </c>
-      <c r="CN5" s="1">
+      <c r="CU5" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV5" s="12">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>14</v>
+      </c>
+      <c r="DE5" s="1">
         <v>55</v>
       </c>
-      <c r="CO5" s="13" t="s">
-        <v>331</v>
+      <c r="DF5" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>40</v>
       </c>
@@ -2393,90 +2600,137 @@
         <v>6.2</v>
       </c>
       <c r="AS6" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="BA6" s="2">
+        <f t="shared" si="0"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="BB6" s="2">
         <v>45.7</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="BC6" s="2">
         <v>54</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BG6" s="2">
         <v>44.5</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="BH6" s="2">
         <v>35.6</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BI6" s="2">
         <v>53.6</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BJ6" s="2">
         <v>34.299999999999997</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BN6" s="2">
         <v>64.8</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BO6" s="2">
         <v>45</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BP6" s="2">
         <v>47</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BQ6" s="2">
         <v>55</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BU6" s="2">
         <v>51.6</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BV6" s="2">
         <v>44.4</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BW6" s="2">
         <v>47</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BX6" s="2">
         <v>48</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BY6" s="2">
         <v>49.4</v>
       </c>
-      <c r="BQ6" s="1">
+      <c r="BZ6" s="1">
         <v>43.4</v>
       </c>
-      <c r="BR6" s="1">
+      <c r="CA6" s="1">
         <v>31.3</v>
       </c>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1">
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1">
         <v>42.2</v>
       </c>
-      <c r="BW6" s="1">
+      <c r="CF6" s="1">
         <v>42.2</v>
       </c>
-      <c r="BX6" s="1">
+      <c r="CG6" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="BY6" s="1">
+      <c r="CH6" s="1">
         <v>54.5</v>
       </c>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1">
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1">
         <v>41.7</v>
       </c>
-      <c r="CD6" s="1">
+      <c r="CM6" s="1">
         <v>32</v>
       </c>
-      <c r="CE6" s="2">
+      <c r="CN6" s="2">
         <v>42.5</v>
       </c>
-      <c r="CF6" s="2">
+      <c r="CO6" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="CN6" s="1">
+      <c r="CP6" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="CQ6" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="CT6" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="CU6" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="CV6" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="DE6" s="1">
         <v>43</v>
       </c>
-      <c r="CO6" s="15" t="s">
+      <c r="DF6" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>46</v>
       </c>
@@ -2522,29 +2776,51 @@
       <c r="AR7" s="2">
         <v>6</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="AS7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BW7" s="2">
         <v>50</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BX7" s="2">
         <v>49</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BY7" s="2">
         <v>58</v>
       </c>
-      <c r="CE7" s="1">
+      <c r="CN7" s="1">
         <v>50</v>
       </c>
-      <c r="CF7" s="1">
+      <c r="CO7" s="1">
         <v>35</v>
       </c>
-      <c r="CN7" s="1">
+      <c r="CU7" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE7" s="1">
         <v>51</v>
       </c>
-      <c r="CO7" s="13" t="s">
+      <c r="DF7" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>3</v>
       </c>
@@ -2636,88 +2912,115 @@
         <v>6</v>
       </c>
       <c r="AS8" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BB8" s="2">
         <v>31</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="BC8" s="2">
         <v>42</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="BD8" s="2">
         <v>50</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BI8" s="2">
         <v>56</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BJ8" s="2">
         <v>42</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BK8" s="2">
         <v>66</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>24</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>27</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>27</v>
-      </c>
-      <c r="BN8" s="2">
-        <v>36</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>54</v>
       </c>
       <c r="BP8" s="2">
         <v>24</v>
       </c>
-      <c r="BQ8" s="1">
+      <c r="BQ8" s="2">
+        <v>27</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>27</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>36</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>54</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>24</v>
+      </c>
+      <c r="BZ8" s="1">
         <v>61</v>
       </c>
-      <c r="BR8" s="1">
+      <c r="CA8" s="1">
         <v>45</v>
       </c>
-      <c r="BS8" s="1">
+      <c r="CB8" s="1">
         <v>51</v>
       </c>
-      <c r="BX8" s="1">
+      <c r="CG8" s="1">
         <v>27</v>
       </c>
-      <c r="BY8" s="1">
+      <c r="CH8" s="1">
         <v>45</v>
       </c>
-      <c r="BZ8" s="1">
+      <c r="CI8" s="1">
         <v>24</v>
       </c>
-      <c r="CE8" s="1">
+      <c r="CN8" s="1">
         <v>55</v>
       </c>
-      <c r="CF8" s="1">
+      <c r="CO8" s="1">
         <v>32</v>
       </c>
-      <c r="CG8" s="1">
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="2">
+        <v>11</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>13</v>
+      </c>
+      <c r="CX8" s="1">
         <v>54</v>
       </c>
-      <c r="CH8" s="1">
+      <c r="CY8" s="1">
         <v>20</v>
       </c>
-      <c r="CI8" s="1">
+      <c r="CZ8" s="1">
         <v>4</v>
       </c>
-      <c r="CL8" s="1">
+      <c r="DC8" s="1">
         <v>5</v>
       </c>
-      <c r="CM8" s="1">
+      <c r="DD8" s="1">
         <v>12</v>
       </c>
-      <c r="CN8" s="1">
+      <c r="DE8" s="1">
         <v>42</v>
       </c>
-      <c r="CO8" s="25" t="s">
+      <c r="DF8" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>73</v>
       </c>
@@ -2797,26 +3100,62 @@
       <c r="AR9" s="2">
         <v>5</v>
       </c>
-      <c r="BN9" s="2">
+      <c r="AT9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>14</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA9" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BW9" s="2">
         <v>39</v>
       </c>
-      <c r="BO9" s="2">
+      <c r="BX9" s="2">
         <v>64</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="BY9" s="2">
         <v>49</v>
       </c>
-      <c r="CE9" s="1">
+      <c r="CN9" s="1">
         <v>55</v>
       </c>
-      <c r="CF9" s="1">
+      <c r="CO9" s="1">
         <v>28</v>
       </c>
-      <c r="CO9" s="13" t="s">
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="2">
+        <v>14</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>17</v>
+      </c>
+      <c r="DF9" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>46</v>
       </c>
@@ -2862,30 +3201,49 @@
       <c r="AR10" s="2">
         <v>10</v>
       </c>
-      <c r="BN10" s="2">
+      <c r="AY10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BW10" s="2">
         <v>48</v>
       </c>
-      <c r="BO10" s="2">
+      <c r="BX10" s="2">
         <v>50</v>
       </c>
-      <c r="BP10" s="2">
+      <c r="BY10" s="2">
         <v>46</v>
       </c>
-      <c r="CC10" s="18"/>
-      <c r="CE10" s="1">
+      <c r="CL10" s="18"/>
+      <c r="CN10" s="1">
         <v>48</v>
       </c>
-      <c r="CF10" s="1">
+      <c r="CO10" s="1">
         <v>37</v>
       </c>
-      <c r="CN10" s="1">
+      <c r="CU10" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV10" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW10" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE10" s="1">
         <v>52</v>
       </c>
-      <c r="CO10" s="13" t="s">
+      <c r="DF10" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>40</v>
       </c>
@@ -2960,78 +3318,117 @@
       <c r="AR11" s="2">
         <v>6.2</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AT11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="BA11" s="2">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="BB11" s="2">
         <v>43.3</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="BC11" s="2">
         <v>59.8</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BG11" s="2">
         <v>44.7</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="BI11" s="2">
         <v>55.2</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BJ11" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BN11" s="2">
         <v>63.4</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BP11" s="2">
         <v>48.6</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="BQ11" s="2">
         <v>54.7</v>
       </c>
-      <c r="BL11" s="2">
+      <c r="BU11" s="2">
         <v>51.9</v>
       </c>
-      <c r="BN11" s="2">
+      <c r="BW11" s="2">
         <v>49.7</v>
       </c>
-      <c r="BO11" s="2">
+      <c r="BX11" s="2">
         <v>50.4</v>
       </c>
-      <c r="BP11" s="2">
+      <c r="BY11" s="2">
         <v>50.9</v>
       </c>
-      <c r="BQ11" s="1">
+      <c r="BZ11" s="1">
         <v>43.9</v>
       </c>
-      <c r="BR11" s="1">
+      <c r="CA11" s="1">
         <v>30.7</v>
-      </c>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1">
-        <v>47.7</v>
-      </c>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1">
-        <v>35</v>
-      </c>
-      <c r="BY11" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1">
-        <v>31.9</v>
       </c>
       <c r="CD11" s="1"/>
       <c r="CE11" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1">
+        <v>35</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="CF11" s="1">
+      <c r="CO11" s="1">
         <v>40</v>
       </c>
-      <c r="CN11" s="1">
+      <c r="CP11" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>19.700000000000003</v>
+      </c>
+      <c r="DE11" s="1">
         <v>45.6</v>
       </c>
-      <c r="CO11" s="15" t="s">
+      <c r="DF11" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>2</v>
       </c>
@@ -3122,53 +3519,78 @@
       <c r="AR12" s="2">
         <v>7</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AT12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA12" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BB12" s="2">
         <v>33</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="BC12" s="2">
         <v>41</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="BG12" s="2">
         <v>34</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="BI12" s="2">
         <v>67</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BJ12" s="2">
         <v>51</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BN12" s="2">
         <v>68</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BP12" s="2">
         <v>48</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BQ12" s="2">
         <v>51</v>
       </c>
-      <c r="BL12" s="2">
+      <c r="BU12" s="2">
         <v>50</v>
       </c>
-      <c r="BN12" s="2">
+      <c r="BW12" s="2">
         <v>36</v>
       </c>
-      <c r="BO12" s="2">
+      <c r="BX12" s="2">
         <v>62</v>
       </c>
-      <c r="BP12" s="2">
+      <c r="BY12" s="2">
         <v>49</v>
       </c>
-      <c r="CN12" s="1">
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="2"/>
+      <c r="DE12" s="1">
         <v>49</v>
       </c>
-      <c r="CO12" s="13" t="s">
+      <c r="DF12" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="CQ12" s="35" t="s">
+      <c r="DH12" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>182</v>
       </c>
@@ -3214,29 +3636,56 @@
       <c r="AR13" s="2">
         <v>6</v>
       </c>
-      <c r="BN13" s="2">
+      <c r="AS13" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="BA13" s="2">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BW13" s="2">
         <v>44.5</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BX13" s="2">
         <v>61.8</v>
       </c>
-      <c r="BP13" s="2">
+      <c r="BY13" s="2">
         <v>54.4</v>
       </c>
-      <c r="CE13" s="1">
+      <c r="CN13" s="1">
         <v>52.6</v>
       </c>
-      <c r="CF13" s="1">
+      <c r="CO13" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="CN13" s="1">
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="CW13" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="DE13" s="1">
         <v>48</v>
       </c>
-      <c r="CO13" s="16" t="s">
+      <c r="DF13" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>4</v>
       </c>
@@ -3297,26 +3746,50 @@
       <c r="AR14" s="2">
         <v>10</v>
       </c>
-      <c r="BN14" s="2">
+      <c r="AY14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>8</v>
+      </c>
+      <c r="BA14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BW14" s="2">
         <v>42</v>
       </c>
-      <c r="BO14" s="2">
+      <c r="BX14" s="2">
         <v>61</v>
       </c>
-      <c r="BP14" s="2">
+      <c r="BY14" s="2">
         <v>58</v>
       </c>
-      <c r="CE14" s="1">
+      <c r="CN14" s="1">
         <v>54</v>
       </c>
-      <c r="CF14" s="1">
+      <c r="CO14" s="1">
         <v>33</v>
       </c>
-      <c r="CO14" s="14" t="s">
-        <v>333</v>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="2">
+        <v>11</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW14" s="1">
+        <v>13</v>
+      </c>
+      <c r="DF14" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -3362,29 +3835,48 @@
       <c r="AR15" s="2">
         <v>10</v>
       </c>
-      <c r="BN15" s="2">
+      <c r="AY15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BW15" s="2">
         <v>36</v>
       </c>
-      <c r="BO15" s="2">
+      <c r="BX15" s="2">
         <v>56</v>
       </c>
-      <c r="BP15" s="2">
+      <c r="BY15" s="2">
         <v>52</v>
-      </c>
-      <c r="CE15" s="1">
-        <v>55</v>
-      </c>
-      <c r="CF15" s="1">
-        <v>32</v>
       </c>
       <c r="CN15" s="1">
         <v>55</v>
       </c>
-      <c r="CO15" s="15" t="s">
-        <v>330</v>
+      <c r="CO15" s="1">
+        <v>32</v>
+      </c>
+      <c r="CU15" s="2">
+        <v>12</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW15" s="1">
+        <v>13</v>
+      </c>
+      <c r="DE15" s="1">
+        <v>55</v>
+      </c>
+      <c r="DF15" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>40</v>
       </c>
@@ -3459,78 +3951,117 @@
       <c r="AR16" s="2">
         <v>7</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AT16" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="BB16" s="2">
         <v>41.7</v>
       </c>
-      <c r="AT16" s="2">
+      <c r="BC16" s="2">
         <v>56.1</v>
       </c>
-      <c r="AX16" s="2">
+      <c r="BG16" s="2">
         <v>45.9</v>
       </c>
-      <c r="AZ16" s="2">
+      <c r="BI16" s="2">
         <v>57.9</v>
       </c>
-      <c r="BA16" s="2">
+      <c r="BJ16" s="2">
         <v>40.700000000000003</v>
       </c>
-      <c r="BE16" s="2">
+      <c r="BN16" s="2">
         <v>64.5</v>
       </c>
-      <c r="BG16" s="2">
+      <c r="BP16" s="2">
         <v>42.7</v>
       </c>
-      <c r="BH16" s="2">
+      <c r="BQ16" s="2">
         <v>45.6</v>
       </c>
-      <c r="BL16" s="2">
+      <c r="BU16" s="2">
         <v>41.6</v>
       </c>
-      <c r="BN16" s="2">
+      <c r="BW16" s="2">
         <v>46.7</v>
       </c>
-      <c r="BO16" s="2">
+      <c r="BX16" s="2">
         <v>53.3</v>
       </c>
-      <c r="BP16" s="2">
+      <c r="BY16" s="2">
         <v>51.6</v>
       </c>
-      <c r="BQ16" s="1">
+      <c r="BZ16" s="1">
         <v>48</v>
       </c>
-      <c r="BR16" s="1">
+      <c r="CA16" s="1">
         <v>34</v>
-      </c>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1">
-        <v>43</v>
-      </c>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1">
-        <v>34</v>
-      </c>
-      <c r="BY16" s="1">
-        <v>50</v>
-      </c>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1">
-        <v>27</v>
       </c>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1">
         <v>43</v>
       </c>
-      <c r="CF16" s="1">
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1">
+        <v>34</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>50</v>
+      </c>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1">
+        <v>27</v>
+      </c>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1">
+        <v>43</v>
+      </c>
+      <c r="CO16" s="1">
         <v>38</v>
       </c>
-      <c r="CN16" s="1">
+      <c r="CP16" s="1">
+        <v>14</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="2">
+        <v>15</v>
+      </c>
+      <c r="CV16" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="CW16" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="DE16" s="1">
         <v>47.5</v>
       </c>
-      <c r="CO16" s="15" t="s">
+      <c r="DF16" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>46</v>
       </c>
@@ -3636,149 +4167,198 @@
       <c r="AR17" s="2">
         <v>8</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AT17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>11</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BB17" s="2">
         <v>29</v>
       </c>
-      <c r="AT17" s="2">
+      <c r="BC17" s="2">
         <v>51</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="BD17" s="2">
         <v>25</v>
       </c>
-      <c r="AV17" s="2">
+      <c r="BE17" s="2">
         <v>13</v>
       </c>
-      <c r="AW17" s="2">
+      <c r="BF17" s="2">
         <v>32</v>
       </c>
-      <c r="AX17" s="2">
+      <c r="BG17" s="2">
         <v>40</v>
       </c>
-      <c r="AY17" s="2">
+      <c r="BH17" s="2">
         <v>34</v>
       </c>
-      <c r="AZ17" s="2">
+      <c r="BI17" s="2">
         <v>62</v>
       </c>
-      <c r="BA17" s="2">
+      <c r="BJ17" s="2">
         <v>40</v>
       </c>
-      <c r="BB17" s="2">
+      <c r="BK17" s="2">
         <v>70</v>
       </c>
-      <c r="BC17" s="2">
+      <c r="BL17" s="2">
         <v>84</v>
       </c>
-      <c r="BD17" s="2">
+      <c r="BM17" s="2">
         <v>62</v>
       </c>
-      <c r="BE17" s="2">
+      <c r="BN17" s="2">
         <v>68</v>
       </c>
-      <c r="BF17" s="2">
+      <c r="BO17" s="2">
         <v>73</v>
       </c>
-      <c r="BG17" s="2">
+      <c r="BP17" s="2">
         <v>48</v>
       </c>
-      <c r="BH17" s="2">
+      <c r="BQ17" s="2">
         <v>60</v>
       </c>
-      <c r="BI17" s="2">
+      <c r="BR17" s="2">
         <v>44</v>
       </c>
-      <c r="BJ17" s="2">
+      <c r="BS17" s="2">
         <v>16</v>
       </c>
-      <c r="BK17" s="2">
+      <c r="BT17" s="2">
         <v>43</v>
       </c>
-      <c r="BL17" s="2">
+      <c r="BU17" s="2">
         <v>18</v>
       </c>
-      <c r="BM17" s="2">
+      <c r="BV17" s="2">
         <v>38</v>
       </c>
-      <c r="BN17" s="2">
+      <c r="BW17" s="2">
         <v>34</v>
       </c>
-      <c r="BO17" s="2">
+      <c r="BX17" s="2">
         <v>61</v>
       </c>
-      <c r="BP17" s="2">
+      <c r="BY17" s="2">
         <v>51</v>
       </c>
-      <c r="BQ17" s="1">
+      <c r="BZ17" s="1">
         <v>57</v>
       </c>
-      <c r="BR17" s="1">
+      <c r="CA17" s="1">
         <v>33</v>
       </c>
-      <c r="BS17" s="1">
+      <c r="CB17" s="1">
         <v>63</v>
       </c>
-      <c r="BT17" s="1">
+      <c r="CC17" s="1">
         <v>47</v>
       </c>
-      <c r="BU17" s="1">
+      <c r="CD17" s="1">
         <v>62</v>
       </c>
-      <c r="BW17" s="1">
+      <c r="CF17" s="1">
         <v>66</v>
       </c>
-      <c r="BX17" s="1">
+      <c r="CG17" s="1">
         <v>23</v>
       </c>
-      <c r="BY17" s="1">
+      <c r="CH17" s="1">
         <v>60</v>
       </c>
-      <c r="BZ17" s="1">
+      <c r="CI17" s="1">
         <v>29</v>
       </c>
-      <c r="CA17" s="1">
+      <c r="CJ17" s="1">
         <v>3</v>
       </c>
-      <c r="CB17" s="1">
+      <c r="CK17" s="1">
         <v>22</v>
       </c>
-      <c r="CD17" s="1">
+      <c r="CM17" s="1">
         <v>22</v>
       </c>
-      <c r="CE17" s="1">
+      <c r="CN17" s="1">
         <v>52</v>
       </c>
-      <c r="CF17" s="1">
+      <c r="CO17" s="1">
         <v>32</v>
       </c>
-      <c r="CG17" s="1">
+      <c r="CP17" s="1">
+        <v>15</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>6</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>12</v>
+      </c>
+      <c r="CT17" s="2">
+        <v>11</v>
+      </c>
+      <c r="CU17" s="2">
+        <v>12</v>
+      </c>
+      <c r="CV17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW17" s="1">
+        <v>16</v>
+      </c>
+      <c r="CX17" s="1">
         <v>67</v>
       </c>
-      <c r="CH17" s="1">
+      <c r="CY17" s="1">
         <v>34</v>
       </c>
-      <c r="CI17" s="1">
+      <c r="CZ17" s="1">
         <v>68</v>
       </c>
-      <c r="CJ17" s="1">
+      <c r="DA17" s="1">
         <v>47</v>
       </c>
-      <c r="CK17" s="1">
+      <c r="DB17" s="1">
         <v>52</v>
       </c>
-      <c r="CL17" s="1">
+      <c r="DC17" s="1">
         <v>42</v>
       </c>
-      <c r="CM17" s="1">
+      <c r="DD17" s="1">
         <v>60</v>
       </c>
-      <c r="CN17" s="1">
+      <c r="DE17" s="1">
         <v>55</v>
       </c>
-      <c r="CO17" s="13" t="s">
+      <c r="DF17" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>195</v>
       </c>
@@ -3839,32 +4419,59 @@
       <c r="AR18" s="2">
         <v>4</v>
       </c>
-      <c r="BN18" s="2">
+      <c r="AS18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BW18" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="BO18" s="2">
+      <c r="BX18" s="2">
         <v>45.3</v>
       </c>
-      <c r="BP18" s="2">
+      <c r="BY18" s="2">
         <v>13</v>
       </c>
-      <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
-      <c r="BW18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
       <c r="CD18" s="1"/>
-      <c r="CE18" s="29">
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="29">
         <v>46.9</v>
       </c>
-      <c r="CF18" s="29">
+      <c r="CO18" s="29">
         <v>38.799999999999997</v>
       </c>
-      <c r="CO18" s="13" t="s">
+      <c r="CP18" s="29"/>
+      <c r="CQ18" s="29"/>
+      <c r="CR18" s="29"/>
+      <c r="CS18" s="29"/>
+      <c r="CT18" s="29"/>
+      <c r="CU18" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="CV18" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="CW18" s="1">
+        <v>15</v>
+      </c>
+      <c r="DF18" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -3925,26 +4532,50 @@
       <c r="AR19" s="2">
         <v>8</v>
       </c>
-      <c r="BN19" s="2">
+      <c r="AY19" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BW19" s="2">
         <v>40</v>
       </c>
-      <c r="BO19" s="2">
+      <c r="BX19" s="2">
         <v>62</v>
       </c>
-      <c r="BP19" s="2">
+      <c r="BY19" s="2">
         <v>53</v>
       </c>
-      <c r="CE19" s="12">
+      <c r="CN19" s="12">
         <v>55</v>
       </c>
-      <c r="CF19" s="1">
+      <c r="CO19" s="1">
         <v>30</v>
       </c>
-      <c r="CO19" s="13" t="s">
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="2">
+        <v>11</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW19" s="1">
+        <v>13</v>
+      </c>
+      <c r="DF19" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>46</v>
       </c>
@@ -3990,29 +4621,48 @@
       <c r="AR20" s="2">
         <v>8</v>
       </c>
-      <c r="BN20" s="2">
+      <c r="AY20" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA20" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BW20" s="2">
         <v>39</v>
       </c>
-      <c r="BO20" s="2">
+      <c r="BX20" s="2">
         <v>60</v>
       </c>
-      <c r="BP20" s="2">
+      <c r="BY20" s="2">
         <v>43</v>
-      </c>
-      <c r="CE20" s="1">
-        <v>55</v>
-      </c>
-      <c r="CF20" s="1">
-        <v>30</v>
       </c>
       <c r="CN20" s="1">
         <v>55</v>
       </c>
-      <c r="CO20" s="13" t="s">
+      <c r="CO20" s="1">
+        <v>30</v>
+      </c>
+      <c r="CU20" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW20" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE20" s="1">
+        <v>55</v>
+      </c>
+      <c r="DF20" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>3</v>
       </c>
@@ -4100,71 +4750,101 @@
       <c r="AR21" s="2">
         <v>9</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AY21" s="2">
+        <v>11</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA21" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BB21" s="2">
         <v>33</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="BC21" s="2">
         <v>47</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="BD21" s="2">
         <v>37</v>
       </c>
-      <c r="AZ21" s="2">
+      <c r="BI21" s="2">
         <v>64</v>
       </c>
-      <c r="BA21" s="2">
+      <c r="BJ21" s="2">
         <v>44</v>
       </c>
-      <c r="BB21" s="2">
+      <c r="BK21" s="2">
         <v>73</v>
       </c>
-      <c r="BG21" s="2">
+      <c r="BP21" s="2">
         <v>28</v>
       </c>
-      <c r="BH21" s="2">
+      <c r="BQ21" s="2">
         <v>34</v>
       </c>
-      <c r="BI21" s="2">
+      <c r="BR21" s="2">
         <v>31</v>
       </c>
-      <c r="BN21" s="2">
+      <c r="BW21" s="2">
         <v>38</v>
       </c>
-      <c r="BO21" s="2">
+      <c r="BX21" s="2">
         <v>59</v>
       </c>
-      <c r="BP21" s="2">
+      <c r="BY21" s="2">
         <v>30</v>
       </c>
-      <c r="BQ21" s="1">
+      <c r="BZ21" s="1">
         <v>61</v>
       </c>
-      <c r="BR21" s="1">
+      <c r="CA21" s="1">
         <v>44</v>
       </c>
-      <c r="BS21" s="1">
+      <c r="CB21" s="1">
         <v>65</v>
       </c>
-      <c r="BX21" s="1">
+      <c r="CG21" s="1">
         <v>27</v>
       </c>
-      <c r="BY21" s="1">
+      <c r="CH21" s="1">
         <v>43</v>
       </c>
-      <c r="BZ21" s="1">
+      <c r="CI21" s="1">
         <v>19</v>
       </c>
-      <c r="CE21" s="1">
+      <c r="CN21" s="1">
         <v>56</v>
       </c>
-      <c r="CF21" s="1">
+      <c r="CO21" s="1">
         <v>31</v>
       </c>
-      <c r="CO21" s="34" t="s">
+      <c r="CP21" s="1">
+        <v>12</v>
+      </c>
+      <c r="CQ21" s="1">
+        <v>12</v>
+      </c>
+      <c r="CR21" s="1">
+        <v>19</v>
+      </c>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW21" s="1">
+        <v>14</v>
+      </c>
+      <c r="DF21" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>2</v>
       </c>
@@ -4255,26 +4935,54 @@
       <c r="AR22" s="2">
         <v>6</v>
       </c>
-      <c r="CG22" s="1">
+      <c r="AS22" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>7</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>12</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA22" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="2"/>
+      <c r="CX22" s="1">
         <v>57</v>
       </c>
-      <c r="CH22" s="1">
+      <c r="CY22" s="1">
         <v>44</v>
       </c>
-      <c r="CL22" s="1">
+      <c r="DC22" s="1">
         <v>60</v>
       </c>
-      <c r="CN22" s="2">
+      <c r="DE22" s="2">
         <v>53</v>
       </c>
-      <c r="CO22" s="13" t="s">
+      <c r="DF22" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="CQ22" s="30" t="s">
+      <c r="DH22" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
@@ -4320,29 +5028,48 @@
       <c r="AR23" s="2">
         <v>5</v>
       </c>
-      <c r="BN23" s="2">
+      <c r="AY23" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BW23" s="2">
         <v>38</v>
       </c>
-      <c r="BO23" s="2">
+      <c r="BX23" s="2">
         <v>56</v>
       </c>
-      <c r="BP23" s="2">
+      <c r="BY23" s="2">
         <v>50</v>
       </c>
-      <c r="CE23" s="1">
+      <c r="CN23" s="1">
         <v>56</v>
       </c>
-      <c r="CF23" s="1">
+      <c r="CO23" s="1">
         <v>33</v>
       </c>
-      <c r="CN23" s="1">
+      <c r="CU23" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW23" s="1">
+        <v>11</v>
+      </c>
+      <c r="DE23" s="1">
         <v>58</v>
       </c>
-      <c r="CO23" s="15" t="s">
+      <c r="DF23" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -4403,26 +5130,50 @@
       <c r="AR24" s="2">
         <v>9</v>
       </c>
-      <c r="BN24" s="2">
+      <c r="AY24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA24" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BW24" s="2">
         <v>43</v>
       </c>
-      <c r="BO24" s="2">
+      <c r="BX24" s="2">
         <v>65</v>
       </c>
-      <c r="BP24" s="2">
+      <c r="BY24" s="2">
         <v>56</v>
       </c>
-      <c r="CE24" s="1">
+      <c r="CN24" s="1">
         <v>53</v>
       </c>
-      <c r="CF24" s="1">
+      <c r="CO24" s="1">
         <v>29</v>
       </c>
-      <c r="CO24" s="13" t="s">
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="2">
+        <v>15</v>
+      </c>
+      <c r="CV24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW24" s="1">
+        <v>18</v>
+      </c>
+      <c r="DF24" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>195</v>
       </c>
@@ -4480,26 +5231,53 @@
       <c r="AR25" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="BN25" s="2">
+      <c r="AS25" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="BA25" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="BW25" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="BO25" s="2">
+      <c r="BX25" s="2">
         <v>49.3</v>
       </c>
-      <c r="BP25" s="2">
+      <c r="BY25" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="CE25" s="1">
+      <c r="CN25" s="1">
         <v>49</v>
       </c>
-      <c r="CF25" s="1">
+      <c r="CO25" s="1">
         <v>37</v>
       </c>
-      <c r="CO25" s="13" t="s">
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="CV25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CW25" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="DF25" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>46</v>
       </c>
@@ -4545,29 +5323,51 @@
       <c r="AR26" s="2">
         <v>5</v>
       </c>
-      <c r="BN26" s="2">
+      <c r="AS26" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA26" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BW26" s="2">
         <v>40</v>
       </c>
-      <c r="BO26" s="2">
+      <c r="BX26" s="2">
         <v>59</v>
       </c>
-      <c r="BP26" s="2">
+      <c r="BY26" s="2">
         <v>56</v>
       </c>
-      <c r="CE26" s="1">
+      <c r="CN26" s="1">
         <v>52</v>
       </c>
-      <c r="CF26" s="1">
+      <c r="CO26" s="1">
         <v>37</v>
       </c>
-      <c r="CN26" s="1">
+      <c r="CU26" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV26" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW26" s="1">
+        <v>11</v>
+      </c>
+      <c r="DE26" s="1">
         <v>56</v>
       </c>
-      <c r="CO26" s="13" t="s">
+      <c r="DF26" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>73</v>
       </c>
@@ -4646,26 +5446,65 @@
       <c r="AR27" s="2">
         <v>4</v>
       </c>
-      <c r="BN27" s="2">
+      <c r="AS27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>11</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>8</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>12</v>
+      </c>
+      <c r="BA27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BW27" s="2">
         <v>33</v>
       </c>
-      <c r="BO27" s="2">
+      <c r="BX27" s="2">
         <v>60</v>
       </c>
-      <c r="BP27" s="2">
+      <c r="BY27" s="2">
         <v>45</v>
       </c>
-      <c r="CE27" s="1">
+      <c r="CN27" s="1">
         <v>52</v>
       </c>
-      <c r="CF27" s="1">
+      <c r="CO27" s="1">
         <v>24</v>
       </c>
-      <c r="CO27" s="13" t="s">
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="2">
+        <v>14</v>
+      </c>
+      <c r="CV27" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW27" s="1">
+        <v>24</v>
+      </c>
+      <c r="DF27" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>4</v>
       </c>
@@ -4735,27 +5574,54 @@
       <c r="AR28" s="2">
         <v>6</v>
       </c>
-      <c r="BN28" s="2">
+      <c r="AS28" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA28" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BW28" s="2">
         <v>39</v>
       </c>
-      <c r="BO28" s="2">
+      <c r="BX28" s="2">
         <v>67</v>
       </c>
-      <c r="BP28" s="2">
+      <c r="BY28" s="2">
         <v>53</v>
       </c>
-      <c r="BQ28" s="2"/>
-      <c r="CE28" s="1">
+      <c r="BZ28" s="2"/>
+      <c r="CN28" s="1">
         <v>57</v>
       </c>
-      <c r="CF28" s="1">
+      <c r="CO28" s="1">
         <v>27</v>
       </c>
-      <c r="CO28" s="13" t="s">
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW28" s="1">
+        <v>15</v>
+      </c>
+      <c r="DF28" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>195</v>
       </c>
@@ -4813,26 +5679,53 @@
       <c r="AR29" s="2">
         <v>6.2</v>
       </c>
-      <c r="BN29" s="2">
+      <c r="AS29" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA29" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="BW29" s="2">
         <v>39.9</v>
       </c>
-      <c r="BO29" s="2">
+      <c r="BX29" s="2">
         <v>47.4</v>
       </c>
-      <c r="BP29" s="2">
+      <c r="BY29" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="CE29" s="1">
+      <c r="CN29" s="1">
         <v>51</v>
       </c>
-      <c r="CF29" s="1">
+      <c r="CO29" s="1">
         <v>38</v>
       </c>
-      <c r="CO29" s="13" t="s">
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="CV29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW29" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="DF29" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>46</v>
       </c>
@@ -4878,29 +5771,51 @@
       <c r="AR30" s="2">
         <v>7</v>
       </c>
-      <c r="BN30" s="2">
+      <c r="AS30" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BW30" s="2">
         <v>42</v>
       </c>
-      <c r="BO30" s="2">
+      <c r="BX30" s="2">
         <v>57</v>
       </c>
-      <c r="BP30" s="2">
+      <c r="BY30" s="2">
         <v>57</v>
       </c>
-      <c r="CE30" s="1">
+      <c r="CN30" s="1">
         <v>54</v>
       </c>
-      <c r="CF30" s="1">
+      <c r="CO30" s="1">
         <v>31</v>
       </c>
-      <c r="CN30" s="1">
+      <c r="CU30" s="2">
+        <v>14</v>
+      </c>
+      <c r="CV30" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW30" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE30" s="1">
         <v>57</v>
       </c>
-      <c r="CO30" s="13" t="s">
+      <c r="DF30" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>4</v>
       </c>
@@ -4970,27 +5885,54 @@
       <c r="AR31" s="2">
         <v>7</v>
       </c>
-      <c r="BN31" s="2">
+      <c r="AS31" s="2">
+        <v>11</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA31" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BW31" s="2">
         <v>43</v>
       </c>
-      <c r="BO31" s="2">
+      <c r="BX31" s="2">
         <v>64</v>
       </c>
-      <c r="BP31" s="2">
+      <c r="BY31" s="2">
         <v>55</v>
       </c>
-      <c r="BQ31" s="2"/>
-      <c r="CE31" s="1">
+      <c r="BZ31" s="2"/>
+      <c r="CN31" s="1">
         <v>55</v>
       </c>
-      <c r="CF31" s="1">
+      <c r="CO31" s="1">
         <v>31</v>
       </c>
-      <c r="CO31" s="15" t="s">
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="2">
+        <v>11</v>
+      </c>
+      <c r="CV31" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW31" s="1">
+        <v>14</v>
+      </c>
+      <c r="DF31" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>182</v>
       </c>
@@ -5036,29 +5978,56 @@
       <c r="AR32" s="2">
         <v>5</v>
       </c>
-      <c r="BN32" s="2">
+      <c r="AS32" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="BA32" s="2">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="BW32" s="2">
         <v>40.5</v>
       </c>
-      <c r="BO32" s="2">
+      <c r="BX32" s="2">
         <v>59.2</v>
       </c>
-      <c r="BP32" s="2">
+      <c r="BY32" s="2">
         <v>51.4</v>
       </c>
-      <c r="CE32" s="1">
+      <c r="CN32" s="1">
         <v>52.7</v>
       </c>
-      <c r="CF32" s="1">
+      <c r="CO32" s="1">
         <v>31.4</v>
       </c>
-      <c r="CN32" s="1">
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="CV32" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="CW32" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="DE32" s="1">
         <v>48</v>
       </c>
-      <c r="CO32" s="16" t="s">
+      <c r="DF32" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>2</v>
       </c>
@@ -5138,61 +6107,89 @@
         <v>5</v>
       </c>
       <c r="AS33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>13</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>14</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BB33" s="2">
         <v>22</v>
       </c>
-      <c r="AT33" s="2">
+      <c r="BC33" s="2">
         <v>42</v>
       </c>
-      <c r="AX33" s="2">
+      <c r="BG33" s="2">
         <v>26</v>
       </c>
-      <c r="AZ33" s="2">
+      <c r="BI33" s="2">
         <v>59</v>
       </c>
-      <c r="BA33" s="2">
+      <c r="BJ33" s="2">
         <v>39</v>
       </c>
-      <c r="BE33" s="2">
+      <c r="BN33" s="2">
         <v>63</v>
       </c>
-      <c r="BG33" s="2">
+      <c r="BP33" s="2">
         <v>16</v>
       </c>
-      <c r="BH33" s="2">
+      <c r="BQ33" s="2">
         <v>16</v>
       </c>
-      <c r="BL33" s="2">
+      <c r="BU33" s="2">
         <v>13</v>
       </c>
-      <c r="BN33" s="2">
+      <c r="BW33" s="2">
         <v>28</v>
       </c>
-      <c r="BO33" s="2">
+      <c r="BX33" s="2">
         <v>55</v>
       </c>
-      <c r="BP33" s="2">
+      <c r="BY33" s="2">
         <v>15</v>
       </c>
-      <c r="CG33" s="1">
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="2"/>
+      <c r="CX33" s="1">
         <v>58</v>
       </c>
-      <c r="CH33" s="1">
+      <c r="CY33" s="1">
         <v>40</v>
       </c>
-      <c r="CL33" s="1">
+      <c r="DC33" s="1">
         <v>64</v>
       </c>
-      <c r="CN33" s="1">
+      <c r="DE33" s="1">
         <v>51</v>
       </c>
-      <c r="CO33" s="13" t="s">
+      <c r="DF33" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="CQ33" s="30" t="s">
+      <c r="DH33" s="30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>195</v>
       </c>
@@ -5250,27 +6247,54 @@
       <c r="AR34" s="2">
         <v>6</v>
       </c>
-      <c r="BN34" s="2">
+      <c r="AS34" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="BA34" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="BW34" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="BO34" s="2">
+      <c r="BX34" s="2">
         <v>49.5</v>
       </c>
-      <c r="BP34" s="2">
+      <c r="BY34" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="BQ34" s="2"/>
-      <c r="CE34" s="1">
+      <c r="BZ34" s="2"/>
+      <c r="CN34" s="1">
         <v>51</v>
       </c>
-      <c r="CF34" s="1">
+      <c r="CO34" s="1">
         <v>37</v>
       </c>
-      <c r="CO34" s="13" t="s">
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="CV34" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="CW34" s="1">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="DF34" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>46</v>
       </c>
@@ -5392,136 +6416,182 @@
         <v>4</v>
       </c>
       <c r="AS35" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV35" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ35" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA35" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BB35" s="2">
         <v>33</v>
       </c>
-      <c r="AT35" s="2">
+      <c r="BC35" s="2">
         <v>59</v>
       </c>
-      <c r="AU35" s="2">
+      <c r="BD35" s="2">
         <v>31</v>
       </c>
-      <c r="AV35" s="2">
+      <c r="BE35" s="2">
         <v>19</v>
       </c>
-      <c r="AW35" s="2">
+      <c r="BF35" s="2">
         <v>21</v>
       </c>
-      <c r="AY35" s="2">
+      <c r="BH35" s="2">
         <v>28</v>
       </c>
-      <c r="AZ35" s="2">
+      <c r="BI35" s="2">
         <v>62</v>
       </c>
-      <c r="BA35" s="2">
+      <c r="BJ35" s="2">
         <v>45</v>
       </c>
-      <c r="BB35" s="2">
+      <c r="BK35" s="2">
         <v>64</v>
       </c>
-      <c r="BC35" s="2">
+      <c r="BL35" s="2">
         <v>90</v>
       </c>
-      <c r="BD35" s="2">
+      <c r="BM35" s="2">
         <v>85</v>
       </c>
-      <c r="BF35" s="2">
+      <c r="BO35" s="2">
         <v>69</v>
       </c>
-      <c r="BG35" s="2">
+      <c r="BP35" s="2">
         <v>50</v>
       </c>
-      <c r="BH35" s="2">
+      <c r="BQ35" s="2">
         <v>61</v>
       </c>
-      <c r="BI35" s="2">
+      <c r="BR35" s="2">
         <v>44</v>
       </c>
-      <c r="BJ35" s="2">
+      <c r="BS35" s="2">
         <v>60</v>
       </c>
-      <c r="BK35" s="2">
+      <c r="BT35" s="2">
         <v>80</v>
       </c>
-      <c r="BM35" s="2">
+      <c r="BV35" s="2">
         <v>45</v>
       </c>
-      <c r="BN35" s="2">
+      <c r="BW35" s="2">
         <v>39</v>
       </c>
-      <c r="BO35" s="2">
+      <c r="BX35" s="2">
         <v>60</v>
       </c>
-      <c r="BP35" s="2">
+      <c r="BY35" s="2">
         <v>53</v>
       </c>
-      <c r="BQ35" s="1">
+      <c r="BZ35" s="1">
         <v>59</v>
       </c>
-      <c r="BR35" s="1">
+      <c r="CA35" s="1">
         <v>37</v>
       </c>
-      <c r="BS35" s="1">
+      <c r="CB35" s="1">
         <v>62</v>
       </c>
-      <c r="BT35" s="1">
+      <c r="CC35" s="1">
         <v>87</v>
       </c>
-      <c r="BU35" s="1">
+      <c r="CD35" s="1">
         <v>72</v>
       </c>
-      <c r="BW35" s="1">
+      <c r="CF35" s="1">
         <v>65</v>
       </c>
-      <c r="BX35" s="1">
+      <c r="CG35" s="1">
         <v>32</v>
       </c>
-      <c r="BY35" s="1">
+      <c r="CH35" s="1">
         <v>47</v>
       </c>
-      <c r="BZ35" s="1">
+      <c r="CI35" s="1">
         <v>23</v>
       </c>
-      <c r="CA35" s="1">
+      <c r="CJ35" s="1">
         <v>13</v>
       </c>
-      <c r="CB35" s="1">
+      <c r="CK35" s="1">
         <v>3</v>
       </c>
-      <c r="CD35" s="1">
+      <c r="CM35" s="1">
         <v>30</v>
       </c>
-      <c r="CE35" s="1">
+      <c r="CN35" s="1">
         <v>54</v>
       </c>
-      <c r="CF35" s="1">
+      <c r="CO35" s="1">
         <v>34</v>
       </c>
-      <c r="CG35" s="1">
+      <c r="CP35" s="1">
+        <v>7</v>
+      </c>
+      <c r="CQ35" s="1">
+        <v>13</v>
+      </c>
+      <c r="CR35" s="1">
+        <v>15</v>
+      </c>
+      <c r="CT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="CU35" s="2">
+        <v>8</v>
+      </c>
+      <c r="CV35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW35" s="1">
+        <v>11</v>
+      </c>
+      <c r="CX35" s="1">
         <v>59</v>
       </c>
-      <c r="CH35" s="1">
+      <c r="CY35" s="1">
         <v>42</v>
       </c>
-      <c r="CI35" s="1">
+      <c r="CZ35" s="1">
         <v>74</v>
       </c>
-      <c r="CJ35" s="1">
+      <c r="DA35" s="1">
         <v>87</v>
       </c>
-      <c r="CK35" s="1">
+      <c r="DB35" s="1">
         <v>90</v>
       </c>
-      <c r="CM35" s="1">
+      <c r="DD35" s="1">
         <v>64</v>
       </c>
-      <c r="CN35" s="1">
+      <c r="DE35" s="1">
         <v>57</v>
       </c>
-      <c r="CO35" s="13" t="s">
+      <c r="DF35" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>4</v>
       </c>
@@ -5596,27 +6666,54 @@
       <c r="AR36" s="2">
         <v>7</v>
       </c>
-      <c r="BN36" s="2">
+      <c r="AS36" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY36" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA36" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BW36" s="2">
         <v>43</v>
       </c>
-      <c r="BO36" s="2">
+      <c r="BX36" s="2">
         <v>66</v>
       </c>
-      <c r="BP36" s="2">
+      <c r="BY36" s="2">
         <v>58</v>
       </c>
-      <c r="BQ36" s="2"/>
-      <c r="CE36" s="1">
+      <c r="BZ36" s="2"/>
+      <c r="CN36" s="1">
         <v>54</v>
       </c>
-      <c r="CF36" s="1">
+      <c r="CO36" s="1">
         <v>30</v>
       </c>
-      <c r="CO36" s="13" t="s">
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV36" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW36" s="1">
+        <v>16</v>
+      </c>
+      <c r="DF36" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>5</v>
       </c>
@@ -5694,15 +6791,29 @@
       <c r="AR37" s="1">
         <v>7</v>
       </c>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
+      <c r="AS37" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>9</v>
+      </c>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
+      <c r="AW37" s="1">
+        <v>5</v>
+      </c>
       <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
+      <c r="AY37" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>12</v>
+      </c>
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
@@ -5715,29 +6826,47 @@
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
-      <c r="BN37" s="2">
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="2">
         <v>44</v>
       </c>
-      <c r="BO37" s="2">
+      <c r="BX37" s="2">
         <v>64</v>
       </c>
-      <c r="BP37" s="2">
+      <c r="BY37" s="2">
         <v>43</v>
       </c>
-      <c r="CE37" s="1">
+      <c r="CN37" s="1">
         <v>56</v>
       </c>
-      <c r="CF37" s="1">
+      <c r="CO37" s="1">
         <v>31</v>
       </c>
-      <c r="CN37" s="2">
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CW37" s="1">
+        <v>13</v>
+      </c>
+      <c r="DE37" s="2">
         <v>54</v>
       </c>
-      <c r="CO37" s="14" t="s">
+      <c r="DF37" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>46</v>
       </c>
@@ -5859,136 +6988,182 @@
         <v>3</v>
       </c>
       <c r="AS38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>9</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA38" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BB38" s="2">
         <v>36</v>
       </c>
-      <c r="AT38" s="2">
+      <c r="BC38" s="2">
         <v>42</v>
-      </c>
-      <c r="AU38" s="2">
-        <v>39</v>
-      </c>
-      <c r="AV38" s="2">
-        <v>43</v>
-      </c>
-      <c r="AW38" s="2">
-        <v>50</v>
-      </c>
-      <c r="AY38" s="2">
-        <v>33</v>
-      </c>
-      <c r="AZ38" s="2">
-        <v>64</v>
-      </c>
-      <c r="BA38" s="2">
-        <v>42</v>
-      </c>
-      <c r="BB38" s="2">
-        <v>57</v>
-      </c>
-      <c r="BC38" s="2">
-        <v>87</v>
       </c>
       <c r="BD38" s="2">
         <v>39</v>
       </c>
+      <c r="BE38" s="2">
+        <v>43</v>
+      </c>
       <c r="BF38" s="2">
+        <v>50</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>33</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>64</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>42</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>57</v>
+      </c>
+      <c r="BL38" s="2">
+        <v>87</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>39</v>
+      </c>
+      <c r="BO38" s="2">
         <v>59</v>
       </c>
-      <c r="BG38" s="2">
+      <c r="BP38" s="2">
         <v>50</v>
       </c>
-      <c r="BH38" s="2">
+      <c r="BQ38" s="2">
         <v>71</v>
       </c>
-      <c r="BI38" s="2">
+      <c r="BR38" s="2">
         <v>52</v>
       </c>
-      <c r="BJ38" s="2">
+      <c r="BS38" s="2">
         <v>50</v>
       </c>
-      <c r="BK38" s="2">
+      <c r="BT38" s="2">
         <v>59</v>
       </c>
-      <c r="BM38" s="2">
+      <c r="BV38" s="2">
         <v>66</v>
       </c>
-      <c r="BN38" s="2">
+      <c r="BW38" s="2">
         <v>38</v>
       </c>
-      <c r="BO38" s="2">
+      <c r="BX38" s="2">
         <v>56</v>
       </c>
-      <c r="BP38" s="2">
+      <c r="BY38" s="2">
         <v>59</v>
       </c>
-      <c r="BQ38" s="1">
+      <c r="BZ38" s="1">
         <v>56</v>
       </c>
-      <c r="BR38" s="1">
+      <c r="CA38" s="1">
         <v>47</v>
       </c>
-      <c r="BS38" s="1">
+      <c r="CB38" s="1">
         <v>50</v>
       </c>
-      <c r="BT38" s="1">
+      <c r="CC38" s="1">
         <v>58</v>
       </c>
-      <c r="BU38" s="1">
+      <c r="CD38" s="1">
         <v>37</v>
       </c>
-      <c r="BW38" s="1">
+      <c r="CF38" s="1">
         <v>57</v>
       </c>
-      <c r="BX38" s="1">
+      <c r="CG38" s="1">
         <v>25</v>
       </c>
-      <c r="BY38" s="1">
+      <c r="CH38" s="1">
         <v>47</v>
       </c>
-      <c r="BZ38" s="1">
+      <c r="CI38" s="1">
         <v>32</v>
       </c>
-      <c r="CA38" s="1">
+      <c r="CJ38" s="1">
         <v>17</v>
       </c>
-      <c r="CB38" s="1">
+      <c r="CK38" s="1">
         <v>63</v>
       </c>
-      <c r="CD38" s="1">
+      <c r="CM38" s="1">
         <v>30</v>
       </c>
-      <c r="CE38" s="1">
+      <c r="CN38" s="1">
         <v>54</v>
       </c>
-      <c r="CF38" s="1">
+      <c r="CO38" s="1">
         <v>32</v>
       </c>
-      <c r="CG38" s="1">
+      <c r="CP38" s="1">
+        <v>15</v>
+      </c>
+      <c r="CQ38" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR38" s="1">
+        <v>17</v>
+      </c>
+      <c r="CT38" s="2">
+        <v>8</v>
+      </c>
+      <c r="CU38" s="2">
+        <v>11</v>
+      </c>
+      <c r="CV38" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW38" s="1">
+        <v>14</v>
+      </c>
+      <c r="CX38" s="1">
         <v>60</v>
       </c>
-      <c r="CH38" s="1">
+      <c r="CY38" s="1">
         <v>39</v>
       </c>
-      <c r="CI38" s="1">
+      <c r="CZ38" s="1">
         <v>62</v>
       </c>
-      <c r="CJ38" s="1">
+      <c r="DA38" s="1">
         <v>66</v>
       </c>
-      <c r="CK38" s="1">
+      <c r="DB38" s="1">
         <v>39</v>
       </c>
-      <c r="CM38" s="1">
+      <c r="DD38" s="1">
         <v>60</v>
       </c>
-      <c r="CN38" s="1">
+      <c r="DE38" s="1">
         <v>53</v>
       </c>
-      <c r="CO38" s="13" t="s">
+      <c r="DF38" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>195</v>
       </c>
@@ -6097,104 +7272,151 @@
         <v>6</v>
       </c>
       <c r="AS39" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BA39" s="2">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+      <c r="BB39" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="AT39" s="2">
+      <c r="BC39" s="2">
         <v>47.3</v>
       </c>
-      <c r="AU39" s="2">
+      <c r="BD39" s="2">
         <v>33.5</v>
       </c>
-      <c r="AX39" s="2">
+      <c r="BG39" s="2">
         <v>44.4</v>
       </c>
-      <c r="AY39" s="2">
+      <c r="BH39" s="2">
         <v>58.1</v>
       </c>
-      <c r="AZ39" s="2">
+      <c r="BI39" s="2">
         <v>51.1</v>
       </c>
-      <c r="BA39" s="2">
+      <c r="BJ39" s="2">
         <v>34</v>
       </c>
-      <c r="BB39" s="2">
+      <c r="BK39" s="2">
         <v>47.2</v>
       </c>
-      <c r="BE39" s="2">
+      <c r="BN39" s="2">
         <v>51.3</v>
       </c>
-      <c r="BF39" s="2">
+      <c r="BO39" s="2">
         <v>58.1</v>
       </c>
-      <c r="BG39" s="2">
+      <c r="BP39" s="2">
         <v>16.2</v>
       </c>
-      <c r="BH39" s="2">
+      <c r="BQ39" s="2">
         <v>18.3</v>
       </c>
-      <c r="BI39" s="2">
+      <c r="BR39" s="2">
         <v>12.5</v>
       </c>
-      <c r="BL39" s="2">
+      <c r="BU39" s="2">
         <v>22.8</v>
       </c>
-      <c r="BM39" s="2">
+      <c r="BV39" s="2">
         <v>12.6</v>
       </c>
-      <c r="BN39" s="2">
+      <c r="BW39" s="2">
         <v>37.1</v>
       </c>
-      <c r="BO39" s="2">
+      <c r="BX39" s="2">
         <v>47.3</v>
       </c>
-      <c r="BP39" s="2">
+      <c r="BY39" s="2">
         <v>16.5</v>
       </c>
-      <c r="BQ39" s="2">
+      <c r="BZ39" s="2">
         <v>54</v>
       </c>
-      <c r="BR39" s="1">
+      <c r="CA39" s="1">
         <v>38</v>
       </c>
-      <c r="BS39" s="1">
+      <c r="CB39" s="1">
         <v>46</v>
       </c>
-      <c r="BV39" s="2">
+      <c r="CE39" s="2">
         <v>40</v>
       </c>
-      <c r="BW39" s="2">
+      <c r="CF39" s="2">
         <v>63</v>
       </c>
-      <c r="BX39" s="1">
+      <c r="CG39" s="1">
         <v>33</v>
       </c>
-      <c r="BY39" s="1">
+      <c r="CH39" s="1">
         <v>52</v>
       </c>
-      <c r="BZ39" s="1">
+      <c r="CI39" s="1">
         <v>31</v>
       </c>
-      <c r="CC39" s="2">
+      <c r="CL39" s="2">
         <v>39</v>
       </c>
-      <c r="CD39" s="2">
+      <c r="CM39" s="2">
         <v>27</v>
       </c>
-      <c r="CE39" s="1">
+      <c r="CN39" s="1">
         <v>50</v>
       </c>
-      <c r="CF39" s="1">
+      <c r="CO39" s="1">
         <v>38</v>
       </c>
-      <c r="CO39" s="13" t="s">
+      <c r="CP39" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="CQ39" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="CT39" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="CU39" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="CV39" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="CW39" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="DF39" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="CP39" s="30"/>
-      <c r="CQ39" s="32" t="s">
+      <c r="DG39" s="30"/>
+      <c r="DH39" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>5</v>
       </c>
@@ -6272,15 +7494,29 @@
       <c r="AR40" s="1">
         <v>8</v>
       </c>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
+      <c r="AS40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>7</v>
+      </c>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
+      <c r="AW40" s="1">
+        <v>9</v>
+      </c>
       <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
+      <c r="AY40" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>12</v>
+      </c>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
@@ -6293,29 +7529,47 @@
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
-      <c r="BN40" s="2">
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="2">
         <v>43</v>
       </c>
-      <c r="BO40" s="2">
+      <c r="BX40" s="2">
         <v>64</v>
       </c>
-      <c r="BP40" s="2">
+      <c r="BY40" s="2">
         <v>42</v>
       </c>
-      <c r="CE40" s="1">
+      <c r="CN40" s="1">
         <v>54</v>
       </c>
-      <c r="CF40" s="1">
+      <c r="CO40" s="1">
         <v>30</v>
       </c>
-      <c r="CN40" s="2">
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CW40" s="1">
+        <v>16</v>
+      </c>
+      <c r="DE40" s="2">
         <v>55</v>
       </c>
-      <c r="CO40" s="15" t="s">
+      <c r="DF40" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
@@ -6436,74 +7690,120 @@
       <c r="AR41" s="2">
         <v>7</v>
       </c>
-      <c r="BQ41" s="1">
+      <c r="AS41" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA41" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BZ41" s="1">
         <v>59</v>
       </c>
-      <c r="BR41" s="1">
+      <c r="CA41" s="1">
         <v>42</v>
       </c>
-      <c r="BS41" s="1">
+      <c r="CB41" s="1">
         <v>57</v>
       </c>
-      <c r="BT41" s="1">
+      <c r="CC41" s="1">
         <v>62</v>
       </c>
-      <c r="BU41" s="1">
+      <c r="CD41" s="1">
         <v>45</v>
       </c>
-      <c r="BW41" s="1">
+      <c r="CF41" s="1">
         <v>61</v>
       </c>
-      <c r="BX41" s="1">
+      <c r="CG41" s="1">
         <v>31</v>
       </c>
-      <c r="BY41" s="1">
+      <c r="CH41" s="1">
         <v>51</v>
       </c>
-      <c r="BZ41" s="1">
+      <c r="CI41" s="1">
         <v>34</v>
       </c>
-      <c r="CA41" s="1">
+      <c r="CJ41" s="1">
         <v>2</v>
       </c>
-      <c r="CB41" s="1">
+      <c r="CK41" s="1">
         <v>45</v>
       </c>
-      <c r="CD41" s="1">
+      <c r="CM41" s="1">
         <v>29</v>
       </c>
-      <c r="CE41" s="1">
+      <c r="CN41" s="1">
         <v>54</v>
       </c>
-      <c r="CF41" s="1">
+      <c r="CO41" s="1">
         <v>37</v>
       </c>
-      <c r="CG41" s="1">
+      <c r="CP41" s="1">
+        <v>9</v>
+      </c>
+      <c r="CQ41" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR41" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT41" s="2">
+        <v>8</v>
+      </c>
+      <c r="CU41" s="2">
+        <v>8</v>
+      </c>
+      <c r="CV41" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW41" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX41" s="1">
         <v>58</v>
       </c>
-      <c r="CH41" s="1">
+      <c r="CY41" s="1">
         <v>41</v>
       </c>
-      <c r="CI41" s="1">
+      <c r="CZ41" s="1">
         <v>54</v>
       </c>
-      <c r="CJ41" s="1">
+      <c r="DA41" s="1">
         <v>70</v>
       </c>
-      <c r="CK41" s="1">
+      <c r="DB41" s="1">
         <v>54</v>
       </c>
-      <c r="CM41" s="1">
+      <c r="DD41" s="1">
         <v>62</v>
       </c>
-      <c r="CN41" s="1">
+      <c r="DE41" s="1">
         <v>53</v>
       </c>
-      <c r="CO41" s="13" t="s">
+      <c r="DF41" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>40</v>
       </c>
@@ -6578,29 +7878,65 @@
       <c r="AR42" s="2">
         <v>5</v>
       </c>
-      <c r="BN42" s="2">
+      <c r="AS42" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="AU42" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="AY42" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="AZ42" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA42" s="2">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+      <c r="BW42" s="2">
         <v>45.8</v>
       </c>
-      <c r="BO42" s="2">
+      <c r="BX42" s="2">
         <v>56.3</v>
       </c>
-      <c r="BP42" s="2">
+      <c r="BY42" s="2">
         <v>54.3</v>
       </c>
-      <c r="CE42" s="1">
+      <c r="CN42" s="1">
         <v>48.8</v>
       </c>
-      <c r="CF42" s="1">
+      <c r="CO42" s="1">
         <v>34.4</v>
       </c>
-      <c r="CN42" s="2">
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="CV42" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="CW42" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="DE42" s="2">
         <v>50.2</v>
       </c>
-      <c r="CO42" s="15" t="s">
+      <c r="DF42" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>4</v>
       </c>
@@ -6670,27 +8006,54 @@
       <c r="AR43" s="2">
         <v>5</v>
       </c>
-      <c r="BN43" s="2">
+      <c r="AS43" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY43" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ43" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA43" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BW43" s="2">
         <v>43</v>
       </c>
-      <c r="BO43" s="2">
+      <c r="BX43" s="2">
         <v>66</v>
       </c>
-      <c r="BP43" s="2">
+      <c r="BY43" s="2">
         <v>54</v>
       </c>
-      <c r="BQ43" s="2"/>
-      <c r="CE43" s="1">
+      <c r="BZ43" s="2"/>
+      <c r="CN43" s="1">
         <v>54</v>
       </c>
-      <c r="CF43" s="1">
+      <c r="CO43" s="1">
         <v>30</v>
       </c>
-      <c r="CO43" s="15" t="s">
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="2">
+        <v>13</v>
+      </c>
+      <c r="CV43" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW43" s="1">
+        <v>16</v>
+      </c>
+      <c r="DF43" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>5</v>
       </c>
@@ -6768,15 +8131,29 @@
       <c r="AR44" s="1">
         <v>8</v>
       </c>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
+      <c r="AS44" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>3</v>
+      </c>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
+      <c r="AW44" s="1">
+        <v>3</v>
+      </c>
       <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
+      <c r="AY44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>9</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>12</v>
+      </c>
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
@@ -6789,29 +8166,47 @@
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
-      <c r="BN44" s="2">
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="2">
         <v>43</v>
       </c>
-      <c r="BO44" s="2">
+      <c r="BX44" s="2">
         <v>62</v>
       </c>
-      <c r="BP44" s="2">
+      <c r="BY44" s="2">
         <v>45</v>
       </c>
-      <c r="CE44" s="1">
+      <c r="CN44" s="1">
         <v>54</v>
       </c>
-      <c r="CF44" s="1">
+      <c r="CO44" s="1">
         <v>31</v>
       </c>
-      <c r="CN44" s="2">
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44"/>
+      <c r="CW44" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE44" s="2">
         <v>54</v>
       </c>
-      <c r="CO44" s="15" t="s">
+      <c r="DF44" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>46</v>
       </c>
@@ -6933,133 +8328,171 @@
         <v>9</v>
       </c>
       <c r="AS45" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU45" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY45" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA45" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BB45" s="2">
         <v>40</v>
       </c>
-      <c r="AT45" s="2">
+      <c r="BC45" s="2">
         <v>47</v>
       </c>
-      <c r="AU45" s="2">
+      <c r="BD45" s="2">
         <v>57</v>
       </c>
-      <c r="AW45" s="2">
+      <c r="BF45" s="2">
         <v>33</v>
       </c>
-      <c r="AY45" s="2">
+      <c r="BH45" s="2">
         <v>37</v>
       </c>
-      <c r="AZ45" s="2">
+      <c r="BI45" s="2">
         <v>58</v>
       </c>
-      <c r="BA45" s="2">
+      <c r="BJ45" s="2">
         <v>41</v>
       </c>
-      <c r="BB45" s="2">
+      <c r="BK45" s="2">
         <v>63</v>
       </c>
-      <c r="BC45" s="2">
+      <c r="BL45" s="2">
         <v>90</v>
       </c>
-      <c r="BD45" s="2">
+      <c r="BM45" s="2">
         <v>33</v>
       </c>
-      <c r="BF45" s="2">
+      <c r="BO45" s="2">
         <v>65</v>
       </c>
-      <c r="BG45" s="2">
+      <c r="BP45" s="2">
         <v>55</v>
       </c>
-      <c r="BH45" s="2">
+      <c r="BQ45" s="2">
         <v>58</v>
       </c>
-      <c r="BI45" s="2">
+      <c r="BR45" s="2">
         <v>44</v>
       </c>
-      <c r="BJ45" s="2">
+      <c r="BS45" s="2">
         <v>69</v>
       </c>
-      <c r="BK45" s="2">
+      <c r="BT45" s="2">
         <v>33</v>
       </c>
-      <c r="BM45" s="2">
+      <c r="BV45" s="2">
         <v>53</v>
       </c>
-      <c r="BN45" s="2">
+      <c r="BW45" s="2">
         <v>43</v>
       </c>
-      <c r="BO45" s="2">
+      <c r="BX45" s="2">
         <v>54</v>
       </c>
-      <c r="BP45" s="2">
+      <c r="BY45" s="2">
         <v>56</v>
       </c>
-      <c r="BQ45" s="1">
+      <c r="BZ45" s="1">
         <v>56</v>
       </c>
-      <c r="BR45" s="1">
+      <c r="CA45" s="1">
         <v>40</v>
       </c>
-      <c r="BS45" s="1">
+      <c r="CB45" s="1">
         <v>36</v>
       </c>
-      <c r="BT45" s="1">
+      <c r="CC45" s="1">
         <v>98</v>
       </c>
-      <c r="BU45" s="1">
+      <c r="CD45" s="1">
         <v>60</v>
       </c>
-      <c r="BW45" s="1">
+      <c r="CF45" s="1">
         <v>57</v>
       </c>
-      <c r="BX45" s="1">
+      <c r="CG45" s="1">
         <v>29</v>
       </c>
-      <c r="BY45" s="1">
+      <c r="CH45" s="1">
         <v>48</v>
       </c>
-      <c r="BZ45" s="1">
+      <c r="CI45" s="1">
         <v>35</v>
       </c>
-      <c r="CA45" s="1">
+      <c r="CJ45" s="1">
         <v>2</v>
       </c>
-      <c r="CB45" s="1">
+      <c r="CK45" s="1">
         <v>10</v>
       </c>
-      <c r="CD45" s="1">
+      <c r="CM45" s="1">
         <v>27</v>
       </c>
-      <c r="CE45" s="1">
+      <c r="CN45" s="1">
         <v>50</v>
       </c>
-      <c r="CF45" s="1">
+      <c r="CO45" s="1">
         <v>35</v>
       </c>
-      <c r="CG45" s="1">
+      <c r="CP45" s="1">
+        <v>13</v>
+      </c>
+      <c r="CQ45" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR45" s="1">
+        <v>30</v>
+      </c>
+      <c r="CT45" s="2">
+        <v>15</v>
+      </c>
+      <c r="CU45"/>
+      <c r="CX45" s="1">
         <v>61</v>
       </c>
-      <c r="CH45" s="1">
+      <c r="CY45" s="1">
         <v>39</v>
       </c>
-      <c r="CI45" s="1">
+      <c r="CZ45" s="1">
         <v>66</v>
       </c>
-      <c r="CJ45" s="1">
+      <c r="DA45" s="1">
         <v>90</v>
       </c>
-      <c r="CK45" s="1">
+      <c r="DB45" s="1">
         <v>90</v>
       </c>
-      <c r="CM45" s="1">
+      <c r="DD45" s="1">
         <v>71</v>
       </c>
-      <c r="CN45" s="1">
+      <c r="DE45" s="1">
         <v>56</v>
       </c>
-      <c r="CO45" s="13" t="s">
+      <c r="DF45" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>195</v>
       </c>
@@ -7157,56 +8590,103 @@
       <c r="AR46" s="2">
         <v>6</v>
       </c>
-      <c r="BN46" s="2">
+      <c r="AS46" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="AT46" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AU46" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AW46" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AX46" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AY46" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AZ46" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="BA46" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="BW46" s="2">
         <v>41.3</v>
       </c>
-      <c r="BO46" s="2">
+      <c r="BX46" s="2">
         <v>46.6</v>
       </c>
-      <c r="BP46" s="2">
+      <c r="BY46" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="BQ46" s="1">
+      <c r="BZ46" s="1">
         <v>53</v>
       </c>
-      <c r="BR46" s="1">
+      <c r="CA46" s="1">
         <v>33</v>
       </c>
-      <c r="BV46" s="2">
+      <c r="CE46" s="2">
         <v>50</v>
       </c>
-      <c r="BW46" s="2">
+      <c r="CF46" s="2">
         <v>57</v>
       </c>
-      <c r="BX46" s="1">
+      <c r="CG46" s="1">
         <v>35</v>
       </c>
-      <c r="BY46" s="1">
+      <c r="CH46" s="1">
         <v>56</v>
       </c>
-      <c r="CC46" s="2">
+      <c r="CL46" s="2">
         <v>36</v>
       </c>
-      <c r="CD46" s="2">
+      <c r="CM46" s="2">
         <v>29</v>
       </c>
-      <c r="CE46" s="1">
+      <c r="CN46" s="1">
         <v>48</v>
       </c>
-      <c r="CF46" s="1">
+      <c r="CO46" s="1">
         <v>40</v>
       </c>
-      <c r="CN46" s="12">
+      <c r="CP46" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="CQ46" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1">
+        <v>12</v>
+      </c>
+      <c r="CT46" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="CU46" s="21">
+        <v>10.3</v>
+      </c>
+      <c r="CV46" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="CW46" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="DE46" s="12">
         <v>38</v>
       </c>
-      <c r="CO46" s="31" t="s">
+      <c r="DF46" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="CP46" s="30" t="s">
+      <c r="DG46" s="30" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>182</v>
       </c>
@@ -7267,30 +8747,57 @@
       <c r="AR47" s="2">
         <v>7</v>
       </c>
-      <c r="BN47" s="2">
+      <c r="AS47" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AY47" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AZ47" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA47" s="2">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="BW47" s="2">
         <v>40.5</v>
       </c>
-      <c r="BO47" s="2">
+      <c r="BX47" s="2">
         <v>55.4</v>
       </c>
-      <c r="BP47" s="2">
+      <c r="BY47" s="2">
         <v>48.4</v>
       </c>
-      <c r="BQ47" s="2"/>
-      <c r="CE47" s="1">
+      <c r="BZ47" s="2"/>
+      <c r="CN47" s="1">
         <v>53.2</v>
       </c>
-      <c r="CF47" s="1">
+      <c r="CO47" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="CN47" s="1">
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="CV47" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="CW47" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="DE47" s="1">
         <v>43</v>
       </c>
-      <c r="CO47" s="16" t="s">
+      <c r="DF47" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>252</v>
       </c>
@@ -7330,30 +8837,49 @@
       <c r="AR48" s="2">
         <v>8</v>
       </c>
-      <c r="BN48" s="2">
+      <c r="AS48" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY48" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ48" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA48" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BW48" s="2">
         <v>37</v>
       </c>
-      <c r="BO48" s="2">
+      <c r="BX48" s="2">
         <v>47</v>
       </c>
-      <c r="BP48" s="2">
+      <c r="BY48" s="2">
         <v>20</v>
       </c>
-      <c r="BQ48" s="2"/>
-      <c r="CE48" s="1">
+      <c r="BZ48" s="2"/>
+      <c r="CN48" s="1">
         <v>49</v>
       </c>
-      <c r="CF48" s="1">
+      <c r="CO48" s="1">
         <v>35</v>
       </c>
-      <c r="CN48" s="1">
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48"/>
+      <c r="DE48" s="1">
         <v>50</v>
       </c>
-      <c r="CO48" s="13" t="s">
+      <c r="DF48" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>5</v>
       </c>
@@ -7431,15 +8957,29 @@
       <c r="AR49" s="1">
         <v>7</v>
       </c>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
+      <c r="AS49" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>8</v>
+      </c>
       <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
+      <c r="AW49" s="1">
+        <v>10</v>
+      </c>
       <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
+      <c r="AY49" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>9</v>
+      </c>
       <c r="BB49" s="1"/>
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
@@ -7452,29 +8992,47 @@
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
       <c r="BM49" s="1"/>
-      <c r="BN49" s="2">
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="2">
         <v>43</v>
       </c>
-      <c r="BO49" s="2">
+      <c r="BX49" s="2">
         <v>61</v>
       </c>
-      <c r="BP49" s="2">
+      <c r="BY49" s="2">
         <v>44</v>
       </c>
-      <c r="CE49" s="1">
+      <c r="CN49" s="1">
         <v>54</v>
       </c>
-      <c r="CF49" s="1">
+      <c r="CO49" s="1">
         <v>32</v>
       </c>
-      <c r="CN49" s="2">
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49"/>
+      <c r="CW49" s="1">
+        <v>14</v>
+      </c>
+      <c r="DE49" s="2">
         <v>53</v>
       </c>
-      <c r="CO49" s="13" t="s">
+      <c r="DF49" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>46</v>
       </c>
@@ -7595,74 +9153,112 @@
       <c r="AR50" s="2">
         <v>7</v>
       </c>
-      <c r="BQ50" s="1">
+      <c r="AS50" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU50" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY50" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA50" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BZ50" s="1">
         <v>57</v>
       </c>
-      <c r="BR50" s="1">
+      <c r="CA50" s="1">
         <v>30</v>
       </c>
-      <c r="BS50" s="1">
+      <c r="CB50" s="1">
         <v>53</v>
       </c>
-      <c r="BT50" s="1">
+      <c r="CC50" s="1">
         <v>36</v>
       </c>
-      <c r="BU50" s="1">
+      <c r="CD50" s="1">
         <v>30</v>
       </c>
-      <c r="BW50" s="1">
+      <c r="CF50" s="1">
         <v>69</v>
       </c>
-      <c r="BX50" s="1">
+      <c r="CG50" s="1">
         <v>31</v>
       </c>
-      <c r="BY50" s="1">
+      <c r="CH50" s="1">
         <v>53</v>
       </c>
-      <c r="BZ50" s="1">
+      <c r="CI50" s="1">
         <v>37</v>
       </c>
-      <c r="CA50" s="1">
+      <c r="CJ50" s="1">
         <v>57</v>
       </c>
-      <c r="CB50" s="1">
+      <c r="CK50" s="1">
         <v>63</v>
       </c>
-      <c r="CD50" s="1">
+      <c r="CM50" s="1">
         <v>24</v>
       </c>
-      <c r="CE50" s="1">
+      <c r="CN50" s="1">
         <v>51</v>
       </c>
-      <c r="CF50" s="1">
+      <c r="CO50" s="1">
         <v>37</v>
       </c>
-      <c r="CG50" s="1">
+      <c r="CP50" s="1">
+        <v>11</v>
+      </c>
+      <c r="CQ50" s="1">
+        <v>14</v>
+      </c>
+      <c r="CR50" s="1">
+        <v>10</v>
+      </c>
+      <c r="CT50" s="2">
+        <v>3</v>
+      </c>
+      <c r="CU50"/>
+      <c r="CX50" s="1">
         <v>56</v>
       </c>
-      <c r="CH50" s="1">
+      <c r="CY50" s="1">
         <v>37</v>
       </c>
-      <c r="CI50" s="1">
+      <c r="CZ50" s="1">
         <v>63</v>
       </c>
-      <c r="CJ50" s="1">
+      <c r="DA50" s="1">
         <v>43</v>
       </c>
-      <c r="CK50" s="1">
+      <c r="DB50" s="1">
         <v>25</v>
       </c>
-      <c r="CM50" s="1">
+      <c r="DD50" s="1">
         <v>68</v>
       </c>
-      <c r="CN50" s="1">
+      <c r="DE50" s="1">
         <v>52</v>
       </c>
-      <c r="CO50" s="13" t="s">
+      <c r="DF50" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>40</v>
       </c>
@@ -7737,51 +9333,93 @@
       <c r="AR51" s="2">
         <v>7</v>
       </c>
-      <c r="BN51" s="2">
+      <c r="AS51" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AT51" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="AU51" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="AY51" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="BA51" s="2">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="BW51" s="2">
         <v>46.5</v>
       </c>
-      <c r="BO51" s="2">
+      <c r="BX51" s="2">
         <v>54.1</v>
       </c>
-      <c r="BP51" s="2">
+      <c r="BY51" s="2">
         <v>49.8</v>
       </c>
-      <c r="BQ51" s="1">
+      <c r="BZ51" s="1">
         <v>50</v>
       </c>
-      <c r="BR51" s="1">
+      <c r="CA51" s="1">
         <v>34</v>
-      </c>
-      <c r="BU51" s="1"/>
-      <c r="BV51" s="1">
-        <v>53</v>
-      </c>
-      <c r="BW51" s="1"/>
-      <c r="BX51" s="1">
-        <v>32</v>
-      </c>
-      <c r="BY51" s="1">
-        <v>51</v>
-      </c>
-      <c r="CB51" s="1"/>
-      <c r="CC51" s="1">
-        <v>27</v>
       </c>
       <c r="CD51" s="1"/>
       <c r="CE51" s="1">
+        <v>53</v>
+      </c>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1">
+        <v>32</v>
+      </c>
+      <c r="CH51" s="1">
+        <v>51</v>
+      </c>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1">
+        <v>27</v>
+      </c>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1">
         <v>46</v>
       </c>
-      <c r="CF51" s="1">
+      <c r="CO51" s="1">
         <v>35</v>
       </c>
-      <c r="CN51" s="2">
+      <c r="CP51" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="CQ51" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="21">
+        <v>13.2</v>
+      </c>
+      <c r="CV51" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="CW51" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="DE51" s="2">
         <v>48</v>
       </c>
-      <c r="CO51" s="15" t="s">
+      <c r="DF51" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>5</v>
       </c>
@@ -7859,15 +9497,29 @@
       <c r="AR52" s="1">
         <v>8</v>
       </c>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
+      <c r="AS52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>8</v>
+      </c>
       <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
+      <c r="AW52" s="1">
+        <v>6</v>
+      </c>
       <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
+      <c r="AY52" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ52" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>9</v>
+      </c>
       <c r="BB52" s="1"/>
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
@@ -7880,29 +9532,47 @@
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
       <c r="BM52" s="1"/>
-      <c r="BN52" s="2">
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="2">
         <v>42</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BX52" s="2">
         <v>61</v>
       </c>
-      <c r="BP52" s="2">
+      <c r="BY52" s="2">
         <v>43</v>
       </c>
-      <c r="CE52" s="1">
+      <c r="CN52" s="1">
         <v>53</v>
       </c>
-      <c r="CF52" s="1">
+      <c r="CO52" s="1">
         <v>33</v>
       </c>
-      <c r="CN52" s="2">
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52"/>
+      <c r="CW52" s="1">
+        <v>14</v>
+      </c>
+      <c r="DE52" s="2">
         <v>52</v>
       </c>
-      <c r="CO52" s="14" t="s">
+      <c r="DF52" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>4</v>
       </c>
@@ -7996,27 +9666,66 @@
       <c r="AR53" s="2">
         <v>7</v>
       </c>
-      <c r="BN53" s="2">
+      <c r="AS53" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT53" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA53" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BW53" s="2">
         <v>42</v>
       </c>
-      <c r="BO53" s="2">
+      <c r="BX53" s="2">
         <v>63</v>
       </c>
-      <c r="BP53" s="2">
+      <c r="BY53" s="2">
         <v>55</v>
       </c>
-      <c r="BQ53" s="2"/>
-      <c r="CE53" s="1">
+      <c r="BZ53" s="2"/>
+      <c r="CN53" s="1">
         <v>54</v>
       </c>
-      <c r="CF53" s="1">
+      <c r="CO53" s="1">
         <v>32</v>
       </c>
-      <c r="CO53" s="13" t="s">
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV53" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW53" s="1">
+        <v>13</v>
+      </c>
+      <c r="DF53" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>46</v>
       </c>
@@ -8140,136 +9849,174 @@
         <v>7</v>
       </c>
       <c r="AS54" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU54" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV54" s="2">
+        <v>9</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY54" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ54" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA54" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BB54" s="2">
         <v>37</v>
       </c>
-      <c r="AT54" s="2">
+      <c r="BC54" s="2">
         <v>55</v>
       </c>
-      <c r="AU54" s="2">
+      <c r="BD54" s="2">
         <v>29</v>
       </c>
-      <c r="AV54" s="2">
+      <c r="BE54" s="2">
         <v>5</v>
       </c>
-      <c r="AW54" s="2">
+      <c r="BF54" s="2">
         <v>31</v>
       </c>
-      <c r="AY54" s="2">
+      <c r="BH54" s="2">
         <v>46</v>
       </c>
-      <c r="AZ54" s="2">
+      <c r="BI54" s="2">
         <v>58</v>
       </c>
-      <c r="BA54" s="2">
+      <c r="BJ54" s="2">
         <v>33</v>
       </c>
-      <c r="BB54" s="2">
+      <c r="BK54" s="2">
         <v>77</v>
       </c>
-      <c r="BC54" s="2">
+      <c r="BL54" s="2">
         <v>63</v>
       </c>
-      <c r="BD54" s="2">
+      <c r="BM54" s="2">
         <v>81</v>
       </c>
-      <c r="BF54" s="2">
+      <c r="BO54" s="2">
         <v>56</v>
       </c>
-      <c r="BG54" s="2">
+      <c r="BP54" s="2">
         <v>47</v>
       </c>
-      <c r="BH54" s="2">
+      <c r="BQ54" s="2">
         <v>55</v>
       </c>
-      <c r="BI54" s="2">
+      <c r="BR54" s="2">
         <v>52</v>
       </c>
-      <c r="BJ54" s="2">
+      <c r="BS54" s="2">
         <v>68</v>
       </c>
-      <c r="BK54" s="2">
+      <c r="BT54" s="2">
         <v>50</v>
       </c>
-      <c r="BM54" s="2">
+      <c r="BV54" s="2">
         <v>58</v>
       </c>
-      <c r="BN54" s="2">
+      <c r="BW54" s="2">
         <v>44</v>
       </c>
-      <c r="BO54" s="2">
+      <c r="BX54" s="2">
         <v>51</v>
       </c>
-      <c r="BP54" s="2">
+      <c r="BY54" s="2">
         <v>52</v>
       </c>
-      <c r="BQ54" s="1">
+      <c r="BZ54" s="1">
         <v>56</v>
       </c>
-      <c r="BR54" s="1">
+      <c r="CA54" s="1">
         <v>34</v>
       </c>
-      <c r="BS54" s="1">
+      <c r="CB54" s="1">
         <v>66</v>
       </c>
-      <c r="BT54" s="1">
+      <c r="CC54" s="1">
         <v>60</v>
       </c>
-      <c r="BU54" s="1">
+      <c r="CD54" s="1">
         <v>69</v>
       </c>
-      <c r="BW54" s="1">
+      <c r="CF54" s="1">
         <v>57</v>
       </c>
-      <c r="BX54" s="1">
+      <c r="CG54" s="1">
         <v>28</v>
       </c>
-      <c r="BY54" s="1">
+      <c r="CH54" s="1">
         <v>50</v>
       </c>
-      <c r="BZ54" s="1">
+      <c r="CI54" s="1">
         <v>21</v>
       </c>
-      <c r="CA54" s="1">
+      <c r="CJ54" s="1">
         <v>35</v>
       </c>
-      <c r="CB54" s="1">
+      <c r="CK54" s="1">
         <v>19</v>
       </c>
-      <c r="CD54" s="1">
+      <c r="CM54" s="1">
         <v>34</v>
       </c>
-      <c r="CE54" s="1">
+      <c r="CN54" s="1">
         <v>50</v>
       </c>
-      <c r="CF54" s="1">
+      <c r="CO54" s="1">
         <v>36</v>
       </c>
-      <c r="CG54" s="1">
+      <c r="CP54" s="1">
+        <v>14</v>
+      </c>
+      <c r="CQ54" s="1">
+        <v>13</v>
+      </c>
+      <c r="CR54" s="1">
+        <v>13</v>
+      </c>
+      <c r="CT54" s="2">
+        <v>6</v>
+      </c>
+      <c r="CU54"/>
+      <c r="CX54" s="1">
         <v>57</v>
       </c>
-      <c r="CH54" s="1">
+      <c r="CY54" s="1">
         <v>37</v>
       </c>
-      <c r="CI54" s="1">
+      <c r="CZ54" s="1">
         <v>59</v>
       </c>
-      <c r="CJ54" s="1">
+      <c r="DA54" s="1">
         <v>64</v>
       </c>
-      <c r="CK54" s="1">
+      <c r="DB54" s="1">
         <v>63</v>
       </c>
-      <c r="CM54" s="1">
+      <c r="DD54" s="1">
         <v>59</v>
       </c>
-      <c r="CN54" s="1">
+      <c r="DE54" s="1">
         <v>52</v>
       </c>
-      <c r="CO54" s="13" t="s">
+      <c r="DF54" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>6</v>
       </c>
@@ -8357,44 +10104,83 @@
       <c r="AR55" s="2">
         <v>9</v>
       </c>
-      <c r="BN55" s="2">
+      <c r="AS55" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BW55" s="2">
         <v>41</v>
       </c>
-      <c r="BO55" s="2">
+      <c r="BX55" s="2">
         <v>59</v>
       </c>
-      <c r="BP55" s="2">
+      <c r="BY55" s="2">
         <v>41</v>
       </c>
-      <c r="CE55" s="1">
+      <c r="CN55" s="1">
         <v>54</v>
       </c>
-      <c r="CF55" s="1">
+      <c r="CO55" s="1">
         <v>35</v>
       </c>
-      <c r="CG55" s="1">
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV55" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW55" s="1">
+        <v>11</v>
+      </c>
+      <c r="CX55" s="1">
         <v>55</v>
       </c>
-      <c r="CH55" s="1">
+      <c r="CY55" s="1">
         <v>43</v>
       </c>
-      <c r="CL55" s="1">
+      <c r="DC55" s="1">
         <v>53</v>
       </c>
-      <c r="CM55" s="1">
+      <c r="DD55" s="1">
         <v>73</v>
       </c>
-      <c r="CN55" s="1">
+      <c r="DE55" s="1">
         <v>53</v>
       </c>
-      <c r="CO55" s="13" t="s">
+      <c r="DF55" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="CP55" s="2" t="s">
+      <c r="DG55" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>3</v>
       </c>
@@ -8482,71 +10268,110 @@
       <c r="AR56" s="2">
         <v>6</v>
       </c>
-      <c r="AS56" s="2">
+      <c r="AT56" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU56" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV56" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY56" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA56" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BB56" s="2">
         <v>33</v>
       </c>
-      <c r="AT56" s="2">
+      <c r="BC56" s="2">
         <v>48</v>
       </c>
-      <c r="AU56" s="2">
+      <c r="BD56" s="2">
         <v>40</v>
       </c>
-      <c r="AZ56" s="2">
+      <c r="BI56" s="2">
         <v>58</v>
       </c>
-      <c r="BA56" s="2">
+      <c r="BJ56" s="2">
         <v>43</v>
       </c>
-      <c r="BB56" s="2">
+      <c r="BK56" s="2">
         <v>64</v>
       </c>
-      <c r="BG56" s="2">
+      <c r="BP56" s="2">
         <v>21</v>
       </c>
-      <c r="BH56" s="2">
+      <c r="BQ56" s="2">
         <v>26</v>
       </c>
-      <c r="BI56" s="2">
+      <c r="BR56" s="2">
         <v>19</v>
       </c>
-      <c r="BN56" s="2">
+      <c r="BW56" s="2">
         <v>37</v>
       </c>
-      <c r="BO56" s="2">
+      <c r="BX56" s="2">
         <v>55</v>
       </c>
-      <c r="BP56" s="2">
+      <c r="BY56" s="2">
         <v>23</v>
       </c>
-      <c r="BQ56" s="1">
+      <c r="BZ56" s="1">
         <v>61</v>
       </c>
-      <c r="BR56" s="1">
+      <c r="CA56" s="1">
         <v>43</v>
       </c>
-      <c r="BS56" s="1">
+      <c r="CB56" s="1">
         <v>58</v>
       </c>
-      <c r="BX56" s="1">
+      <c r="CG56" s="1">
         <v>30</v>
       </c>
-      <c r="BY56" s="1">
+      <c r="CH56" s="1">
         <v>46</v>
       </c>
-      <c r="BZ56" s="1">
+      <c r="CI56" s="1">
         <v>31</v>
       </c>
-      <c r="CE56" s="1">
+      <c r="CN56" s="1">
         <v>55</v>
       </c>
-      <c r="CF56" s="1">
+      <c r="CO56" s="1">
         <v>34</v>
       </c>
-      <c r="CO56" s="31" t="s">
+      <c r="CP56" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ56" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR56" s="1">
+        <v>12</v>
+      </c>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV56" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW56" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF56" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>252</v>
       </c>
@@ -8586,29 +10411,49 @@
       <c r="AR57" s="2">
         <v>9</v>
       </c>
-      <c r="BN57" s="2">
+      <c r="AS57" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA57" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BW57" s="2">
         <v>47</v>
       </c>
-      <c r="BO57" s="2">
+      <c r="BX57" s="2">
         <v>35</v>
       </c>
-      <c r="BP57" s="2">
+      <c r="BY57" s="2">
         <v>14</v>
       </c>
-      <c r="CE57" s="1">
+      <c r="CN57" s="1">
         <v>50</v>
       </c>
-      <c r="CF57" s="1">
+      <c r="CO57" s="1">
         <v>37</v>
       </c>
-      <c r="CN57" s="1">
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57"/>
+      <c r="CW57" s="10"/>
+      <c r="DE57" s="1">
         <v>45</v>
       </c>
-      <c r="CO57" s="13" t="s">
+      <c r="DF57" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>5</v>
       </c>
@@ -8686,15 +10531,29 @@
       <c r="AR58" s="1">
         <v>7</v>
       </c>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
+      <c r="AS58" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>6</v>
+      </c>
       <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
+      <c r="AW58" s="1">
+        <v>8</v>
+      </c>
       <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="AZ58" s="1"/>
-      <c r="BA58" s="1"/>
+      <c r="AY58" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ58" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>9</v>
+      </c>
       <c r="BB58" s="1"/>
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
@@ -8707,29 +10566,47 @@
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
-      <c r="BN58" s="2">
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="2">
         <v>42</v>
       </c>
-      <c r="BO58" s="2">
+      <c r="BX58" s="2">
         <v>63</v>
       </c>
-      <c r="BP58" s="2">
+      <c r="BY58" s="2">
         <v>45</v>
       </c>
-      <c r="CE58" s="1">
+      <c r="CN58" s="1">
         <v>54</v>
       </c>
-      <c r="CF58" s="1">
+      <c r="CO58" s="1">
         <v>31</v>
       </c>
-      <c r="CN58" s="2">
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58"/>
+      <c r="CW58" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE58" s="2">
         <v>54</v>
       </c>
-      <c r="CO58" s="13" t="s">
+      <c r="DF58" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>195</v>
       </c>
@@ -8828,96 +10705,143 @@
         <v>5</v>
       </c>
       <c r="AS59" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU59" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="BA59" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="BB59" s="2">
         <v>35.9</v>
       </c>
-      <c r="AT59" s="2">
+      <c r="BC59" s="2">
         <v>52.5</v>
       </c>
-      <c r="AU59" s="2">
+      <c r="BD59" s="2">
         <v>51.7</v>
       </c>
-      <c r="AX59" s="2">
+      <c r="BG59" s="2">
         <v>46.4</v>
       </c>
-      <c r="AY59" s="2">
+      <c r="BH59" s="2">
         <v>34</v>
       </c>
-      <c r="AZ59" s="2">
+      <c r="BI59" s="2">
         <v>52</v>
       </c>
-      <c r="BA59" s="2">
+      <c r="BJ59" s="2">
         <v>28.4</v>
       </c>
-      <c r="BB59" s="2">
+      <c r="BK59" s="2">
         <v>61.8</v>
       </c>
-      <c r="BE59" s="2">
+      <c r="BN59" s="2">
         <v>52.4</v>
       </c>
-      <c r="BF59" s="2">
+      <c r="BO59" s="2">
         <v>54.1</v>
       </c>
-      <c r="BG59" s="2">
+      <c r="BP59" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="BH59" s="2">
+      <c r="BQ59" s="2">
         <v>19.8</v>
       </c>
-      <c r="BI59" s="2">
+      <c r="BR59" s="2">
         <v>14.2</v>
       </c>
-      <c r="BL59" s="2">
+      <c r="BU59" s="2">
         <v>13.7</v>
       </c>
-      <c r="BM59" s="2">
+      <c r="BV59" s="2">
         <v>16</v>
       </c>
-      <c r="BN59" s="29">
+      <c r="BW59" s="29">
         <v>41.1</v>
       </c>
-      <c r="BO59" s="29">
+      <c r="BX59" s="29">
         <v>45.6</v>
       </c>
-      <c r="BP59" s="29">
+      <c r="BY59" s="29">
         <v>22.5</v>
       </c>
-      <c r="BQ59" s="1">
+      <c r="BZ59" s="1">
         <v>55</v>
       </c>
-      <c r="BR59" s="1">
+      <c r="CA59" s="1">
         <v>35</v>
       </c>
-      <c r="BU59" s="1"/>
-      <c r="BV59" s="2">
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="2">
         <v>45</v>
       </c>
-      <c r="BW59" s="1">
+      <c r="CF59" s="1">
         <v>56</v>
       </c>
-      <c r="BX59" s="1">
+      <c r="CG59" s="1">
         <v>31</v>
       </c>
-      <c r="BY59" s="1">
+      <c r="CH59" s="1">
         <v>58</v>
       </c>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="2">
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="2">
         <v>39</v>
       </c>
-      <c r="CD59" s="1">
+      <c r="CM59" s="1">
         <v>33</v>
       </c>
-      <c r="CE59" s="1">
+      <c r="CN59" s="1">
         <v>48</v>
       </c>
-      <c r="CF59" s="1">
+      <c r="CO59" s="1">
         <v>41</v>
       </c>
-      <c r="CO59" s="13" t="s">
+      <c r="CP59" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ59" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="CT59" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="CU59" s="21">
+        <v>8</v>
+      </c>
+      <c r="CV59" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="CW59" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="DF59" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>46</v>
       </c>
@@ -9040,74 +10964,115 @@
       <c r="AR60" s="2">
         <v>7</v>
       </c>
-      <c r="BQ60" s="1">
+      <c r="AS60" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU60" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ60" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA60" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BZ60" s="1">
         <v>52</v>
       </c>
-      <c r="BR60" s="1">
+      <c r="CA60" s="1">
         <v>43</v>
       </c>
-      <c r="BS60" s="1">
+      <c r="CB60" s="1">
         <v>43</v>
       </c>
-      <c r="BT60" s="1">
+      <c r="CC60" s="1">
         <v>75</v>
       </c>
-      <c r="BU60" s="1">
+      <c r="CD60" s="1">
         <v>33</v>
       </c>
-      <c r="BW60" s="1">
+      <c r="CF60" s="1">
         <v>58</v>
       </c>
-      <c r="BX60" s="1">
+      <c r="CG60" s="1">
         <v>36</v>
       </c>
-      <c r="BY60" s="1">
+      <c r="CH60" s="1">
         <v>49</v>
       </c>
-      <c r="BZ60" s="1">
+      <c r="CI60" s="1">
         <v>37</v>
       </c>
-      <c r="CA60" s="1">
+      <c r="CJ60" s="1">
         <v>5</v>
       </c>
-      <c r="CB60" s="1">
+      <c r="CK60" s="1">
         <v>17</v>
       </c>
-      <c r="CD60" s="1">
+      <c r="CM60" s="1">
         <v>32</v>
-      </c>
-      <c r="CE60" s="1">
-        <v>50</v>
-      </c>
-      <c r="CF60" s="1">
-        <v>38</v>
-      </c>
-      <c r="CG60" s="1">
-        <v>52</v>
-      </c>
-      <c r="CH60" s="1">
-        <v>40</v>
-      </c>
-      <c r="CI60" s="1">
-        <v>53</v>
-      </c>
-      <c r="CJ60" s="1">
-        <v>79</v>
-      </c>
-      <c r="CK60" s="1">
-        <v>74</v>
-      </c>
-      <c r="CM60" s="1">
-        <v>59</v>
       </c>
       <c r="CN60" s="1">
         <v>50</v>
       </c>
-      <c r="CO60" s="13" t="s">
+      <c r="CO60" s="1">
+        <v>38</v>
+      </c>
+      <c r="CP60" s="1">
+        <v>9</v>
+      </c>
+      <c r="CQ60" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR60" s="1">
+        <v>18</v>
+      </c>
+      <c r="CT60" s="2">
+        <v>8</v>
+      </c>
+      <c r="CU60"/>
+      <c r="CW60" s="12">
+        <v>11</v>
+      </c>
+      <c r="CX60" s="1">
+        <v>52</v>
+      </c>
+      <c r="CY60" s="1">
+        <v>40</v>
+      </c>
+      <c r="CZ60" s="1">
+        <v>53</v>
+      </c>
+      <c r="DA60" s="1">
+        <v>79</v>
+      </c>
+      <c r="DB60" s="1">
+        <v>74</v>
+      </c>
+      <c r="DD60" s="1">
+        <v>59</v>
+      </c>
+      <c r="DE60" s="1">
+        <v>50</v>
+      </c>
+      <c r="DF60" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>4</v>
       </c>
@@ -9177,27 +11142,54 @@
       <c r="AR61" s="2">
         <v>5</v>
       </c>
-      <c r="BN61" s="2">
+      <c r="AS61" s="2">
+        <v>6</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA61" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BW61" s="2">
         <v>42</v>
       </c>
-      <c r="BO61" s="2">
+      <c r="BX61" s="2">
         <v>61</v>
       </c>
-      <c r="BP61" s="2">
+      <c r="BY61" s="2">
         <v>58</v>
       </c>
-      <c r="BQ61" s="2"/>
-      <c r="CE61" s="1">
+      <c r="BZ61" s="2"/>
+      <c r="CN61" s="1">
         <v>54</v>
       </c>
-      <c r="CF61" s="1">
+      <c r="CO61" s="1">
         <v>34</v>
       </c>
-      <c r="CO61" s="13" t="s">
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="2">
+        <v>8</v>
+      </c>
+      <c r="CV61" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW61" s="12">
+        <v>11</v>
+      </c>
+      <c r="DF61" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>5</v>
       </c>
@@ -9276,14 +11268,26 @@
         <v>9</v>
       </c>
       <c r="AS62" s="1"/>
-      <c r="AT62" s="1"/>
-      <c r="AU62" s="1"/>
+      <c r="AT62" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>11</v>
+      </c>
       <c r="AV62" s="1"/>
-      <c r="AW62" s="1"/>
+      <c r="AW62" s="1">
+        <v>5</v>
+      </c>
       <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
-      <c r="AZ62" s="1"/>
-      <c r="BA62" s="1"/>
+      <c r="AY62" s="2">
+        <v>9</v>
+      </c>
+      <c r="AZ62" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>12</v>
+      </c>
       <c r="BB62" s="1"/>
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
@@ -9296,29 +11300,47 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
-      <c r="BN62" s="2">
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="2">
         <v>43</v>
       </c>
-      <c r="BO62" s="2">
+      <c r="BX62" s="2">
         <v>61</v>
       </c>
-      <c r="BP62" s="2">
+      <c r="BY62" s="2">
         <v>43</v>
       </c>
-      <c r="CE62" s="1">
+      <c r="CN62" s="1">
         <v>53</v>
       </c>
-      <c r="CF62" s="1">
+      <c r="CO62" s="1">
         <v>33</v>
       </c>
-      <c r="CN62" s="2">
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62"/>
+      <c r="CW62" s="1">
+        <v>14</v>
+      </c>
+      <c r="DE62" s="2">
         <v>54</v>
       </c>
-      <c r="CO62" s="14" t="s">
+      <c r="DF62" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>46</v>
       </c>
@@ -9441,137 +11463,175 @@
       <c r="AR63" s="2">
         <v>5</v>
       </c>
-      <c r="AS63" s="2">
+      <c r="AT63" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU63" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY63" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ63" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA63" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BB63" s="2">
         <v>36</v>
       </c>
-      <c r="AT63" s="2">
+      <c r="BC63" s="2">
         <v>52</v>
       </c>
-      <c r="AU63" s="2">
+      <c r="BD63" s="2">
         <v>24</v>
       </c>
-      <c r="AV63" s="2">
+      <c r="BE63" s="2">
         <v>8</v>
       </c>
-      <c r="AW63" s="2">
+      <c r="BF63" s="2">
         <v>52</v>
       </c>
-      <c r="AY63" s="2">
+      <c r="BH63" s="2">
         <v>28</v>
       </c>
-      <c r="AZ63" s="2">
+      <c r="BI63" s="2">
         <v>53</v>
       </c>
-      <c r="BA63" s="2">
+      <c r="BJ63" s="2">
         <v>42</v>
       </c>
-      <c r="BB63" s="2">
+      <c r="BK63" s="2">
         <v>74</v>
       </c>
-      <c r="BC63" s="2">
+      <c r="BL63" s="2">
         <v>54</v>
       </c>
-      <c r="BD63" s="2">
+      <c r="BM63" s="2">
         <v>21</v>
       </c>
-      <c r="BF63" s="2">
+      <c r="BO63" s="2">
         <v>57</v>
-      </c>
-      <c r="BG63" s="2">
-        <v>49</v>
-      </c>
-      <c r="BH63" s="2">
-        <v>56</v>
-      </c>
-      <c r="BI63" s="2">
-        <v>32</v>
-      </c>
-      <c r="BJ63" s="2">
-        <v>67</v>
-      </c>
-      <c r="BK63" s="2">
-        <v>72</v>
-      </c>
-      <c r="BM63" s="2">
-        <v>38</v>
-      </c>
-      <c r="BN63" s="2">
-        <v>38</v>
-      </c>
-      <c r="BO63" s="2">
-        <v>51</v>
       </c>
       <c r="BP63" s="2">
         <v>49</v>
       </c>
-      <c r="BQ63" s="1">
+      <c r="BQ63" s="2">
+        <v>56</v>
+      </c>
+      <c r="BR63" s="2">
+        <v>32</v>
+      </c>
+      <c r="BS63" s="2">
+        <v>67</v>
+      </c>
+      <c r="BT63" s="2">
+        <v>72</v>
+      </c>
+      <c r="BV63" s="2">
+        <v>38</v>
+      </c>
+      <c r="BW63" s="2">
+        <v>38</v>
+      </c>
+      <c r="BX63" s="2">
+        <v>51</v>
+      </c>
+      <c r="BY63" s="2">
+        <v>49</v>
+      </c>
+      <c r="BZ63" s="1">
         <v>54</v>
       </c>
-      <c r="BR63" s="1">
+      <c r="CA63" s="1">
         <v>23</v>
       </c>
-      <c r="BS63" s="1">
+      <c r="CB63" s="1">
         <v>72</v>
       </c>
-      <c r="BT63" s="1">
+      <c r="CC63" s="1">
         <v>51</v>
       </c>
-      <c r="BU63" s="1">
+      <c r="CD63" s="1">
         <v>21</v>
       </c>
-      <c r="BW63" s="1">
+      <c r="CF63" s="1">
         <v>66</v>
       </c>
-      <c r="BX63" s="1">
+      <c r="CG63" s="1">
         <v>32</v>
       </c>
-      <c r="BY63" s="1">
+      <c r="CH63" s="1">
         <v>55</v>
       </c>
-      <c r="BZ63" s="1">
+      <c r="CI63" s="1">
         <v>23</v>
       </c>
-      <c r="CA63" s="1">
+      <c r="CJ63" s="1">
         <v>49</v>
       </c>
-      <c r="CB63" s="1">
+      <c r="CK63" s="1">
         <v>79</v>
       </c>
-      <c r="CD63" s="1">
+      <c r="CM63" s="1">
         <v>25</v>
       </c>
-      <c r="CE63" s="1">
+      <c r="CN63" s="1">
         <v>47</v>
       </c>
-      <c r="CF63" s="1">
+      <c r="CO63" s="1">
         <v>38</v>
       </c>
-      <c r="CG63" s="1">
+      <c r="CP63" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ63" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT63" s="2">
+        <v>8</v>
+      </c>
+      <c r="CU63"/>
+      <c r="CW63" s="1">
+        <v>14</v>
+      </c>
+      <c r="CX63" s="1">
         <v>57</v>
       </c>
-      <c r="CH63" s="1">
+      <c r="CY63" s="1">
         <v>40</v>
       </c>
-      <c r="CI63" s="1">
+      <c r="CZ63" s="1">
         <v>63</v>
       </c>
-      <c r="CJ63" s="1">
+      <c r="DA63" s="1">
         <v>53</v>
       </c>
-      <c r="CK63" s="1">
+      <c r="DB63" s="1">
         <v>21</v>
       </c>
-      <c r="CM63" s="1">
+      <c r="DD63" s="1">
         <v>64</v>
       </c>
-      <c r="CN63" s="1">
+      <c r="DE63" s="1">
         <v>53</v>
       </c>
-      <c r="CO63" s="15" t="s">
+      <c r="DF63" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>40</v>
       </c>
@@ -9646,51 +11706,93 @@
       <c r="AR64" s="2">
         <v>5</v>
       </c>
-      <c r="BN64" s="2">
+      <c r="AS64" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AT64" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AU64" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="AW64" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="AY64" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AZ64" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="BA64" s="2">
+        <f t="shared" si="0"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="BW64" s="2">
         <v>46.3</v>
       </c>
-      <c r="BO64" s="2">
+      <c r="BX64" s="2">
         <v>52.4</v>
       </c>
-      <c r="BP64" s="2">
+      <c r="BY64" s="2">
         <v>51.6</v>
       </c>
-      <c r="BQ64" s="1">
+      <c r="BZ64" s="1">
         <v>51</v>
       </c>
-      <c r="BR64" s="1">
+      <c r="CA64" s="1">
         <v>36</v>
-      </c>
-      <c r="BU64" s="1"/>
-      <c r="BV64" s="1">
-        <v>52</v>
-      </c>
-      <c r="BW64" s="1"/>
-      <c r="BX64" s="1">
-        <v>34</v>
-      </c>
-      <c r="BY64" s="1">
-        <v>51</v>
-      </c>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1">
-        <v>34</v>
       </c>
       <c r="CD64" s="1"/>
       <c r="CE64" s="1">
+        <v>52</v>
+      </c>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1">
+        <v>34</v>
+      </c>
+      <c r="CH64" s="1">
+        <v>51</v>
+      </c>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1">
+        <v>34</v>
+      </c>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1">
         <v>47</v>
       </c>
-      <c r="CF64" s="1">
+      <c r="CO64" s="1">
         <v>38</v>
       </c>
-      <c r="CN64" s="2">
+      <c r="CP64" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="CQ64" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="21">
+        <v>10.4</v>
+      </c>
+      <c r="CV64" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW64" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="DE64" s="2">
         <v>45.7</v>
       </c>
-      <c r="CO64" s="15" t="s">
+      <c r="DF64" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>5</v>
       </c>
@@ -9769,14 +11871,26 @@
         <v>8</v>
       </c>
       <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="1"/>
+      <c r="AT65" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>5</v>
+      </c>
       <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
+      <c r="AW65" s="1">
+        <v>4</v>
+      </c>
       <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
+      <c r="AY65" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ65" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA65" s="1">
+        <v>9</v>
+      </c>
       <c r="BB65" s="1"/>
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
@@ -9789,29 +11903,47 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-      <c r="BN65" s="2">
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="2">
         <v>42</v>
       </c>
-      <c r="BO65" s="2">
+      <c r="BX65" s="2">
         <v>61</v>
       </c>
-      <c r="BP65" s="2">
+      <c r="BY65" s="2">
         <v>44</v>
       </c>
-      <c r="CE65" s="1">
+      <c r="CN65" s="1">
         <v>54</v>
       </c>
-      <c r="CF65" s="1">
+      <c r="CO65" s="1">
         <v>34</v>
       </c>
-      <c r="CN65" s="2">
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65"/>
+      <c r="CW65" s="1">
+        <v>12</v>
+      </c>
+      <c r="DE65" s="2">
         <v>52</v>
       </c>
-      <c r="CO65" s="14" t="s">
+      <c r="DF65" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>252</v>
       </c>
@@ -9855,33 +11987,52 @@
       <c r="AR66" s="2">
         <v>10</v>
       </c>
-      <c r="BN66" s="2">
+      <c r="AY66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ66" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA66" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BW66" s="2">
         <v>39</v>
       </c>
-      <c r="BO66" s="2">
+      <c r="BX66" s="2">
         <v>45</v>
       </c>
-      <c r="BP66" s="2">
+      <c r="BY66" s="2">
         <v>18</v>
       </c>
-      <c r="BU66" s="1"/>
-      <c r="BW66" s="1"/>
-      <c r="CB66" s="1"/>
       <c r="CD66" s="1"/>
-      <c r="CE66" s="1">
+      <c r="CF66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1">
         <v>48</v>
       </c>
-      <c r="CF66" s="1">
+      <c r="CO66" s="1">
         <v>39</v>
       </c>
-      <c r="CN66" s="1">
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66"/>
+      <c r="CW66" s="1">
+        <v>10</v>
+      </c>
+      <c r="DE66" s="1">
         <v>44</v>
       </c>
-      <c r="CO66" s="13" t="s">
+      <c r="DF66" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>46</v>
       </c>
@@ -10004,74 +12155,112 @@
       <c r="AR67" s="2">
         <v>6</v>
       </c>
-      <c r="BQ67" s="1">
+      <c r="AT67" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV67" s="2">
+        <v>17</v>
+      </c>
+      <c r="AX67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA67" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BZ67" s="1">
         <v>51</v>
       </c>
-      <c r="BR67" s="1">
+      <c r="CA67" s="1">
         <v>34</v>
       </c>
-      <c r="BS67" s="1">
+      <c r="CB67" s="1">
         <v>63</v>
       </c>
-      <c r="BT67" s="1">
+      <c r="CC67" s="1">
         <v>70</v>
       </c>
-      <c r="BU67" s="1">
+      <c r="CD67" s="1">
         <v>50</v>
       </c>
-      <c r="BW67" s="1">
+      <c r="CF67" s="1">
         <v>58</v>
       </c>
-      <c r="BX67" s="1">
+      <c r="CG67" s="1">
         <v>34</v>
       </c>
-      <c r="BY67" s="1">
+      <c r="CH67" s="1">
         <v>56</v>
       </c>
-      <c r="BZ67" s="1">
+      <c r="CI67" s="1">
         <v>22</v>
       </c>
-      <c r="CA67" s="1">
+      <c r="CJ67" s="1">
         <v>14</v>
       </c>
-      <c r="CB67" s="1">
+      <c r="CK67" s="1">
         <v>50</v>
       </c>
-      <c r="CD67" s="1">
+      <c r="CM67" s="1">
         <v>28</v>
       </c>
-      <c r="CE67" s="1">
+      <c r="CN67" s="1">
         <v>48</v>
       </c>
-      <c r="CF67" s="1">
+      <c r="CO67" s="1">
         <v>39</v>
       </c>
-      <c r="CG67" s="1">
+      <c r="CP67" s="1">
+        <v>11</v>
+      </c>
+      <c r="CQ67" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR67" s="1">
+        <v>15</v>
+      </c>
+      <c r="CT67" s="2">
+        <v>13</v>
+      </c>
+      <c r="CU67"/>
+      <c r="CW67" s="1">
+        <v>10</v>
+      </c>
+      <c r="CX67" s="1">
         <v>49</v>
       </c>
-      <c r="CH67" s="1">
+      <c r="CY67" s="1">
         <v>35</v>
       </c>
-      <c r="CI67" s="1">
+      <c r="CZ67" s="1">
         <v>72</v>
       </c>
-      <c r="CJ67" s="1">
+      <c r="DA67" s="1">
         <v>87</v>
       </c>
-      <c r="CK67" s="1">
+      <c r="DB67" s="1">
         <v>56</v>
       </c>
-      <c r="CM67" s="1">
+      <c r="DD67" s="1">
         <v>73</v>
       </c>
-      <c r="CN67" s="1">
+      <c r="DE67" s="1">
         <v>50</v>
       </c>
-      <c r="CO67" s="13" t="s">
+      <c r="DF67" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>6</v>
       </c>
@@ -10159,41 +12348,77 @@
       <c r="AR68" s="2">
         <v>9</v>
       </c>
-      <c r="BN68" s="2">
+      <c r="AT68" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU68" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW68" s="2">
+        <v>12</v>
+      </c>
+      <c r="AX68" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY68" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ68" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA68" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BW68" s="2">
         <v>45</v>
       </c>
-      <c r="BO68" s="2">
+      <c r="BX68" s="2">
         <v>57</v>
       </c>
-      <c r="BP68" s="2">
+      <c r="BY68" s="2">
         <v>49</v>
       </c>
-      <c r="CE68" s="1">
+      <c r="CN68" s="1">
         <v>52</v>
       </c>
-      <c r="CF68" s="1">
+      <c r="CO68" s="1">
         <v>37</v>
       </c>
-      <c r="CG68" s="1">
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW68" s="1">
+        <v>10</v>
+      </c>
+      <c r="CX68" s="1">
         <v>53</v>
       </c>
-      <c r="CH68" s="1">
+      <c r="CY68" s="1">
         <v>34</v>
       </c>
-      <c r="CL68" s="1">
+      <c r="DC68" s="1">
         <v>54</v>
       </c>
-      <c r="CM68" s="1">
+      <c r="DD68" s="1">
         <v>72</v>
       </c>
-      <c r="CN68" s="1">
+      <c r="DE68" s="1">
         <v>51</v>
       </c>
-      <c r="CO68" s="13" t="s">
+      <c r="DF68" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>195</v>
       </c>
@@ -10256,24 +12481,48 @@
       <c r="AR69" s="2">
         <v>7</v>
       </c>
-      <c r="BN69" s="2">
+      <c r="AY69" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AZ69" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="BA69" s="2">
+        <f t="shared" ref="BA69" si="1">AZ69+AY69</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BW69" s="2">
         <v>37.4</v>
       </c>
-      <c r="BO69" s="2">
+      <c r="BX69" s="2">
         <v>47.2</v>
       </c>
-      <c r="BP69" s="2">
+      <c r="BY69" s="2">
         <v>19.2</v>
       </c>
-      <c r="BU69" s="1"/>
-      <c r="BW69" s="1"/>
-      <c r="CB69" s="1"/>
       <c r="CD69" s="1"/>
-      <c r="CO69" s="13" t="s">
+      <c r="CF69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="CV69" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="CW69" s="1">
+        <v>10</v>
+      </c>
+      <c r="DF69" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>5</v>
       </c>
@@ -10352,14 +12601,26 @@
         <v>8</v>
       </c>
       <c r="AS70" s="1"/>
-      <c r="AT70" s="1"/>
-      <c r="AU70" s="1"/>
+      <c r="AT70" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>9</v>
+      </c>
       <c r="AV70" s="1"/>
-      <c r="AW70" s="1"/>
+      <c r="AW70" s="1">
+        <v>4</v>
+      </c>
       <c r="AX70" s="1"/>
-      <c r="AY70" s="1"/>
-      <c r="AZ70" s="1"/>
-      <c r="BA70" s="1"/>
+      <c r="AY70" s="2">
+        <v>8</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>10</v>
+      </c>
       <c r="BB70" s="1"/>
       <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
@@ -10372,29 +12633,47 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
       <c r="BM70" s="1"/>
-      <c r="BN70" s="2">
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="2">
         <v>43</v>
       </c>
-      <c r="BO70" s="2">
+      <c r="BX70" s="2">
         <v>60</v>
       </c>
-      <c r="BP70" s="2">
+      <c r="BY70" s="2">
         <v>43</v>
       </c>
-      <c r="CE70" s="1">
+      <c r="CN70" s="1">
         <v>54</v>
       </c>
-      <c r="CF70" s="1">
+      <c r="CO70" s="1">
         <v>34</v>
       </c>
-      <c r="CN70" s="2">
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70"/>
+      <c r="CW70" s="1">
+        <v>12</v>
+      </c>
+      <c r="DE70" s="2">
         <v>52</v>
       </c>
-      <c r="CO70" s="14" t="s">
+      <c r="DF70" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>40</v>
       </c>
@@ -10469,51 +12748,89 @@
       <c r="AR71" s="2">
         <v>7</v>
       </c>
-      <c r="BN71" s="2">
+      <c r="AT71" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="AU71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW71" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AY71" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="AZ71" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="BA71" s="2">
+        <f t="shared" ref="BA71:BA74" si="2">AZ71+AY71</f>
+        <v>10.7</v>
+      </c>
+      <c r="BW71" s="2">
         <v>46.1</v>
       </c>
-      <c r="BO71" s="2">
+      <c r="BX71" s="2">
         <v>50.9</v>
       </c>
-      <c r="BP71" s="2">
+      <c r="BY71" s="2">
         <v>46.9</v>
       </c>
-      <c r="BQ71" s="1">
+      <c r="BZ71" s="1">
         <v>50</v>
       </c>
-      <c r="BR71" s="1">
+      <c r="CA71" s="1">
         <v>36</v>
-      </c>
-      <c r="BU71" s="1"/>
-      <c r="BV71" s="1">
-        <v>51</v>
-      </c>
-      <c r="BW71" s="1"/>
-      <c r="BX71" s="1">
-        <v>34</v>
-      </c>
-      <c r="BY71" s="1">
-        <v>50</v>
-      </c>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1">
-        <v>32</v>
       </c>
       <c r="CD71" s="1"/>
       <c r="CE71" s="1">
+        <v>51</v>
+      </c>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1">
+        <v>34</v>
+      </c>
+      <c r="CH71" s="1">
+        <v>50</v>
+      </c>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1">
+        <v>32</v>
+      </c>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1">
         <v>46</v>
       </c>
-      <c r="CF71" s="1">
+      <c r="CO71" s="1">
         <v>38</v>
       </c>
-      <c r="CN71" s="2">
+      <c r="CP71" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="CQ71" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="CS71" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="CV71" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="CW71" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE71" s="2">
         <v>45.4</v>
       </c>
-      <c r="CO71" s="15" t="s">
+      <c r="DF71" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>182</v>
       </c>
@@ -10571,30 +12888,59 @@
       <c r="AR72" s="2">
         <v>7.1</v>
       </c>
-      <c r="BN72" s="2">
+      <c r="AT72" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU72" s="2">
+        <v>12</v>
+      </c>
+      <c r="AY72" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ72" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA72" s="2">
+        <f t="shared" si="2"/>
+        <v>12.1</v>
+      </c>
+      <c r="BW72" s="2">
         <v>44</v>
       </c>
-      <c r="BO72" s="2">
+      <c r="BX72" s="2">
         <v>54</v>
       </c>
-      <c r="BP72" s="2">
+      <c r="BY72" s="2">
         <v>48</v>
       </c>
-      <c r="CE72" s="2">
+      <c r="CN72" s="2">
         <v>50.8</v>
       </c>
-      <c r="CF72" s="2">
+      <c r="CO72" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="CN72" s="1">
+      <c r="CP72" s="2"/>
+      <c r="CQ72" s="2"/>
+      <c r="CR72" s="2"/>
+      <c r="CS72" s="2"/>
+      <c r="CU72" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV72" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW72" s="1">
+        <v>12</v>
+      </c>
+      <c r="DE72" s="1">
         <v>44</v>
       </c>
-      <c r="CO72" s="13" t="s">
+      <c r="DF72" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="CR72" s="18"/>
+      <c r="DI72" s="18"/>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>4</v>
       </c>
@@ -10664,27 +13010,57 @@
       <c r="AR73" s="2">
         <v>7</v>
       </c>
-      <c r="BN73" s="2">
+      <c r="AT73" s="2">
+        <v>7</v>
+      </c>
+      <c r="AU73" s="2">
+        <v>12</v>
+      </c>
+      <c r="AY73" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ73" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA73" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="BW73" s="2">
         <v>43</v>
       </c>
-      <c r="BO73" s="2">
+      <c r="BX73" s="2">
         <v>59</v>
       </c>
-      <c r="BP73" s="2">
+      <c r="BY73" s="2">
         <v>55</v>
       </c>
-      <c r="BQ73" s="2"/>
-      <c r="CE73" s="1">
+      <c r="BZ73" s="2"/>
+      <c r="CN73" s="1">
         <v>55</v>
       </c>
-      <c r="CF73" s="1">
+      <c r="CO73" s="1">
         <v>34</v>
       </c>
-      <c r="CO73" s="15" t="s">
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="1"/>
+      <c r="CT73" s="1"/>
+      <c r="CU73" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV73" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW73" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF73" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>46</v>
       </c>
@@ -10807,137 +13183,175 @@
       <c r="AR74" s="2">
         <v>5</v>
       </c>
-      <c r="AS74" s="2">
+      <c r="AT74" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU74" s="2">
+        <v>8</v>
+      </c>
+      <c r="AV74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX74" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY74" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ74" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA74" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="BB74" s="2">
         <v>35</v>
       </c>
-      <c r="AT74" s="2">
+      <c r="BC74" s="2">
         <v>51</v>
       </c>
-      <c r="AU74" s="2">
+      <c r="BD74" s="2">
         <v>23</v>
       </c>
-      <c r="AV74" s="2">
+      <c r="BE74" s="2">
         <v>9</v>
       </c>
-      <c r="AW74" s="2">
+      <c r="BF74" s="2">
         <v>33</v>
       </c>
-      <c r="AY74" s="2">
+      <c r="BH74" s="2">
         <v>27</v>
       </c>
-      <c r="AZ74" s="2">
+      <c r="BI74" s="2">
         <v>53</v>
       </c>
-      <c r="BA74" s="2">
+      <c r="BJ74" s="2">
         <v>41</v>
       </c>
-      <c r="BB74" s="2">
+      <c r="BK74" s="2">
         <v>71</v>
       </c>
-      <c r="BC74" s="2">
+      <c r="BL74" s="2">
         <v>48</v>
       </c>
-      <c r="BD74" s="2">
+      <c r="BM74" s="2">
         <v>20</v>
       </c>
-      <c r="BF74" s="2">
+      <c r="BO74" s="2">
         <v>58</v>
-      </c>
-      <c r="BG74" s="2">
-        <v>48</v>
-      </c>
-      <c r="BH74" s="2">
-        <v>52</v>
-      </c>
-      <c r="BI74" s="2">
-        <v>31</v>
-      </c>
-      <c r="BJ74" s="2">
-        <v>68</v>
-      </c>
-      <c r="BK74" s="2">
-        <v>67</v>
-      </c>
-      <c r="BM74" s="2">
-        <v>38</v>
-      </c>
-      <c r="BN74" s="2">
-        <v>37</v>
-      </c>
-      <c r="BO74" s="2">
-        <v>50</v>
       </c>
       <c r="BP74" s="2">
         <v>48</v>
       </c>
-      <c r="BQ74" s="1">
+      <c r="BQ74" s="2">
+        <v>52</v>
+      </c>
+      <c r="BR74" s="2">
+        <v>31</v>
+      </c>
+      <c r="BS74" s="2">
+        <v>68</v>
+      </c>
+      <c r="BT74" s="2">
+        <v>67</v>
+      </c>
+      <c r="BV74" s="2">
+        <v>38</v>
+      </c>
+      <c r="BW74" s="2">
+        <v>37</v>
+      </c>
+      <c r="BX74" s="2">
+        <v>50</v>
+      </c>
+      <c r="BY74" s="2">
+        <v>48</v>
+      </c>
+      <c r="BZ74" s="1">
         <v>55</v>
       </c>
-      <c r="BR74" s="1">
+      <c r="CA74" s="1">
         <v>28</v>
       </c>
-      <c r="BS74" s="1">
+      <c r="CB74" s="1">
         <v>71</v>
       </c>
-      <c r="BT74" s="1">
+      <c r="CC74" s="1">
         <v>52</v>
       </c>
-      <c r="BU74" s="1">
+      <c r="CD74" s="1">
         <v>17</v>
       </c>
-      <c r="BW74" s="1">
+      <c r="CF74" s="1">
         <v>66</v>
       </c>
-      <c r="BX74" s="1">
+      <c r="CG74" s="1">
         <v>33</v>
       </c>
-      <c r="BY74" s="1">
+      <c r="CH74" s="1">
         <v>55</v>
       </c>
-      <c r="BZ74" s="1">
+      <c r="CI74" s="1">
         <v>23</v>
       </c>
-      <c r="CA74" s="1">
+      <c r="CJ74" s="1">
         <v>45</v>
       </c>
-      <c r="CB74" s="1">
+      <c r="CK74" s="1">
         <v>80</v>
       </c>
-      <c r="CD74" s="1">
+      <c r="CM74" s="1">
         <v>25</v>
       </c>
-      <c r="CE74" s="1">
+      <c r="CN74" s="1">
         <v>49</v>
       </c>
-      <c r="CF74" s="1">
+      <c r="CO74" s="1">
         <v>38</v>
       </c>
-      <c r="CG74" s="1">
+      <c r="CP74" s="1">
+        <v>7</v>
+      </c>
+      <c r="CQ74" s="1">
+        <v>13</v>
+      </c>
+      <c r="CR74" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT74" s="2">
+        <v>6</v>
+      </c>
+      <c r="CU74"/>
+      <c r="CW74" s="1">
+        <v>10</v>
+      </c>
+      <c r="CX74" s="1">
         <v>58</v>
       </c>
-      <c r="CH74" s="1">
+      <c r="CY74" s="1">
         <v>41</v>
       </c>
-      <c r="CI74" s="1">
+      <c r="CZ74" s="1">
         <v>61</v>
       </c>
-      <c r="CJ74" s="1">
+      <c r="DA74" s="1">
         <v>55</v>
       </c>
-      <c r="CK74" s="1">
+      <c r="DB74" s="1">
         <v>21</v>
       </c>
-      <c r="CM74" s="1">
+      <c r="DD74" s="1">
         <v>65</v>
       </c>
-      <c r="CN74" s="1">
+      <c r="DE74" s="1">
         <v>53</v>
       </c>
-      <c r="CO74" s="13" t="s">
+      <c r="DF74" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>5</v>
       </c>
@@ -11016,14 +13430,26 @@
         <v>8</v>
       </c>
       <c r="AS75" s="1"/>
-      <c r="AT75" s="1"/>
-      <c r="AU75" s="1"/>
+      <c r="AT75" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU75" s="1">
+        <v>5</v>
+      </c>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="1"/>
+      <c r="AW75" s="1">
+        <v>8</v>
+      </c>
       <c r="AX75" s="1"/>
-      <c r="AY75" s="1"/>
-      <c r="AZ75" s="1"/>
-      <c r="BA75" s="1"/>
+      <c r="AY75" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ75" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA75" s="1">
+        <v>10</v>
+      </c>
       <c r="BB75" s="1"/>
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
@@ -11036,29 +13462,47 @@
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1"/>
-      <c r="BN75" s="2">
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="2">
         <v>43</v>
       </c>
-      <c r="BO75" s="2">
+      <c r="BX75" s="2">
         <v>59</v>
       </c>
-      <c r="BP75" s="2">
+      <c r="BY75" s="2">
         <v>42</v>
       </c>
-      <c r="CE75" s="1">
+      <c r="CN75" s="1">
         <v>54</v>
       </c>
-      <c r="CF75" s="1">
+      <c r="CO75" s="1">
         <v>35</v>
       </c>
-      <c r="CN75" s="2">
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75"/>
+      <c r="CW75" s="1">
+        <v>10</v>
+      </c>
+      <c r="DE75" s="2">
         <v>51</v>
       </c>
-      <c r="CO75" s="14" t="s">
+      <c r="DF75" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>5</v>
       </c>
@@ -11137,14 +13581,26 @@
         <v>8</v>
       </c>
       <c r="AS76" s="1"/>
-      <c r="AT76" s="1"/>
-      <c r="AU76" s="1"/>
+      <c r="AT76" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>8</v>
+      </c>
       <c r="AV76" s="1"/>
-      <c r="AW76" s="1"/>
+      <c r="AW76" s="1">
+        <v>7</v>
+      </c>
       <c r="AX76" s="1"/>
-      <c r="AY76" s="1"/>
-      <c r="AZ76" s="1"/>
-      <c r="BA76" s="1"/>
+      <c r="AY76" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ76" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>8</v>
+      </c>
       <c r="BB76" s="1"/>
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
@@ -11157,29 +13613,47 @@
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
       <c r="BM76" s="1"/>
-      <c r="BN76" s="2">
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="2">
         <v>43</v>
       </c>
-      <c r="BO76" s="2">
+      <c r="BX76" s="2">
         <v>59</v>
       </c>
-      <c r="BP76" s="2">
+      <c r="BY76" s="2">
         <v>42</v>
       </c>
-      <c r="CE76" s="1">
+      <c r="CN76" s="1">
         <v>53</v>
       </c>
-      <c r="CF76" s="1">
+      <c r="CO76" s="1">
         <v>34</v>
       </c>
-      <c r="CN76" s="2">
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76"/>
+      <c r="CW76" s="1">
+        <v>13</v>
+      </c>
+      <c r="DE76" s="2">
         <v>52</v>
       </c>
-      <c r="CO76" s="13" t="s">
+      <c r="DF76" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>252</v>
       </c>
@@ -11228,9 +13702,16 @@
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
-      <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
-      <c r="BA77" s="1"/>
+      <c r="AY77" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ77" s="1">
+        <v>8</v>
+      </c>
+      <c r="BA77" s="2">
+        <f t="shared" ref="BA77:BA79" si="3">AZ77+AY77</f>
+        <v>12</v>
+      </c>
       <c r="BB77" s="1"/>
       <c r="BC77" s="1"/>
       <c r="BD77" s="1"/>
@@ -11243,29 +13724,47 @@
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
       <c r="BM77" s="1"/>
-      <c r="BN77" s="1">
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1">
         <v>40</v>
       </c>
-      <c r="BO77" s="1">
+      <c r="BX77" s="1">
         <v>43</v>
       </c>
-      <c r="BP77" s="1">
+      <c r="BY77" s="1">
         <v>22</v>
       </c>
-      <c r="CE77" s="1">
+      <c r="CN77" s="1">
         <v>46</v>
       </c>
-      <c r="CF77" s="1">
+      <c r="CO77" s="1">
         <v>39</v>
       </c>
-      <c r="CN77" s="28">
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77"/>
+      <c r="CW77" s="1">
+        <v>10</v>
+      </c>
+      <c r="DE77" s="28">
         <v>47</v>
       </c>
-      <c r="CO77" s="13" t="s">
+      <c r="DF77" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>195</v>
       </c>
@@ -11362,121 +13861,167 @@
       <c r="AR78" s="1">
         <v>2</v>
       </c>
-      <c r="AS78" s="1">
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU78" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AX78" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="AY78" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AZ78" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="BA78" s="2">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="BB78" s="1">
         <v>32</v>
       </c>
-      <c r="AT78" s="1">
+      <c r="BC78" s="1">
         <v>52.2</v>
       </c>
-      <c r="AU78" s="1">
+      <c r="BD78" s="1">
         <v>42.3</v>
       </c>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1">
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="AY78" s="1">
+      <c r="BH78" s="1">
         <v>29</v>
       </c>
-      <c r="AZ78" s="1">
+      <c r="BI78" s="1">
         <v>48.4</v>
       </c>
-      <c r="BA78" s="1">
+      <c r="BJ78" s="1">
         <v>29.8</v>
       </c>
-      <c r="BB78" s="1">
+      <c r="BK78" s="1">
         <v>59.9</v>
       </c>
-      <c r="BC78" s="1"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1">
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1">
         <v>44.8</v>
       </c>
-      <c r="BF78" s="1">
+      <c r="BO78" s="1">
         <v>54</v>
       </c>
-      <c r="BG78" s="1">
+      <c r="BP78" s="1">
         <v>15</v>
       </c>
-      <c r="BH78" s="1">
+      <c r="BQ78" s="1">
         <v>21.2</v>
       </c>
-      <c r="BI78" s="1">
+      <c r="BR78" s="1">
         <v>12.3</v>
       </c>
-      <c r="BJ78" s="1"/>
-      <c r="BK78" s="1"/>
-      <c r="BL78" s="1">
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="BM78" s="1">
+      <c r="BV78" s="1">
         <v>15.4</v>
       </c>
-      <c r="BN78" s="2">
+      <c r="BW78" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="BO78" s="2">
+      <c r="BX78" s="2">
         <v>44.1</v>
       </c>
-      <c r="BP78" s="2">
+      <c r="BY78" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="BQ78" s="1">
+      <c r="BZ78" s="1">
         <v>55</v>
       </c>
-      <c r="BR78" s="1">
+      <c r="CA78" s="1">
         <v>33</v>
       </c>
-      <c r="BV78" s="2">
+      <c r="CE78" s="2">
         <v>51</v>
       </c>
-      <c r="BW78" s="2">
+      <c r="CF78" s="2">
         <v>30</v>
       </c>
-      <c r="BX78" s="1">
+      <c r="CG78" s="1">
         <v>35</v>
       </c>
-      <c r="BY78" s="1">
+      <c r="CH78" s="1">
         <v>58</v>
       </c>
-      <c r="CC78" s="2">
+      <c r="CL78" s="2">
         <v>36</v>
       </c>
-      <c r="CD78" s="2">
+      <c r="CM78" s="2">
         <v>30</v>
       </c>
-      <c r="CE78" s="2">
+      <c r="CN78" s="2">
         <v>49</v>
       </c>
-      <c r="CF78" s="2">
+      <c r="CO78" s="2">
         <v>41</v>
       </c>
-      <c r="CG78" s="2">
+      <c r="CP78" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="CQ78" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="CR78" s="2"/>
+      <c r="CS78" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="CT78" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="CU78" s="21">
+        <v>7.4</v>
+      </c>
+      <c r="CV78" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="CW78" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="CX78" s="2">
         <v>42</v>
       </c>
-      <c r="CH78" s="2">
+      <c r="CY78" s="2">
         <v>28.8</v>
       </c>
-      <c r="CI78" s="2">
+      <c r="CZ78" s="2">
         <v>48.4</v>
       </c>
-      <c r="CJ78" s="2"/>
-      <c r="CK78" s="2"/>
-      <c r="CL78" s="2">
+      <c r="DA78" s="2"/>
+      <c r="DB78" s="2"/>
+      <c r="DC78" s="2">
         <v>34.5</v>
       </c>
-      <c r="CM78" s="2">
+      <c r="DD78" s="2">
         <v>47.4</v>
       </c>
-      <c r="CN78" s="2">
+      <c r="DE78" s="2">
         <v>39.1</v>
       </c>
-      <c r="CO78" s="13" t="s">
+      <c r="DF78" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>46</v>
       </c>
@@ -11597,75 +14142,113 @@
       <c r="AR79" s="2">
         <v>5</v>
       </c>
-      <c r="BQ79" s="1">
+      <c r="AT79" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU79" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV79" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX79" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY79" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ79" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA79" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="BZ79" s="1">
         <v>49</v>
-      </c>
-      <c r="BR79" s="1">
-        <v>42</v>
-      </c>
-      <c r="BS79" s="1">
-        <v>53</v>
-      </c>
-      <c r="BT79" s="1">
-        <v>58</v>
-      </c>
-      <c r="BU79" s="2">
-        <v>73</v>
-      </c>
-      <c r="BW79" s="2">
-        <v>63</v>
-      </c>
-      <c r="BX79" s="1">
-        <v>40</v>
-      </c>
-      <c r="BY79" s="1">
-        <v>46</v>
-      </c>
-      <c r="BZ79" s="1">
-        <v>35</v>
       </c>
       <c r="CA79" s="1">
         <v>42</v>
       </c>
-      <c r="CB79" s="2">
+      <c r="CB79" s="1">
+        <v>53</v>
+      </c>
+      <c r="CC79" s="1">
+        <v>58</v>
+      </c>
+      <c r="CD79" s="2">
+        <v>73</v>
+      </c>
+      <c r="CF79" s="2">
+        <v>63</v>
+      </c>
+      <c r="CG79" s="1">
+        <v>40</v>
+      </c>
+      <c r="CH79" s="1">
+        <v>46</v>
+      </c>
+      <c r="CI79" s="1">
+        <v>35</v>
+      </c>
+      <c r="CJ79" s="1">
+        <v>42</v>
+      </c>
+      <c r="CK79" s="2">
         <v>23</v>
       </c>
-      <c r="CD79" s="2">
+      <c r="CM79" s="2">
         <v>28</v>
       </c>
-      <c r="CE79" s="2">
+      <c r="CN79" s="2">
         <v>50</v>
       </c>
-      <c r="CF79" s="2">
+      <c r="CO79" s="2">
         <v>39</v>
       </c>
-      <c r="CG79" s="2">
+      <c r="CP79" s="2">
+        <v>9</v>
+      </c>
+      <c r="CQ79" s="2">
+        <v>9</v>
+      </c>
+      <c r="CR79" s="2">
+        <v>12</v>
+      </c>
+      <c r="CT79" s="2">
+        <v>9</v>
+      </c>
+      <c r="CU79"/>
+      <c r="CW79" s="1">
+        <v>12</v>
+      </c>
+      <c r="CX79" s="2">
         <v>52</v>
       </c>
-      <c r="CH79" s="2">
+      <c r="CY79" s="2">
         <v>38</v>
       </c>
-      <c r="CI79" s="2">
+      <c r="CZ79" s="2">
         <v>53</v>
       </c>
-      <c r="CJ79" s="2">
+      <c r="DA79" s="2">
         <v>55</v>
       </c>
-      <c r="CK79" s="2">
+      <c r="DB79" s="2">
         <v>77</v>
       </c>
-      <c r="CL79" s="2"/>
-      <c r="CM79" s="2">
+      <c r="DC79" s="2"/>
+      <c r="DD79" s="2">
         <v>66</v>
       </c>
-      <c r="CN79" s="2">
+      <c r="DE79" s="2">
         <v>51</v>
       </c>
-      <c r="CO79" s="13" t="s">
+      <c r="DF79" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>5</v>
       </c>
@@ -11744,14 +14327,26 @@
         <v>8</v>
       </c>
       <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
+      <c r="AT80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU80" s="1">
+        <v>3</v>
+      </c>
       <c r="AV80" s="1"/>
-      <c r="AW80" s="1"/>
+      <c r="AW80" s="1">
+        <v>2</v>
+      </c>
       <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
+      <c r="AY80" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ80" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA80" s="1">
+        <v>5</v>
+      </c>
       <c r="BB80" s="1"/>
       <c r="BC80" s="1"/>
       <c r="BD80" s="1"/>
@@ -11764,29 +14359,47 @@
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
       <c r="BM80" s="1"/>
-      <c r="BN80" s="2">
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="2">
         <v>43</v>
       </c>
-      <c r="BO80" s="2">
+      <c r="BX80" s="2">
         <v>59</v>
       </c>
-      <c r="BP80" s="2">
+      <c r="BY80" s="2">
         <v>41</v>
       </c>
-      <c r="CE80" s="1">
+      <c r="CN80" s="1">
         <v>53</v>
       </c>
-      <c r="CF80" s="1">
+      <c r="CO80" s="1">
         <v>35</v>
       </c>
-      <c r="CN80" s="2">
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80"/>
+      <c r="CW80" s="1">
+        <v>12</v>
+      </c>
+      <c r="DE80" s="2">
         <v>51</v>
       </c>
-      <c r="CO80" s="14" t="s">
+      <c r="DF80" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>3</v>
       </c>
@@ -11874,86 +14487,124 @@
       <c r="AR81" s="2">
         <v>8</v>
       </c>
-      <c r="AS81" s="2">
+      <c r="AT81" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU81" s="2">
+        <v>8</v>
+      </c>
+      <c r="AV81" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY81" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ81" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA81" s="2">
+        <f t="shared" ref="BA81:BA83" si="4">AZ81+AY81</f>
+        <v>11</v>
+      </c>
+      <c r="BB81" s="2">
         <v>28</v>
       </c>
-      <c r="AT81" s="2">
+      <c r="BC81" s="2">
         <v>46</v>
       </c>
-      <c r="AU81" s="2">
+      <c r="BD81" s="2">
         <v>42</v>
       </c>
-      <c r="AZ81" s="2">
+      <c r="BI81" s="2">
         <v>59</v>
       </c>
-      <c r="BA81" s="2">
+      <c r="BJ81" s="2">
         <v>40</v>
       </c>
-      <c r="BB81" s="2">
+      <c r="BK81" s="2">
         <v>60</v>
       </c>
-      <c r="BG81" s="2">
+      <c r="BP81" s="2">
         <v>18</v>
       </c>
-      <c r="BH81" s="2">
+      <c r="BQ81" s="2">
         <v>22</v>
       </c>
-      <c r="BI81" s="2">
+      <c r="BR81" s="2">
         <v>26</v>
       </c>
-      <c r="BN81" s="2">
+      <c r="BW81" s="2">
         <v>33</v>
       </c>
-      <c r="BO81" s="2">
+      <c r="BX81" s="2">
         <v>54</v>
       </c>
-      <c r="BP81" s="2">
+      <c r="BY81" s="2">
         <v>19</v>
       </c>
-      <c r="BQ81" s="1">
+      <c r="BZ81" s="1">
         <v>65</v>
       </c>
-      <c r="BR81" s="1">
+      <c r="CA81" s="1">
         <v>45</v>
       </c>
-      <c r="BS81" s="1">
+      <c r="CB81" s="1">
         <v>56</v>
       </c>
-      <c r="BX81" s="1">
+      <c r="CG81" s="1">
         <v>27</v>
       </c>
-      <c r="BY81" s="1">
+      <c r="CH81" s="1">
         <v>47</v>
       </c>
-      <c r="BZ81" s="1">
+      <c r="CI81" s="1">
         <v>37</v>
       </c>
-      <c r="CE81" s="2">
+      <c r="CN81" s="2">
         <v>58</v>
       </c>
-      <c r="CF81" s="2">
+      <c r="CO81" s="2">
         <v>33</v>
       </c>
-      <c r="CG81" s="2">
+      <c r="CP81" s="2">
+        <v>7</v>
+      </c>
+      <c r="CQ81" s="2">
+        <v>7</v>
+      </c>
+      <c r="CR81" s="2">
+        <v>7</v>
+      </c>
+      <c r="CS81" s="2"/>
+      <c r="CU81" s="2">
+        <v>8</v>
+      </c>
+      <c r="CV81" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW81" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX81" s="2">
         <v>51</v>
       </c>
-      <c r="CH81" s="2">
+      <c r="CY81" s="2">
         <v>34</v>
       </c>
-      <c r="CI81" s="2">
+      <c r="CZ81" s="2">
         <v>58</v>
       </c>
-      <c r="CJ81" s="2"/>
-      <c r="CK81" s="2"/>
-      <c r="CM81" s="2"/>
-      <c r="CN81" s="2">
+      <c r="DA81" s="2"/>
+      <c r="DB81" s="2"/>
+      <c r="DD81" s="2"/>
+      <c r="DE81" s="2">
         <v>48</v>
       </c>
-      <c r="CO81" s="26" t="s">
+      <c r="DF81" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>6</v>
       </c>
@@ -12041,41 +14692,77 @@
       <c r="AR82" s="2">
         <v>9</v>
       </c>
-      <c r="BN82" s="2">
+      <c r="AT82" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU82" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW82" s="2">
+        <v>9</v>
+      </c>
+      <c r="AX82" s="2">
+        <v>15</v>
+      </c>
+      <c r="AY82" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ82" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA82" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BW82" s="2">
         <v>43</v>
       </c>
-      <c r="BO82" s="2">
+      <c r="BX82" s="2">
         <v>59</v>
       </c>
-      <c r="BP82" s="2">
+      <c r="BY82" s="2">
         <v>49</v>
       </c>
-      <c r="CE82" s="1">
+      <c r="CN82" s="1">
         <v>54</v>
       </c>
-      <c r="CF82" s="1">
+      <c r="CO82" s="1">
         <v>35</v>
       </c>
-      <c r="CG82" s="1">
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="2">
+        <v>10</v>
+      </c>
+      <c r="CV82" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW82" s="1">
+        <v>11</v>
+      </c>
+      <c r="CX82" s="1">
         <v>54</v>
       </c>
-      <c r="CH82" s="1">
+      <c r="CY82" s="1">
         <v>37</v>
       </c>
-      <c r="CL82" s="1">
+      <c r="DC82" s="1">
         <v>51</v>
       </c>
-      <c r="CM82" s="1">
+      <c r="DD82" s="1">
         <v>65</v>
       </c>
-      <c r="CN82" s="1">
+      <c r="DE82" s="1">
         <v>50</v>
       </c>
-      <c r="CO82" s="15" t="s">
+      <c r="DF82" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>40</v>
       </c>
@@ -12150,15 +14837,28 @@
       <c r="AR83" s="29">
         <v>7.7</v>
       </c>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
+      <c r="AS83" s="29"/>
+      <c r="AT83" s="29">
+        <v>6</v>
+      </c>
+      <c r="AU83" s="29">
+        <v>7</v>
+      </c>
+      <c r="AV83" s="29"/>
+      <c r="AW83" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="AX83" s="29"/>
+      <c r="AY83" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AZ83" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="BA83" s="2">
+        <f t="shared" si="4"/>
+        <v>10.100000000000001</v>
+      </c>
       <c r="BB83" s="1"/>
       <c r="BC83" s="1"/>
       <c r="BD83" s="1"/>
@@ -12171,51 +14871,80 @@
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
       <c r="BM83" s="1"/>
-      <c r="BN83" s="2">
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="2">
         <v>45.6</v>
       </c>
-      <c r="BO83" s="2">
+      <c r="BX83" s="2">
         <v>50.7</v>
       </c>
-      <c r="BP83" s="2">
+      <c r="BY83" s="2">
         <v>46.8</v>
       </c>
-      <c r="BQ83" s="1">
+      <c r="BZ83" s="1">
         <v>53</v>
       </c>
-      <c r="BR83" s="1">
+      <c r="CA83" s="1">
         <v>34</v>
-      </c>
-      <c r="BU83" s="1"/>
-      <c r="BV83" s="1">
-        <v>51</v>
-      </c>
-      <c r="BW83" s="1"/>
-      <c r="BX83" s="1">
-        <v>33</v>
-      </c>
-      <c r="BY83" s="1">
-        <v>54</v>
-      </c>
-      <c r="CB83" s="1"/>
-      <c r="CC83" s="1">
-        <v>31</v>
       </c>
       <c r="CD83" s="1"/>
       <c r="CE83" s="1">
+        <v>51</v>
+      </c>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1">
+        <v>33</v>
+      </c>
+      <c r="CH83" s="1">
+        <v>54</v>
+      </c>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1">
+        <v>31</v>
+      </c>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1">
         <v>47</v>
       </c>
-      <c r="CF83" s="1">
+      <c r="CO83" s="1">
         <v>39</v>
       </c>
-      <c r="CN83" s="2">
+      <c r="CP83" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="CQ83" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="21">
+        <v>10</v>
+      </c>
+      <c r="CV83" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="CW83" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="DE83" s="2">
         <v>44.4</v>
       </c>
-      <c r="CO83" s="15" t="s">
+      <c r="DF83" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>5</v>
       </c>
@@ -12293,29 +15022,56 @@
       <c r="AR84" s="2">
         <v>9</v>
       </c>
-      <c r="BN84" s="29">
+      <c r="AT84" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU84" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW84" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY84" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ84" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA84" s="2">
+        <v>7</v>
+      </c>
+      <c r="BW84" s="29">
         <v>43</v>
       </c>
-      <c r="BO84" s="29">
+      <c r="BX84" s="29">
         <v>59</v>
       </c>
-      <c r="BP84" s="29">
+      <c r="BY84" s="29">
         <v>40</v>
       </c>
-      <c r="CE84" s="1">
+      <c r="CN84" s="1">
         <v>53</v>
       </c>
-      <c r="CF84" s="1">
+      <c r="CO84" s="1">
         <v>35</v>
       </c>
-      <c r="CN84" s="29">
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="2"/>
+      <c r="CW84" s="1">
+        <v>12</v>
+      </c>
+      <c r="DE84" s="29">
         <v>50</v>
       </c>
-      <c r="CO84" s="15" t="s">
+      <c r="DF84" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>4</v>
       </c>
@@ -12385,26 +15141,56 @@
       <c r="AR85" s="2">
         <v>7</v>
       </c>
-      <c r="BN85" s="2">
+      <c r="AT85" s="2">
+        <v>11</v>
+      </c>
+      <c r="AU85" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY85" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ85" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA85" s="2">
+        <f t="shared" ref="BA85:BA87" si="5">AZ85+AY85</f>
+        <v>12</v>
+      </c>
+      <c r="BW85" s="2">
         <v>40</v>
       </c>
-      <c r="BO85" s="2">
+      <c r="BX85" s="2">
         <v>60</v>
       </c>
-      <c r="BP85" s="2">
+      <c r="BY85" s="2">
         <v>62</v>
       </c>
-      <c r="CE85" s="1">
+      <c r="CN85" s="1">
         <v>54</v>
       </c>
-      <c r="CF85" s="1">
+      <c r="CO85" s="1">
         <v>32</v>
       </c>
-      <c r="CO85" s="13" t="s">
-        <v>332</v>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV85" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW85" s="1">
+        <v>12</v>
+      </c>
+      <c r="DF85" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>46</v>
       </c>
@@ -12516,137 +15302,180 @@
       <c r="AR86" s="2">
         <v>6</v>
       </c>
-      <c r="AS86" s="2">
+      <c r="AT86" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU86" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY86" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ86" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA86" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BB86" s="2">
         <v>36</v>
       </c>
-      <c r="AT86" s="2">
+      <c r="BC86" s="2">
         <v>54</v>
       </c>
-      <c r="AU86" s="2">
+      <c r="BD86" s="2">
         <v>19</v>
       </c>
-      <c r="AV86" s="2">
+      <c r="BE86" s="2">
         <v>40</v>
       </c>
-      <c r="AW86" s="2">
+      <c r="BF86" s="2">
         <v>6</v>
       </c>
-      <c r="AY86" s="2">
+      <c r="BH86" s="2">
         <v>19</v>
       </c>
-      <c r="AZ86" s="2">
+      <c r="BI86" s="2">
         <v>54</v>
       </c>
-      <c r="BA86" s="2">
+      <c r="BJ86" s="2">
         <v>35</v>
       </c>
-      <c r="BB86" s="2">
+      <c r="BK86" s="2">
         <v>74</v>
       </c>
-      <c r="BC86" s="2">
+      <c r="BL86" s="2">
         <v>56</v>
       </c>
-      <c r="BD86" s="2">
+      <c r="BM86" s="2">
         <v>36</v>
       </c>
-      <c r="BF86" s="2">
+      <c r="BO86" s="2">
         <v>65</v>
       </c>
-      <c r="BG86" s="2">
+      <c r="BP86" s="2">
         <v>46</v>
       </c>
-      <c r="BH86" s="2">
+      <c r="BQ86" s="2">
         <v>55</v>
       </c>
-      <c r="BI86" s="2">
+      <c r="BR86" s="2">
         <v>24</v>
       </c>
-      <c r="BJ86" s="2">
+      <c r="BS86" s="2">
         <v>65</v>
       </c>
-      <c r="BK86" s="2">
+      <c r="BT86" s="2">
         <v>36</v>
       </c>
-      <c r="BM86" s="2">
+      <c r="BV86" s="2">
         <v>27</v>
       </c>
-      <c r="BN86" s="2">
+      <c r="BW86" s="2">
         <v>39</v>
       </c>
-      <c r="BO86" s="2">
+      <c r="BX86" s="2">
         <v>49</v>
       </c>
-      <c r="BP86" s="2">
+      <c r="BY86" s="2">
         <v>45</v>
       </c>
-      <c r="BQ86" s="1">
+      <c r="BZ86" s="1">
         <v>55</v>
       </c>
-      <c r="BR86" s="1">
+      <c r="CA86" s="1">
         <v>32</v>
       </c>
-      <c r="BS86" s="1">
+      <c r="CB86" s="1">
         <v>70</v>
       </c>
-      <c r="BT86" s="1">
+      <c r="CC86" s="1">
         <v>59</v>
       </c>
-      <c r="BU86" s="2">
+      <c r="CD86" s="2">
         <v>42</v>
       </c>
-      <c r="BW86" s="2">
+      <c r="CF86" s="2">
         <v>68</v>
       </c>
-      <c r="BX86" s="1">
+      <c r="CG86" s="1">
         <v>33</v>
       </c>
-      <c r="BY86" s="1">
+      <c r="CH86" s="1">
         <v>57</v>
       </c>
-      <c r="BZ86" s="1">
+      <c r="CI86" s="1">
         <v>14</v>
       </c>
-      <c r="CA86" s="1">
+      <c r="CJ86" s="1">
         <v>40</v>
       </c>
-      <c r="CB86" s="2">
+      <c r="CK86" s="2">
         <v>39</v>
       </c>
-      <c r="CD86" s="2">
+      <c r="CM86" s="2">
         <v>31</v>
       </c>
-      <c r="CE86" s="1">
+      <c r="CN86" s="1">
         <v>50</v>
       </c>
-      <c r="CF86" s="1">
+      <c r="CO86" s="1">
         <v>40</v>
       </c>
-      <c r="CG86" s="1">
+      <c r="CP86" s="1">
+        <v>10</v>
+      </c>
+      <c r="CQ86" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR86" s="1">
+        <v>16</v>
+      </c>
+      <c r="CT86" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU86" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV86" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW86" s="1">
+        <v>10</v>
+      </c>
+      <c r="CX86" s="1">
         <v>55</v>
       </c>
-      <c r="CH86" s="1">
+      <c r="CY86" s="1">
         <v>38</v>
       </c>
-      <c r="CI86" s="1">
+      <c r="CZ86" s="1">
         <v>75</v>
       </c>
-      <c r="CJ86" s="1">
+      <c r="DA86" s="1">
         <v>58</v>
       </c>
-      <c r="CK86" s="1">
+      <c r="DB86" s="1">
         <v>42</v>
       </c>
-      <c r="CM86" s="1">
+      <c r="DD86" s="1">
         <v>69</v>
       </c>
-      <c r="CN86" s="1">
+      <c r="DE86" s="1">
         <v>51</v>
       </c>
-      <c r="CO86" s="13" t="s">
+      <c r="DF86" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>6</v>
       </c>
@@ -12734,128 +15563,374 @@
       <c r="AR87" s="2">
         <v>9</v>
       </c>
-      <c r="BN87" s="2">
+      <c r="AT87" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU87" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW87" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX87" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY87" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ87" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA87" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BW87" s="2">
         <v>44</v>
       </c>
-      <c r="BO87" s="2">
+      <c r="BX87" s="2">
         <v>59</v>
       </c>
-      <c r="BP87" s="2">
+      <c r="BY87" s="2">
         <v>48</v>
       </c>
-      <c r="CE87" s="1">
+      <c r="CN87" s="1">
         <v>54</v>
       </c>
-      <c r="CF87" s="1">
+      <c r="CO87" s="1">
         <v>36</v>
       </c>
-      <c r="CG87" s="1">
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+      <c r="CU87" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV87" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW87" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX87" s="1">
         <v>54</v>
       </c>
-      <c r="CH87" s="1">
+      <c r="CY87" s="1">
         <v>36</v>
       </c>
-      <c r="CL87" s="1">
+      <c r="DC87" s="1">
         <v>50</v>
       </c>
-      <c r="CM87" s="1">
+      <c r="DD87" s="1">
         <v>52</v>
       </c>
-      <c r="CN87" s="1">
+      <c r="DE87" s="1">
         <v>49</v>
       </c>
-      <c r="CO87" s="13" t="s">
+      <c r="DF87" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:110" x14ac:dyDescent="0.25">
       <c r="E89" s="18"/>
     </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY90"/>
+      <c r="AZ90"/>
+      <c r="BA90"/>
+    </row>
+    <row r="91" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY91"/>
+      <c r="AZ91"/>
+      <c r="BA91"/>
+    </row>
+    <row r="92" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY92"/>
+      <c r="AZ92"/>
+      <c r="BA92"/>
+    </row>
+    <row r="93" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY93"/>
+      <c r="AZ93"/>
+      <c r="BA93"/>
+    </row>
+    <row r="94" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY94"/>
+      <c r="AZ94"/>
+      <c r="BA94"/>
+    </row>
+    <row r="95" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY95"/>
+      <c r="AZ95"/>
+      <c r="BA95"/>
+    </row>
+    <row r="96" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AY96"/>
+      <c r="AZ96"/>
+      <c r="BA96"/>
+    </row>
+    <row r="97" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY97"/>
+      <c r="AZ97"/>
+      <c r="BA97"/>
+    </row>
+    <row r="98" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY98"/>
+      <c r="AZ98"/>
+      <c r="BA98"/>
+    </row>
+    <row r="99" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY99"/>
+      <c r="AZ99"/>
+      <c r="BA99"/>
+    </row>
+    <row r="100" spans="8:53" x14ac:dyDescent="0.25">
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
+      <c r="AY100"/>
+      <c r="AZ100"/>
+      <c r="BA100"/>
+    </row>
+    <row r="101" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY101"/>
+      <c r="AZ101"/>
+      <c r="BA101"/>
+    </row>
+    <row r="102" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY102"/>
+      <c r="AZ102"/>
+      <c r="BA102"/>
+    </row>
+    <row r="103" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY103"/>
+      <c r="AZ103"/>
+      <c r="BA103"/>
+    </row>
+    <row r="104" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY104"/>
+      <c r="AZ104"/>
+      <c r="BA104"/>
+    </row>
+    <row r="105" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY105"/>
+      <c r="AZ105"/>
+      <c r="BA105"/>
+    </row>
+    <row r="106" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY106"/>
+      <c r="AZ106"/>
+      <c r="BA106"/>
+    </row>
+    <row r="107" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY107"/>
+      <c r="AZ107"/>
+      <c r="BA107"/>
+    </row>
+    <row r="108" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY108"/>
+      <c r="AZ108"/>
+      <c r="BA108"/>
+    </row>
+    <row r="109" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY109"/>
+      <c r="AZ109"/>
+      <c r="BA109"/>
+    </row>
+    <row r="110" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY110"/>
+      <c r="AZ110"/>
+      <c r="BA110"/>
+    </row>
+    <row r="111" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY111"/>
+      <c r="AZ111"/>
+      <c r="BA111"/>
+    </row>
+    <row r="112" spans="8:53" x14ac:dyDescent="0.25">
+      <c r="AY112"/>
+      <c r="AZ112"/>
+      <c r="BA112"/>
+    </row>
+    <row r="113" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY113"/>
+      <c r="AZ113"/>
+      <c r="BA113"/>
+    </row>
+    <row r="114" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY114"/>
+      <c r="AZ114"/>
+      <c r="BA114"/>
+    </row>
+    <row r="115" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY115"/>
+      <c r="AZ115"/>
+      <c r="BA115"/>
+    </row>
+    <row r="116" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY116"/>
+      <c r="AZ116"/>
+      <c r="BA116"/>
+    </row>
+    <row r="117" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY117"/>
+      <c r="AZ117"/>
+      <c r="BA117"/>
+    </row>
+    <row r="118" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY118"/>
+      <c r="AZ118"/>
+      <c r="BA118"/>
+    </row>
+    <row r="119" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY119"/>
+      <c r="AZ119"/>
+      <c r="BA119"/>
+    </row>
+    <row r="120" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY120"/>
+      <c r="AZ120"/>
+      <c r="BA120"/>
+    </row>
+    <row r="121" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY121"/>
+      <c r="AZ121"/>
+      <c r="BA121"/>
+    </row>
+    <row r="122" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY122"/>
+      <c r="AZ122"/>
+      <c r="BA122"/>
+    </row>
+    <row r="123" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY123"/>
+      <c r="AZ123"/>
+      <c r="BA123"/>
+    </row>
+    <row r="124" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY124"/>
+      <c r="AZ124"/>
+      <c r="BA124"/>
+    </row>
+    <row r="125" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY125"/>
+      <c r="AZ125"/>
+      <c r="BA125"/>
+    </row>
+    <row r="126" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY126"/>
+      <c r="AZ126"/>
+      <c r="BA126"/>
+    </row>
+    <row r="127" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY127"/>
+      <c r="AZ127"/>
+      <c r="BA127"/>
+    </row>
+    <row r="128" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY128"/>
+      <c r="AZ128"/>
+      <c r="BA128"/>
+    </row>
+    <row r="129" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY129"/>
+      <c r="AZ129"/>
+      <c r="BA129"/>
+    </row>
+    <row r="130" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY130"/>
+      <c r="AZ130"/>
+      <c r="BA130"/>
+    </row>
+    <row r="131" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY131"/>
+      <c r="AZ131"/>
+      <c r="BA131"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CQ87" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CQ87">
-      <sortCondition ref="C1:C87"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="CO82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
-    <hyperlink ref="CO23" r:id="rId2" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
-    <hyperlink ref="CO63" r:id="rId3" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
-    <hyperlink ref="CO56" r:id="rId4" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
-    <hyperlink ref="CO21" r:id="rId5" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
-    <hyperlink ref="CO8" r:id="rId6" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
-    <hyperlink ref="CO73" r:id="rId7" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
-    <hyperlink ref="CO43" r:id="rId8" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
-    <hyperlink ref="CO31" r:id="rId9" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
-    <hyperlink ref="CO44" r:id="rId10" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
-    <hyperlink ref="CO40" r:id="rId11" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
-    <hyperlink ref="CO84" r:id="rId12" xr:uid="{AF073CA8-C6FA-45C2-9158-F330AD248DD7}"/>
-    <hyperlink ref="CO83" r:id="rId13" xr:uid="{8C294AC6-DB3A-40CB-89C2-0BEF6BB88EFF}"/>
-    <hyperlink ref="CO71" r:id="rId14" xr:uid="{32677706-12DF-493B-A25C-8E73B2C32554}"/>
-    <hyperlink ref="CO64" r:id="rId15" xr:uid="{D7C9F95E-C799-4911-B61B-1E4E4CC72B88}"/>
-    <hyperlink ref="CO51" r:id="rId16" xr:uid="{1D04A4EC-AB17-45BA-B5CD-4EDF0618FBBB}"/>
-    <hyperlink ref="CO42" r:id="rId17" xr:uid="{CF59A843-C708-41C6-88E8-C8E947554B0A}"/>
-    <hyperlink ref="CO16" r:id="rId18" xr:uid="{8A722C2D-656F-4745-8E1B-FAA1FEFA0F36}"/>
-    <hyperlink ref="CO11" r:id="rId19" xr:uid="{353EA0C0-FDD3-4BE9-80D5-6A2013AE562E}"/>
-    <hyperlink ref="CO6" r:id="rId20" xr:uid="{75AAA869-99CA-4335-8AD1-6F1D0ACCE7EC}"/>
-    <hyperlink ref="CO74" r:id="rId21" xr:uid="{A9D3CDB8-FACE-43D0-BA20-9948F80816FD}"/>
-    <hyperlink ref="CO67" r:id="rId22" xr:uid="{79DB663C-9279-4EF4-9A80-33D1A78009DD}"/>
-    <hyperlink ref="CO60" r:id="rId23" xr:uid="{9DC97AAB-BEF2-44D1-8D86-204EE2871D60}"/>
-    <hyperlink ref="CO54" r:id="rId24" xr:uid="{3E3D9DE5-75CB-47AD-8F14-C11525253CB3}"/>
-    <hyperlink ref="CO50" r:id="rId25" xr:uid="{B5349ED6-2358-4FA9-AB0B-4290D95FB0E8}"/>
-    <hyperlink ref="CO45" r:id="rId26" xr:uid="{B9CD8FC6-2076-40CB-8794-B22D5738905D}"/>
-    <hyperlink ref="CO41" r:id="rId27" xr:uid="{9AFFE17F-81CB-43FC-A27B-9BD088113430}"/>
-    <hyperlink ref="CO38" r:id="rId28" xr:uid="{A0066DA8-0EAA-4C86-8DD1-6D9998B39084}"/>
-    <hyperlink ref="CO35" r:id="rId29" xr:uid="{F51433DD-3D11-4FB1-BBAD-0530F7D69814}"/>
-    <hyperlink ref="CO30" r:id="rId30" xr:uid="{0C81DC96-FC54-4F1B-9481-9AE73D8B8CCE}"/>
-    <hyperlink ref="CO26" r:id="rId31" xr:uid="{03ED404E-FB18-482D-B81B-34E0BB731446}"/>
-    <hyperlink ref="CO20" r:id="rId32" xr:uid="{73ABB494-76B6-451C-9A8B-E5839B4BB142}"/>
-    <hyperlink ref="CO17" r:id="rId33" xr:uid="{09B15F78-C6F2-421E-94D9-430AAC035553}"/>
-    <hyperlink ref="CO10" r:id="rId34" xr:uid="{B623A43C-79FF-42E2-9058-E6483A924825}"/>
-    <hyperlink ref="CO7" r:id="rId35" xr:uid="{99127D2B-44C9-4F91-A1B8-7EEF98E29C09}"/>
-    <hyperlink ref="CO4" r:id="rId36" xr:uid="{F2661EBE-F76D-4B78-AF9D-71C6FD0D0A16}"/>
-    <hyperlink ref="CO33" r:id="rId37" xr:uid="{669D4776-8AA9-42BA-A61B-AAA38CF39E2E}"/>
-    <hyperlink ref="CO61" r:id="rId38" xr:uid="{ED616366-A3C0-4497-8D5A-4211684E32E3}"/>
-    <hyperlink ref="CO53" r:id="rId39" xr:uid="{61B22AF7-8FDD-45C0-BE3E-F3206C6AF799}"/>
-    <hyperlink ref="CO36" r:id="rId40" xr:uid="{6E3D8DFC-56EF-4531-ABD3-5A0E15FC95A8}"/>
-    <hyperlink ref="CO28" r:id="rId41" xr:uid="{7CF60E77-FC4B-4154-A419-93891C0BFE7F}"/>
-    <hyperlink ref="CO24" r:id="rId42" xr:uid="{8D6FCD2A-AFCC-42FC-A5DD-EE4A1AF5A060}"/>
-    <hyperlink ref="CO19" r:id="rId43" xr:uid="{1F3CDC72-3AEF-4ED5-BB7A-149C1A538964}"/>
-    <hyperlink ref="CO81" r:id="rId44" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
-    <hyperlink ref="CO9" r:id="rId45" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
-    <hyperlink ref="CO68" r:id="rId46" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
-    <hyperlink ref="CO18" r:id="rId47" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
-    <hyperlink ref="CO72" r:id="rId48" xr:uid="{62D6A31F-EC60-434E-A8D9-FBE1714CB972}"/>
-    <hyperlink ref="CO27" r:id="rId49" xr:uid="{C510C399-2AAD-4481-ABC8-DCFEC4746788}"/>
-    <hyperlink ref="CO55" r:id="rId50" xr:uid="{5E96B173-B115-49DD-AEBF-B710507314B4}"/>
-    <hyperlink ref="CO87" r:id="rId51" xr:uid="{20F98EBC-2E74-4AFB-8EEF-F16F00A1361B}"/>
-    <hyperlink ref="CO77" r:id="rId52" xr:uid="{254233F3-3B9C-4209-87C9-96711D0A3EC9}"/>
-    <hyperlink ref="CO66" r:id="rId53" xr:uid="{220D058E-30C9-48E7-9195-5571B8A510F8}"/>
-    <hyperlink ref="CO57" r:id="rId54" xr:uid="{6C08D8E9-E326-47CF-817F-5E5186423E5D}"/>
-    <hyperlink ref="CO48" r:id="rId55" xr:uid="{720F06F3-E66C-4BDA-B548-B64388CC97BB}"/>
-    <hyperlink ref="CO69" r:id="rId56" location="175 " xr:uid="{6E79FC82-B06D-481B-9CA2-D9E0D99DF9C2}"/>
-    <hyperlink ref="CO78" r:id="rId57" location="176 " xr:uid="{8E5E8D0A-E574-45D3-BDED-FFC3332AE3E5}"/>
-    <hyperlink ref="CQ39" r:id="rId58" location="170 " xr:uid="{6A95838E-AF8D-45B4-8AE2-8E31837C2AD6}"/>
-    <hyperlink ref="CO3" r:id="rId59" xr:uid="{DE5E52D1-FE7D-4A7E-95B5-EF37AC09AA68}"/>
-    <hyperlink ref="CO12" r:id="rId60" xr:uid="{6B4ADC5A-8532-433A-8545-93A62AD90854}"/>
-    <hyperlink ref="CO22" r:id="rId61" xr:uid="{F778156A-84AD-414E-A57F-5183B652CD84}"/>
-    <hyperlink ref="CO58" r:id="rId62" xr:uid="{7BE1C3EF-C9D6-4997-A432-DB17E034EE7B}"/>
-    <hyperlink ref="CO49" r:id="rId63" xr:uid="{F416B041-1FE9-480E-BB7F-B79FFF7C2EA7}"/>
-    <hyperlink ref="CO76" r:id="rId64" xr:uid="{FDCC40C2-8859-4EAB-BCD0-762DE1787734}"/>
-    <hyperlink ref="CO86" r:id="rId65" xr:uid="{97BC39E8-3CE1-4AC3-9AC8-53D999523C65}"/>
-    <hyperlink ref="CO79" r:id="rId66" xr:uid="{E5E9717A-5D55-465F-ACB3-C7DC1FC197D9}"/>
-    <hyperlink ref="CO5" r:id="rId67" xr:uid="{C3D30861-1345-4AA0-9A7A-D1B80D68E47F}"/>
-    <hyperlink ref="CO85" r:id="rId68" xr:uid="{04FDB4EA-4BF8-4720-943D-7A1AF6362694}"/>
+    <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
+    <hyperlink ref="DF23" r:id="rId2" xr:uid="{76BBFA49-3F0E-4717-B3F9-003667D6489E}"/>
+    <hyperlink ref="DF63" r:id="rId3" xr:uid="{A205915C-4AD2-4A32-8F26-0826D087182B}"/>
+    <hyperlink ref="DF56" r:id="rId4" xr:uid="{A88F8854-0A41-41DB-8372-146C1D17C1C1}"/>
+    <hyperlink ref="DF21" r:id="rId5" xr:uid="{ECC1E5A1-A44A-4A2D-BE48-66812477FEDC}"/>
+    <hyperlink ref="DF8" r:id="rId6" xr:uid="{923DBC72-2DFF-4785-BBEE-7A2E2445255F}"/>
+    <hyperlink ref="DF73" r:id="rId7" xr:uid="{71EFB45E-ABD1-4AB2-AF6B-442B5ADC91D8}"/>
+    <hyperlink ref="DF43" r:id="rId8" xr:uid="{13E1480E-5457-4854-8A45-7F697E1B2BD3}"/>
+    <hyperlink ref="DF31" r:id="rId9" xr:uid="{8EE8D5D1-B4F6-420D-AC00-47FECD13D347}"/>
+    <hyperlink ref="DF44" r:id="rId10" xr:uid="{9D0E8551-23EE-462A-99D9-58A683DBF817}"/>
+    <hyperlink ref="DF40" r:id="rId11" xr:uid="{8A2A34B7-C101-4DFE-A230-54015B181292}"/>
+    <hyperlink ref="DF84" r:id="rId12" xr:uid="{AF073CA8-C6FA-45C2-9158-F330AD248DD7}"/>
+    <hyperlink ref="DF83" r:id="rId13" xr:uid="{8C294AC6-DB3A-40CB-89C2-0BEF6BB88EFF}"/>
+    <hyperlink ref="DF71" r:id="rId14" xr:uid="{32677706-12DF-493B-A25C-8E73B2C32554}"/>
+    <hyperlink ref="DF64" r:id="rId15" xr:uid="{D7C9F95E-C799-4911-B61B-1E4E4CC72B88}"/>
+    <hyperlink ref="DF51" r:id="rId16" xr:uid="{1D04A4EC-AB17-45BA-B5CD-4EDF0618FBBB}"/>
+    <hyperlink ref="DF42" r:id="rId17" xr:uid="{CF59A843-C708-41C6-88E8-C8E947554B0A}"/>
+    <hyperlink ref="DF16" r:id="rId18" xr:uid="{8A722C2D-656F-4745-8E1B-FAA1FEFA0F36}"/>
+    <hyperlink ref="DF11" r:id="rId19" xr:uid="{353EA0C0-FDD3-4BE9-80D5-6A2013AE562E}"/>
+    <hyperlink ref="DF6" r:id="rId20" xr:uid="{75AAA869-99CA-4335-8AD1-6F1D0ACCE7EC}"/>
+    <hyperlink ref="DF74" r:id="rId21" xr:uid="{A9D3CDB8-FACE-43D0-BA20-9948F80816FD}"/>
+    <hyperlink ref="DF67" r:id="rId22" xr:uid="{79DB663C-9279-4EF4-9A80-33D1A78009DD}"/>
+    <hyperlink ref="DF60" r:id="rId23" xr:uid="{9DC97AAB-BEF2-44D1-8D86-204EE2871D60}"/>
+    <hyperlink ref="DF54" r:id="rId24" xr:uid="{3E3D9DE5-75CB-47AD-8F14-C11525253CB3}"/>
+    <hyperlink ref="DF50" r:id="rId25" xr:uid="{B5349ED6-2358-4FA9-AB0B-4290D95FB0E8}"/>
+    <hyperlink ref="DF45" r:id="rId26" xr:uid="{B9CD8FC6-2076-40CB-8794-B22D5738905D}"/>
+    <hyperlink ref="DF41" r:id="rId27" xr:uid="{9AFFE17F-81CB-43FC-A27B-9BD088113430}"/>
+    <hyperlink ref="DF38" r:id="rId28" xr:uid="{A0066DA8-0EAA-4C86-8DD1-6D9998B39084}"/>
+    <hyperlink ref="DF35" r:id="rId29" xr:uid="{F51433DD-3D11-4FB1-BBAD-0530F7D69814}"/>
+    <hyperlink ref="DF30" r:id="rId30" xr:uid="{0C81DC96-FC54-4F1B-9481-9AE73D8B8CCE}"/>
+    <hyperlink ref="DF26" r:id="rId31" xr:uid="{03ED404E-FB18-482D-B81B-34E0BB731446}"/>
+    <hyperlink ref="DF20" r:id="rId32" xr:uid="{73ABB494-76B6-451C-9A8B-E5839B4BB142}"/>
+    <hyperlink ref="DF17" r:id="rId33" xr:uid="{09B15F78-C6F2-421E-94D9-430AAC035553}"/>
+    <hyperlink ref="DF10" r:id="rId34" xr:uid="{B623A43C-79FF-42E2-9058-E6483A924825}"/>
+    <hyperlink ref="DF7" r:id="rId35" xr:uid="{99127D2B-44C9-4F91-A1B8-7EEF98E29C09}"/>
+    <hyperlink ref="DF4" r:id="rId36" xr:uid="{F2661EBE-F76D-4B78-AF9D-71C6FD0D0A16}"/>
+    <hyperlink ref="DF33" r:id="rId37" xr:uid="{669D4776-8AA9-42BA-A61B-AAA38CF39E2E}"/>
+    <hyperlink ref="DF61" r:id="rId38" xr:uid="{ED616366-A3C0-4497-8D5A-4211684E32E3}"/>
+    <hyperlink ref="DF53" r:id="rId39" xr:uid="{61B22AF7-8FDD-45C0-BE3E-F3206C6AF799}"/>
+    <hyperlink ref="DF36" r:id="rId40" xr:uid="{6E3D8DFC-56EF-4531-ABD3-5A0E15FC95A8}"/>
+    <hyperlink ref="DF28" r:id="rId41" xr:uid="{7CF60E77-FC4B-4154-A419-93891C0BFE7F}"/>
+    <hyperlink ref="DF24" r:id="rId42" xr:uid="{8D6FCD2A-AFCC-42FC-A5DD-EE4A1AF5A060}"/>
+    <hyperlink ref="DF19" r:id="rId43" xr:uid="{1F3CDC72-3AEF-4ED5-BB7A-149C1A538964}"/>
+    <hyperlink ref="DF81" r:id="rId44" xr:uid="{E37DBCA8-0FBD-46CD-B5B7-CB580DA5B2E6}"/>
+    <hyperlink ref="DF9" r:id="rId45" xr:uid="{6618B5D3-D831-4D3C-97DF-2EEF72935C5D}"/>
+    <hyperlink ref="DF68" r:id="rId46" xr:uid="{46D10AFE-0730-48F9-829C-1DE61110402F}"/>
+    <hyperlink ref="DF18" r:id="rId47" xr:uid="{920DACEC-3CE3-4442-9884-DD4E5215F9C1}"/>
+    <hyperlink ref="DF72" r:id="rId48" xr:uid="{62D6A31F-EC60-434E-A8D9-FBE1714CB972}"/>
+    <hyperlink ref="DF27" r:id="rId49" xr:uid="{C510C399-2AAD-4481-ABC8-DCFEC4746788}"/>
+    <hyperlink ref="DF55" r:id="rId50" xr:uid="{5E96B173-B115-49DD-AEBF-B710507314B4}"/>
+    <hyperlink ref="DF87" r:id="rId51" xr:uid="{20F98EBC-2E74-4AFB-8EEF-F16F00A1361B}"/>
+    <hyperlink ref="DF77" r:id="rId52" xr:uid="{254233F3-3B9C-4209-87C9-96711D0A3EC9}"/>
+    <hyperlink ref="DF66" r:id="rId53" xr:uid="{220D058E-30C9-48E7-9195-5571B8A510F8}"/>
+    <hyperlink ref="DF57" r:id="rId54" xr:uid="{6C08D8E9-E326-47CF-817F-5E5186423E5D}"/>
+    <hyperlink ref="DF48" r:id="rId55" xr:uid="{720F06F3-E66C-4BDA-B548-B64388CC97BB}"/>
+    <hyperlink ref="DF69" r:id="rId56" location="175 " xr:uid="{6E79FC82-B06D-481B-9CA2-D9E0D99DF9C2}"/>
+    <hyperlink ref="DF78" r:id="rId57" location="176 " xr:uid="{8E5E8D0A-E574-45D3-BDED-FFC3332AE3E5}"/>
+    <hyperlink ref="DH39" r:id="rId58" location="170 " xr:uid="{6A95838E-AF8D-45B4-8AE2-8E31837C2AD6}"/>
+    <hyperlink ref="DF3" r:id="rId59" xr:uid="{DE5E52D1-FE7D-4A7E-95B5-EF37AC09AA68}"/>
+    <hyperlink ref="DF12" r:id="rId60" xr:uid="{6B4ADC5A-8532-433A-8545-93A62AD90854}"/>
+    <hyperlink ref="DF22" r:id="rId61" xr:uid="{F778156A-84AD-414E-A57F-5183B652CD84}"/>
+    <hyperlink ref="DF58" r:id="rId62" xr:uid="{7BE1C3EF-C9D6-4997-A432-DB17E034EE7B}"/>
+    <hyperlink ref="DF49" r:id="rId63" xr:uid="{F416B041-1FE9-480E-BB7F-B79FFF7C2EA7}"/>
+    <hyperlink ref="DF76" r:id="rId64" xr:uid="{FDCC40C2-8859-4EAB-BCD0-762DE1787734}"/>
+    <hyperlink ref="DF86" r:id="rId65" xr:uid="{97BC39E8-3CE1-4AC3-9AC8-53D999523C65}"/>
+    <hyperlink ref="DF79" r:id="rId66" xr:uid="{E5E9717A-5D55-465F-ACB3-C7DC1FC197D9}"/>
+    <hyperlink ref="DF5" r:id="rId67" xr:uid="{C3D30861-1345-4AA0-9A7A-D1B80D68E47F}"/>
+    <hyperlink ref="DF85" r:id="rId68" xr:uid="{04FDB4EA-4BF8-4720-943D-7A1AF6362694}"/>
+    <hyperlink ref="DF15" r:id="rId69" xr:uid="{10E99BF5-9756-40A9-821A-4EBAAD606C7F}"/>
+    <hyperlink ref="DF14" r:id="rId70" xr:uid="{A46FC58D-1BEC-4F78-B055-1212C3C745E2}"/>
+    <hyperlink ref="DF59" r:id="rId71" location="174" xr:uid="{1B968D7A-D000-4B6B-89D8-E15F82D5768F}"/>
+    <hyperlink ref="DF46" r:id="rId72" location="173" xr:uid="{1123C6EF-391C-463A-85D7-808E01D60681}"/>
+    <hyperlink ref="DF39" r:id="rId73" location="170" xr:uid="{93D10CA8-444B-4D05-810D-D32E8655D0F9}"/>
+    <hyperlink ref="DF34" r:id="rId74" location="168" xr:uid="{6FC99B99-846D-4A68-9976-E38295558D19}"/>
+    <hyperlink ref="DF29" r:id="rId75" location="166" xr:uid="{9EDD7EC6-6EE5-49CA-96B3-07318D59A4BD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150146AE-1516-4361-867E-C71239997B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B0014-4201-41DF-A13D-32F5B9EDE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19245" windowHeight="8325" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="19110" yWindow="7350" windowWidth="19245" windowHeight="8655" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$87</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="366">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1092,6 +1092,48 @@
   </si>
   <si>
     <t>bra_nul_ns_nr_ger_2t</t>
+  </si>
+  <si>
+    <t>jun/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-07003/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/PoderData-relatorio-Brasil-21jun22.pdf</t>
+  </si>
+  <si>
+    <t>não divulgou dados de rejeição</t>
+  </si>
+  <si>
+    <t>jun/22_idea</t>
+  </si>
+  <si>
+    <t>BR-02845-2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/06/EXAME-IDEIA_-23-DE-JUNHO_ELEICOES-2022-editorial.pdf</t>
+  </si>
+  <si>
+    <t>jun/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-09088/2022</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/06/24/intencaoxe390nf8enow85ndvoo-junsrwv222.pdf</t>
+  </si>
+  <si>
+    <t>http://media.folha.uol.com.br/datafolha/2022/06/24/av46092af784lia4325ca5t32o-p562365re7473sidente-x97jun-22sj1rw.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/06/pesquisa-btg-fsb-27jun2022.pdf</t>
+  </si>
+  <si>
+    <t>BR-05022/2022</t>
+  </si>
+  <si>
+    <t>jun/22_fsb_2</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1253,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1225,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,6 +1402,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <dimension ref="A1:DI131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ46" workbookViewId="0">
-      <selection activeCell="CW57" sqref="CW57"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1794,7 @@
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>309</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1875,13 +1941,13 @@
       <c r="AX1" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="AY1" s="41" t="s">
+      <c r="AY1" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="AZ1" s="41" t="s">
+      <c r="AZ1" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="BA1" s="41" t="s">
+      <c r="BA1" s="43" t="s">
         <v>350</v>
       </c>
       <c r="BB1" s="20" t="s">
@@ -2019,13 +2085,13 @@
       <c r="CT1" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="CU1" s="39" t="s">
+      <c r="CU1" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="CV1" s="39" t="s">
+      <c r="CV1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="CW1" s="39" t="s">
+      <c r="CW1" s="45" t="s">
         <v>351</v>
       </c>
       <c r="CX1" s="22" t="s">
@@ -14399,7 +14465,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>3</v>
       </c>
@@ -14604,7 +14670,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>6</v>
       </c>
@@ -14762,7 +14828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>40</v>
       </c>
@@ -14944,7 +15010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>5</v>
       </c>
@@ -15071,7 +15137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>4</v>
       </c>
@@ -15154,7 +15220,7 @@
         <v>5</v>
       </c>
       <c r="BA85" s="2">
-        <f t="shared" ref="BA85:BA87" si="5">AZ85+AY85</f>
+        <f t="shared" ref="BA85:BA91" si="5">AZ85+AY85</f>
         <v>12</v>
       </c>
       <c r="BW85" s="2">
@@ -15190,7 +15256,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>46</v>
       </c>
@@ -15475,7 +15541,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>6</v>
       </c>
@@ -15633,40 +15699,604 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="E89" s="18"/>
+    <row r="88" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44731</v>
+      </c>
+      <c r="D88" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E88" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>95</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K88" s="2">
+        <v>302</v>
+      </c>
+      <c r="L88" s="2">
+        <v>27</v>
+      </c>
+      <c r="M88" s="2">
+        <v>47</v>
+      </c>
+      <c r="N88" s="2">
+        <v>32</v>
+      </c>
+      <c r="O88" s="2">
+        <v>5</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0</v>
+      </c>
+      <c r="S88" s="2">
+        <v>12</v>
+      </c>
+      <c r="T88" s="2">
+        <v>2</v>
+      </c>
+      <c r="U88" s="1">
+        <v>48</v>
+      </c>
+      <c r="V88" s="1">
+        <v>28</v>
+      </c>
+      <c r="W88" s="1">
+        <v>63</v>
+      </c>
+      <c r="X88" s="1">
+        <v>71</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>46</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>18</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP88" s="2">
+        <v>44</v>
+      </c>
+      <c r="AQ88" s="2">
+        <v>34</v>
+      </c>
+      <c r="AR88" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT88" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU88" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY88" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ88" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA88" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BZ88" s="1">
+        <v>56</v>
+      </c>
+      <c r="CA88" s="1">
+        <v>35</v>
+      </c>
+      <c r="CB88" s="1">
+        <v>81</v>
+      </c>
+      <c r="CC88" s="1">
+        <v>71</v>
+      </c>
+      <c r="CF88" s="2">
+        <v>66</v>
+      </c>
+      <c r="CG88" s="1">
+        <v>32</v>
+      </c>
+      <c r="CH88" s="1">
+        <v>46</v>
+      </c>
+      <c r="CI88" s="1">
+        <v>14</v>
+      </c>
+      <c r="CJ88" s="1">
+        <v>29</v>
+      </c>
+      <c r="CM88" s="2">
+        <v>28</v>
+      </c>
+      <c r="CN88" s="1">
+        <v>52</v>
+      </c>
+      <c r="CO88" s="1">
+        <v>35</v>
+      </c>
+      <c r="CP88" s="1">
+        <v>9</v>
+      </c>
+      <c r="CQ88" s="1">
+        <v>8</v>
+      </c>
+      <c r="CR88" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS88" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT88" s="2">
+        <v>6</v>
+      </c>
+      <c r="CU88" s="21">
+        <v>8</v>
+      </c>
+      <c r="CV88" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW88" s="1">
+        <f>CU88+CV88</f>
+        <v>13</v>
+      </c>
+      <c r="CX88" s="1">
+        <v>53</v>
+      </c>
+      <c r="CY88" s="1">
+        <v>35</v>
+      </c>
+      <c r="CZ88" s="1">
+        <v>84</v>
+      </c>
+      <c r="DA88" s="1">
+        <v>68</v>
+      </c>
+      <c r="DD88" s="1">
+        <v>61</v>
+      </c>
+      <c r="DE88" s="1">
+        <v>51</v>
+      </c>
+      <c r="DF88" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="DG88" s="2" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="90" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY90"/>
-      <c r="AZ90"/>
-      <c r="BA90"/>
+    <row r="89" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44734</v>
+      </c>
+      <c r="D89" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E89" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="2">
+        <v>95</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP89" s="2">
+        <v>45</v>
+      </c>
+      <c r="AQ89" s="2">
+        <v>36</v>
+      </c>
+      <c r="AR89" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY89" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ89" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA89" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BW89" s="2">
+        <v>42</v>
+      </c>
+      <c r="BX89" s="2">
+        <v>44</v>
+      </c>
+      <c r="BY89" s="2">
+        <v>18</v>
+      </c>
+      <c r="CN89" s="2">
+        <v>48</v>
+      </c>
+      <c r="CO89" s="2">
+        <v>41</v>
+      </c>
+      <c r="CU89" s="21">
+        <v>7</v>
+      </c>
+      <c r="CV89" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW89" s="1">
+        <f>CU89+CV89</f>
+        <v>10</v>
+      </c>
+      <c r="DE89" s="1">
+        <v>44</v>
+      </c>
+      <c r="DF89" s="18" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="91" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY91"/>
-      <c r="AZ91"/>
-      <c r="BA91"/>
+    <row r="90" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" s="3">
+        <v>44735</v>
+      </c>
+      <c r="D90" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E90" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2556</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>95</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K90" s="2">
+        <v>181</v>
+      </c>
+      <c r="M90" s="2">
+        <v>51</v>
+      </c>
+      <c r="N90" s="2">
+        <v>26</v>
+      </c>
+      <c r="O90" s="2">
+        <v>2</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1</v>
+      </c>
+      <c r="R90" s="2">
+        <v>5</v>
+      </c>
+      <c r="S90" s="2">
+        <v>12</v>
+      </c>
+      <c r="U90" s="1">
+        <v>42</v>
+      </c>
+      <c r="V90" s="1">
+        <v>28</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP90" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>28</v>
+      </c>
+      <c r="AR90" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY90" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ90" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA90" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="BW90" s="2">
+        <v>35</v>
+      </c>
+      <c r="BX90" s="2">
+        <v>55</v>
+      </c>
+      <c r="BY90" s="2">
+        <v>24</v>
+      </c>
+      <c r="CN90" s="1">
+        <v>57</v>
+      </c>
+      <c r="CO90" s="1">
+        <v>34</v>
+      </c>
+      <c r="CU90" s="21">
+        <v>8</v>
+      </c>
+      <c r="CV90" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW90" s="1">
+        <f>CU90+CV90</f>
+        <v>9</v>
+      </c>
+      <c r="DE90" s="1">
+        <v>47</v>
+      </c>
+      <c r="DF90" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="DG90" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="92" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44738</v>
+      </c>
+      <c r="D91" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E91" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91" s="2">
+        <v>95</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M91" s="2">
+        <v>52</v>
+      </c>
+      <c r="N91" s="2">
+        <v>26</v>
+      </c>
+      <c r="R91" s="2">
+        <v>8</v>
+      </c>
+      <c r="S91" s="2">
+        <v>13</v>
+      </c>
+      <c r="U91" s="1">
+        <v>47</v>
+      </c>
+      <c r="V91" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>37</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO91" s="2">
+        <v>8</v>
+      </c>
+      <c r="AP91" s="1">
+        <v>43</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR91" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT91" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU91" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW91" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX91" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY91" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ91" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA91" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="BW91" s="2">
+        <v>44</v>
+      </c>
+      <c r="BX91" s="2">
+        <v>57</v>
+      </c>
+      <c r="BY91" s="2">
+        <v>51</v>
+      </c>
+      <c r="CN91" s="1">
+        <v>52</v>
+      </c>
+      <c r="CO91" s="1">
+        <v>37</v>
+      </c>
+      <c r="CU91" s="21">
+        <v>9</v>
+      </c>
+      <c r="CV91" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW91" s="1">
+        <f>CU91+CV91</f>
+        <v>10</v>
+      </c>
+      <c r="CX91" s="1">
+        <v>53</v>
+      </c>
+      <c r="CY91" s="1">
+        <v>35</v>
+      </c>
+      <c r="DC91" s="1">
+        <v>42</v>
+      </c>
+      <c r="DD91" s="1">
+        <v>75</v>
+      </c>
+      <c r="DE91" s="1">
+        <v>50</v>
+      </c>
+      <c r="DF91" s="44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY92"/>
       <c r="AZ92"/>
       <c r="BA92"/>
     </row>
-    <row r="93" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY93"/>
       <c r="AZ93"/>
       <c r="BA93"/>
     </row>
-    <row r="94" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY94"/>
       <c r="AZ94"/>
       <c r="BA94"/>
     </row>
-    <row r="95" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY95"/>
       <c r="AZ95"/>
       <c r="BA95"/>
     </row>
-    <row r="96" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY96"/>
       <c r="AZ96"/>
       <c r="BA96"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B0014-4201-41DF-A13D-32F5B9EDE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15520F9-1F13-4883-B23C-049F90078778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="7350" windowWidth="19245" windowHeight="8655" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="18705" yWindow="3120" windowWidth="19230" windowHeight="8325" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="369">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1134,6 +1134,15 @@
   </si>
   <si>
     <t>jun/22_fsb_2</t>
+  </si>
+  <si>
+    <t>jul/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-01763/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/07/05190133/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-julho.pdf</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,8 +1745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <dimension ref="A1:DI131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="19" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15220,7 +15235,7 @@
         <v>5</v>
       </c>
       <c r="BA85" s="2">
-        <f t="shared" ref="BA85:BA91" si="5">AZ85+AY85</f>
+        <f t="shared" ref="BA85:BA92" si="5">AZ85+AY85</f>
         <v>12</v>
       </c>
       <c r="BW85" s="2">
@@ -16277,9 +16292,116 @@
       </c>
     </row>
     <row r="92" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="AY92"/>
-      <c r="AZ92"/>
-      <c r="BA92"/>
+      <c r="A92" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="C92" s="3">
+        <v>44744</v>
+      </c>
+      <c r="D92" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E92" s="21">
+        <v>2022</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>95</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K92" s="2">
+        <v>120</v>
+      </c>
+      <c r="M92" s="2">
+        <v>51</v>
+      </c>
+      <c r="N92" s="2">
+        <v>28</v>
+      </c>
+      <c r="R92" s="2">
+        <v>4</v>
+      </c>
+      <c r="S92" s="2">
+        <v>15</v>
+      </c>
+      <c r="U92" s="1">
+        <v>51</v>
+      </c>
+      <c r="V92" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP92" s="1">
+        <v>45</v>
+      </c>
+      <c r="AQ92" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR92" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT92" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU92" s="2">
+        <v>11</v>
+      </c>
+      <c r="AY92" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ92" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA92" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BW92" s="2">
+        <v>41</v>
+      </c>
+      <c r="BX92" s="2">
+        <v>59</v>
+      </c>
+      <c r="BY92" s="2">
+        <v>55</v>
+      </c>
+      <c r="CN92" s="1">
+        <v>53</v>
+      </c>
+      <c r="CO92" s="1">
+        <v>34</v>
+      </c>
+      <c r="CU92" s="21">
+        <v>9</v>
+      </c>
+      <c r="CV92" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW92" s="1">
+        <f>CU92+CV92</f>
+        <v>13</v>
+      </c>
+      <c r="DF92" s="44" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="93" spans="1:111" x14ac:dyDescent="0.25">
       <c r="AY93"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15520F9-1F13-4883-B23C-049F90078778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE4F48-15FA-4E41-8FF8-4267B8A13C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="3120" windowWidth="19230" windowHeight="8325" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="4935" yWindow="1635" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$100</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="394">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1143,6 +1144,81 @@
   </si>
   <si>
     <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/07/05190133/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-julho.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_poderdata</t>
+  </si>
+  <si>
+    <t>BR-06550/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/07/PoderData-59-5jul22-2-1.pdf</t>
+  </si>
+  <si>
+    <t>BR-08220/2022</t>
+  </si>
+  <si>
+    <t>jul/22_ipespe</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/07/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-JUL-2022-VF-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.futurainteligencia.com.br/blog/conteudo/#177</t>
+  </si>
+  <si>
+    <t>jul/22_futura</t>
+  </si>
+  <si>
+    <t>BR-07639/2022</t>
+  </si>
+  <si>
+    <t>jul/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>BR-09408/2022</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/07/Midia_BR-1.pdf</t>
+  </si>
+  <si>
+    <t>jul/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-01192/2022</t>
+  </si>
+  <si>
+    <t>https://media.folha.uol.com.br/datafolha/2022/07/29/intencao-de-voto-presidente-jul-22.pdf</t>
+  </si>
+  <si>
+    <t>exame</t>
+  </si>
+  <si>
+    <t>jul/22_exame</t>
+  </si>
+  <si>
+    <t>BR-09608-2022</t>
+  </si>
+  <si>
+    <t>BR-09292/2022</t>
+  </si>
+  <si>
+    <t>jul/22_fsb_2</t>
+  </si>
+  <si>
+    <t>jul/22_fsb</t>
+  </si>
+  <si>
+    <t>BR-05938/2022</t>
+  </si>
+  <si>
+    <t>https://multimidia.gazetadopovo.com.br/media/docs/1657534090_pesquisa-btg-fsb-rodada-6-11jul2022.pdf</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/07/EXAME-IDEIA_ELEICOES-2022_21-DE-JULHO-editorial.pdf</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-rodada-7-25jul2022.pdf?utm_campaign=pesquisa_25_07</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,6 +1503,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1743,13 +1825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DI131"/>
+  <dimension ref="A1:DI135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="CX93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15235,7 +15317,7 @@
         <v>5</v>
       </c>
       <c r="BA85" s="2">
-        <f t="shared" ref="BA85:BA92" si="5">AZ85+AY85</f>
+        <f t="shared" ref="BA85:BA94" si="5">AZ85+AY85</f>
         <v>12</v>
       </c>
       <c r="BW85" s="2">
@@ -15909,7 +15991,7 @@
         <v>5</v>
       </c>
       <c r="CW88" s="1">
-        <f>CU88+CV88</f>
+        <f t="shared" ref="CW88:CW94" si="6">CU88+CV88</f>
         <v>13</v>
       </c>
       <c r="CX88" s="1">
@@ -16009,7 +16091,7 @@
         <v>3</v>
       </c>
       <c r="CW89" s="1">
-        <f>CU89+CV89</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="DE89" s="1">
@@ -16124,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="CW90" s="1">
-        <f>CU90+CV90</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="DE90" s="1">
@@ -16269,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="CW91" s="1">
-        <f>CU91+CV91</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="CX91" s="1">
@@ -16396,7 +16478,7 @@
         <v>4</v>
       </c>
       <c r="CW92" s="1">
-        <f>CU92+CV92</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="DF92" s="44" t="s">
@@ -16404,106 +16486,1303 @@
       </c>
     </row>
     <row r="93" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="AY93"/>
-      <c r="AZ93"/>
-      <c r="BA93"/>
+      <c r="A93" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="3">
+        <v>44747</v>
+      </c>
+      <c r="D93" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H93" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I93" s="2">
+        <v>95</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K93" s="2">
+        <v>162</v>
+      </c>
+      <c r="L93" s="2">
+        <v>27</v>
+      </c>
+      <c r="U93" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="V93" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="AP93" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="AR93" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AT93" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AY93" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AZ93" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="BA93" s="2">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="BW93" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BX93" s="2">
+        <v>51</v>
+      </c>
+      <c r="BY93" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="BZ93" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="CA93" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="CE93" s="2">
+        <v>54.7</v>
+      </c>
+      <c r="CG93" s="1">
+        <v>34</v>
+      </c>
+      <c r="CH93" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="CL93" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="CN93" s="1">
+        <v>48</v>
+      </c>
+      <c r="CO93" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="CP93">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="CQ93" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="CS93" s="1">
+        <v>13</v>
+      </c>
+      <c r="CU93" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="CV93" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="CW93" s="1">
+        <f t="shared" si="6"/>
+        <v>12.8</v>
+      </c>
+      <c r="DE93" s="12">
+        <v>45</v>
+      </c>
+      <c r="DF93" s="44" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="94" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="AY94"/>
-      <c r="AZ94"/>
-      <c r="BA94"/>
+      <c r="A94" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="3">
+        <v>44747</v>
+      </c>
+      <c r="D94" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F94" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>95</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K94" s="2">
+        <v>317</v>
+      </c>
+      <c r="L94" s="2">
+        <v>27</v>
+      </c>
+      <c r="M94" s="2">
+        <v>50</v>
+      </c>
+      <c r="N94" s="2">
+        <v>29</v>
+      </c>
+      <c r="O94" s="2">
+        <v>3</v>
+      </c>
+      <c r="P94" s="2">
+        <v>1</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2">
+        <v>15</v>
+      </c>
+      <c r="T94" s="2">
+        <v>2</v>
+      </c>
+      <c r="U94" s="1">
+        <v>44</v>
+      </c>
+      <c r="V94" s="1">
+        <v>35</v>
+      </c>
+      <c r="W94" s="1">
+        <v>66</v>
+      </c>
+      <c r="X94" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>57</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>37</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>47</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>21</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>19</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP94" s="1">
+        <v>44</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>36</v>
+      </c>
+      <c r="AR94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT94" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU94" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW94" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX94" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY94" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ94" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA94" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BB94" s="2">
+        <v>36</v>
+      </c>
+      <c r="BC94" s="2">
+        <v>46</v>
+      </c>
+      <c r="BD94" s="2">
+        <v>27</v>
+      </c>
+      <c r="BE94" s="2">
+        <v>32</v>
+      </c>
+      <c r="BG94" s="2">
+        <v>48</v>
+      </c>
+      <c r="BH94" s="2">
+        <v>29</v>
+      </c>
+      <c r="BI94" s="2">
+        <v>54</v>
+      </c>
+      <c r="BJ94" s="2">
+        <v>41</v>
+      </c>
+      <c r="BK94" s="2">
+        <v>73</v>
+      </c>
+      <c r="BL94" s="2">
+        <v>67</v>
+      </c>
+      <c r="BN94" s="2">
+        <v>48</v>
+      </c>
+      <c r="BO94" s="2">
+        <v>62</v>
+      </c>
+      <c r="BP94" s="2">
+        <v>51</v>
+      </c>
+      <c r="BQ94" s="2">
+        <v>53</v>
+      </c>
+      <c r="BR94" s="2">
+        <v>58</v>
+      </c>
+      <c r="BS94" s="2">
+        <v>48</v>
+      </c>
+      <c r="BU94" s="2">
+        <v>52</v>
+      </c>
+      <c r="BV94" s="2">
+        <v>42</v>
+      </c>
+      <c r="BW94" s="2">
+        <v>38</v>
+      </c>
+      <c r="BX94" s="2">
+        <v>52</v>
+      </c>
+      <c r="BY94" s="2">
+        <v>50</v>
+      </c>
+      <c r="BZ94" s="1">
+        <v>52</v>
+      </c>
+      <c r="CA94" s="1">
+        <v>39</v>
+      </c>
+      <c r="CB94" s="1">
+        <v>72</v>
+      </c>
+      <c r="CC94" s="1">
+        <v>45</v>
+      </c>
+      <c r="CE94" s="2">
+        <v>41</v>
+      </c>
+      <c r="CF94" s="2">
+        <v>64</v>
+      </c>
+      <c r="CG94" s="1">
+        <v>36</v>
+      </c>
+      <c r="CH94" s="1">
+        <v>50</v>
+      </c>
+      <c r="CI94" s="1">
+        <v>21</v>
+      </c>
+      <c r="CJ94" s="1">
+        <v>45</v>
+      </c>
+      <c r="CL94" s="2">
+        <v>41</v>
+      </c>
+      <c r="CM94" s="2">
+        <v>26</v>
+      </c>
+      <c r="CN94" s="1">
+        <v>50</v>
+      </c>
+      <c r="CO94" s="1">
+        <v>38</v>
+      </c>
+      <c r="CP94" s="1">
+        <v>10</v>
+      </c>
+      <c r="CQ94" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR94" s="1">
+        <v>7</v>
+      </c>
+      <c r="CS94" s="1">
+        <v>22</v>
+      </c>
+      <c r="CT94" s="2">
+        <v>5</v>
+      </c>
+      <c r="CU94" s="21">
+        <v>10</v>
+      </c>
+      <c r="CV94" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW94" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="CX94" s="1">
+        <v>56</v>
+      </c>
+      <c r="CY94" s="1">
+        <v>40</v>
+      </c>
+      <c r="CZ94" s="1">
+        <v>64</v>
+      </c>
+      <c r="DA94" s="1">
+        <v>42</v>
+      </c>
+      <c r="DC94" s="1">
+        <v>77</v>
+      </c>
+      <c r="DD94" s="1">
+        <v>68</v>
+      </c>
+      <c r="DE94" s="1">
+        <v>55</v>
+      </c>
+      <c r="DF94" s="18" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="95" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="AY95"/>
-      <c r="AZ95"/>
-      <c r="BA95"/>
+      <c r="A95" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" s="3">
+        <v>44752</v>
+      </c>
+      <c r="D95" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F95" t="s">
+        <v>387</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2">
+        <v>95</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M95" s="2">
+        <v>50</v>
+      </c>
+      <c r="N95" s="2">
+        <v>27</v>
+      </c>
+      <c r="R95" s="2">
+        <v>8</v>
+      </c>
+      <c r="S95" s="2">
+        <v>14</v>
+      </c>
+      <c r="U95" s="1">
+        <v>45</v>
+      </c>
+      <c r="V95" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>28</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>22</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>11</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP95" s="2">
+        <v>42</v>
+      </c>
+      <c r="AQ95" s="2">
+        <v>32</v>
+      </c>
+      <c r="AR95" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU95" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW95" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX95" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY95" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ95" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA95" s="2">
+        <f>AZ95+AY95</f>
+        <v>8</v>
+      </c>
+      <c r="BW95" s="2">
+        <v>44</v>
+      </c>
+      <c r="BX95" s="2">
+        <v>58</v>
+      </c>
+      <c r="BY95" s="2">
+        <v>49</v>
+      </c>
+      <c r="CN95" s="1">
+        <v>53</v>
+      </c>
+      <c r="CO95" s="1">
+        <v>37</v>
+      </c>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CU95" s="21">
+        <v>9</v>
+      </c>
+      <c r="CV95" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW95" s="1">
+        <f>CU95+CV95</f>
+        <v>10</v>
+      </c>
+      <c r="CX95" s="1">
+        <v>48</v>
+      </c>
+      <c r="CY95" s="1">
+        <v>35</v>
+      </c>
+      <c r="DC95" s="1">
+        <v>58</v>
+      </c>
+      <c r="DD95" s="1">
+        <v>65</v>
+      </c>
+      <c r="DE95" s="1">
+        <v>47</v>
+      </c>
+      <c r="DF95" s="18" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="96" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44764</v>
+      </c>
+      <c r="D96" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F96" t="s">
+        <v>372</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I96" s="2">
+        <v>95</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M96" s="2">
+        <v>52</v>
+      </c>
+      <c r="N96" s="2">
+        <v>24</v>
+      </c>
+      <c r="R96" s="2">
+        <v>25</v>
+      </c>
+      <c r="U96" s="1">
+        <v>43</v>
+      </c>
+      <c r="V96" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>54</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>9</v>
+      </c>
+      <c r="AP96" s="2">
+        <v>44</v>
+      </c>
+      <c r="AQ96" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR96" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT96" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU96" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW96" s="2">
+        <v>3</v>
+      </c>
       <c r="AY96"/>
       <c r="AZ96"/>
-      <c r="BA96"/>
+      <c r="BA96">
+        <v>11</v>
+      </c>
+      <c r="BW96" s="2">
+        <v>43</v>
+      </c>
+      <c r="BX96" s="2">
+        <v>58</v>
+      </c>
+      <c r="BY96" s="2">
+        <v>40</v>
+      </c>
+      <c r="CN96" s="2">
+        <v>53</v>
+      </c>
+      <c r="CO96" s="2">
+        <v>36</v>
+      </c>
+      <c r="CW96" s="1">
+        <v>11</v>
+      </c>
+      <c r="DE96" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF96" s="18" t="s">
+        <v>374</v>
+      </c>
     </row>
-    <row r="97" spans="8:53" x14ac:dyDescent="0.25">
-      <c r="AY97"/>
-      <c r="AZ97"/>
-      <c r="BA97"/>
+    <row r="97" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44762</v>
+      </c>
+      <c r="D97" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F97" t="s">
+        <v>386</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP97" s="2">
+        <v>44</v>
+      </c>
+      <c r="AQ97" s="2">
+        <v>33</v>
+      </c>
+      <c r="AR97" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>4</v>
+      </c>
+      <c r="AZ97">
+        <v>3</v>
+      </c>
+      <c r="BA97">
+        <f>AY97+AZ97</f>
+        <v>7</v>
+      </c>
+      <c r="BW97" s="2">
+        <v>40</v>
+      </c>
+      <c r="BX97" s="2">
+        <v>46</v>
+      </c>
+      <c r="BY97" s="2">
+        <v>19</v>
+      </c>
+      <c r="CN97" s="2">
+        <v>47</v>
+      </c>
+      <c r="CO97" s="2">
+        <v>37</v>
+      </c>
+      <c r="CU97" s="21">
+        <v>11</v>
+      </c>
+      <c r="CV97" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW97" s="1">
+        <f>CU97+CV97</f>
+        <v>16</v>
+      </c>
+      <c r="DE97" s="1">
+        <v>48</v>
+      </c>
+      <c r="DF97" s="44" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="98" spans="8:53" x14ac:dyDescent="0.25">
-      <c r="AY98"/>
-      <c r="AZ98"/>
-      <c r="BA98"/>
+    <row r="98" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="3">
+        <v>44766</v>
+      </c>
+      <c r="D98" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F98" t="s">
+        <v>390</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2">
+        <v>95</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M98" s="2">
+        <v>54</v>
+      </c>
+      <c r="N98" s="2">
+        <v>27</v>
+      </c>
+      <c r="R98" s="2">
+        <v>8</v>
+      </c>
+      <c r="S98" s="2">
+        <v>10</v>
+      </c>
+      <c r="U98" s="1">
+        <v>52</v>
+      </c>
+      <c r="V98" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>46</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>46</v>
+      </c>
+      <c r="AI98" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>8</v>
+      </c>
+      <c r="AO98" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP98" s="2">
+        <v>44</v>
+      </c>
+      <c r="AQ98" s="2">
+        <v>31</v>
+      </c>
+      <c r="AR98" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW98" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX98" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY98" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ98" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA98" s="2">
+        <v>10</v>
+      </c>
+      <c r="BW98" s="2">
+        <v>42</v>
+      </c>
+      <c r="BX98" s="2">
+        <v>58</v>
+      </c>
+      <c r="BY98" s="2">
+        <v>47</v>
+      </c>
+      <c r="CN98" s="2">
+        <v>54</v>
+      </c>
+      <c r="CO98" s="2">
+        <v>36</v>
+      </c>
+      <c r="CU98" s="21">
+        <v>7</v>
+      </c>
+      <c r="CV98" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW98" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX98" s="1">
+        <v>52</v>
+      </c>
+      <c r="CY98" s="1">
+        <v>33</v>
+      </c>
+      <c r="DC98" s="1">
+        <v>43</v>
+      </c>
+      <c r="DD98" s="1">
+        <v>65</v>
+      </c>
+      <c r="DE98" s="2">
+        <v>47</v>
+      </c>
+      <c r="DF98" s="18" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="99" spans="8:53" x14ac:dyDescent="0.25">
-      <c r="AY99"/>
-      <c r="AZ99"/>
-      <c r="BA99"/>
+    <row r="99" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="3">
+        <v>44767</v>
+      </c>
+      <c r="D99" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F99" t="s">
+        <v>377</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I99" s="2">
+        <v>95</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M99" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="O99" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="R99" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="S99" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="T99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AP99" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="AQ99" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="AR99" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="AY99" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AZ99" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="BA99" s="2">
+        <f t="shared" ref="BA99:BA100" si="7">AZ99+AY99</f>
+        <v>10.8</v>
+      </c>
+      <c r="BW99" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="BX99" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="BY99" s="2">
+        <v>15</v>
+      </c>
+      <c r="CN99" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="CO99" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="CU99" s="21">
+        <v>9.6</v>
+      </c>
+      <c r="CV99" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="CW99" s="1">
+        <f>CV99+CU99</f>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="DE99" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="DF99" s="44" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="100" spans="8:53" x14ac:dyDescent="0.25">
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="AY100"/>
-      <c r="AZ100"/>
-      <c r="BA100"/>
+    <row r="100" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C100" s="3">
+        <v>44770</v>
+      </c>
+      <c r="D100" s="11">
+        <v>44743</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F100" t="s">
+        <v>382</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2556</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>95</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K100" s="2">
+        <v>183</v>
+      </c>
+      <c r="M100" s="2">
+        <v>54</v>
+      </c>
+      <c r="N100" s="2">
+        <v>25</v>
+      </c>
+      <c r="O100" s="2">
+        <v>3</v>
+      </c>
+      <c r="P100" s="2">
+        <v>2</v>
+      </c>
+      <c r="R100" s="2">
+        <v>5</v>
+      </c>
+      <c r="S100" s="2">
+        <v>11</v>
+      </c>
+      <c r="U100" s="1">
+        <v>52</v>
+      </c>
+      <c r="V100" s="1">
+        <v>33</v>
+      </c>
+      <c r="W100" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI100" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK100" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP100" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ100" s="1">
+        <v>29</v>
+      </c>
+      <c r="AR100" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT100" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU100" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV100" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY100" s="2">
+        <v>6</v>
+      </c>
+      <c r="AZ100" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA100" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BB100" s="2">
+        <v>30</v>
+      </c>
+      <c r="BC100" s="2">
+        <v>49</v>
+      </c>
+      <c r="BD100" s="2">
+        <v>39</v>
+      </c>
+      <c r="BI100" s="2">
+        <v>58</v>
+      </c>
+      <c r="BJ100" s="2">
+        <v>37</v>
+      </c>
+      <c r="BK100" s="2">
+        <v>62</v>
+      </c>
+      <c r="BP100" s="2">
+        <v>26</v>
+      </c>
+      <c r="BQ100" s="2">
+        <v>26</v>
+      </c>
+      <c r="BR100" s="2">
+        <v>30</v>
+      </c>
+      <c r="BW100" s="2">
+        <v>36</v>
+      </c>
+      <c r="BX100" s="2">
+        <v>53</v>
+      </c>
+      <c r="BY100" s="2">
+        <v>25</v>
+      </c>
+      <c r="BZ100" s="1">
+        <v>61</v>
+      </c>
+      <c r="CA100" s="1">
+        <v>40</v>
+      </c>
+      <c r="CB100" s="1">
+        <v>59</v>
+      </c>
+      <c r="CG100" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH100" s="1">
+        <v>52</v>
+      </c>
+      <c r="CI100" s="1">
+        <v>32</v>
+      </c>
+      <c r="CN100" s="1">
+        <v>55</v>
+      </c>
+      <c r="CO100" s="1">
+        <v>35</v>
+      </c>
+      <c r="CP100">
+        <v>12</v>
+      </c>
+      <c r="CQ100" s="1">
+        <v>18</v>
+      </c>
+      <c r="CR100" s="1">
+        <v>22</v>
+      </c>
+      <c r="CU100" s="21">
+        <v>14</v>
+      </c>
+      <c r="CV100" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW100" s="1">
+        <f>CV100+CU100</f>
+        <v>16</v>
+      </c>
+      <c r="DF100" s="35" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="101" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY101"/>
       <c r="AZ101"/>
       <c r="BA101"/>
     </row>
-    <row r="102" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY102"/>
       <c r="AZ102"/>
       <c r="BA102"/>
     </row>
-    <row r="103" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY103"/>
       <c r="AZ103"/>
       <c r="BA103"/>
     </row>
-    <row r="104" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
       <c r="AY104"/>
       <c r="AZ104"/>
       <c r="BA104"/>
     </row>
-    <row r="105" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY105"/>
       <c r="AZ105"/>
       <c r="BA105"/>
     </row>
-    <row r="106" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY106"/>
       <c r="AZ106"/>
       <c r="BA106"/>
     </row>
-    <row r="107" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY107"/>
       <c r="AZ107"/>
       <c r="BA107"/>
     </row>
-    <row r="108" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY108"/>
       <c r="AZ108"/>
       <c r="BA108"/>
     </row>
-    <row r="109" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY109"/>
       <c r="AZ109"/>
       <c r="BA109"/>
     </row>
-    <row r="110" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY110"/>
       <c r="AZ110"/>
       <c r="BA110"/>
     </row>
-    <row r="111" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY111"/>
       <c r="AZ111"/>
       <c r="BA111"/>
     </row>
-    <row r="112" spans="8:53" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY112"/>
       <c r="AZ112"/>
       <c r="BA112"/>
@@ -16603,7 +17882,28 @@
       <c r="AZ131"/>
       <c r="BA131"/>
     </row>
+    <row r="132" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY132"/>
+      <c r="AZ132"/>
+      <c r="BA132"/>
+    </row>
+    <row r="133" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY133"/>
+      <c r="AZ133"/>
+      <c r="BA133"/>
+    </row>
+    <row r="134" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY134"/>
+      <c r="AZ134"/>
+      <c r="BA134"/>
+    </row>
+    <row r="135" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY135"/>
+      <c r="AZ135"/>
+      <c r="BA135"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:DH100" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE4F48-15FA-4E41-8FF8-4267B8A13C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4429EB-3DF5-44DF-8B6C-6B38AA1F41EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="1635" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,6 +1509,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,10 +1841,10 @@
   <dimension ref="A1:DI135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="CX93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="CX83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95:A98"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17091,13 +17104,13 @@
     </row>
     <row r="96" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C96" s="3">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="D96" s="11">
         <v>44743</v>
@@ -17106,113 +17119,74 @@
         <v>2022</v>
       </c>
       <c r="F96" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G96" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H96" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I96" s="2">
-        <v>95</v>
+        <v>1500</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M96" s="2">
-        <v>52</v>
-      </c>
-      <c r="N96" s="2">
-        <v>24</v>
-      </c>
-      <c r="R96" s="2">
-        <v>25</v>
-      </c>
-      <c r="U96" s="1">
-        <v>43</v>
-      </c>
-      <c r="V96" s="1">
-        <v>36</v>
-      </c>
-      <c r="Z96" s="1">
-        <v>54</v>
-      </c>
-      <c r="AB96" s="1">
-        <v>34</v>
-      </c>
-      <c r="AC96" s="1">
-        <v>47</v>
-      </c>
-      <c r="AG96" s="1">
-        <v>25</v>
-      </c>
-      <c r="AI96" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ96" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN96" s="2">
-        <v>9</v>
-      </c>
       <c r="AP96" s="2">
         <v>44</v>
       </c>
       <c r="AQ96" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AR96" s="2">
-        <v>9</v>
-      </c>
-      <c r="AT96" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>4</v>
+      </c>
+      <c r="AZ96">
         <v>3</v>
       </c>
-      <c r="AU96" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW96" s="2">
-        <v>3</v>
-      </c>
-      <c r="AY96"/>
-      <c r="AZ96"/>
       <c r="BA96">
+        <f>AY96+AZ96</f>
+        <v>7</v>
+      </c>
+      <c r="BW96" s="2">
+        <v>40</v>
+      </c>
+      <c r="BX96" s="2">
+        <v>46</v>
+      </c>
+      <c r="BY96" s="2">
+        <v>19</v>
+      </c>
+      <c r="CN96" s="2">
+        <v>47</v>
+      </c>
+      <c r="CO96" s="2">
+        <v>37</v>
+      </c>
+      <c r="CU96" s="21">
         <v>11</v>
       </c>
-      <c r="BW96" s="2">
-        <v>43</v>
-      </c>
-      <c r="BX96" s="2">
-        <v>58</v>
-      </c>
-      <c r="BY96" s="2">
-        <v>40</v>
-      </c>
-      <c r="CN96" s="2">
-        <v>53</v>
-      </c>
-      <c r="CO96" s="2">
-        <v>36</v>
+      <c r="CV96" s="1">
+        <v>5</v>
       </c>
       <c r="CW96" s="1">
-        <v>11</v>
+        <f>CU96+CV96</f>
+        <v>16</v>
       </c>
       <c r="DE96" s="1">
-        <v>49</v>
-      </c>
-      <c r="DF96" s="18" t="s">
-        <v>374</v>
+        <v>48</v>
+      </c>
+      <c r="DF96" s="44" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C97" s="3">
-        <v>44762</v>
+        <v>44764</v>
       </c>
       <c r="D97" s="11">
         <v>44743</v>
@@ -17221,214 +17195,276 @@
         <v>2022</v>
       </c>
       <c r="F97" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G97" s="1">
-        <v>1500</v>
+        <v>2000</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I97" s="2">
+        <v>95</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="M97" s="2">
+        <v>52</v>
+      </c>
+      <c r="N97" s="2">
+        <v>24</v>
+      </c>
+      <c r="R97" s="2">
+        <v>25</v>
+      </c>
+      <c r="U97" s="1">
+        <v>43</v>
+      </c>
+      <c r="V97" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>54</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>9</v>
+      </c>
       <c r="AP97" s="2">
         <v>44</v>
       </c>
       <c r="AQ97" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR97" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT97" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU97" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW97" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY97"/>
+      <c r="AZ97"/>
+      <c r="BA97">
+        <v>11</v>
+      </c>
+      <c r="BW97" s="2">
+        <v>43</v>
+      </c>
+      <c r="BX97" s="2">
+        <v>58</v>
+      </c>
+      <c r="BY97" s="2">
+        <v>40</v>
+      </c>
+      <c r="CN97" s="2">
+        <v>53</v>
+      </c>
+      <c r="CO97" s="2">
+        <v>36</v>
+      </c>
+      <c r="CW97" s="1">
+        <v>11</v>
+      </c>
+      <c r="DE97" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF97" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:110" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="17">
+        <v>44766</v>
+      </c>
+      <c r="D98" s="51">
+        <v>44743</v>
+      </c>
+      <c r="E98" s="29">
+        <v>2022</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G98" s="12">
+        <v>2000</v>
+      </c>
+      <c r="H98" s="12">
+        <v>2</v>
+      </c>
+      <c r="I98" s="29">
+        <v>95</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M98" s="29">
+        <v>54</v>
+      </c>
+      <c r="N98" s="29">
+        <v>27</v>
+      </c>
+      <c r="R98" s="29">
+        <v>8</v>
+      </c>
+      <c r="S98" s="29">
+        <v>10</v>
+      </c>
+      <c r="U98" s="12">
+        <v>52</v>
+      </c>
+      <c r="V98" s="12">
         <v>33</v>
       </c>
-      <c r="AR97" s="2">
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12">
+        <v>32</v>
+      </c>
+      <c r="AA98" s="12">
+        <v>46</v>
+      </c>
+      <c r="AB98" s="12">
+        <v>25</v>
+      </c>
+      <c r="AC98" s="12">
+        <v>46</v>
+      </c>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12">
+        <v>41</v>
+      </c>
+      <c r="AH98" s="12">
+        <v>46</v>
+      </c>
+      <c r="AI98" s="12">
+        <v>9</v>
+      </c>
+      <c r="AJ98" s="12">
         <v>8</v>
       </c>
-      <c r="AY97">
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AN98" s="29">
+        <v>8</v>
+      </c>
+      <c r="AO98" s="29">
+        <v>13</v>
+      </c>
+      <c r="AP98" s="29">
+        <v>44</v>
+      </c>
+      <c r="AQ98" s="29">
+        <v>31</v>
+      </c>
+      <c r="AR98" s="29">
+        <v>9</v>
+      </c>
+      <c r="AT98" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU98" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW98" s="29">
+        <v>3</v>
+      </c>
+      <c r="AX98" s="29">
         <v>4</v>
       </c>
-      <c r="AZ97">
+      <c r="AY98" s="29">
+        <v>7</v>
+      </c>
+      <c r="AZ98" s="29">
         <v>3</v>
       </c>
-      <c r="BA97">
-        <f>AY97+AZ97</f>
+      <c r="BA98" s="29">
+        <v>10</v>
+      </c>
+      <c r="BW98" s="29">
+        <v>42</v>
+      </c>
+      <c r="BX98" s="29">
+        <v>58</v>
+      </c>
+      <c r="BY98" s="29">
+        <v>47</v>
+      </c>
+      <c r="BZ98" s="12"/>
+      <c r="CA98" s="12"/>
+      <c r="CB98" s="12"/>
+      <c r="CC98" s="12"/>
+      <c r="CG98" s="12"/>
+      <c r="CH98" s="12"/>
+      <c r="CI98" s="12"/>
+      <c r="CJ98" s="12"/>
+      <c r="CN98" s="29">
+        <v>54</v>
+      </c>
+      <c r="CO98" s="29">
+        <v>36</v>
+      </c>
+      <c r="CP98" s="52"/>
+      <c r="CQ98" s="52"/>
+      <c r="CR98" s="52"/>
+      <c r="CS98" s="52"/>
+      <c r="CU98" s="53">
         <v>7</v>
       </c>
-      <c r="BW97" s="2">
-        <v>40</v>
-      </c>
-      <c r="BX97" s="2">
-        <v>46</v>
-      </c>
-      <c r="BY97" s="2">
-        <v>19</v>
-      </c>
-      <c r="CN97" s="2">
+      <c r="CV98" s="12">
+        <v>2</v>
+      </c>
+      <c r="CW98" s="12">
+        <v>9</v>
+      </c>
+      <c r="CX98" s="12">
+        <v>52</v>
+      </c>
+      <c r="CY98" s="12">
+        <v>33</v>
+      </c>
+      <c r="CZ98" s="12"/>
+      <c r="DA98" s="12"/>
+      <c r="DB98" s="12"/>
+      <c r="DC98" s="12">
+        <v>43</v>
+      </c>
+      <c r="DD98" s="12">
+        <v>65</v>
+      </c>
+      <c r="DE98" s="29">
         <v>47</v>
       </c>
-      <c r="CO97" s="2">
-        <v>37</v>
-      </c>
-      <c r="CU97" s="21">
-        <v>11</v>
-      </c>
-      <c r="CV97" s="1">
-        <v>5</v>
-      </c>
-      <c r="CW97" s="1">
-        <f>CU97+CV97</f>
-        <v>16</v>
-      </c>
-      <c r="DE97" s="1">
-        <v>48</v>
-      </c>
-      <c r="DF97" s="44" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="C98" s="3">
-        <v>44766</v>
-      </c>
-      <c r="D98" s="11">
-        <v>44743</v>
-      </c>
-      <c r="E98" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F98" t="s">
-        <v>390</v>
-      </c>
-      <c r="G98" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H98" s="1">
-        <v>2</v>
-      </c>
-      <c r="I98" s="2">
-        <v>95</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M98" s="2">
-        <v>54</v>
-      </c>
-      <c r="N98" s="2">
-        <v>27</v>
-      </c>
-      <c r="R98" s="2">
-        <v>8</v>
-      </c>
-      <c r="S98" s="2">
-        <v>10</v>
-      </c>
-      <c r="U98" s="1">
-        <v>52</v>
-      </c>
-      <c r="V98" s="1">
-        <v>33</v>
-      </c>
-      <c r="Z98" s="1">
-        <v>32</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>46</v>
-      </c>
-      <c r="AB98" s="1">
-        <v>25</v>
-      </c>
-      <c r="AC98" s="1">
-        <v>46</v>
-      </c>
-      <c r="AG98" s="1">
-        <v>41</v>
-      </c>
-      <c r="AH98" s="1">
-        <v>46</v>
-      </c>
-      <c r="AI98" s="1">
-        <v>9</v>
-      </c>
-      <c r="AJ98" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN98" s="2">
-        <v>8</v>
-      </c>
-      <c r="AO98" s="2">
-        <v>13</v>
-      </c>
-      <c r="AP98" s="2">
-        <v>44</v>
-      </c>
-      <c r="AQ98" s="2">
-        <v>31</v>
-      </c>
-      <c r="AR98" s="2">
-        <v>9</v>
-      </c>
-      <c r="AT98" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU98" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW98" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX98" s="2">
-        <v>4</v>
-      </c>
-      <c r="AY98" s="2">
-        <v>7</v>
-      </c>
-      <c r="AZ98" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA98" s="2">
-        <v>10</v>
-      </c>
-      <c r="BW98" s="2">
-        <v>42</v>
-      </c>
-      <c r="BX98" s="2">
-        <v>58</v>
-      </c>
-      <c r="BY98" s="2">
-        <v>47</v>
-      </c>
-      <c r="CN98" s="2">
-        <v>54</v>
-      </c>
-      <c r="CO98" s="2">
-        <v>36</v>
-      </c>
-      <c r="CU98" s="21">
-        <v>7</v>
-      </c>
-      <c r="CV98" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW98" s="1">
-        <v>9</v>
-      </c>
-      <c r="CX98" s="1">
-        <v>52</v>
-      </c>
-      <c r="CY98" s="1">
-        <v>33</v>
-      </c>
-      <c r="DC98" s="1">
-        <v>43</v>
-      </c>
-      <c r="DD98" s="1">
-        <v>65</v>
-      </c>
-      <c r="DE98" s="2">
-        <v>47</v>
-      </c>
-      <c r="DF98" s="18" t="s">
+      <c r="DF98" s="29" t="s">
         <v>393</v>
       </c>
     </row>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC310813-FBBC-493C-96AE-5FA8A4AB540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E791D60-9855-4356-A2BC-F22644FDAC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15525" yWindow="2475" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="20730" yWindow="4020" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="399">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1227,6 +1227,12 @@
   </si>
   <si>
     <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/08/03012325/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-agosto.pdf</t>
+  </si>
+  <si>
+    <t>BR-05251/2022</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/08/Midia_BR_Ago22.pdf</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <dimension ref="A1:DH135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AQ101" sqref="AQ101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="19" topLeftCell="CL97" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="CO102" sqref="CO102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14927,7 +14936,7 @@
         <v>164</v>
       </c>
       <c r="L83" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U83" s="2">
         <v>46</v>
@@ -17748,7 +17757,7 @@
       <c r="AP101" s="7">
         <v>44</v>
       </c>
-      <c r="AQ101" s="5">
+      <c r="AQ101" s="7">
         <v>32</v>
       </c>
       <c r="AR101" s="7">
@@ -17810,11 +17819,131 @@
       </c>
     </row>
     <row r="102" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY102" s="14"/>
-      <c r="AZ102" s="14"/>
-      <c r="BA102" s="14"/>
+      <c r="A102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" s="4">
+        <v>44774</v>
+      </c>
+      <c r="D102" s="13">
+        <v>44774</v>
+      </c>
+      <c r="E102" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F102" t="s">
+        <v>397</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H102" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I102" s="7">
+        <v>95</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K102" s="7">
+        <v>161</v>
+      </c>
+      <c r="L102" s="7">
+        <v>27</v>
+      </c>
+      <c r="U102" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="V102" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>26</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="AJ102" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AN102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AP102" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="AR102" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="AT102" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AU102" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="AW102" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AY102" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AZ102" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA102" s="1">
+        <f>AZ102+AY102</f>
+        <v>10.3</v>
+      </c>
+      <c r="BW102" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="BX102" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="BY102" s="1">
+        <v>43</v>
+      </c>
+      <c r="CN102" s="2">
+        <v>48.6</v>
+      </c>
+      <c r="CO102" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="CU102" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="CV102" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="CW102" s="2">
+        <f>CV102+CU102</f>
+        <v>12.5</v>
+      </c>
+      <c r="DE102" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="DF102" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="103" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="AV103" s="5"/>
       <c r="AY103" s="14"/>
       <c r="AZ103" s="14"/>
       <c r="BA103" s="14"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B9E1F-8C43-4D28-8471-C63ED2F90681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD712564-5C70-463B-9728-A63443EFAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -1812,7 +1812,7 @@
       <pane xSplit="6" ySplit="19" topLeftCell="AC90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="AH98" sqref="AH98"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17825,7 +17825,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C102" s="3">
         <v>44774</v>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD712564-5C70-463B-9728-A63443EFAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CDFF9-FB39-4244-9393-5D527E81AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="400">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://static.btgpactual.com/media/pesquisa-btg-fsb-rodada-7-25jul2022.pdf?utm_campaign=pesquisa_25_07 </t>
+  </si>
+  <si>
+    <t>ago/22_pr_pesq</t>
   </si>
 </sst>
 </file>
@@ -1809,10 +1812,10 @@
   <dimension ref="A1:DH135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="AC90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="AC95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17825,7 +17828,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C102" s="3">
         <v>44774</v>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CDFF9-FB39-4244-9393-5D527E81AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536B924-2D57-4F44-9329-C185CB2C1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -1815,7 +1815,7 @@
       <pane xSplit="6" ySplit="19" topLeftCell="AC95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536B924-2D57-4F44-9329-C185CB2C1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19354D79-90A2-444D-BE86-D5BE340A24CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$102</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="399">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1190,12 +1190,6 @@
     <t>https://media.folha.uol.com.br/datafolha/2022/07/29/intencao-de-voto-presidente-jul-22.pdf</t>
   </si>
   <si>
-    <t>exame</t>
-  </si>
-  <si>
-    <t>jul/22_exame</t>
-  </si>
-  <si>
     <t>BR-09608-2022</t>
   </si>
   <si>
@@ -1214,9 +1208,6 @@
     <t>https://multimidia.gazetadopovo.com.br/media/docs/1657534090_pesquisa-btg-fsb-rodada-6-11jul2022.pdf</t>
   </si>
   <si>
-    <t>https://classic.exame.com/wp-content/uploads/2022/07/EXAME-IDEIA_ELEICOES-2022_21-DE-JULHO-editorial.pdf</t>
-  </si>
-  <si>
     <t>jul/22_quaest_2</t>
   </si>
   <si>
@@ -1236,6 +1227,12 @@
   </si>
   <si>
     <t>ago/22_pr_pesq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://classic.exame.com/wp-content/uploads/2022/07/EXAME-IDEIA_ELEICOES-2022_21-DE-JULHO-editorial.pdf </t>
+  </si>
+  <si>
+    <t>jul/22_idea</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,6 +1490,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1812,10 +1812,10 @@
   <dimension ref="A1:DH135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="AC95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="CX20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16915,7 +16915,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C95" s="3">
         <v>44752</v>
@@ -16927,7 +16927,7 @@
         <v>2022</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G95" s="1">
         <v>2000</v>
@@ -17065,15 +17065,15 @@
         <v>47</v>
       </c>
       <c r="DF95" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C96" s="3">
         <v>44762</v>
@@ -17085,7 +17085,7 @@
         <v>2022</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G96" s="1">
         <v>1500</v>
@@ -17140,8 +17140,8 @@
       <c r="DE96" s="1">
         <v>48</v>
       </c>
-      <c r="DF96" s="8" t="s">
-        <v>392</v>
+      <c r="DF96" s="39" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:110" x14ac:dyDescent="0.25">
@@ -17262,7 +17262,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C98" s="3">
         <v>44766</v>
@@ -17274,7 +17274,7 @@
         <v>2022</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G98" s="1">
         <v>2000</v>
@@ -17406,7 +17406,7 @@
         <v>47</v>
       </c>
       <c r="DF98" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:110" x14ac:dyDescent="0.25">
@@ -17704,7 +17704,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C101" s="3">
         <v>44773</v>
@@ -17716,7 +17716,7 @@
         <v>2022</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G101" s="6">
         <v>2000</v>
@@ -17820,7 +17820,7 @@
         <v>43</v>
       </c>
       <c r="DF101" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:110" x14ac:dyDescent="0.25">
@@ -17828,7 +17828,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C102" s="3">
         <v>44774</v>
@@ -17840,7 +17840,7 @@
         <v>2022</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G102" s="1">
         <v>2020</v>
@@ -17944,7 +17944,7 @@
         <v>44.3</v>
       </c>
       <c r="DF102" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:110" x14ac:dyDescent="0.25">
@@ -17954,6 +17954,7 @@
       <c r="BA103" s="13"/>
     </row>
     <row r="104" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="C104" s="4"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
@@ -18120,7 +18121,7 @@
       <c r="BA135" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DH100" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
+  <autoFilter ref="A1:DH102" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
@@ -18199,8 +18200,9 @@
     <hyperlink ref="DF34" r:id="rId74" location="168" xr:uid="{6FC99B99-846D-4A68-9976-E38295558D19}"/>
     <hyperlink ref="DF29" r:id="rId75" location="166" xr:uid="{9EDD7EC6-6EE5-49CA-96B3-07318D59A4BD}"/>
     <hyperlink ref="DF98" r:id="rId76" xr:uid="{D89AFB2B-0FE3-4F3C-9A34-3E8C44038C37}"/>
+    <hyperlink ref="DF96" r:id="rId77" xr:uid="{86D5AE89-6708-4AB8-A4B4-979B1BCB0C8C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19354D79-90A2-444D-BE86-D5BE340A24CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8843B4-4E43-437B-B98A-BFE23C6F0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="402">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1233,6 +1233,15 @@
   </si>
   <si>
     <t>jul/22_idea</t>
+  </si>
+  <si>
+    <t>jul/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-07122/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/07/PoderData-relatorio-Brasil-19jul22-1-1.pdf</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,6 +1372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1377,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,6 +1508,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1809,13 +1845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DH135"/>
+  <dimension ref="A1:DH136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="CX20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="BU85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17068,91 +17104,268 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C96" s="3">
-        <v>44762</v>
-      </c>
-      <c r="D96" s="12">
+    <row r="96" spans="1:111" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="42">
+        <v>44761</v>
+      </c>
+      <c r="D96" s="43">
         <v>44743</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="44">
         <v>2022</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1500</v>
-      </c>
-      <c r="J96" s="6" t="s">
+      <c r="F96" t="s">
+        <v>400</v>
+      </c>
+      <c r="G96" s="44">
+        <v>3000</v>
+      </c>
+      <c r="H96" s="44">
+        <v>2</v>
+      </c>
+      <c r="I96" s="44">
+        <v>95</v>
+      </c>
+      <c r="J96" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="AP96" s="6">
+      <c r="K96" s="44">
+        <v>309</v>
+      </c>
+      <c r="L96" s="44">
+        <v>27</v>
+      </c>
+      <c r="M96" s="44">
+        <v>48</v>
+      </c>
+      <c r="N96" s="44">
+        <v>29</v>
+      </c>
+      <c r="O96" s="44">
+        <v>4</v>
+      </c>
+      <c r="P96" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="44">
+        <v>0</v>
+      </c>
+      <c r="R96" s="44">
+        <v>1</v>
+      </c>
+      <c r="S96" s="44">
+        <v>15</v>
+      </c>
+      <c r="T96" s="44">
+        <v>0</v>
+      </c>
+      <c r="U96" s="44">
+        <v>46</v>
+      </c>
+      <c r="V96" s="44">
+        <v>35</v>
+      </c>
+      <c r="W96" s="44">
+        <v>46</v>
+      </c>
+      <c r="X96" s="44">
+        <v>29</v>
+      </c>
+      <c r="Y96" s="44">
+        <v>27</v>
+      </c>
+      <c r="Z96" s="44">
+        <v>29</v>
+      </c>
+      <c r="AA96" s="44">
+        <v>51</v>
+      </c>
+      <c r="AB96" s="44">
+        <v>35</v>
+      </c>
+      <c r="AC96" s="44">
         <v>44</v>
       </c>
-      <c r="AQ96" s="6">
+      <c r="AD96" s="44">
+        <v>34</v>
+      </c>
+      <c r="AE96" s="44">
+        <v>55</v>
+      </c>
+      <c r="AF96" s="44">
+        <v>20</v>
+      </c>
+      <c r="AG96" s="44">
+        <v>44</v>
+      </c>
+      <c r="AH96" s="44">
+        <v>27</v>
+      </c>
+      <c r="AI96" s="44">
+        <v>5</v>
+      </c>
+      <c r="AJ96" s="44">
+        <v>7</v>
+      </c>
+      <c r="AK96" s="44">
+        <v>12</v>
+      </c>
+      <c r="AL96" s="44">
+        <v>3</v>
+      </c>
+      <c r="AN96" s="44">
+        <v>3</v>
+      </c>
+      <c r="AO96" s="44">
+        <v>4</v>
+      </c>
+      <c r="AP96" s="44">
+        <v>43</v>
+      </c>
+      <c r="AQ96" s="44">
+        <v>37</v>
+      </c>
+      <c r="AR96" s="44">
+        <v>6</v>
+      </c>
+      <c r="AT96" s="44">
+        <v>2</v>
+      </c>
+      <c r="AU96" s="44">
+        <v>7</v>
+      </c>
+      <c r="AW96" s="44">
+        <v>21</v>
+      </c>
+      <c r="AX96" s="44">
+        <v>4</v>
+      </c>
+      <c r="AY96" s="44">
+        <v>4</v>
+      </c>
+      <c r="AZ96" s="44">
+        <v>4</v>
+      </c>
+      <c r="BA96" s="44">
+        <f>AY96+AZ96</f>
+        <v>8</v>
+      </c>
+      <c r="BZ96" s="44">
+        <v>53</v>
+      </c>
+      <c r="CA96" s="44">
+        <v>43</v>
+      </c>
+      <c r="CB96" s="45">
+        <v>60</v>
+      </c>
+      <c r="CC96" s="44">
         <v>33</v>
       </c>
-      <c r="AR96" s="6">
-        <v>8</v>
-      </c>
-      <c r="AY96" s="6">
-        <v>4</v>
-      </c>
-      <c r="AZ96" s="6">
+      <c r="CD96" s="44">
+        <v>40</v>
+      </c>
+      <c r="CE96" s="44">
+        <v>30</v>
+      </c>
+      <c r="CF96" s="44">
+        <v>62</v>
+      </c>
+      <c r="CG96" s="44">
+        <v>35</v>
+      </c>
+      <c r="CH96" s="44">
+        <v>44</v>
+      </c>
+      <c r="CI96" s="44">
+        <v>38</v>
+      </c>
+      <c r="CJ96" s="45">
+        <v>56</v>
+      </c>
+      <c r="CK96" s="44">
+        <v>20</v>
+      </c>
+      <c r="CL96" s="44">
+        <v>45</v>
+      </c>
+      <c r="CM96" s="44">
+        <v>32</v>
+      </c>
+      <c r="CN96" s="44">
+        <v>51</v>
+      </c>
+      <c r="CO96" s="44">
+        <v>38</v>
+      </c>
+      <c r="CP96" s="44">
+        <v>9</v>
+      </c>
+      <c r="CQ96" s="45">
+        <v>12</v>
+      </c>
+      <c r="CR96" s="44">
+        <v>2</v>
+      </c>
+      <c r="CS96" s="45">
+        <v>21</v>
+      </c>
+      <c r="CT96" s="44">
+        <v>5</v>
+      </c>
+      <c r="CU96" s="46">
+        <v>9</v>
+      </c>
+      <c r="CV96" s="44">
         <v>3</v>
       </c>
-      <c r="BA96" s="6">
-        <f>AY96+AZ96</f>
-        <v>7</v>
-      </c>
-      <c r="BW96" s="6">
-        <v>40</v>
-      </c>
-      <c r="BX96" s="6">
-        <v>46</v>
-      </c>
-      <c r="BY96" s="6">
-        <v>19</v>
-      </c>
-      <c r="CN96" s="6">
+      <c r="CW96" s="44">
+        <f>CU96+CV96</f>
+        <v>12</v>
+      </c>
+      <c r="CX96" s="44">
+        <v>55</v>
+      </c>
+      <c r="CY96" s="44">
+        <v>36</v>
+      </c>
+      <c r="CZ96" s="44">
+        <v>60</v>
+      </c>
+      <c r="DA96" s="44">
+        <v>33</v>
+      </c>
+      <c r="DB96" s="44">
+        <v>80</v>
+      </c>
+      <c r="DC96" s="44">
         <v>47</v>
       </c>
-      <c r="CO96" s="6">
-        <v>37</v>
-      </c>
-      <c r="CU96" s="14">
-        <v>11</v>
-      </c>
-      <c r="CV96" s="1">
-        <v>5</v>
-      </c>
-      <c r="CW96" s="1">
-        <f>CU96+CV96</f>
-        <v>16</v>
-      </c>
-      <c r="DE96" s="1">
-        <v>48</v>
-      </c>
-      <c r="DF96" s="39" t="s">
-        <v>397</v>
+      <c r="DD96" s="44">
+        <v>55</v>
+      </c>
+      <c r="DE96" s="44">
+        <v>50</v>
+      </c>
+      <c r="DF96" s="40" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C97" s="3">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="D97" s="12">
         <v>44743</v>
@@ -17161,111 +17374,74 @@
         <v>2022</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G97" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H97" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I97" s="6">
-        <v>95</v>
+        <v>1500</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="M97" s="6">
-        <v>52</v>
-      </c>
-      <c r="N97" s="6">
-        <v>24</v>
-      </c>
-      <c r="R97" s="6">
-        <v>25</v>
-      </c>
-      <c r="U97" s="1">
-        <v>43</v>
-      </c>
-      <c r="V97" s="1">
-        <v>36</v>
-      </c>
-      <c r="Z97" s="1">
-        <v>54</v>
-      </c>
-      <c r="AB97" s="1">
-        <v>34</v>
-      </c>
-      <c r="AC97" s="1">
-        <v>47</v>
-      </c>
-      <c r="AG97" s="1">
-        <v>25</v>
-      </c>
-      <c r="AI97" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ97" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN97" s="6">
-        <v>9</v>
-      </c>
       <c r="AP97" s="6">
         <v>44</v>
       </c>
       <c r="AQ97" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AR97" s="6">
-        <v>9</v>
-      </c>
-      <c r="AT97" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY97" s="6">
+        <v>4</v>
+      </c>
+      <c r="AZ97" s="6">
         <v>3</v>
       </c>
-      <c r="AU97" s="6">
-        <v>3</v>
-      </c>
-      <c r="AW97" s="6">
-        <v>3</v>
-      </c>
       <c r="BA97" s="6">
+        <f>AY97+AZ97</f>
+        <v>7</v>
+      </c>
+      <c r="BW97" s="6">
+        <v>40</v>
+      </c>
+      <c r="BX97" s="6">
+        <v>46</v>
+      </c>
+      <c r="BY97" s="6">
+        <v>19</v>
+      </c>
+      <c r="CN97" s="6">
+        <v>47</v>
+      </c>
+      <c r="CO97" s="6">
+        <v>37</v>
+      </c>
+      <c r="CU97" s="14">
         <v>11</v>
       </c>
-      <c r="BW97" s="6">
-        <v>43</v>
-      </c>
-      <c r="BX97" s="6">
-        <v>58</v>
-      </c>
-      <c r="BY97" s="6">
-        <v>40</v>
-      </c>
-      <c r="CN97" s="6">
-        <v>53</v>
-      </c>
-      <c r="CO97" s="6">
-        <v>36</v>
+      <c r="CV97" s="1">
+        <v>5</v>
       </c>
       <c r="CW97" s="1">
-        <v>11</v>
+        <f>CU97+CV97</f>
+        <v>16</v>
       </c>
       <c r="DE97" s="1">
-        <v>49</v>
-      </c>
-      <c r="DF97" s="6" t="s">
-        <v>374</v>
+        <v>48</v>
+      </c>
+      <c r="DF97" s="39" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C98" s="3">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="D98" s="12">
         <v>44743</v>
@@ -17274,13 +17450,13 @@
         <v>2022</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G98" s="1">
         <v>2000</v>
       </c>
       <c r="H98" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I98" s="6">
         <v>95</v>
@@ -17289,135 +17465,96 @@
         <v>264</v>
       </c>
       <c r="M98" s="6">
+        <v>52</v>
+      </c>
+      <c r="N98" s="6">
+        <v>24</v>
+      </c>
+      <c r="R98" s="6">
+        <v>25</v>
+      </c>
+      <c r="U98" s="1">
+        <v>43</v>
+      </c>
+      <c r="V98" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z98" s="1">
         <v>54</v>
       </c>
-      <c r="N98" s="6">
-        <v>27</v>
-      </c>
-      <c r="R98" s="6">
-        <v>8</v>
-      </c>
-      <c r="S98" s="6">
+      <c r="AB98" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI98" s="1">
         <v>10</v>
       </c>
-      <c r="U98" s="1">
-        <v>52</v>
-      </c>
-      <c r="V98" s="1">
-        <v>33</v>
-      </c>
-      <c r="Z98" s="1">
-        <v>32</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>46</v>
-      </c>
-      <c r="AB98" s="1">
-        <v>25</v>
-      </c>
-      <c r="AC98" s="1">
-        <v>46</v>
-      </c>
-      <c r="AG98" s="1">
-        <v>41</v>
-      </c>
-      <c r="AH98" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI98" s="1">
+      <c r="AJ98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN98" s="6">
         <v>9</v>
-      </c>
-      <c r="AJ98" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN98" s="6">
-        <v>8</v>
-      </c>
-      <c r="AO98" s="6">
-        <v>13</v>
       </c>
       <c r="AP98" s="6">
         <v>44</v>
       </c>
       <c r="AQ98" s="6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AR98" s="6">
         <v>9</v>
       </c>
       <c r="AT98" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU98" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW98" s="6">
         <v>3</v>
       </c>
-      <c r="AX98" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY98" s="6">
-        <v>7</v>
-      </c>
-      <c r="AZ98" s="6">
-        <v>3</v>
-      </c>
       <c r="BA98" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW98" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BX98" s="6">
         <v>58</v>
       </c>
       <c r="BY98" s="6">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="CN98" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CO98" s="6">
         <v>36</v>
       </c>
-      <c r="CU98" s="14">
-        <v>7</v>
-      </c>
-      <c r="CV98" s="1">
-        <v>2</v>
-      </c>
       <c r="CW98" s="1">
-        <v>9</v>
-      </c>
-      <c r="CX98" s="1">
-        <v>52</v>
-      </c>
-      <c r="CY98" s="1">
-        <v>33</v>
-      </c>
-      <c r="DC98" s="1">
-        <v>43</v>
-      </c>
-      <c r="DD98" s="1">
-        <v>65</v>
-      </c>
-      <c r="DE98" s="6">
-        <v>47</v>
-      </c>
-      <c r="DF98" s="38" t="s">
-        <v>395</v>
+        <v>11</v>
+      </c>
+      <c r="DE98" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF98" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>195</v>
+      <c r="A99" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C99" s="3">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="D99" s="12">
         <v>44743</v>
@@ -17426,13 +17563,13 @@
         <v>2022</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G99" s="1">
         <v>2000</v>
       </c>
       <c r="H99" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I99" s="6">
         <v>95</v>
@@ -17441,83 +17578,135 @@
         <v>264</v>
       </c>
       <c r="M99" s="6">
-        <v>54.5</v>
+        <v>54</v>
       </c>
       <c r="N99" s="6">
-        <v>27.3</v>
-      </c>
-      <c r="O99" s="6">
-        <v>2.8</v>
+        <v>27</v>
       </c>
       <c r="R99" s="6">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="S99" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="T99" s="6">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="U99" s="1">
+        <v>52</v>
+      </c>
+      <c r="V99" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>46</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI99" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN99" s="6">
+        <v>8</v>
+      </c>
+      <c r="AO99" s="6">
+        <v>13</v>
       </c>
       <c r="AP99" s="6">
-        <v>39.6</v>
+        <v>44</v>
       </c>
       <c r="AQ99" s="6">
-        <v>37.5</v>
+        <v>31</v>
       </c>
       <c r="AR99" s="6">
-        <v>7.4</v>
+        <v>9</v>
+      </c>
+      <c r="AT99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW99" s="6">
+        <v>3</v>
+      </c>
+      <c r="AX99" s="6">
+        <v>4</v>
       </c>
       <c r="AY99" s="6">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AZ99" s="6">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" ref="BA99:BA100" si="7">AZ99+AY99</f>
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="BW99" s="6">
-        <v>40.4</v>
+        <v>42</v>
       </c>
       <c r="BX99" s="6">
-        <v>44.4</v>
+        <v>58</v>
       </c>
       <c r="BY99" s="6">
-        <v>15</v>
-      </c>
-      <c r="CN99" s="1">
-        <v>46.2</v>
-      </c>
-      <c r="CO99" s="1">
-        <v>41.6</v>
+        <v>47</v>
+      </c>
+      <c r="CN99" s="6">
+        <v>54</v>
+      </c>
+      <c r="CO99" s="6">
+        <v>36</v>
       </c>
       <c r="CU99" s="14">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="CV99" s="1">
-        <v>20.6</v>
+        <v>2</v>
       </c>
       <c r="CW99" s="1">
-        <f>CV99+CU99</f>
-        <v>30.200000000000003</v>
-      </c>
-      <c r="DE99" s="1">
-        <v>38.5</v>
-      </c>
-      <c r="DF99" s="8" t="s">
-        <v>375</v>
+        <v>9</v>
+      </c>
+      <c r="CX99" s="1">
+        <v>52</v>
+      </c>
+      <c r="CY99" s="1">
+        <v>33</v>
+      </c>
+      <c r="DC99" s="1">
+        <v>43</v>
+      </c>
+      <c r="DD99" s="1">
+        <v>65</v>
+      </c>
+      <c r="DE99" s="6">
+        <v>47</v>
+      </c>
+      <c r="DF99" s="38" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C100" s="3">
-        <v>44770</v>
+        <v>44767</v>
       </c>
       <c r="D100" s="12">
         <v>44743</v>
@@ -17526,188 +17715,98 @@
         <v>2022</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="G100" s="6">
-        <v>2556</v>
-      </c>
-      <c r="H100" s="6">
-        <v>2</v>
+        <v>377</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I100" s="6">
         <v>95</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K100" s="6">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="M100" s="6">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="N100" s="6">
-        <v>25</v>
+        <v>27.3</v>
       </c>
       <c r="O100" s="6">
-        <v>3</v>
-      </c>
-      <c r="P100" s="6">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R100" s="6">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="S100" s="6">
-        <v>11</v>
-      </c>
-      <c r="U100" s="1">
-        <v>52</v>
-      </c>
-      <c r="V100" s="1">
-        <v>33</v>
-      </c>
-      <c r="W100" s="1">
-        <v>51</v>
-      </c>
-      <c r="AB100" s="1">
-        <v>25</v>
-      </c>
-      <c r="AC100" s="1">
-        <v>43</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>26</v>
-      </c>
-      <c r="AI100" s="1">
-        <v>9</v>
-      </c>
-      <c r="AJ100" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK100" s="1">
-        <v>9</v>
-      </c>
-      <c r="AP100" s="1">
-        <v>47</v>
-      </c>
-      <c r="AQ100" s="1">
-        <v>29</v>
+        <v>12.4</v>
+      </c>
+      <c r="T100" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AP100" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="AQ100" s="6">
+        <v>37.5</v>
       </c>
       <c r="AR100" s="6">
-        <v>8</v>
-      </c>
-      <c r="AT100" s="6">
-        <v>5</v>
-      </c>
-      <c r="AU100" s="6">
-        <v>7</v>
-      </c>
-      <c r="AV100" s="6">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AY100" s="6">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AZ100" s="6">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="BA100" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BB100" s="6">
-        <v>30</v>
-      </c>
-      <c r="BC100" s="6">
-        <v>49</v>
-      </c>
-      <c r="BD100" s="6">
-        <v>39</v>
-      </c>
-      <c r="BI100" s="6">
-        <v>58</v>
-      </c>
-      <c r="BJ100" s="6">
-        <v>37</v>
-      </c>
-      <c r="BK100" s="6">
-        <v>62</v>
-      </c>
-      <c r="BP100" s="6">
-        <v>26</v>
-      </c>
-      <c r="BQ100" s="6">
-        <v>26</v>
-      </c>
-      <c r="BR100" s="6">
-        <v>30</v>
+        <f t="shared" ref="BA100:BA101" si="7">AZ100+AY100</f>
+        <v>10.8</v>
       </c>
       <c r="BW100" s="6">
-        <v>36</v>
+        <v>40.4</v>
       </c>
       <c r="BX100" s="6">
-        <v>53</v>
+        <v>44.4</v>
       </c>
       <c r="BY100" s="6">
-        <v>25</v>
-      </c>
-      <c r="BZ100" s="1">
-        <v>61</v>
-      </c>
-      <c r="CA100" s="1">
-        <v>40</v>
-      </c>
-      <c r="CB100" s="1">
-        <v>59</v>
-      </c>
-      <c r="CG100" s="1">
-        <v>30</v>
-      </c>
-      <c r="CH100" s="1">
-        <v>52</v>
-      </c>
-      <c r="CI100" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="CN100" s="1">
-        <v>55</v>
+        <v>46.2</v>
       </c>
       <c r="CO100" s="1">
-        <v>35</v>
-      </c>
-      <c r="CP100" s="13">
-        <v>12</v>
-      </c>
-      <c r="CQ100" s="1">
-        <v>18</v>
-      </c>
-      <c r="CR100" s="1">
-        <v>22</v>
+        <v>41.6</v>
       </c>
       <c r="CU100" s="14">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="CV100" s="1">
-        <v>2</v>
+        <v>20.6</v>
       </c>
       <c r="CW100" s="1">
         <f>CV100+CU100</f>
-        <v>16</v>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="DE100" s="1">
+        <v>38.5</v>
       </c>
       <c r="DF100" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C101" s="3">
-        <v>44773</v>
+        <v>44770</v>
       </c>
       <c r="D101" s="12">
         <v>44743</v>
@@ -17715,11 +17814,11 @@
       <c r="E101" s="6">
         <v>2022</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>391</v>
+      <c r="F101" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="G101" s="6">
-        <v>2000</v>
+        <v>2556</v>
       </c>
       <c r="H101" s="6">
         <v>2</v>
@@ -17731,122 +17830,188 @@
         <v>280</v>
       </c>
       <c r="K101" s="6">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="M101" s="6">
+        <v>54</v>
+      </c>
+      <c r="N101" s="6">
+        <v>25</v>
+      </c>
+      <c r="O101" s="6">
+        <v>3</v>
+      </c>
+      <c r="P101" s="6">
+        <v>2</v>
+      </c>
+      <c r="R101" s="6">
+        <v>5</v>
+      </c>
+      <c r="S101" s="6">
+        <v>11</v>
+      </c>
+      <c r="U101" s="1">
+        <v>52</v>
+      </c>
+      <c r="V101" s="1">
+        <v>33</v>
+      </c>
+      <c r="W101" s="1">
         <v>51</v>
       </c>
-      <c r="N101" s="6">
-        <v>28</v>
-      </c>
-      <c r="R101" s="6">
-        <v>4</v>
-      </c>
-      <c r="S101" s="6">
-        <v>15</v>
-      </c>
-      <c r="T101" s="6">
-        <v>2</v>
-      </c>
-      <c r="U101" s="1">
-        <v>51</v>
-      </c>
-      <c r="V101" s="1">
+      <c r="AB101" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP101" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ101" s="1">
         <v>29</v>
       </c>
-      <c r="AB101" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC101" s="1">
-        <v>48</v>
-      </c>
-      <c r="AP101" s="6">
-        <v>44</v>
-      </c>
-      <c r="AQ101" s="6">
-        <v>32</v>
-      </c>
       <c r="AR101" s="6">
+        <v>8</v>
+      </c>
+      <c r="AT101" s="6">
         <v>5</v>
       </c>
-      <c r="AT101" s="6">
+      <c r="AU101" s="6">
+        <v>7</v>
+      </c>
+      <c r="AV101" s="6">
         <v>13</v>
-      </c>
-      <c r="AU101" s="6">
-        <v>11</v>
       </c>
       <c r="AY101" s="6">
         <v>6</v>
       </c>
       <c r="AZ101" s="6">
-        <v>6</v>
-      </c>
-      <c r="BA101" s="14">
-        <f>AZ101+AY101</f>
+        <v>3</v>
+      </c>
+      <c r="BA101" s="6">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BB101" s="6">
+        <v>30</v>
+      </c>
+      <c r="BC101" s="6">
+        <v>49</v>
+      </c>
+      <c r="BD101" s="6">
+        <v>39</v>
+      </c>
+      <c r="BI101" s="6">
+        <v>58</v>
+      </c>
+      <c r="BJ101" s="6">
+        <v>37</v>
+      </c>
+      <c r="BK101" s="6">
+        <v>62</v>
+      </c>
+      <c r="BP101" s="6">
+        <v>26</v>
+      </c>
+      <c r="BQ101" s="6">
+        <v>26</v>
+      </c>
+      <c r="BR101" s="6">
+        <v>30</v>
+      </c>
+      <c r="BW101" s="6">
+        <v>36</v>
+      </c>
+      <c r="BX101" s="6">
+        <v>53</v>
+      </c>
+      <c r="BY101" s="6">
+        <v>25</v>
+      </c>
+      <c r="BZ101" s="1">
+        <v>61</v>
+      </c>
+      <c r="CA101" s="1">
+        <v>40</v>
+      </c>
+      <c r="CB101" s="1">
+        <v>59</v>
+      </c>
+      <c r="CG101" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH101" s="1">
+        <v>52</v>
+      </c>
+      <c r="CI101" s="1">
+        <v>32</v>
+      </c>
+      <c r="CN101" s="1">
+        <v>55</v>
+      </c>
+      <c r="CO101" s="1">
+        <v>35</v>
+      </c>
+      <c r="CP101" s="13">
         <v>12</v>
       </c>
-      <c r="BW101" s="6">
-        <v>44</v>
-      </c>
-      <c r="BX101" s="6">
-        <v>55</v>
-      </c>
-      <c r="BY101" s="6">
-        <v>53</v>
-      </c>
-      <c r="CN101" s="6">
-        <v>51</v>
-      </c>
-      <c r="CO101" s="6">
-        <v>37</v>
+      <c r="CQ101" s="1">
+        <v>18</v>
+      </c>
+      <c r="CR101" s="1">
+        <v>22</v>
       </c>
       <c r="CU101" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CV101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW101" s="1">
         <f>CV101+CU101</f>
-        <v>12</v>
-      </c>
-      <c r="CX101" s="1">
-        <v>45</v>
-      </c>
-      <c r="CY101" s="1">
-        <v>31</v>
-      </c>
-      <c r="DE101" s="1">
-        <v>43</v>
-      </c>
-      <c r="DF101" s="6" t="s">
-        <v>392</v>
+        <v>16</v>
+      </c>
+      <c r="DF101" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C102" s="3">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="D102" s="12">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="E102" s="6">
         <v>2022</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="G102" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H102" s="1">
-        <v>2.2000000000000002</v>
+      <c r="F102" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G102" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H102" s="6">
+        <v>2</v>
       </c>
       <c r="I102" s="6">
         <v>95</v>
@@ -17855,117 +18020,236 @@
         <v>280</v>
       </c>
       <c r="K102" s="6">
-        <v>161</v>
-      </c>
-      <c r="L102" s="6">
+        <v>120</v>
+      </c>
+      <c r="M102" s="6">
+        <v>51</v>
+      </c>
+      <c r="N102" s="6">
+        <v>28</v>
+      </c>
+      <c r="R102" s="6">
+        <v>4</v>
+      </c>
+      <c r="S102" s="6">
+        <v>15</v>
+      </c>
+      <c r="T102" s="6">
+        <v>2</v>
+      </c>
+      <c r="U102" s="1">
+        <v>51</v>
+      </c>
+      <c r="V102" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB102" s="1">
         <v>27</v>
       </c>
-      <c r="U102" s="1">
-        <v>46.2</v>
-      </c>
-      <c r="V102" s="1">
-        <v>29.1</v>
-      </c>
-      <c r="Z102" s="1">
-        <v>46</v>
-      </c>
-      <c r="AB102" s="1">
-        <v>31.2</v>
-      </c>
       <c r="AC102" s="1">
-        <v>48.8</v>
-      </c>
-      <c r="AG102" s="1">
-        <v>26</v>
-      </c>
-      <c r="AI102" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="AJ102" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="AN102" s="6">
-        <v>10.8</v>
+        <v>48</v>
       </c>
       <c r="AP102" s="6">
-        <v>41.1</v>
+        <v>44</v>
       </c>
       <c r="AQ102" s="6">
-        <v>35.6</v>
+        <v>32</v>
       </c>
       <c r="AR102" s="6">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="AT102" s="6">
-        <v>5.3</v>
+        <v>13</v>
       </c>
       <c r="AU102" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="AW102" s="6">
-        <v>8.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="AY102" s="6">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AZ102" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BA102" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA102" s="14">
         <f>AZ102+AY102</f>
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="BW102" s="6">
-        <v>42.8</v>
+        <v>44</v>
       </c>
       <c r="BX102" s="6">
-        <v>50.1</v>
+        <v>55</v>
       </c>
       <c r="BY102" s="6">
-        <v>43</v>
-      </c>
-      <c r="CN102" s="1">
-        <v>48.6</v>
-      </c>
-      <c r="CO102" s="1">
-        <v>38.9</v>
+        <v>53</v>
+      </c>
+      <c r="CN102" s="6">
+        <v>51</v>
+      </c>
+      <c r="CO102" s="6">
+        <v>37</v>
       </c>
       <c r="CU102" s="14">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="CV102" s="1">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="CW102" s="1">
         <f>CV102+CU102</f>
-        <v>12.5</v>
+        <v>12</v>
+      </c>
+      <c r="CX102" s="1">
+        <v>45</v>
+      </c>
+      <c r="CY102" s="1">
+        <v>31</v>
       </c>
       <c r="DE102" s="1">
-        <v>44.3</v>
+        <v>43</v>
       </c>
       <c r="DF102" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AV103" s="4"/>
-      <c r="AY103" s="13"/>
-      <c r="AZ103" s="13"/>
-      <c r="BA103" s="13"/>
+      <c r="A103" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44774</v>
+      </c>
+      <c r="D103" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E103" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I103" s="6">
+        <v>95</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K103" s="6">
+        <v>161</v>
+      </c>
+      <c r="L103" s="6">
+        <v>27</v>
+      </c>
+      <c r="U103" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="V103" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI103" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AN103" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="AP103" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="AQ103" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="AR103" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="AT103" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="AU103" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AW103" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AY103" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="AZ103" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA103" s="6">
+        <f>AZ103+AY103</f>
+        <v>10.3</v>
+      </c>
+      <c r="BW103" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="BX103" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="BY103" s="6">
+        <v>43</v>
+      </c>
+      <c r="CN103" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="CO103" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="CU103" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="CV103" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="CW103" s="1">
+        <f>CV103+CU103</f>
+        <v>12.5</v>
+      </c>
+      <c r="DE103" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="DF103" s="6" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="104" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="C104" s="4"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="AS104" s="4"/>
+      <c r="AV104" s="4"/>
       <c r="AY104" s="13"/>
       <c r="AZ104" s="13"/>
       <c r="BA104" s="13"/>
     </row>
     <row r="105" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="C105" s="4"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="AS105" s="4"/>
       <c r="AY105" s="13"/>
       <c r="AZ105" s="13"/>
       <c r="BA105" s="13"/>
@@ -18120,8 +18404,13 @@
       <c r="AZ135" s="13"/>
       <c r="BA135" s="13"/>
     </row>
+    <row r="136" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY136" s="13"/>
+      <c r="AZ136" s="13"/>
+      <c r="BA136" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:DH102" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
+  <autoFilter ref="A1:DH103" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
@@ -18199,8 +18488,8 @@
     <hyperlink ref="DF39" r:id="rId73" location="170" xr:uid="{93D10CA8-444B-4D05-810D-D32E8655D0F9}"/>
     <hyperlink ref="DF34" r:id="rId74" location="168" xr:uid="{6FC99B99-846D-4A68-9976-E38295558D19}"/>
     <hyperlink ref="DF29" r:id="rId75" location="166" xr:uid="{9EDD7EC6-6EE5-49CA-96B3-07318D59A4BD}"/>
-    <hyperlink ref="DF98" r:id="rId76" xr:uid="{D89AFB2B-0FE3-4F3C-9A34-3E8C44038C37}"/>
-    <hyperlink ref="DF96" r:id="rId77" xr:uid="{86D5AE89-6708-4AB8-A4B4-979B1BCB0C8C}"/>
+    <hyperlink ref="DF99" r:id="rId76" xr:uid="{D89AFB2B-0FE3-4F3C-9A34-3E8C44038C37}"/>
+    <hyperlink ref="DF97" r:id="rId77" xr:uid="{86D5AE89-6708-4AB8-A4B4-979B1BCB0C8C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8843B4-4E43-437B-B98A-BFE23C6F0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB45B05-8E1C-44CF-847E-3620E94C6385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="690" yWindow="2625" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1847,11 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <dimension ref="A1:DH136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="BU85" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB45B05-8E1C-44CF-847E-3620E94C6385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F8490-304C-42D2-9F44-6961D583B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2625" windowWidth="24030" windowHeight="10530" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="-25275" yWindow="1755" windowWidth="34320" windowHeight="11580" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="417">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1242,6 +1242,51 @@
   </si>
   <si>
     <t>https://static.poder360.com.br/2022/07/PoderData-relatorio-Brasil-19jul22-1-1.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/08/16180248/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-agosto_20220817.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-61-2ago22.pdf</t>
+  </si>
+  <si>
+    <t>https://static.btgpactual.com/media/pesquisa-btg-fsb-rodada-09-15ago2022.pdf?utm_source=pesquisa_14_08_desk</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/1070/Job_22_1426-1_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>BR-01167/2022</t>
+  </si>
+  <si>
+    <t>BR-08398/2022</t>
+  </si>
+  <si>
+    <t>BR-00603/2022</t>
+  </si>
+  <si>
+    <t>BR‐03980/2022</t>
+  </si>
+  <si>
+    <t>BR-08028/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/08/pesquisabtg-8ago-2022.pdf</t>
+  </si>
+  <si>
+    <t>ago/22_poderdata</t>
+  </si>
+  <si>
+    <t>ago/22_fsb</t>
+  </si>
+  <si>
+    <t>ago/22_quaest</t>
+  </si>
+  <si>
+    <t>ago/22_fsb_2</t>
+  </si>
+  <si>
+    <t>ago/22_ipec</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,9 +1545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,6 +1571,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1845,9 +1896,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DH136"/>
+  <dimension ref="A1:DH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -1896,8 +1947,11 @@
     <col min="91" max="91" width="11.28515625" style="6" customWidth="1"/>
     <col min="92" max="92" width="11.85546875" style="1" customWidth="1"/>
     <col min="93" max="93" width="12.28515625" style="1" customWidth="1"/>
-    <col min="94" max="97" width="12.28515625" style="13" customWidth="1"/>
-    <col min="98" max="98" width="12.28515625" style="6" customWidth="1"/>
+    <col min="94" max="94" width="12.28515625" style="13" customWidth="1"/>
+    <col min="95" max="95" width="12.5703125" style="13" customWidth="1"/>
+    <col min="96" max="96" width="13.42578125" style="13" customWidth="1"/>
+    <col min="97" max="97" width="13.5703125" style="13" customWidth="1"/>
+    <col min="98" max="98" width="13.42578125" style="6" customWidth="1"/>
     <col min="99" max="99" width="12.28515625" style="14" customWidth="1"/>
     <col min="100" max="109" width="12.28515625" style="1" customWidth="1"/>
     <col min="110" max="110" width="14.5703125" style="6" customWidth="1"/>
@@ -7612,7 +7666,7 @@
       <c r="E40" s="6">
         <v>2022</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>322</v>
       </c>
       <c r="G40" s="6">
@@ -8249,7 +8303,7 @@
       <c r="E44" s="6">
         <v>2022</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="14" t="s">
         <v>321</v>
       </c>
       <c r="G44" s="6">
@@ -9075,7 +9129,7 @@
       <c r="E49" s="6">
         <v>2022</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="14" t="s">
         <v>320</v>
       </c>
       <c r="G49" s="6">
@@ -9615,7 +9669,7 @@
       <c r="E52" s="6">
         <v>2022</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="14" t="s">
         <v>318</v>
       </c>
       <c r="G52" s="6">
@@ -10648,7 +10702,7 @@
       <c r="E58" s="6">
         <v>2022</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="14" t="s">
         <v>317</v>
       </c>
       <c r="G58" s="6">
@@ -11384,7 +11438,7 @@
       <c r="E62" s="6">
         <v>2022</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="14" t="s">
         <v>315</v>
       </c>
       <c r="G62" s="6">
@@ -12868,7 +12922,7 @@
       <c r="E71" s="6">
         <v>2022</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="14" t="s">
         <v>325</v>
       </c>
       <c r="G71" s="1">
@@ -15824,7 +15878,7 @@
       <c r="E88" s="14">
         <v>2022</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="14" t="s">
         <v>353</v>
       </c>
       <c r="G88" s="1">
@@ -16664,7 +16718,7 @@
       <c r="E94" s="6">
         <v>2022</v>
       </c>
-      <c r="F94" s="37" t="s">
+      <c r="F94" s="36" t="s">
         <v>370</v>
       </c>
       <c r="G94" s="1">
@@ -16959,7 +17013,7 @@
       <c r="E95" s="6">
         <v>2022</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="14" t="s">
         <v>385</v>
       </c>
       <c r="G95" s="1">
@@ -17101,256 +17155,256 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:111" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+    <row r="96" spans="1:111" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="C96" s="42">
+      <c r="C96" s="41">
         <v>44761</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="42">
         <v>44743</v>
       </c>
-      <c r="E96" s="44">
+      <c r="E96" s="43">
         <v>2022</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="G96" s="44">
+      <c r="G96" s="43">
         <v>3000</v>
       </c>
-      <c r="H96" s="44">
+      <c r="H96" s="43">
         <v>2</v>
       </c>
-      <c r="I96" s="44">
+      <c r="I96" s="43">
         <v>95</v>
       </c>
-      <c r="J96" s="44" t="s">
+      <c r="J96" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="K96" s="44">
+      <c r="K96" s="43">
         <v>309</v>
       </c>
-      <c r="L96" s="44">
+      <c r="L96" s="43">
         <v>27</v>
       </c>
-      <c r="M96" s="44">
+      <c r="M96" s="43">
         <v>48</v>
       </c>
-      <c r="N96" s="44">
+      <c r="N96" s="43">
         <v>29</v>
       </c>
-      <c r="O96" s="44">
+      <c r="O96" s="43">
         <v>4</v>
       </c>
-      <c r="P96" s="44">
+      <c r="P96" s="43">
         <v>2</v>
       </c>
-      <c r="Q96" s="44">
+      <c r="Q96" s="43">
         <v>0</v>
       </c>
-      <c r="R96" s="44">
+      <c r="R96" s="43">
         <v>1</v>
       </c>
-      <c r="S96" s="44">
+      <c r="S96" s="43">
         <v>15</v>
       </c>
-      <c r="T96" s="44">
+      <c r="T96" s="43">
         <v>0</v>
       </c>
-      <c r="U96" s="44">
+      <c r="U96" s="43">
         <v>46</v>
       </c>
-      <c r="V96" s="44">
+      <c r="V96" s="43">
         <v>35</v>
       </c>
-      <c r="W96" s="44">
+      <c r="W96" s="43">
         <v>46</v>
       </c>
-      <c r="X96" s="44">
+      <c r="X96" s="43">
         <v>29</v>
       </c>
-      <c r="Y96" s="44">
+      <c r="Y96" s="43">
         <v>27</v>
       </c>
-      <c r="Z96" s="44">
+      <c r="Z96" s="43">
         <v>29</v>
       </c>
-      <c r="AA96" s="44">
+      <c r="AA96" s="43">
         <v>51</v>
       </c>
-      <c r="AB96" s="44">
+      <c r="AB96" s="43">
         <v>35</v>
       </c>
-      <c r="AC96" s="44">
+      <c r="AC96" s="43">
         <v>44</v>
       </c>
-      <c r="AD96" s="44">
+      <c r="AD96" s="43">
         <v>34</v>
       </c>
-      <c r="AE96" s="44">
+      <c r="AE96" s="43">
         <v>55</v>
       </c>
-      <c r="AF96" s="44">
+      <c r="AF96" s="43">
         <v>20</v>
       </c>
-      <c r="AG96" s="44">
+      <c r="AG96" s="43">
         <v>44</v>
       </c>
-      <c r="AH96" s="44">
+      <c r="AH96" s="43">
         <v>27</v>
       </c>
-      <c r="AI96" s="44">
+      <c r="AI96" s="43">
         <v>5</v>
       </c>
-      <c r="AJ96" s="44">
+      <c r="AJ96" s="43">
         <v>7</v>
       </c>
-      <c r="AK96" s="44">
+      <c r="AK96" s="43">
         <v>12</v>
       </c>
-      <c r="AL96" s="44">
+      <c r="AL96" s="43">
         <v>3</v>
       </c>
-      <c r="AN96" s="44">
+      <c r="AN96" s="43">
         <v>3</v>
       </c>
-      <c r="AO96" s="44">
+      <c r="AO96" s="43">
         <v>4</v>
       </c>
-      <c r="AP96" s="44">
+      <c r="AP96" s="43">
         <v>43</v>
       </c>
-      <c r="AQ96" s="44">
+      <c r="AQ96" s="43">
         <v>37</v>
       </c>
-      <c r="AR96" s="44">
+      <c r="AR96" s="43">
         <v>6</v>
       </c>
-      <c r="AT96" s="44">
+      <c r="AT96" s="43">
         <v>2</v>
       </c>
-      <c r="AU96" s="44">
+      <c r="AU96" s="43">
         <v>7</v>
       </c>
-      <c r="AW96" s="44">
+      <c r="AW96" s="43">
         <v>21</v>
       </c>
-      <c r="AX96" s="44">
+      <c r="AX96" s="43">
         <v>4</v>
       </c>
-      <c r="AY96" s="44">
+      <c r="AY96" s="43">
         <v>4</v>
       </c>
-      <c r="AZ96" s="44">
+      <c r="AZ96" s="43">
         <v>4</v>
       </c>
-      <c r="BA96" s="44">
+      <c r="BA96" s="43">
         <f>AY96+AZ96</f>
         <v>8</v>
       </c>
-      <c r="BZ96" s="44">
+      <c r="BZ96" s="43">
         <v>53</v>
       </c>
-      <c r="CA96" s="44">
+      <c r="CA96" s="43">
         <v>43</v>
       </c>
-      <c r="CB96" s="45">
+      <c r="CB96" s="44">
         <v>60</v>
       </c>
-      <c r="CC96" s="44">
+      <c r="CC96" s="43">
         <v>33</v>
       </c>
-      <c r="CD96" s="44">
+      <c r="CD96" s="43">
         <v>40</v>
       </c>
-      <c r="CE96" s="44">
+      <c r="CE96" s="43">
         <v>30</v>
       </c>
-      <c r="CF96" s="44">
+      <c r="CF96" s="43">
         <v>62</v>
       </c>
-      <c r="CG96" s="44">
+      <c r="CG96" s="43">
         <v>35</v>
       </c>
-      <c r="CH96" s="44">
+      <c r="CH96" s="43">
         <v>44</v>
       </c>
-      <c r="CI96" s="44">
+      <c r="CI96" s="43">
         <v>38</v>
       </c>
-      <c r="CJ96" s="45">
+      <c r="CJ96" s="44">
         <v>56</v>
       </c>
-      <c r="CK96" s="44">
+      <c r="CK96" s="43">
         <v>20</v>
       </c>
-      <c r="CL96" s="44">
+      <c r="CL96" s="43">
         <v>45</v>
       </c>
-      <c r="CM96" s="44">
+      <c r="CM96" s="43">
         <v>32</v>
       </c>
-      <c r="CN96" s="44">
+      <c r="CN96" s="43">
         <v>51</v>
       </c>
-      <c r="CO96" s="44">
+      <c r="CO96" s="43">
         <v>38</v>
       </c>
-      <c r="CP96" s="44">
+      <c r="CP96" s="43">
         <v>9</v>
       </c>
-      <c r="CQ96" s="45">
+      <c r="CQ96" s="44">
         <v>12</v>
       </c>
-      <c r="CR96" s="44">
+      <c r="CR96" s="43">
         <v>2</v>
       </c>
-      <c r="CS96" s="45">
+      <c r="CS96" s="44">
         <v>21</v>
       </c>
-      <c r="CT96" s="44">
+      <c r="CT96" s="43">
         <v>5</v>
       </c>
-      <c r="CU96" s="46">
+      <c r="CU96" s="45">
         <v>9</v>
       </c>
-      <c r="CV96" s="44">
+      <c r="CV96" s="43">
         <v>3</v>
       </c>
-      <c r="CW96" s="44">
+      <c r="CW96" s="43">
         <f>CU96+CV96</f>
         <v>12</v>
       </c>
-      <c r="CX96" s="44">
+      <c r="CX96" s="43">
         <v>55</v>
       </c>
-      <c r="CY96" s="44">
+      <c r="CY96" s="43">
         <v>36</v>
       </c>
-      <c r="CZ96" s="44">
+      <c r="CZ96" s="43">
         <v>60</v>
       </c>
-      <c r="DA96" s="44">
+      <c r="DA96" s="43">
         <v>33</v>
       </c>
-      <c r="DB96" s="44">
+      <c r="DB96" s="43">
         <v>80</v>
       </c>
-      <c r="DC96" s="44">
+      <c r="DC96" s="43">
         <v>47</v>
       </c>
-      <c r="DD96" s="44">
+      <c r="DD96" s="43">
         <v>55</v>
       </c>
-      <c r="DE96" s="44">
+      <c r="DE96" s="43">
         <v>50</v>
       </c>
-      <c r="DF96" s="40" t="s">
+      <c r="DF96" s="39" t="s">
         <v>401</v>
       </c>
     </row>
@@ -17370,11 +17424,14 @@
       <c r="E97" s="6">
         <v>2022</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="14" t="s">
         <v>384</v>
       </c>
       <c r="G97" s="1">
         <v>1500</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>264</v>
@@ -17426,7 +17483,7 @@
       <c r="DE97" s="1">
         <v>48</v>
       </c>
-      <c r="DF97" s="39" t="s">
+      <c r="DF97" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -17446,7 +17503,7 @@
       <c r="E98" s="6">
         <v>2022</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="14" t="s">
         <v>372</v>
       </c>
       <c r="G98" s="1">
@@ -17559,7 +17616,7 @@
       <c r="E99" s="6">
         <v>2022</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="14" t="s">
         <v>388</v>
       </c>
       <c r="G99" s="1">
@@ -17691,7 +17748,7 @@
       <c r="DE99" s="6">
         <v>47</v>
       </c>
-      <c r="DF99" s="38" t="s">
+      <c r="DF99" s="37" t="s">
         <v>395</v>
       </c>
     </row>
@@ -17711,7 +17768,7 @@
       <c r="E100" s="6">
         <v>2022</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="14" t="s">
         <v>377</v>
       </c>
       <c r="G100" s="1">
@@ -17811,7 +17868,7 @@
       <c r="E101" s="6">
         <v>2022</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="14" t="s">
         <v>382</v>
       </c>
       <c r="G101" s="6">
@@ -17962,7 +18019,7 @@
       <c r="CO101" s="1">
         <v>35</v>
       </c>
-      <c r="CP101" s="13">
+      <c r="CP101" s="14">
         <v>12</v>
       </c>
       <c r="CQ101" s="1">
@@ -18125,7 +18182,7 @@
       <c r="E103" s="6">
         <v>2022</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="14" t="s">
         <v>393</v>
       </c>
       <c r="G103" s="1">
@@ -18234,37 +18291,950 @@
       </c>
     </row>
     <row r="104" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AV104" s="4"/>
-      <c r="AY104" s="13"/>
-      <c r="AZ104" s="13"/>
-      <c r="BA104" s="13"/>
+      <c r="A104" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="C104" s="3">
+        <v>44775</v>
+      </c>
+      <c r="D104" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E104" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="G104" s="1">
+        <v>3500</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I104" s="6">
+        <v>95</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K104" s="6">
+        <v>322</v>
+      </c>
+      <c r="L104" s="6">
+        <v>27</v>
+      </c>
+      <c r="M104" s="6">
+        <v>46</v>
+      </c>
+      <c r="N104" s="6">
+        <v>29</v>
+      </c>
+      <c r="O104" s="6">
+        <v>4</v>
+      </c>
+      <c r="P104" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>1</v>
+      </c>
+      <c r="R104" s="6">
+        <v>2</v>
+      </c>
+      <c r="S104" s="6">
+        <v>13</v>
+      </c>
+      <c r="T104" s="6">
+        <v>2</v>
+      </c>
+      <c r="U104" s="1">
+        <v>50</v>
+      </c>
+      <c r="V104" s="1">
+        <v>22</v>
+      </c>
+      <c r="W104" s="1">
+        <v>52</v>
+      </c>
+      <c r="X104" s="1">
+        <v>71</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>55</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI104" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN104" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO104" s="6">
+        <v>14</v>
+      </c>
+      <c r="AP104" s="6">
+        <v>43</v>
+      </c>
+      <c r="AQ104" s="6">
+        <v>35</v>
+      </c>
+      <c r="AR104" s="6">
+        <v>7</v>
+      </c>
+      <c r="AT104" s="6">
+        <v>5</v>
+      </c>
+      <c r="AU104" s="6">
+        <v>4</v>
+      </c>
+      <c r="AV104" s="6">
+        <v>6</v>
+      </c>
+      <c r="AX104" s="6">
+        <v>3</v>
+      </c>
+      <c r="AY104" s="6">
+        <v>4</v>
+      </c>
+      <c r="AZ104" s="6">
+        <v>2</v>
+      </c>
+      <c r="BA104" s="6">
+        <f>AZ104+AY104</f>
+        <v>6</v>
+      </c>
+      <c r="BB104" s="6">
+        <v>36</v>
+      </c>
+      <c r="BC104" s="6">
+        <v>47</v>
+      </c>
+      <c r="BD104" s="6">
+        <v>25</v>
+      </c>
+      <c r="BE104" s="6">
+        <v>18</v>
+      </c>
+      <c r="BF104" s="6">
+        <v>45</v>
+      </c>
+      <c r="BG104" s="6">
+        <v>6</v>
+      </c>
+      <c r="BH104" s="6">
+        <v>35</v>
+      </c>
+      <c r="BI104" s="6">
+        <v>56</v>
+      </c>
+      <c r="BJ104" s="6">
+        <v>28</v>
+      </c>
+      <c r="BK104" s="6">
+        <v>63</v>
+      </c>
+      <c r="BL104" s="6">
+        <v>82</v>
+      </c>
+      <c r="BM104" s="6">
+        <v>74</v>
+      </c>
+      <c r="BN104" s="6">
+        <v>89</v>
+      </c>
+      <c r="BO104" s="6">
+        <v>50</v>
+      </c>
+      <c r="BP104" s="6">
+        <v>31</v>
+      </c>
+      <c r="BQ104" s="6">
+        <v>64</v>
+      </c>
+      <c r="BR104" s="6">
+        <v>64</v>
+      </c>
+      <c r="BS104" s="6">
+        <v>44</v>
+      </c>
+      <c r="BT104" s="6">
+        <v>52</v>
+      </c>
+      <c r="BU104" s="6">
+        <v>53</v>
+      </c>
+      <c r="BV104" s="6">
+        <v>31</v>
+      </c>
+      <c r="BW104" s="6">
+        <v>37</v>
+      </c>
+      <c r="BX104" s="6">
+        <v>50</v>
+      </c>
+      <c r="BY104" s="6">
+        <v>43</v>
+      </c>
+      <c r="BZ104" s="1">
+        <v>58</v>
+      </c>
+      <c r="CA104" s="1">
+        <v>28</v>
+      </c>
+      <c r="CB104" s="1">
+        <v>63</v>
+      </c>
+      <c r="CC104" s="1">
+        <v>76</v>
+      </c>
+      <c r="CD104" s="6">
+        <v>78</v>
+      </c>
+      <c r="CE104" s="48">
+        <v>87</v>
+      </c>
+      <c r="CF104" s="6">
+        <v>53</v>
+      </c>
+      <c r="CG104" s="1">
+        <v>32</v>
+      </c>
+      <c r="CH104" s="1">
+        <v>64</v>
+      </c>
+      <c r="CI104" s="1">
+        <v>29</v>
+      </c>
+      <c r="CJ104" s="1">
+        <v>15</v>
+      </c>
+      <c r="CK104" s="6">
+        <v>9</v>
+      </c>
+      <c r="CL104" s="6">
+        <v>7</v>
+      </c>
+      <c r="CM104" s="6">
+        <v>39</v>
+      </c>
+      <c r="CN104" s="1">
+        <v>50</v>
+      </c>
+      <c r="CO104" s="1">
+        <v>40</v>
+      </c>
+      <c r="CP104" s="1">
+        <v>5</v>
+      </c>
+      <c r="CQ104" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR104" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS104" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT104" s="6">
+        <v>6</v>
+      </c>
+      <c r="CU104" s="43">
+        <v>5</v>
+      </c>
+      <c r="CV104" s="43">
+        <v>4</v>
+      </c>
+      <c r="CW104" s="1">
+        <f>CV104+CU104</f>
+        <v>9</v>
+      </c>
+      <c r="CX104" s="1">
+        <v>56</v>
+      </c>
+      <c r="CY104" s="1">
+        <v>30</v>
+      </c>
+      <c r="CZ104" s="1">
+        <v>57</v>
+      </c>
+      <c r="DA104" s="1">
+        <v>65</v>
+      </c>
+      <c r="DB104" s="1">
+        <v>78</v>
+      </c>
+      <c r="DC104" s="1">
+        <v>84</v>
+      </c>
+      <c r="DD104" s="1">
+        <v>51</v>
+      </c>
+      <c r="DE104" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF104" s="38" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="105" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="C105" s="4"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="AS105" s="4"/>
-      <c r="AY105" s="13"/>
-      <c r="AZ105" s="13"/>
-      <c r="BA105" s="13"/>
+      <c r="A105" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C105" s="3">
+        <v>44780</v>
+      </c>
+      <c r="D105" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E105" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F105" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="G105" s="43">
+        <v>2000</v>
+      </c>
+      <c r="H105" s="43">
+        <v>2</v>
+      </c>
+      <c r="I105" s="43">
+        <v>95</v>
+      </c>
+      <c r="J105" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="M105" s="6">
+        <v>54</v>
+      </c>
+      <c r="N105" s="6">
+        <v>25</v>
+      </c>
+      <c r="R105" s="6">
+        <v>11</v>
+      </c>
+      <c r="S105" s="6">
+        <v>11</v>
+      </c>
+      <c r="U105" s="1">
+        <v>50</v>
+      </c>
+      <c r="V105" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>34</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG105" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>26</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN105" s="6">
+        <v>6</v>
+      </c>
+      <c r="AO105" s="6">
+        <v>14</v>
+      </c>
+      <c r="AP105" s="43">
+        <v>41</v>
+      </c>
+      <c r="AQ105" s="43">
+        <v>34</v>
+      </c>
+      <c r="AR105" s="43">
+        <v>7</v>
+      </c>
+      <c r="AT105" s="6">
+        <v>6</v>
+      </c>
+      <c r="AU105" s="6">
+        <v>5</v>
+      </c>
+      <c r="AW105" s="6">
+        <v>8</v>
+      </c>
+      <c r="AX105" s="6">
+        <v>15</v>
+      </c>
+      <c r="AY105" s="6">
+        <v>7</v>
+      </c>
+      <c r="AZ105" s="6">
+        <v>3</v>
+      </c>
+      <c r="BA105" s="6">
+        <f>AZ105+AY105</f>
+        <v>10</v>
+      </c>
+      <c r="BW105" s="6">
+        <v>45</v>
+      </c>
+      <c r="BX105" s="6">
+        <v>53</v>
+      </c>
+      <c r="BY105" s="6">
+        <v>49</v>
+      </c>
+      <c r="CN105" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO105" s="1">
+        <v>39</v>
+      </c>
+      <c r="CU105" s="14">
+        <v>8</v>
+      </c>
+      <c r="CV105" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW105" s="1">
+        <f>CV105+CU105</f>
+        <v>10</v>
+      </c>
+      <c r="CX105" s="1">
+        <v>51</v>
+      </c>
+      <c r="CY105" s="1">
+        <v>28</v>
+      </c>
+      <c r="DC105" s="1">
+        <v>41</v>
+      </c>
+      <c r="DD105" s="1">
+        <v>53</v>
+      </c>
+      <c r="DE105" s="1">
+        <v>44</v>
+      </c>
+      <c r="DF105" s="38" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="106" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY106" s="13"/>
-      <c r="AZ106" s="13"/>
-      <c r="BA106" s="13"/>
+      <c r="A106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C106" s="3">
+        <v>44787</v>
+      </c>
+      <c r="D106" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E106" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F106" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="G106" s="43">
+        <v>2000</v>
+      </c>
+      <c r="H106" s="43">
+        <v>2</v>
+      </c>
+      <c r="I106" s="43">
+        <v>95</v>
+      </c>
+      <c r="J106" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K106" s="43">
+        <v>120</v>
+      </c>
+      <c r="M106" s="6">
+        <v>52</v>
+      </c>
+      <c r="N106" s="6">
+        <v>27</v>
+      </c>
+      <c r="R106" s="6">
+        <v>4</v>
+      </c>
+      <c r="S106" s="6">
+        <v>15</v>
+      </c>
+      <c r="T106" s="6">
+        <v>2</v>
+      </c>
+      <c r="U106" s="1">
+        <v>52</v>
+      </c>
+      <c r="V106" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>53</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>52</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP106" s="1">
+        <v>45</v>
+      </c>
+      <c r="AQ106" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR106" s="6">
+        <v>6</v>
+      </c>
+      <c r="AT106" s="6">
+        <v>12</v>
+      </c>
+      <c r="AU106" s="6">
+        <v>11</v>
+      </c>
+      <c r="AV106" s="4"/>
+      <c r="AX106" s="6">
+        <v>15</v>
+      </c>
+      <c r="AY106" s="6">
+        <v>6</v>
+      </c>
+      <c r="AZ106" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA106" s="6">
+        <f>AZ106+AY106</f>
+        <v>12</v>
+      </c>
+      <c r="BW106" s="6">
+        <v>44</v>
+      </c>
+      <c r="BX106" s="6">
+        <v>55</v>
+      </c>
+      <c r="BY106" s="6">
+        <v>52</v>
+      </c>
+      <c r="CN106" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO106" s="1">
+        <v>38</v>
+      </c>
+      <c r="CQ106" s="1"/>
+      <c r="CU106" s="14">
+        <v>7</v>
+      </c>
+      <c r="CV106" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW106" s="1">
+        <f>CV106+CU106</f>
+        <v>11</v>
+      </c>
+      <c r="DF106" s="8" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="107" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY107" s="13"/>
-      <c r="AZ107" s="13"/>
-      <c r="BA107" s="13"/>
+      <c r="A107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C107" s="3">
+        <v>44787</v>
+      </c>
+      <c r="D107" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E107" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="G107" s="43">
+        <v>2000</v>
+      </c>
+      <c r="H107" s="43">
+        <v>2</v>
+      </c>
+      <c r="I107" s="43">
+        <v>95</v>
+      </c>
+      <c r="J107" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="6">
+        <v>52</v>
+      </c>
+      <c r="N107" s="6">
+        <v>23</v>
+      </c>
+      <c r="R107" s="6">
+        <v>10</v>
+      </c>
+      <c r="S107" s="6">
+        <v>15</v>
+      </c>
+      <c r="U107" s="1">
+        <v>50</v>
+      </c>
+      <c r="V107" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>56</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>49</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>18</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN107" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO107" s="6">
+        <v>9</v>
+      </c>
+      <c r="AP107" s="43">
+        <v>45</v>
+      </c>
+      <c r="AQ107" s="43">
+        <v>34</v>
+      </c>
+      <c r="AR107" s="43">
+        <v>8</v>
+      </c>
+      <c r="AS107" s="4"/>
+      <c r="AT107" s="6">
+        <v>6</v>
+      </c>
+      <c r="AU107" s="6">
+        <v>8</v>
+      </c>
+      <c r="AW107" s="6">
+        <v>6</v>
+      </c>
+      <c r="AX107" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY107" s="6">
+        <v>6</v>
+      </c>
+      <c r="AZ107" s="6">
+        <v>2</v>
+      </c>
+      <c r="BA107" s="6">
+        <f>AZ107+AY107</f>
+        <v>8</v>
+      </c>
+      <c r="BW107" s="6">
+        <v>44</v>
+      </c>
+      <c r="BX107" s="6">
+        <v>54</v>
+      </c>
+      <c r="BY107" s="6">
+        <v>48</v>
+      </c>
+      <c r="CN107" s="43">
+        <v>53</v>
+      </c>
+      <c r="CO107" s="43">
+        <v>38</v>
+      </c>
+      <c r="CU107" s="14">
+        <v>4</v>
+      </c>
+      <c r="CV107" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW107" s="1">
+        <f>CV107+CU107</f>
+        <v>10</v>
+      </c>
+      <c r="CX107" s="1">
+        <v>46</v>
+      </c>
+      <c r="CY107" s="1">
+        <v>31</v>
+      </c>
+      <c r="DC107" s="1">
+        <v>47</v>
+      </c>
+      <c r="DD107" s="1">
+        <v>55</v>
+      </c>
+      <c r="DE107" s="1">
+        <v>44</v>
+      </c>
+      <c r="DF107" s="8" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="108" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY108" s="13"/>
-      <c r="AZ108" s="13"/>
-      <c r="BA108" s="13"/>
+      <c r="A108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C108" s="3">
+        <v>44787</v>
+      </c>
+      <c r="D108" s="12">
+        <v>44774</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2</v>
+      </c>
+      <c r="I108" s="6">
+        <v>95</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K108" s="6">
+        <v>130</v>
+      </c>
+      <c r="U108" s="1">
+        <v>51</v>
+      </c>
+      <c r="V108" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>47</v>
+      </c>
+      <c r="AG108" s="1">
+        <v>46</v>
+      </c>
+      <c r="AI108" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ108" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN108" s="6">
+        <v>7</v>
+      </c>
+      <c r="AP108" s="43">
+        <v>44</v>
+      </c>
+      <c r="AQ108" s="43">
+        <v>32</v>
+      </c>
+      <c r="AR108" s="43">
+        <v>6</v>
+      </c>
+      <c r="AT108" s="6">
+        <v>7</v>
+      </c>
+      <c r="AU108" s="6">
+        <v>8</v>
+      </c>
+      <c r="AW108" s="6">
+        <v>12</v>
+      </c>
+      <c r="AY108" s="6">
+        <v>8</v>
+      </c>
+      <c r="AZ108" s="6">
+        <v>7</v>
+      </c>
+      <c r="BA108" s="6">
+        <f>AZ108+AY108</f>
+        <v>15</v>
+      </c>
+      <c r="BB108" s="6">
+        <v>27</v>
+      </c>
+      <c r="BC108" s="6">
+        <v>49</v>
+      </c>
+      <c r="BG108" s="6">
+        <v>29</v>
+      </c>
+      <c r="BI108" s="6">
+        <v>53</v>
+      </c>
+      <c r="BJ108" s="6">
+        <v>28</v>
+      </c>
+      <c r="BN108" s="6">
+        <v>54</v>
+      </c>
+      <c r="BP108" s="6">
+        <v>18</v>
+      </c>
+      <c r="BQ108" s="6">
+        <v>20</v>
+      </c>
+      <c r="BU108" s="6">
+        <v>15</v>
+      </c>
+      <c r="BW108" s="6">
+        <v>33</v>
+      </c>
+      <c r="BX108" s="6">
+        <v>46</v>
+      </c>
+      <c r="BY108" s="6">
+        <v>18</v>
+      </c>
+      <c r="BZ108" s="1">
+        <v>59</v>
+      </c>
+      <c r="CA108" s="1">
+        <v>33</v>
+      </c>
+      <c r="CE108" s="6">
+        <v>55</v>
+      </c>
+      <c r="CG108" s="1">
+        <v>28</v>
+      </c>
+      <c r="CH108" s="1">
+        <v>54</v>
+      </c>
+      <c r="CL108" s="6">
+        <v>29</v>
+      </c>
+      <c r="CN108" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO108" s="1">
+        <v>35</v>
+      </c>
+      <c r="CP108" s="1">
+        <v>9</v>
+      </c>
+      <c r="CQ108" s="1">
+        <v>8</v>
+      </c>
+      <c r="CS108" s="1">
+        <v>11</v>
+      </c>
+      <c r="CU108" s="14">
+        <v>9</v>
+      </c>
+      <c r="CV108" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW108" s="1">
+        <f>CV108+CU108</f>
+        <v>14</v>
+      </c>
+      <c r="CX108" s="1">
+        <v>47</v>
+      </c>
+      <c r="CY108" s="1">
+        <v>28</v>
+      </c>
+      <c r="DC108" s="1">
+        <v>52</v>
+      </c>
+      <c r="DE108" s="1">
+        <v>43</v>
+      </c>
+      <c r="DF108" s="38" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="109" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY109" s="13"/>
@@ -18406,8 +19376,17 @@
       <c r="AZ136" s="13"/>
       <c r="BA136" s="13"/>
     </row>
+    <row r="137" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY137" s="13"/>
+      <c r="AZ137" s="13"/>
+      <c r="BA137" s="13"/>
+    </row>
+    <row r="138" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY138" s="13"/>
+      <c r="AZ138" s="13"/>
+      <c r="BA138" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:DH103" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
@@ -18487,8 +19466,11 @@
     <hyperlink ref="DF29" r:id="rId75" location="166" xr:uid="{9EDD7EC6-6EE5-49CA-96B3-07318D59A4BD}"/>
     <hyperlink ref="DF99" r:id="rId76" xr:uid="{D89AFB2B-0FE3-4F3C-9A34-3E8C44038C37}"/>
     <hyperlink ref="DF97" r:id="rId77" xr:uid="{86D5AE89-6708-4AB8-A4B4-979B1BCB0C8C}"/>
+    <hyperlink ref="DF105" r:id="rId78" xr:uid="{47C54F22-F944-48F2-B703-78672128AF82}"/>
+    <hyperlink ref="DF108" r:id="rId79" xr:uid="{2597C279-8C7B-40F4-858A-F411B3C61C6C}"/>
+    <hyperlink ref="DF104" r:id="rId80" xr:uid="{FB415E69-E60A-4908-A5FB-121E850C26A5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D20B6-AAC5-414B-9705-C58D8695B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864130CD-2095-41E3-B588-64FAAF0DF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="13695" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="31530" yWindow="4035" windowWidth="28800" windowHeight="11385" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$131</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="487">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1428,6 +1428,75 @@
   </si>
   <si>
     <t>https://www.fsb.com.br/wp-content/uploads/2022/09/PesquisaBTG-FSB_Rodada12_05Set2022.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/14001621/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P02.pdf</t>
+  </si>
+  <si>
+    <t>set/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-03420/2022</t>
+  </si>
+  <si>
+    <t>set/22_quaest_2</t>
+  </si>
+  <si>
+    <t>BR-00807/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/06164726/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P01.pdf</t>
+  </si>
+  <si>
+    <t>BR-05388/2022</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia-BR-1.pdf</t>
+  </si>
+  <si>
+    <t>set/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>BR-09446/2022</t>
+  </si>
+  <si>
+    <t>set/22_pr_pesq_2</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/1117/Job_22_1426-4_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>set/22_ipec_2</t>
+  </si>
+  <si>
+    <t>BR‐01390/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/1107/Job_22_1426-3_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>BR-06321/2022</t>
+  </si>
+  <si>
+    <t>set/22_fsb_2</t>
+  </si>
+  <si>
+    <t>https://www.fsb.com.br/wp-content/uploads/2022/09/Pesquisa-BTG-FSB-Rodada_13.pdf</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/09/Midia_BR.pdf</t>
+  </si>
+  <si>
+    <t>BR-07422/2022</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_2</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_3</t>
+  </si>
+  <si>
+    <t>BR-04099/2022</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,6 +1740,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1986,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DH145"/>
+  <dimension ref="A1:DH149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19478,7 +19550,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>252</v>
       </c>
@@ -19558,7 +19630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>4</v>
       </c>
@@ -19680,7 +19752,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>182</v>
       </c>
@@ -19802,7 +19874,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -19954,7 +20026,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>2</v>
       </c>
@@ -20139,7 +20211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>5</v>
       </c>
@@ -20255,7 +20327,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>46</v>
       </c>
@@ -20570,7 +20642,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>40</v>
       </c>
@@ -20710,7 +20782,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>3</v>
       </c>
@@ -20898,7 +20970,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>2</v>
       </c>
@@ -21067,8 +21139,11 @@
       <c r="DF122" s="31" t="s">
         <v>460</v>
       </c>
+      <c r="DG122" s="7" t="s">
+        <v>478</v>
+      </c>
     </row>
-    <row r="123" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>6</v>
       </c>
@@ -21217,107 +21292,1228 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY124"/>
-      <c r="AZ124"/>
-      <c r="BA124"/>
+    <row r="124" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" s="3">
+        <v>44808</v>
+      </c>
+      <c r="D124" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="M124" s="1">
+        <v>52</v>
+      </c>
+      <c r="N124" s="1">
+        <v>28</v>
+      </c>
+      <c r="R124" s="1">
+        <v>5</v>
+      </c>
+      <c r="S124" s="1">
+        <v>14</v>
+      </c>
+      <c r="T124" s="1">
+        <v>1</v>
+      </c>
+      <c r="U124" s="1">
+        <v>50</v>
+      </c>
+      <c r="V124" s="1">
+        <v>26</v>
+      </c>
+      <c r="Z124" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB124" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC124" s="1">
+        <v>53</v>
+      </c>
+      <c r="AG124" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP124" s="1">
+        <v>44</v>
+      </c>
+      <c r="AQ124" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR124" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT124" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU124" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW124" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY124" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ124" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA124" s="1">
+        <v>9</v>
+      </c>
+      <c r="BW124" s="1">
+        <v>44</v>
+      </c>
+      <c r="BX124" s="1">
+        <v>53</v>
+      </c>
+      <c r="BY124" s="1">
+        <v>50</v>
+      </c>
+      <c r="CN124" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO124" s="1">
+        <v>39</v>
+      </c>
+      <c r="CU124" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV124" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF124" s="7" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="125" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY125"/>
-      <c r="AZ125"/>
-      <c r="BA125"/>
+    <row r="125" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C125" s="3">
+        <v>44809</v>
+      </c>
+      <c r="D125" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I125" s="1">
+        <v>95</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K125" s="1">
+        <v>164</v>
+      </c>
+      <c r="L125" s="1">
+        <v>27</v>
+      </c>
+      <c r="U125" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="V125" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="Z125" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="AB125" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="AG125" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="AI125" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="AJ125" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="AN125" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AP125" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AQ125" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="AR125" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="AT125" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AU125" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AW125" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY125" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AZ125" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="BA125" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW125" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="BX125" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="BY125" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="BZ125" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="CA125" s="1">
+        <v>36</v>
+      </c>
+      <c r="CE125" s="1">
+        <v>46</v>
+      </c>
+      <c r="CG125" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="CH125" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="CL125" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="CN125" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="CO125" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="CP125">
+        <v>8.1</v>
+      </c>
+      <c r="CQ125" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="CS125" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="CU125" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="CV125" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="CW125" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="DE125" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="DF125" s="7" t="s">
+        <v>482</v>
+      </c>
     </row>
-    <row r="126" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY126"/>
-      <c r="AZ126"/>
-      <c r="BA126"/>
+    <row r="126" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" s="3">
+        <v>44813</v>
+      </c>
+      <c r="D126" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" s="32">
+        <v>2676</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1">
+        <v>95</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K126" s="1">
+        <v>191</v>
+      </c>
+      <c r="U126" s="1">
+        <v>54</v>
+      </c>
+      <c r="V126" s="1">
+        <v>28</v>
+      </c>
+      <c r="Z126" s="1">
+        <v>37</v>
+      </c>
+      <c r="AA126" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB126" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH126" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI126" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ126" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN126" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO126" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP126" s="1">
+        <v>45</v>
+      </c>
+      <c r="AQ126" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR126" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT126" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX126" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY126" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ126" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA126" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB126" s="1">
+        <v>31</v>
+      </c>
+      <c r="BC126" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG126" s="1">
+        <v>43</v>
+      </c>
+      <c r="BH126" s="1">
+        <v>28</v>
+      </c>
+      <c r="BI126" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ126" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN126" s="1">
+        <v>50</v>
+      </c>
+      <c r="BO126" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP126" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ126" s="1">
+        <v>26</v>
+      </c>
+      <c r="BV126" s="1">
+        <v>22</v>
+      </c>
+      <c r="BW126" s="1">
+        <v>39</v>
+      </c>
+      <c r="BX126" s="1">
+        <v>51</v>
+      </c>
+      <c r="BY126" s="1">
+        <v>24</v>
+      </c>
+      <c r="BZ126" s="1">
+        <v>61</v>
+      </c>
+      <c r="CA126" s="1">
+        <v>35</v>
+      </c>
+      <c r="CE126" s="1">
+        <v>46</v>
+      </c>
+      <c r="CF126" s="1">
+        <v>64</v>
+      </c>
+      <c r="CG126" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH126" s="1">
+        <v>58</v>
+      </c>
+      <c r="CL126" s="1">
+        <v>42</v>
+      </c>
+      <c r="CM126" s="1">
+        <v>25</v>
+      </c>
+      <c r="CN126" s="1">
+        <v>53</v>
+      </c>
+      <c r="CO126" s="1">
+        <v>39</v>
+      </c>
+      <c r="CP126" s="1">
+        <v>7</v>
+      </c>
+      <c r="CQ126" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR126" s="1"/>
+      <c r="CS126" s="1">
+        <v>10</v>
+      </c>
+      <c r="CT126" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU126" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV126" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW126" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF126" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
-    <row r="127" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY127"/>
-      <c r="AZ127"/>
-      <c r="BA127"/>
+    <row r="127" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" s="3">
+        <v>44815</v>
+      </c>
+      <c r="D127" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2512</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1">
+        <v>95</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K127" s="1">
+        <v>158</v>
+      </c>
+      <c r="M127" s="1">
+        <v>57</v>
+      </c>
+      <c r="N127" s="1">
+        <v>26</v>
+      </c>
+      <c r="R127" s="1">
+        <v>17</v>
+      </c>
+      <c r="U127" s="1">
+        <v>52</v>
+      </c>
+      <c r="V127" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z127" s="1">
+        <v>48</v>
+      </c>
+      <c r="AB127" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI127" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ127" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN127" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP127" s="1">
+        <v>46</v>
+      </c>
+      <c r="AQ127" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR127" s="1">
+        <v>7</v>
+      </c>
+      <c r="AY127" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ127" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA127" s="1">
+        <v>9</v>
+      </c>
+      <c r="BB127" s="1">
+        <v>29</v>
+      </c>
+      <c r="BC127" s="1">
+        <v>51</v>
+      </c>
+      <c r="BG127" s="1">
+        <v>32</v>
+      </c>
+      <c r="BI127" s="1">
+        <v>55</v>
+      </c>
+      <c r="BJ127" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN127" s="1">
+        <v>57</v>
+      </c>
+      <c r="BP127" s="1">
+        <v>16</v>
+      </c>
+      <c r="BQ127" s="1">
+        <v>18</v>
+      </c>
+      <c r="BU127" s="1">
+        <v>17</v>
+      </c>
+      <c r="BW127" s="1">
+        <v>35</v>
+      </c>
+      <c r="BX127" s="1">
+        <v>50</v>
+      </c>
+      <c r="BY127" s="1">
+        <v>17</v>
+      </c>
+      <c r="BZ127" s="1">
+        <v>59</v>
+      </c>
+      <c r="CA127" s="1">
+        <v>38</v>
+      </c>
+      <c r="CE127" s="1">
+        <v>57</v>
+      </c>
+      <c r="CG127" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH127" s="1">
+        <v>53</v>
+      </c>
+      <c r="CL127" s="1">
+        <v>29</v>
+      </c>
+      <c r="CN127" s="1">
+        <v>53</v>
+      </c>
+      <c r="CO127" s="1">
+        <v>36</v>
+      </c>
+      <c r="CP127" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ127" s="1">
+        <v>7</v>
+      </c>
+      <c r="CS127" s="1">
+        <v>12</v>
+      </c>
+      <c r="CU127" s="11">
+        <v>8</v>
+      </c>
+      <c r="CV127" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW127" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF127" s="7" t="s">
+        <v>475</v>
+      </c>
     </row>
-    <row r="128" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY128"/>
-      <c r="AZ128"/>
-      <c r="BA128"/>
+    <row r="128" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="3">
+        <v>44815</v>
+      </c>
+      <c r="D128" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>95</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M128" s="1">
+        <v>54</v>
+      </c>
+      <c r="N128" s="1">
+        <v>24</v>
+      </c>
+      <c r="R128" s="1">
+        <v>9</v>
+      </c>
+      <c r="S128" s="1">
+        <v>13</v>
+      </c>
+      <c r="U128" s="1">
+        <v>48</v>
+      </c>
+      <c r="V128" s="1">
+        <v>26</v>
+      </c>
+      <c r="Z128" s="1">
+        <v>29</v>
+      </c>
+      <c r="AA128" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB128" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG128" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH128" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI128" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ128" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN128" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO128" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP128" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ128" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR128" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT128" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU128" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW128" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX128" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY128" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ128" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA128" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW128" s="1">
+        <v>47</v>
+      </c>
+      <c r="BX128" s="1">
+        <v>56</v>
+      </c>
+      <c r="BY128" s="1">
+        <v>47</v>
+      </c>
+      <c r="CN128" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO128" s="1">
+        <v>38</v>
+      </c>
+      <c r="CU128" s="11">
+        <v>10</v>
+      </c>
+      <c r="CV128" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW128" s="1">
+        <v>11</v>
+      </c>
+      <c r="CX128" s="1">
+        <v>50</v>
+      </c>
+      <c r="CY128" s="1">
+        <v>24</v>
+      </c>
+      <c r="DC128" s="1">
+        <v>41</v>
+      </c>
+      <c r="DD128" s="1">
+        <v>56</v>
+      </c>
+      <c r="DE128" s="1">
+        <v>44</v>
+      </c>
+      <c r="DF128" s="7" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="129" spans="51:53" x14ac:dyDescent="0.25">
-      <c r="AY129"/>
-      <c r="AZ129"/>
-      <c r="BA129"/>
+    <row r="129" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C129" s="3">
+        <v>44816</v>
+      </c>
+      <c r="D129" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I129" s="1">
+        <v>95</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K129" s="1">
+        <v>162</v>
+      </c>
+      <c r="L129" s="1">
+        <v>27</v>
+      </c>
+      <c r="AP129" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="AQ129" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="AR129" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="AY129" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AZ129" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="BA129" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW129" s="1">
+        <v>45</v>
+      </c>
+      <c r="BX129" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="BY129" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="CN129" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="CO129" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="CU129" s="11">
+        <v>7.9</v>
+      </c>
+      <c r="CV129" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="CW129" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="DE129" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="DF129" s="7" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="130" spans="51:53" x14ac:dyDescent="0.25">
-      <c r="AY130"/>
-      <c r="AZ130"/>
-      <c r="BA130"/>
+    <row r="130" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C130" s="3">
+        <v>44818</v>
+      </c>
+      <c r="D130" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="M130" s="1">
+        <v>50</v>
+      </c>
+      <c r="N130" s="1">
+        <v>28</v>
+      </c>
+      <c r="R130" s="1">
+        <v>5</v>
+      </c>
+      <c r="S130" s="1">
+        <v>16</v>
+      </c>
+      <c r="T130" s="1">
+        <v>2</v>
+      </c>
+      <c r="U130" s="1">
+        <v>48</v>
+      </c>
+      <c r="V130" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z130" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB130" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG130" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP130" s="1">
+        <v>42</v>
+      </c>
+      <c r="AQ130" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR130" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT130" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU130" s="1">
+        <v>11</v>
+      </c>
+      <c r="AW130" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY130" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ130" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA130" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW130" s="1">
+        <v>47</v>
+      </c>
+      <c r="BX130" s="1">
+        <v>52</v>
+      </c>
+      <c r="BY130" s="1">
+        <v>50</v>
+      </c>
+      <c r="CN130" s="1">
+        <v>48</v>
+      </c>
+      <c r="CO130" s="1">
+        <v>40</v>
+      </c>
+      <c r="CU130" s="11">
+        <v>8</v>
+      </c>
+      <c r="CV130" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF130" s="29" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="131" spans="51:53" x14ac:dyDescent="0.25">
-      <c r="AY131"/>
-      <c r="AZ131"/>
-      <c r="BA131"/>
+    <row r="131" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C131" s="3">
+        <v>44819</v>
+      </c>
+      <c r="D131" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="G131" s="32">
+        <v>5926</v>
+      </c>
+      <c r="H131" s="1">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1">
+        <v>95</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K131" s="1">
+        <v>300</v>
+      </c>
+      <c r="U131" s="1">
+        <v>51</v>
+      </c>
+      <c r="V131" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z131" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA131" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>49</v>
+      </c>
+      <c r="AG131" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH131" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI131" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ131" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN131" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO131" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP131" s="1">
+        <v>45</v>
+      </c>
+      <c r="AQ131" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR131" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX131" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY131" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ131" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA131" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB131" s="1">
+        <v>34</v>
+      </c>
+      <c r="BC131" s="1">
+        <v>53</v>
+      </c>
+      <c r="BG131" s="1">
+        <v>40</v>
+      </c>
+      <c r="BH131" s="1">
+        <v>24</v>
+      </c>
+      <c r="BI131" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ131" s="1">
+        <v>36</v>
+      </c>
+      <c r="BN131" s="1">
+        <v>56</v>
+      </c>
+      <c r="BO131" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP131" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ131" s="1">
+        <v>26</v>
+      </c>
+      <c r="BV131" s="1">
+        <v>22</v>
+      </c>
+      <c r="BW131" s="1">
+        <v>38</v>
+      </c>
+      <c r="BX131" s="1">
+        <v>53</v>
+      </c>
+      <c r="BY131" s="1">
+        <v>24</v>
+      </c>
+      <c r="BZ131" s="1">
+        <v>60</v>
+      </c>
+      <c r="CA131" s="1">
+        <v>36</v>
+      </c>
+      <c r="CE131" s="1">
+        <v>51</v>
+      </c>
+      <c r="CF131" s="1">
+        <v>66</v>
+      </c>
+      <c r="CG131" s="1">
+        <v>33</v>
+      </c>
+      <c r="CH131" s="1">
+        <v>55</v>
+      </c>
+      <c r="CL131" s="1">
+        <v>36</v>
+      </c>
+      <c r="CM131" s="1">
+        <v>23</v>
+      </c>
+      <c r="CN131" s="1">
+        <v>54</v>
+      </c>
+      <c r="CO131" s="1">
+        <v>38</v>
+      </c>
+      <c r="CP131" s="1">
+        <v>6</v>
+      </c>
+      <c r="CQ131" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR131" s="1"/>
+      <c r="CS131" s="1">
+        <v>12</v>
+      </c>
+      <c r="CT131" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU131" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV131" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW131" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF131" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
-    <row r="132" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY132"/>
       <c r="AZ132"/>
       <c r="BA132"/>
     </row>
-    <row r="133" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY133"/>
       <c r="AZ133"/>
       <c r="BA133"/>
     </row>
-    <row r="134" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY134"/>
       <c r="AZ134"/>
       <c r="BA134"/>
     </row>
-    <row r="135" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY135"/>
       <c r="AZ135"/>
       <c r="BA135"/>
     </row>
-    <row r="136" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY136"/>
       <c r="AZ136"/>
       <c r="BA136"/>
     </row>
-    <row r="137" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY137"/>
       <c r="AZ137"/>
       <c r="BA137"/>
     </row>
-    <row r="138" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY138"/>
       <c r="AZ138"/>
       <c r="BA138"/>
     </row>
-    <row r="139" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY139"/>
       <c r="AZ139"/>
       <c r="BA139"/>
     </row>
-    <row r="140" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY140"/>
       <c r="AZ140"/>
       <c r="BA140"/>
     </row>
-    <row r="141" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY141"/>
       <c r="AZ141"/>
       <c r="BA141"/>
     </row>
-    <row r="142" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY142"/>
       <c r="AZ142"/>
       <c r="BA142"/>
     </row>
-    <row r="143" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY143"/>
       <c r="AZ143"/>
       <c r="BA143"/>
     </row>
-    <row r="144" spans="51:53" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY144"/>
       <c r="AZ144"/>
       <c r="BA144"/>
@@ -21326,6 +22522,26 @@
       <c r="AY145"/>
       <c r="AZ145"/>
       <c r="BA145"/>
+    </row>
+    <row r="146" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY146"/>
+      <c r="AZ146"/>
+      <c r="BA146"/>
+    </row>
+    <row r="147" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY147"/>
+      <c r="AZ147"/>
+      <c r="BA147"/>
+    </row>
+    <row r="148" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY148"/>
+      <c r="AZ148"/>
+      <c r="BA148"/>
+    </row>
+    <row r="149" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY149"/>
+      <c r="AZ149"/>
+      <c r="BA149"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21417,8 +22633,9 @@
     <hyperlink ref="DF120" r:id="rId85" xr:uid="{83B17633-5A09-449F-A213-46B58F49BC3A}"/>
     <hyperlink ref="DF115" r:id="rId86" xr:uid="{29916A39-109A-4E0B-9672-E21991E2BE35}"/>
     <hyperlink ref="DF122" r:id="rId87" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{30CDF09D-FCA7-41EA-A9BF-B7D49D776139}"/>
+    <hyperlink ref="DF130" r:id="rId88" xr:uid="{2167D9EA-0726-44D0-B700-32FB171D507F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864130CD-2095-41E3-B588-64FAAF0DF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F16E2C-8C4E-4036-B840-11F9C84A6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="4035" windowWidth="28800" windowHeight="11385" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="2685" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DH$137</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="505">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1497,6 +1497,60 @@
   </si>
   <si>
     <t>BR-04099/2022</t>
+  </si>
+  <si>
+    <t>set/22_poderdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BR-03760/2022</t>
+  </si>
+  <si>
+    <t>set/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-02955/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/09/20205006/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-setembro-P03.pdf</t>
+  </si>
+  <si>
+    <t>BR-04459/2022</t>
+  </si>
+  <si>
+    <t>set/22_ipec_3</t>
+  </si>
+  <si>
+    <t>BR‐00073/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2125/Job_22_1426-5_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>set/22_fsb_3</t>
+  </si>
+  <si>
+    <t>BR-07560/2022</t>
+  </si>
+  <si>
+    <t>https://www.fsb.com.br/wp-content/uploads/2022/09/PesquisaBTG-FSB-Rodada14-19Set2022.pdf</t>
+  </si>
+  <si>
+    <t>set/22_datafolha_4</t>
+  </si>
+  <si>
+    <t>BR-04180/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/04/Poderdata-64-6set22.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.poder360.com.br/2022/09/Poderdata-65-13set22.pdf </t>
+  </si>
+  <si>
+    <t>set/22_quaest_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Datafolha/ </t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1740,9 +1794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2058,16 +2109,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DH149"/>
+  <dimension ref="A1:DH150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD131"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
@@ -21308,8 +21359,20 @@
       <c r="E124" s="1">
         <v>2022</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="1" t="s">
         <v>468</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H124" s="1">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1">
+        <v>95</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="M124" s="1">
         <v>52</v>
@@ -21386,13 +21449,17 @@
       <c r="CO124" s="1">
         <v>39</v>
       </c>
-      <c r="CU124" s="11">
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="1"/>
+      <c r="CS124" s="1"/>
+      <c r="CU124" s="1">
         <v>7</v>
       </c>
       <c r="CV124" s="1">
         <v>3</v>
       </c>
-      <c r="DF124" s="7" t="s">
+      <c r="DF124" s="29" t="s">
         <v>469</v>
       </c>
     </row>
@@ -21547,13 +21614,13 @@
     </row>
     <row r="126" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C126" s="3">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="D126" s="10">
         <v>44805</v>
@@ -21562,196 +21629,285 @@
         <v>2022</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G126" s="32">
-        <v>2676</v>
+        <v>488</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3500</v>
       </c>
       <c r="H126" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I126" s="1">
         <v>95</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K126" s="1">
-        <v>191</v>
+        <v>317</v>
+      </c>
+      <c r="L126" s="1">
+        <v>27</v>
+      </c>
+      <c r="M126" s="1">
+        <v>43</v>
+      </c>
+      <c r="N126" s="1">
+        <v>29</v>
+      </c>
+      <c r="O126" s="1">
+        <v>4</v>
+      </c>
+      <c r="P126" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>1</v>
+      </c>
+      <c r="R126" s="1">
+        <v>2</v>
+      </c>
+      <c r="S126" s="1">
+        <v>17</v>
+      </c>
+      <c r="T126" s="1">
+        <v>1</v>
       </c>
       <c r="U126" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V126" s="1">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="W126" s="1">
+        <v>33</v>
+      </c>
+      <c r="X126" s="1">
+        <v>69</v>
+      </c>
+      <c r="Y126" s="1">
+        <v>74</v>
       </c>
       <c r="Z126" s="1">
+        <v>52</v>
+      </c>
+      <c r="AA126" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB126" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>58</v>
+      </c>
+      <c r="AD126" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH126" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI126" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ126" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK126" s="1">
+        <v>16</v>
+      </c>
+      <c r="AL126" s="1">
+        <v>17</v>
+      </c>
+      <c r="AN126" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO126" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP126" s="1">
+        <v>43</v>
+      </c>
+      <c r="AQ126" s="1">
         <v>37</v>
       </c>
-      <c r="AA126" s="1">
-        <v>55</v>
-      </c>
-      <c r="AB126" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC126" s="1">
-        <v>51</v>
-      </c>
-      <c r="AG126" s="1">
-        <v>35</v>
-      </c>
-      <c r="AH126" s="1">
-        <v>21</v>
-      </c>
-      <c r="AI126" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ126" s="1">
-        <v>7</v>
-      </c>
-      <c r="AN126" s="1">
-        <v>9</v>
-      </c>
-      <c r="AO126" s="1">
+      <c r="AR126" s="1">
         <v>8</v>
-      </c>
-      <c r="AP126" s="1">
-        <v>45</v>
-      </c>
-      <c r="AQ126" s="1">
-        <v>34</v>
-      </c>
-      <c r="AR126" s="1">
-        <v>7</v>
       </c>
       <c r="AT126" s="1">
         <v>3</v>
       </c>
       <c r="AU126" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV126" s="1">
         <v>2</v>
       </c>
       <c r="AW126" s="1">
         <v>2</v>
       </c>
       <c r="AX126" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ126" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA126" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB126" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BC126" s="1">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="BD126" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE126" s="1">
+        <v>17</v>
       </c>
       <c r="BG126" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BH126" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="BI126" s="1">
         <v>60</v>
       </c>
       <c r="BJ126" s="1">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="BK126" s="1">
+        <v>40</v>
+      </c>
+      <c r="BL126" s="1">
+        <v>81</v>
+      </c>
+      <c r="BM126" s="1">
+        <v>88</v>
       </c>
       <c r="BN126" s="1">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BO126" s="1">
-        <v>67</v>
-      </c>
-      <c r="BP126" s="1">
-        <v>23</v>
-      </c>
-      <c r="BQ126" s="1">
-        <v>26</v>
-      </c>
-      <c r="BV126" s="1">
+        <v>53</v>
+      </c>
+      <c r="BW126" s="1">
+        <v>40</v>
+      </c>
+      <c r="BX126" s="1">
+        <v>53</v>
+      </c>
+      <c r="BZ126" s="1">
+        <v>59</v>
+      </c>
+      <c r="CA126" s="1">
+        <v>37</v>
+      </c>
+      <c r="CB126" s="1">
+        <v>41</v>
+      </c>
+      <c r="CC126" s="1">
+        <v>86</v>
+      </c>
+      <c r="CD126" s="1">
+        <v>88</v>
+      </c>
+      <c r="CE126" s="1">
+        <v>61</v>
+      </c>
+      <c r="CF126" s="1">
+        <v>51</v>
+      </c>
+      <c r="CG126" s="1">
+        <v>32</v>
+      </c>
+      <c r="CH126" s="1">
+        <v>59</v>
+      </c>
+      <c r="CI126" s="1">
+        <v>49</v>
+      </c>
+      <c r="CL126" s="1">
+        <v>16</v>
+      </c>
+      <c r="CM126" s="1">
+        <v>40</v>
+      </c>
+      <c r="CN126" s="1">
+        <v>52</v>
+      </c>
+      <c r="CO126" s="1">
+        <v>40</v>
+      </c>
+      <c r="CP126" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ126" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR126" s="1">
+        <v>10</v>
+      </c>
+      <c r="CS126" s="1">
         <v>22</v>
       </c>
-      <c r="BW126" s="1">
-        <v>39</v>
-      </c>
-      <c r="BX126" s="1">
-        <v>51</v>
-      </c>
-      <c r="BY126" s="1">
-        <v>24</v>
-      </c>
-      <c r="BZ126" s="1">
-        <v>61</v>
-      </c>
-      <c r="CA126" s="1">
-        <v>35</v>
-      </c>
-      <c r="CE126" s="1">
-        <v>46</v>
-      </c>
-      <c r="CF126" s="1">
-        <v>64</v>
-      </c>
-      <c r="CG126" s="1">
-        <v>30</v>
-      </c>
-      <c r="CH126" s="1">
-        <v>58</v>
-      </c>
-      <c r="CL126" s="1">
-        <v>42</v>
-      </c>
-      <c r="CM126" s="1">
-        <v>25</v>
-      </c>
-      <c r="CN126" s="1">
-        <v>53</v>
-      </c>
-      <c r="CO126" s="1">
-        <v>39</v>
-      </c>
-      <c r="CP126" s="1">
+      <c r="CT126" s="1">
         <v>7</v>
-      </c>
-      <c r="CQ126" s="1">
-        <v>5</v>
-      </c>
-      <c r="CR126" s="1"/>
-      <c r="CS126" s="1">
-        <v>10</v>
-      </c>
-      <c r="CT126" s="1">
-        <v>9</v>
       </c>
       <c r="CU126" s="11">
         <v>7</v>
       </c>
       <c r="CV126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW126" s="1">
-        <v>9</v>
-      </c>
-      <c r="DF126" s="7" t="s">
-        <v>448</v>
+        <v>8</v>
+      </c>
+      <c r="CX126" s="1">
+        <v>51</v>
+      </c>
+      <c r="CY126" s="1">
+        <v>36</v>
+      </c>
+      <c r="CZ126" s="1">
+        <v>41</v>
+      </c>
+      <c r="DA126" s="1">
+        <v>88</v>
+      </c>
+      <c r="DB126" s="1">
+        <v>85</v>
+      </c>
+      <c r="DC126" s="1">
+        <v>52</v>
+      </c>
+      <c r="DD126" s="1">
+        <v>58</v>
+      </c>
+      <c r="DE126" s="1">
+        <v>49</v>
+      </c>
+      <c r="DF126" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="127" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C127" s="3">
-        <v>44815</v>
+        <v>44813</v>
       </c>
       <c r="D127" s="10">
         <v>44805</v>
@@ -21760,10 +21916,10 @@
         <v>2022</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G127" s="1">
-        <v>2512</v>
+        <v>2676</v>
       </c>
       <c r="H127" s="1">
         <v>2</v>
@@ -21775,34 +21931,31 @@
         <v>280</v>
       </c>
       <c r="K127" s="1">
-        <v>158</v>
-      </c>
-      <c r="M127" s="1">
-        <v>57</v>
-      </c>
-      <c r="N127" s="1">
-        <v>26</v>
-      </c>
-      <c r="R127" s="1">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="U127" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V127" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Z127" s="1">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="AA127" s="1">
+        <v>55</v>
       </c>
       <c r="AB127" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC127" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AG127" s="1">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="AH127" s="1">
+        <v>21</v>
       </c>
       <c r="AI127" s="1">
         <v>6</v>
@@ -21813,112 +21966,143 @@
       <c r="AN127" s="1">
         <v>9</v>
       </c>
+      <c r="AO127" s="1">
+        <v>8</v>
+      </c>
       <c r="AP127" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ127" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AR127" s="1">
         <v>7</v>
       </c>
+      <c r="AT127" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX127" s="1">
+        <v>4</v>
+      </c>
       <c r="AY127" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ127" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA127" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB127" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BC127" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG127" s="1">
+        <v>43</v>
+      </c>
+      <c r="BH127" s="1">
+        <v>28</v>
+      </c>
+      <c r="BI127" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ127" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN127" s="1">
+        <v>50</v>
+      </c>
+      <c r="BO127" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP127" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ127" s="1">
+        <v>26</v>
+      </c>
+      <c r="BV127" s="1">
+        <v>22</v>
+      </c>
+      <c r="BW127" s="1">
+        <v>39</v>
+      </c>
+      <c r="BX127" s="1">
         <v>51</v>
       </c>
-      <c r="BG127" s="1">
-        <v>32</v>
-      </c>
-      <c r="BI127" s="1">
-        <v>55</v>
-      </c>
-      <c r="BJ127" s="1">
+      <c r="BY127" s="1">
+        <v>24</v>
+      </c>
+      <c r="BZ127" s="1">
+        <v>61</v>
+      </c>
+      <c r="CA127" s="1">
         <v>35</v>
       </c>
-      <c r="BN127" s="1">
-        <v>57</v>
-      </c>
-      <c r="BP127" s="1">
-        <v>16</v>
-      </c>
-      <c r="BQ127" s="1">
-        <v>18</v>
-      </c>
-      <c r="BU127" s="1">
-        <v>17</v>
-      </c>
-      <c r="BW127" s="1">
-        <v>35</v>
-      </c>
-      <c r="BX127" s="1">
-        <v>50</v>
-      </c>
-      <c r="BY127" s="1">
-        <v>17</v>
-      </c>
-      <c r="BZ127" s="1">
-        <v>59</v>
-      </c>
-      <c r="CA127" s="1">
-        <v>38</v>
-      </c>
       <c r="CE127" s="1">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="CF127" s="1">
+        <v>64</v>
       </c>
       <c r="CG127" s="1">
         <v>30</v>
       </c>
       <c r="CH127" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="CL127" s="1">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="CM127" s="1">
+        <v>25</v>
       </c>
       <c r="CN127" s="1">
         <v>53</v>
       </c>
       <c r="CO127" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CP127" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ127" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR127" s="1"/>
+      <c r="CS127" s="1">
+        <v>10</v>
+      </c>
+      <c r="CT127" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU127" s="11">
         <v>7</v>
       </c>
-      <c r="CS127" s="1">
-        <v>12</v>
-      </c>
-      <c r="CU127" s="11">
-        <v>8</v>
-      </c>
       <c r="CV127" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW127" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="DF127" s="7" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C128" s="3">
         <v>44815</v>
@@ -21930,10 +22114,10 @@
         <v>2022</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G128" s="1">
-        <v>2000</v>
+        <v>2512</v>
       </c>
       <c r="H128" s="1">
         <v>2</v>
@@ -21942,138 +22126,156 @@
         <v>95</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
+      </c>
+      <c r="K128" s="1">
+        <v>158</v>
       </c>
       <c r="M128" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N128" s="1">
+        <v>26</v>
+      </c>
+      <c r="R128" s="1">
+        <v>17</v>
+      </c>
+      <c r="U128" s="1">
+        <v>52</v>
+      </c>
+      <c r="V128" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z128" s="1">
+        <v>48</v>
+      </c>
+      <c r="AB128" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG128" s="1">
         <v>24</v>
       </c>
-      <c r="R128" s="1">
+      <c r="AI128" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ128" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN128" s="1">
         <v>9</v>
       </c>
-      <c r="S128" s="1">
-        <v>13</v>
-      </c>
-      <c r="U128" s="1">
-        <v>48</v>
-      </c>
-      <c r="V128" s="1">
-        <v>26</v>
-      </c>
-      <c r="Z128" s="1">
+      <c r="AP128" s="1">
+        <v>46</v>
+      </c>
+      <c r="AQ128" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR128" s="1">
+        <v>7</v>
+      </c>
+      <c r="AY128" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ128" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA128" s="1">
+        <v>9</v>
+      </c>
+      <c r="BB128" s="1">
         <v>29</v>
       </c>
-      <c r="AA128" s="1">
-        <v>46</v>
-      </c>
-      <c r="AB128" s="1">
+      <c r="BC128" s="1">
+        <v>51</v>
+      </c>
+      <c r="BG128" s="1">
+        <v>32</v>
+      </c>
+      <c r="BI128" s="1">
+        <v>55</v>
+      </c>
+      <c r="BJ128" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN128" s="1">
+        <v>57</v>
+      </c>
+      <c r="BP128" s="1">
+        <v>16</v>
+      </c>
+      <c r="BQ128" s="1">
+        <v>18</v>
+      </c>
+      <c r="BU128" s="1">
+        <v>17</v>
+      </c>
+      <c r="BW128" s="1">
+        <v>35</v>
+      </c>
+      <c r="BX128" s="1">
+        <v>50</v>
+      </c>
+      <c r="BY128" s="1">
+        <v>17</v>
+      </c>
+      <c r="BZ128" s="1">
+        <v>59</v>
+      </c>
+      <c r="CA128" s="1">
+        <v>38</v>
+      </c>
+      <c r="CE128" s="1">
+        <v>57</v>
+      </c>
+      <c r="CG128" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH128" s="1">
+        <v>53</v>
+      </c>
+      <c r="CL128" s="1">
         <v>29</v>
       </c>
-      <c r="AC128" s="1">
-        <v>51</v>
-      </c>
-      <c r="AG128" s="1">
-        <v>41</v>
-      </c>
-      <c r="AH128" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI128" s="1">
-        <v>9</v>
-      </c>
-      <c r="AJ128" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN128" s="1">
+      <c r="CN128" s="1">
+        <v>53</v>
+      </c>
+      <c r="CO128" s="1">
+        <v>36</v>
+      </c>
+      <c r="CP128" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ128" s="1">
+        <v>7</v>
+      </c>
+      <c r="CS128" s="1">
         <v>12</v>
       </c>
-      <c r="AO128" s="1">
-        <v>11</v>
-      </c>
-      <c r="AP128" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ128" s="1">
-        <v>35</v>
-      </c>
-      <c r="AR128" s="1">
-        <v>9</v>
-      </c>
-      <c r="AT128" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU128" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW128" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX128" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY128" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ128" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA128" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW128" s="1">
-        <v>47</v>
-      </c>
-      <c r="BX128" s="1">
-        <v>56</v>
-      </c>
-      <c r="BY128" s="1">
-        <v>47</v>
-      </c>
-      <c r="CN128" s="1">
-        <v>51</v>
-      </c>
-      <c r="CO128" s="1">
-        <v>38</v>
-      </c>
       <c r="CU128" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CV128" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW128" s="1">
         <v>11</v>
       </c>
-      <c r="CX128" s="1">
-        <v>50</v>
-      </c>
-      <c r="CY128" s="1">
-        <v>24</v>
-      </c>
-      <c r="DC128" s="1">
-        <v>41</v>
-      </c>
-      <c r="DD128" s="1">
-        <v>56</v>
-      </c>
-      <c r="DE128" s="1">
-        <v>44</v>
-      </c>
       <c r="DF128" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C129" s="3">
-        <v>44816</v>
+        <v>44815</v>
       </c>
       <c r="D129" s="10">
         <v>44805</v>
@@ -22082,84 +22284,150 @@
         <v>2022</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="G129" s="1">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="H129" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I129" s="1">
         <v>95</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K129" s="1">
-        <v>162</v>
-      </c>
-      <c r="L129" s="1">
-        <v>27</v>
+        <v>264</v>
+      </c>
+      <c r="M129" s="1">
+        <v>54</v>
+      </c>
+      <c r="N129" s="1">
+        <v>24</v>
+      </c>
+      <c r="R129" s="1">
+        <v>9</v>
+      </c>
+      <c r="S129" s="1">
+        <v>13</v>
+      </c>
+      <c r="U129" s="1">
+        <v>48</v>
+      </c>
+      <c r="V129" s="1">
+        <v>26</v>
+      </c>
+      <c r="Z129" s="1">
+        <v>29</v>
+      </c>
+      <c r="AA129" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB129" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG129" s="1">
+        <v>41</v>
+      </c>
+      <c r="AH129" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI129" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ129" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN129" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO129" s="1">
+        <v>11</v>
       </c>
       <c r="AP129" s="1">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="AQ129" s="1">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="AR129" s="1">
-        <v>7.4</v>
+        <v>9</v>
+      </c>
+      <c r="AT129" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU129" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW129" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX129" s="1">
+        <v>10</v>
       </c>
       <c r="AY129" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AZ129" s="1">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="BA129" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW129" s="1">
+        <v>47</v>
+      </c>
+      <c r="BX129" s="1">
+        <v>56</v>
+      </c>
+      <c r="BY129" s="1">
+        <v>47</v>
+      </c>
+      <c r="CN129" s="1">
+        <v>51</v>
+      </c>
+      <c r="CO129" s="1">
+        <v>38</v>
+      </c>
+      <c r="CU129" s="11">
         <v>10</v>
       </c>
-      <c r="BW129" s="1">
-        <v>45</v>
-      </c>
-      <c r="BX129" s="1">
-        <v>49.7</v>
-      </c>
-      <c r="BY129" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="CN129" s="1">
-        <v>47.3</v>
-      </c>
-      <c r="CO129" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="CU129" s="11">
-        <v>7.9</v>
-      </c>
       <c r="CV129" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="CW129" s="1">
-        <v>11.5</v>
+        <v>11</v>
+      </c>
+      <c r="CX129" s="1">
+        <v>50</v>
+      </c>
+      <c r="CY129" s="1">
+        <v>24</v>
+      </c>
+      <c r="DC129" s="1">
+        <v>41</v>
+      </c>
+      <c r="DD129" s="1">
+        <v>56</v>
       </c>
       <c r="DE129" s="1">
-        <v>43.2</v>
+        <v>44</v>
       </c>
       <c r="DF129" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C130" s="3">
-        <v>44818</v>
+        <v>44816</v>
       </c>
       <c r="D130" s="10">
         <v>44805</v>
@@ -22168,102 +22436,84 @@
         <v>2022</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="M130" s="1">
-        <v>50</v>
-      </c>
-      <c r="N130" s="1">
-        <v>28</v>
-      </c>
-      <c r="R130" s="1">
-        <v>5</v>
-      </c>
-      <c r="S130" s="1">
-        <v>16</v>
-      </c>
-      <c r="T130" s="1">
-        <v>2</v>
-      </c>
-      <c r="U130" s="1">
-        <v>48</v>
-      </c>
-      <c r="V130" s="1">
-        <v>25</v>
-      </c>
-      <c r="Z130" s="1">
-        <v>44</v>
-      </c>
-      <c r="AB130" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC130" s="1">
-        <v>51</v>
-      </c>
-      <c r="AG130" s="1">
-        <v>30</v>
+        <v>470</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H130" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I130" s="1">
+        <v>95</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K130" s="1">
+        <v>162</v>
+      </c>
+      <c r="L130" s="1">
+        <v>27</v>
       </c>
       <c r="AP130" s="1">
-        <v>42</v>
+        <v>39.6</v>
       </c>
       <c r="AQ130" s="1">
-        <v>34</v>
+        <v>36.5</v>
       </c>
       <c r="AR130" s="1">
-        <v>7</v>
-      </c>
-      <c r="AT130" s="1">
-        <v>9</v>
-      </c>
-      <c r="AU130" s="1">
-        <v>11</v>
-      </c>
-      <c r="AW130" s="1">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AY130" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AZ130" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="BA130" s="1">
         <v>10</v>
       </c>
       <c r="BW130" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BX130" s="1">
-        <v>52</v>
+        <v>49.7</v>
       </c>
       <c r="BY130" s="1">
-        <v>50</v>
+        <v>41.2</v>
       </c>
       <c r="CN130" s="1">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="CO130" s="1">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="CU130" s="11">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="CV130" s="1">
-        <v>4</v>
-      </c>
-      <c r="DF130" s="29" t="s">
-        <v>464</v>
+        <v>3.6</v>
+      </c>
+      <c r="CW130" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="DE130" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="DF130" s="7" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C131" s="3">
-        <v>44819</v>
+        <v>44817</v>
       </c>
       <c r="D131" s="10">
         <v>44805</v>
@@ -22272,216 +22522,1212 @@
         <v>2022</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="G131" s="32">
-        <v>5926</v>
+        <v>490</v>
+      </c>
+      <c r="G131" s="1">
+        <v>3500</v>
       </c>
       <c r="H131" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I131" s="1">
         <v>95</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K131" s="1">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="L131" s="1">
+        <v>27</v>
+      </c>
+      <c r="M131" s="1">
+        <v>43</v>
+      </c>
+      <c r="N131" s="1">
+        <v>29</v>
+      </c>
+      <c r="O131" s="1">
+        <v>4</v>
+      </c>
+      <c r="P131" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>1</v>
+      </c>
+      <c r="R131" s="1">
+        <v>2</v>
+      </c>
+      <c r="S131" s="1">
+        <v>17</v>
+      </c>
+      <c r="T131" s="1">
+        <v>1</v>
       </c>
       <c r="U131" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="V131" s="1">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="W131" s="1">
+        <v>60</v>
+      </c>
+      <c r="X131" s="1">
+        <v>65</v>
+      </c>
+      <c r="Y131" s="1">
+        <v>62</v>
       </c>
       <c r="Z131" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA131" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>33</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>52</v>
+      </c>
+      <c r="AD131" s="1">
+        <v>19</v>
+      </c>
+      <c r="AE131" s="1">
+        <v>26</v>
+      </c>
+      <c r="AF131" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG131" s="1">
         <v>39</v>
       </c>
-      <c r="AA131" s="1">
-        <v>55</v>
-      </c>
-      <c r="AB131" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC131" s="1">
-        <v>49</v>
-      </c>
-      <c r="AG131" s="1">
-        <v>32</v>
-      </c>
       <c r="AH131" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AI131" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ131" s="1">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="AK131" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM131" s="1">
+        <v>23</v>
       </c>
       <c r="AN131" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO131" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP131" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AQ131" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR131" s="1">
         <v>8</v>
       </c>
       <c r="AT131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU131" s="1">
         <v>2</v>
       </c>
+      <c r="AV131" s="1">
+        <v>0</v>
+      </c>
       <c r="AW131" s="1">
         <v>2</v>
       </c>
       <c r="AX131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY131" s="1">
         <v>3</v>
-      </c>
-      <c r="AY131" s="1">
-        <v>4</v>
       </c>
       <c r="AZ131" s="1">
         <v>2</v>
       </c>
       <c r="BA131" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB131" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="BC131" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD131" s="1">
+        <v>31</v>
+      </c>
+      <c r="BE131" s="1">
+        <v>28</v>
+      </c>
+      <c r="BF131" s="1">
+        <v>49</v>
+      </c>
+      <c r="BG131" s="1">
+        <v>18</v>
+      </c>
+      <c r="BH131" s="1">
+        <v>43</v>
+      </c>
+      <c r="BI131" s="1">
         <v>53</v>
       </c>
-      <c r="BG131" s="1">
-        <v>40</v>
-      </c>
-      <c r="BH131" s="1">
-        <v>24</v>
-      </c>
-      <c r="BI131" s="1">
-        <v>58</v>
-      </c>
       <c r="BJ131" s="1">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="BK131" s="1">
+        <v>66</v>
+      </c>
+      <c r="BL131" s="1">
+        <v>66</v>
+      </c>
+      <c r="BM131" s="1">
+        <v>69</v>
       </c>
       <c r="BN131" s="1">
+        <v>52</v>
+      </c>
+      <c r="BO131" s="1">
+        <v>48</v>
+      </c>
+      <c r="BW131" s="1">
+        <v>41</v>
+      </c>
+      <c r="BX131" s="1">
+        <v>50</v>
+      </c>
+      <c r="BZ131" s="1">
         <v>56</v>
       </c>
-      <c r="BO131" s="1">
-        <v>67</v>
-      </c>
-      <c r="BP131" s="1">
-        <v>23</v>
-      </c>
-      <c r="BQ131" s="1">
-        <v>26</v>
-      </c>
-      <c r="BV131" s="1">
-        <v>22</v>
-      </c>
-      <c r="BW131" s="1">
+      <c r="CA131" s="1">
         <v>38</v>
       </c>
-      <c r="BX131" s="1">
-        <v>53</v>
-      </c>
-      <c r="BY131" s="1">
-        <v>24</v>
-      </c>
-      <c r="BZ131" s="1">
-        <v>60</v>
-      </c>
-      <c r="CA131" s="1">
-        <v>36</v>
+      <c r="CB131" s="1">
+        <v>71</v>
+      </c>
+      <c r="CC131" s="1">
+        <v>68</v>
+      </c>
+      <c r="CD131" s="1">
+        <v>76</v>
       </c>
       <c r="CE131" s="1">
         <v>51</v>
       </c>
       <c r="CF131" s="1">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="CG131" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="CH131" s="1">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="CI131" s="1">
+        <v>24</v>
+      </c>
+      <c r="CJ131" s="1">
+        <v>27</v>
+      </c>
+      <c r="CK131" s="1">
+        <v>23</v>
       </c>
       <c r="CL131" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="CM131" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="CN131" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CO131" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CP131" s="1">
         <v>6</v>
       </c>
       <c r="CQ131" s="1">
-        <v>7</v>
-      </c>
-      <c r="CR131" s="1"/>
-      <c r="CS131" s="1">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="CR131" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS131" s="1"/>
       <c r="CT131" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CU131" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW131" s="1">
-        <v>9</v>
-      </c>
-      <c r="DF131" s="7" t="s">
-        <v>448</v>
+        <v>6</v>
+      </c>
+      <c r="CX131" s="1">
+        <v>54</v>
+      </c>
+      <c r="CY131" s="1">
+        <v>40</v>
+      </c>
+      <c r="CZ131" s="1">
+        <v>65</v>
+      </c>
+      <c r="DA131" s="1">
+        <v>71</v>
+      </c>
+      <c r="DB131" s="1">
+        <v>80</v>
+      </c>
+      <c r="DC131" s="1">
+        <v>11</v>
+      </c>
+      <c r="DD131" s="1">
+        <v>46</v>
+      </c>
+      <c r="DE131" s="1">
+        <v>50</v>
+      </c>
+      <c r="DF131" s="29" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY132"/>
-      <c r="AZ132"/>
-      <c r="BA132"/>
+      <c r="A132" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C132" s="3">
+        <v>44818</v>
+      </c>
+      <c r="D132" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H132" s="1">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1">
+        <v>95</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M132" s="1">
+        <v>50</v>
+      </c>
+      <c r="N132" s="1">
+        <v>28</v>
+      </c>
+      <c r="R132" s="1">
+        <v>5</v>
+      </c>
+      <c r="S132" s="1">
+        <v>16</v>
+      </c>
+      <c r="T132" s="1">
+        <v>2</v>
+      </c>
+      <c r="U132" s="1">
+        <v>48</v>
+      </c>
+      <c r="V132" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z132" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG132" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP132" s="1">
+        <v>42</v>
+      </c>
+      <c r="AQ132" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR132" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT132" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU132" s="1">
+        <v>11</v>
+      </c>
+      <c r="AW132" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY132" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ132" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA132" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW132" s="1">
+        <v>47</v>
+      </c>
+      <c r="BX132" s="1">
+        <v>52</v>
+      </c>
+      <c r="BY132" s="1">
+        <v>50</v>
+      </c>
+      <c r="CN132" s="1">
+        <v>48</v>
+      </c>
+      <c r="CO132" s="1">
+        <v>40</v>
+      </c>
+      <c r="CP132" s="1"/>
+      <c r="CQ132" s="1"/>
+      <c r="CR132" s="1"/>
+      <c r="CS132" s="1"/>
+      <c r="CU132" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV132" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF132" s="29" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="133" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY133"/>
-      <c r="AZ133"/>
-      <c r="BA133"/>
+      <c r="A133" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C133" s="3">
+        <v>44819</v>
+      </c>
+      <c r="D133" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="G133" s="1">
+        <v>5926</v>
+      </c>
+      <c r="H133" s="1">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1">
+        <v>95</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K133" s="1">
+        <v>300</v>
+      </c>
+      <c r="U133" s="1">
+        <v>51</v>
+      </c>
+      <c r="V133" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z133" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA133" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB133" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>49</v>
+      </c>
+      <c r="AG133" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH133" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI133" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ133" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN133" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO133" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP133" s="1">
+        <v>45</v>
+      </c>
+      <c r="AQ133" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR133" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY133" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ133" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA133" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB133" s="1">
+        <v>34</v>
+      </c>
+      <c r="BC133" s="1">
+        <v>53</v>
+      </c>
+      <c r="BG133" s="1">
+        <v>40</v>
+      </c>
+      <c r="BH133" s="1">
+        <v>24</v>
+      </c>
+      <c r="BI133" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ133" s="1">
+        <v>36</v>
+      </c>
+      <c r="BN133" s="1">
+        <v>56</v>
+      </c>
+      <c r="BO133" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP133" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ133" s="1">
+        <v>26</v>
+      </c>
+      <c r="BV133" s="1">
+        <v>22</v>
+      </c>
+      <c r="BW133" s="1">
+        <v>38</v>
+      </c>
+      <c r="BX133" s="1">
+        <v>53</v>
+      </c>
+      <c r="BY133" s="1">
+        <v>24</v>
+      </c>
+      <c r="BZ133" s="1">
+        <v>60</v>
+      </c>
+      <c r="CA133" s="1">
+        <v>36</v>
+      </c>
+      <c r="CE133" s="1">
+        <v>51</v>
+      </c>
+      <c r="CF133" s="1">
+        <v>66</v>
+      </c>
+      <c r="CG133" s="1">
+        <v>33</v>
+      </c>
+      <c r="CH133" s="1">
+        <v>55</v>
+      </c>
+      <c r="CL133" s="1">
+        <v>36</v>
+      </c>
+      <c r="CM133" s="1">
+        <v>23</v>
+      </c>
+      <c r="CN133" s="1">
+        <v>54</v>
+      </c>
+      <c r="CO133" s="1">
+        <v>38</v>
+      </c>
+      <c r="CP133" s="1">
+        <v>6</v>
+      </c>
+      <c r="CQ133" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR133" s="1"/>
+      <c r="CS133" s="1">
+        <v>12</v>
+      </c>
+      <c r="CT133" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU133" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV133" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW133" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF133" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="134" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY134"/>
-      <c r="AZ134"/>
-      <c r="BA134"/>
+      <c r="A134" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C134" s="3">
+        <v>44822</v>
+      </c>
+      <c r="D134" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3008</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1">
+        <v>95</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="U134" s="1">
+        <v>53</v>
+      </c>
+      <c r="V134" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z134" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG134" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI134" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ134" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN134" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP134" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ134" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR134" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT134" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU134" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW134" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY134" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ134" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA134" s="1">
+        <v>9</v>
+      </c>
+      <c r="BB134" s="1">
+        <v>27</v>
+      </c>
+      <c r="BC134" s="1">
+        <v>48</v>
+      </c>
+      <c r="BG134" s="1">
+        <v>27</v>
+      </c>
+      <c r="BI134" s="1">
+        <v>54</v>
+      </c>
+      <c r="BJ134" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN134" s="1">
+        <v>59</v>
+      </c>
+      <c r="BP134" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ134" s="1">
+        <v>16</v>
+      </c>
+      <c r="BU134" s="1">
+        <v>17</v>
+      </c>
+      <c r="BW134" s="1">
+        <v>33</v>
+      </c>
+      <c r="BX134" s="1">
+        <v>50</v>
+      </c>
+      <c r="BY134" s="1">
+        <v>15</v>
+      </c>
+      <c r="BZ134" s="1">
+        <v>59</v>
+      </c>
+      <c r="CA134" s="1">
+        <v>38</v>
+      </c>
+      <c r="CE134" s="1">
+        <v>61</v>
+      </c>
+      <c r="CG134" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH134" s="1">
+        <v>52</v>
+      </c>
+      <c r="CL134" s="1">
+        <v>27</v>
+      </c>
+      <c r="CN134" s="1">
+        <v>54</v>
+      </c>
+      <c r="CO134" s="1">
+        <v>35</v>
+      </c>
+      <c r="CP134" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ134" s="1">
+        <v>8</v>
+      </c>
+      <c r="CR134" s="1"/>
+      <c r="CS134" s="1">
+        <v>10</v>
+      </c>
+      <c r="CU134" s="11">
+        <v>8</v>
+      </c>
+      <c r="CV134" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW134" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF134" s="7" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="135" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY135"/>
-      <c r="AZ135"/>
-      <c r="BA135"/>
+      <c r="A135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C135" s="3">
+        <v>44822</v>
+      </c>
+      <c r="D135" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H135" s="1">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1">
+        <v>95</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M135" s="1">
+        <v>52</v>
+      </c>
+      <c r="N135" s="1">
+        <v>25</v>
+      </c>
+      <c r="R135" s="1">
+        <v>11</v>
+      </c>
+      <c r="S135" s="1">
+        <v>12</v>
+      </c>
+      <c r="U135" s="1">
+        <v>51</v>
+      </c>
+      <c r="V135" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z135" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA135" s="1">
+        <v>57</v>
+      </c>
+      <c r="AB135" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC135" s="1">
+        <v>49</v>
+      </c>
+      <c r="AG135" s="1">
+        <v>39</v>
+      </c>
+      <c r="AH135" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI135" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ135" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN135" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO135" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP135" s="1">
+        <v>44</v>
+      </c>
+      <c r="AQ135" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR135" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT135" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW135" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX135" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>4</v>
+      </c>
+      <c r="AZ135">
+        <v>3</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BW135" s="1">
+        <v>45</v>
+      </c>
+      <c r="BX135" s="1">
+        <v>55</v>
+      </c>
+      <c r="BY135" s="1">
+        <v>48</v>
+      </c>
+      <c r="CN135" s="1">
+        <v>52</v>
+      </c>
+      <c r="CO135" s="1">
+        <v>39</v>
+      </c>
+      <c r="CU135" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV135" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW135" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX135" s="1">
+        <v>47</v>
+      </c>
+      <c r="CY135" s="1">
+        <v>30</v>
+      </c>
+      <c r="DC135" s="1">
+        <v>32</v>
+      </c>
+      <c r="DD135" s="1">
+        <v>62</v>
+      </c>
+      <c r="DE135" s="1">
+        <v>43</v>
+      </c>
+      <c r="DF135" s="29" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="136" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY136"/>
-      <c r="AZ136"/>
-      <c r="BA136"/>
+      <c r="A136" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C136" s="3">
+        <v>44824</v>
+      </c>
+      <c r="D136" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H136" s="1">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1">
+        <v>95</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K136" s="1">
+        <v>120</v>
+      </c>
+      <c r="M136" s="1">
+        <v>49</v>
+      </c>
+      <c r="N136" s="1">
+        <v>30</v>
+      </c>
+      <c r="R136" s="1">
+        <v>4</v>
+      </c>
+      <c r="S136" s="1">
+        <v>15</v>
+      </c>
+      <c r="T136" s="1">
+        <v>1</v>
+      </c>
+      <c r="U136" s="1">
+        <v>48</v>
+      </c>
+      <c r="V136" s="1">
+        <v>28</v>
+      </c>
+      <c r="Z136" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB136" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC136" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG136" s="1">
+        <v>52</v>
+      </c>
+      <c r="AP136" s="1">
+        <v>44</v>
+      </c>
+      <c r="AQ136" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR136" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT136" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU136" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW136" s="1">
+        <v>13</v>
+      </c>
+      <c r="AY136">
+        <v>5</v>
+      </c>
+      <c r="AZ136">
+        <v>5</v>
+      </c>
+      <c r="BA136">
+        <v>10</v>
+      </c>
+      <c r="BW136" s="1">
+        <v>46</v>
+      </c>
+      <c r="BX136" s="1">
+        <v>54</v>
+      </c>
+      <c r="BY136" s="1">
+        <v>54</v>
+      </c>
+      <c r="CN136" s="1">
+        <v>50</v>
+      </c>
+      <c r="CO136" s="1">
+        <v>40</v>
+      </c>
+      <c r="CU136" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV136" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW136" s="1">
+        <v>10</v>
+      </c>
+      <c r="DF136" s="29" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="137" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="AY137"/>
-      <c r="AZ137"/>
-      <c r="BA137"/>
+      <c r="A137" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C137" s="3">
+        <v>44826</v>
+      </c>
+      <c r="D137" s="10">
+        <v>44805</v>
+      </c>
+      <c r="E137" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G137" s="1">
+        <v>6754</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1">
+        <v>95</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K137" s="1">
+        <v>343</v>
+      </c>
+      <c r="U137" s="1">
+        <v>56</v>
+      </c>
+      <c r="V137" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z137" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA137" s="1">
+        <v>58</v>
+      </c>
+      <c r="AB137" s="1">
+        <v>29</v>
+      </c>
+      <c r="AC137" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG137" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH137" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI137" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ137" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN137" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO137" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP137" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ137" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR137" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW137" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX137" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY137" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ137" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA137" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB137" s="1">
+        <v>34</v>
+      </c>
+      <c r="BC137" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG137" s="1">
+        <v>40</v>
+      </c>
+      <c r="BH137" s="1">
+        <v>30</v>
+      </c>
+      <c r="BI137" s="1">
+        <v>57</v>
+      </c>
+      <c r="BJ137" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN137" s="1">
+        <v>56</v>
+      </c>
+      <c r="BO137" s="1">
+        <v>64</v>
+      </c>
+      <c r="BP137" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ137" s="1">
+        <v>27</v>
+      </c>
+      <c r="BU137" s="1">
+        <v>25</v>
+      </c>
+      <c r="BV137" s="1">
+        <v>24</v>
+      </c>
+      <c r="BW137" s="1">
+        <v>39</v>
+      </c>
+      <c r="BX137" s="1">
+        <v>52</v>
+      </c>
+      <c r="BY137" s="1">
+        <v>24</v>
+      </c>
+      <c r="CN137" s="1">
+        <v>54</v>
+      </c>
+      <c r="CO137" s="1">
+        <v>38</v>
+      </c>
+      <c r="CU137" s="11">
+        <v>7</v>
+      </c>
+      <c r="CV137" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW137" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF137" s="29" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="138" spans="1:110" x14ac:dyDescent="0.25">
       <c r="AY138"/>
@@ -22543,7 +23789,13 @@
       <c r="AZ149"/>
       <c r="BA149"/>
     </row>
+    <row r="150" spans="51:53" x14ac:dyDescent="0.25">
+      <c r="AY150"/>
+      <c r="AZ150"/>
+      <c r="BA150"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:DH137" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DF82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
@@ -22633,9 +23885,15 @@
     <hyperlink ref="DF120" r:id="rId85" xr:uid="{83B17633-5A09-449F-A213-46B58F49BC3A}"/>
     <hyperlink ref="DF115" r:id="rId86" xr:uid="{29916A39-109A-4E0B-9672-E21991E2BE35}"/>
     <hyperlink ref="DF122" r:id="rId87" display="https://especiaisg1.globo/politica/eleicoes/2022/pesquisas-eleitorais/presidente/1-turno/Ipec/" xr:uid="{30CDF09D-FCA7-41EA-A9BF-B7D49D776139}"/>
-    <hyperlink ref="DF130" r:id="rId88" xr:uid="{2167D9EA-0726-44D0-B700-32FB171D507F}"/>
+    <hyperlink ref="DF132" r:id="rId88" xr:uid="{2167D9EA-0726-44D0-B700-32FB171D507F}"/>
+    <hyperlink ref="DF126" r:id="rId89" xr:uid="{21EBFD64-7648-420D-9B07-199F5A95755A}"/>
+    <hyperlink ref="DF131" r:id="rId90" xr:uid="{B319E0EB-57E1-4516-96CE-0DBE216FB379}"/>
+    <hyperlink ref="DF136" r:id="rId91" xr:uid="{A9F6B69B-957F-4859-A9A9-7F008CE1DF76}"/>
+    <hyperlink ref="DF137" r:id="rId92" xr:uid="{307944A4-A19E-465C-B427-3B15630C8960}"/>
+    <hyperlink ref="DF135" r:id="rId93" xr:uid="{3856A028-5365-42E8-9DDD-91185214F51F}"/>
+    <hyperlink ref="DF124" r:id="rId94" xr:uid="{6F6C7770-D1E1-4736-8ECC-B8643350C26E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12276C8-BA46-4ECF-BA83-0BCD6D8BFEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C97E40-DF9C-4AD8-ADE6-99560C9AC734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="6915" windowWidth="19140" windowHeight="8670" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="19260" yWindow="5145" windowWidth="19140" windowHeight="8670" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$148</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="536">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1556,9 +1556,6 @@
     <t>set/22_poderdata_3</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>util</t>
   </si>
   <si>
@@ -1626,6 +1623,27 @@
   </si>
   <si>
     <t>set/22_datafolha_5</t>
+  </si>
+  <si>
+    <t>set/22_idea</t>
+  </si>
+  <si>
+    <t>BR-09782/2022</t>
+  </si>
+  <si>
+    <t>https://classic.exame.com/wp-content/uploads/2022/09/EXAME-IDEIA_ELEICOES_29-DE-SETEMBRO-editorial.pdf</t>
+  </si>
+  <si>
+    <t>out/22_ipec</t>
+  </si>
+  <si>
+    <t>out/22_datafolha</t>
+  </si>
+  <si>
+    <t>BR-00999/2022</t>
+  </si>
+  <si>
+    <t>BR-00245/2022</t>
   </si>
 </sst>
 </file>
@@ -2184,12 +2202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:DI145"/>
+  <dimension ref="A1:DI148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W140" sqref="W140"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W145" sqref="W145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2266,7 @@
   <sheetData>
     <row r="1" spans="1:113" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -2588,7 +2605,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>182</v>
       </c>
@@ -2728,7 +2745,7 @@
       <c r="DH2"/>
       <c r="DI2"/>
     </row>
-    <row r="3" spans="1:113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2859,7 +2876,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
@@ -2953,7 +2970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
@@ -3047,7 +3064,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
@@ -3675,7 +3692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
@@ -3766,7 +3783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
@@ -3943,7 +3960,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>182</v>
       </c>
@@ -4189,7 +4206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4305,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
@@ -4379,7 +4396,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
@@ -4556,7 +4573,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>195</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
@@ -5051,7 +5068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5322,7 +5339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -5454,7 +5471,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
@@ -5545,7 +5562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>195</v>
       </c>
@@ -5743,7 +5760,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
@@ -5837,7 +5854,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
@@ -5969,7 +5986,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>4</v>
       </c>
@@ -6080,7 +6097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>195</v>
       </c>
@@ -6179,7 +6196,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
@@ -6273,7 +6290,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
@@ -6384,7 +6401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>182</v>
       </c>
@@ -6474,7 +6491,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
@@ -6630,7 +6647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>195</v>
       </c>
@@ -6729,7 +6746,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
@@ -7027,7 +7044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
@@ -7138,7 +7155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
@@ -7260,7 +7277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
@@ -7558,7 +7575,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>195</v>
       </c>
@@ -7808,7 +7825,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +7947,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
@@ -8165,7 +8182,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
@@ -8291,7 +8308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>4</v>
       </c>
@@ -8402,7 +8419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
@@ -8525,7 +8542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>46</v>
       </c>
@@ -8812,7 +8829,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>195</v>
       </c>
@@ -9004,7 +9021,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>182</v>
       </c>
@@ -9109,7 +9126,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>252</v>
       </c>
@@ -9185,7 +9202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
@@ -9308,7 +9325,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
@@ -9535,7 +9552,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
@@ -9688,7 +9705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>4</v>
       </c>
@@ -9958,7 +9975,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
@@ -10248,7 +10265,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -10407,7 +10424,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>3</v>
       </c>
@@ -10596,7 +10613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>252</v>
       </c>
@@ -10672,7 +10689,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>5</v>
       </c>
@@ -10795,7 +10812,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>195</v>
       </c>
@@ -11026,7 +11043,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>46</v>
       </c>
@@ -11256,7 +11273,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>4</v>
       </c>
@@ -11367,7 +11384,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>5</v>
       </c>
@@ -11487,7 +11504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>46</v>
       </c>
@@ -11777,7 +11794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>40</v>
       </c>
@@ -11930,7 +11947,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>5</v>
       </c>
@@ -12050,7 +12067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>252</v>
       </c>
@@ -12126,7 +12143,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>46</v>
       </c>
@@ -12353,7 +12370,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
@@ -12506,7 +12523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>195</v>
       </c>
@@ -12599,7 +12616,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
@@ -12719,7 +12736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>40</v>
       </c>
@@ -12870,7 +12887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>182</v>
       </c>
@@ -12975,7 +12992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>4</v>
       </c>
@@ -13089,7 +13106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>46</v>
       </c>
@@ -13379,7 +13396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
@@ -13499,7 +13516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>5</v>
       </c>
@@ -13619,7 +13636,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>252</v>
       </c>
@@ -13695,7 +13712,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>195</v>
       </c>
@@ -13941,7 +13958,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>46</v>
       </c>
@@ -14168,7 +14185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>5</v>
       </c>
@@ -14288,7 +14305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>3</v>
       </c>
@@ -14489,7 +14506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
@@ -14642,7 +14659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
@@ -14792,7 +14809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
@@ -14911,7 +14928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>4</v>
       </c>
@@ -15025,7 +15042,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>46</v>
       </c>
@@ -15311,7 +15328,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
@@ -15464,7 +15481,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>46</v>
       </c>
@@ -15687,7 +15704,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>252</v>
       </c>
@@ -15773,7 +15790,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>3</v>
       </c>
@@ -15895,7 +15912,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
@@ -16053,7 +16070,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>4</v>
       </c>
@@ -16169,7 +16186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>40</v>
       </c>
@@ -16321,7 +16338,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>46</v>
       </c>
@@ -16616,7 +16633,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
@@ -16770,7 +16787,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>46</v>
       </c>
@@ -17023,7 +17040,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>252</v>
       </c>
@@ -17109,7 +17126,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>5</v>
       </c>
@@ -17227,7 +17244,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
@@ -17383,7 +17400,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>195</v>
       </c>
@@ -17487,7 +17504,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>3</v>
       </c>
@@ -17678,7 +17695,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>4</v>
       </c>
@@ -17806,7 +17823,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
@@ -17934,7 +17951,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>46</v>
       </c>
@@ -18259,7 +18276,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
@@ -18417,7 +18434,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>4</v>
       </c>
@@ -18545,7 +18562,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="107" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
@@ -18706,7 +18723,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="108" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>2</v>
       </c>
@@ -18891,7 +18908,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
@@ -19148,7 +19165,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>3</v>
       </c>
@@ -19343,7 +19360,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
@@ -19499,7 +19516,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>40</v>
       </c>
@@ -19575,7 +19592,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>252</v>
       </c>
@@ -19659,7 +19676,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>4</v>
       </c>
@@ -19785,7 +19802,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>182</v>
       </c>
@@ -19911,7 +19928,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>6</v>
       </c>
@@ -20067,7 +20084,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
@@ -20253,7 +20270,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>5</v>
       </c>
@@ -20373,7 +20390,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
         <v>46</v>
       </c>
@@ -20687,7 +20704,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>40</v>
       </c>
@@ -22265,7 +22282,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>6</v>
       </c>
@@ -22421,7 +22438,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
         <v>40</v>
       </c>
@@ -22511,7 +22528,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -22810,7 +22827,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
         <v>4</v>
       </c>
@@ -22926,15 +22943,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="133" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D133" s="3">
         <v>44818</v>
@@ -22946,7 +22960,7 @@
         <v>2022</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H133" s="1">
         <v>2022</v>
@@ -23049,10 +23063,10 @@
         <v>42.8</v>
       </c>
       <c r="DG133" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>3</v>
       </c>
@@ -23249,7 +23263,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="135" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>2</v>
       </c>
@@ -23416,10 +23430,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="136" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>6</v>
       </c>
@@ -23571,10 +23582,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="137" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>4</v>
       </c>
@@ -23696,10 +23704,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="138" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="138" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
         <v>46</v>
       </c>
@@ -23716,7 +23721,7 @@
         <v>2022</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H138" s="1">
         <v>3500</v>
@@ -23932,18 +23937,15 @@
         <v>8</v>
       </c>
       <c r="DG138" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="139" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="139" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D139" s="3">
         <v>44825</v>
@@ -23955,7 +23957,7 @@
         <v>2022</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H139" s="1">
         <v>2000</v>
@@ -24060,10 +24062,10 @@
         <v>45</v>
       </c>
       <c r="DG139" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="140" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>3</v>
       </c>
@@ -24231,15 +24233,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="141" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D141" s="3">
         <v>44829</v>
@@ -24251,7 +24250,7 @@
         <v>2022</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H141" s="1">
         <v>2000</v>
@@ -24431,18 +24430,15 @@
         <v>46</v>
       </c>
       <c r="DG141" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="142" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D142" s="3">
         <v>44830</v>
@@ -24454,7 +24450,7 @@
         <v>2022</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H142" s="1">
         <v>3008</v>
@@ -24619,18 +24615,15 @@
         <v>11</v>
       </c>
       <c r="DG142" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="143" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="143" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D143" s="3">
         <v>44831</v>
@@ -24642,7 +24635,7 @@
         <v>2022</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H143" s="1">
         <v>2000</v>
@@ -24744,18 +24737,15 @@
         <v>10</v>
       </c>
       <c r="DG143" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="144" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="144" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D144" s="3">
         <v>44831</v>
@@ -24767,7 +24757,7 @@
         <v>2022</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H144" s="1">
         <v>2020</v>
@@ -24785,21 +24775,18 @@
         <v>160</v>
       </c>
       <c r="DG144" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>506</v>
-      </c>
+    <row r="145" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>529</v>
       </c>
       <c r="D145" s="3">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="E145" s="10">
         <v>44805</v>
@@ -24808,167 +24795,589 @@
         <v>2022</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H145" s="1">
-        <v>6800</v>
-      </c>
-      <c r="I145" s="1">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="J145" s="1">
         <v>95</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="V145" s="1">
-        <v>55</v>
-      </c>
-      <c r="W145" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA145" s="1">
-        <v>44</v>
-      </c>
-      <c r="AB145" s="1">
-        <v>58</v>
-      </c>
-      <c r="AC145" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD145" s="1">
-        <v>50</v>
-      </c>
-      <c r="AH145" s="1">
-        <v>35</v>
-      </c>
-      <c r="AI145" s="1">
-        <v>22</v>
-      </c>
-      <c r="AJ145" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK145" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO145" s="1">
-        <v>7</v>
-      </c>
-      <c r="AP145" s="1">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="AQ145" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR145" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AS145" s="1">
         <v>6</v>
       </c>
       <c r="AZ145" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA145" s="1">
         <v>3</v>
       </c>
-      <c r="BA145" s="1">
-        <v>2</v>
-      </c>
       <c r="BB145" s="1">
-        <v>5</v>
-      </c>
-      <c r="BC145" s="1">
-        <v>33</v>
-      </c>
-      <c r="BD145" s="1">
-        <v>55</v>
-      </c>
-      <c r="BH145" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX145" s="1">
+        <v>40</v>
+      </c>
+      <c r="BY145" s="1">
+        <v>46</v>
+      </c>
+      <c r="BZ145" s="1">
+        <v>18</v>
+      </c>
+      <c r="CO145" s="1">
+        <v>52</v>
+      </c>
+      <c r="CP145" s="1">
         <v>41</v>
       </c>
-      <c r="BI145" s="1">
-        <v>28</v>
-      </c>
-      <c r="BJ145" s="1">
-        <v>59</v>
-      </c>
-      <c r="BK145" s="1">
-        <v>35</v>
-      </c>
-      <c r="BO145" s="1">
-        <v>53</v>
-      </c>
-      <c r="BP145" s="1">
-        <v>62</v>
-      </c>
-      <c r="BQ145" s="1">
-        <v>24</v>
-      </c>
-      <c r="BR145" s="1">
-        <v>27</v>
-      </c>
-      <c r="BV145" s="1">
-        <v>24</v>
-      </c>
-      <c r="BW145" s="1">
-        <v>20</v>
-      </c>
-      <c r="BX145" s="1">
-        <v>39</v>
-      </c>
-      <c r="BY145" s="1">
-        <v>52</v>
-      </c>
-      <c r="BZ145" s="1">
-        <v>24</v>
-      </c>
-      <c r="CA145" s="1">
-        <v>61</v>
-      </c>
-      <c r="CB145" s="1">
-        <v>36</v>
-      </c>
-      <c r="CF145" s="1">
-        <v>52</v>
-      </c>
-      <c r="CG145" s="1">
-        <v>65</v>
-      </c>
-      <c r="CH145" s="1">
-        <v>32</v>
-      </c>
-      <c r="CI145" s="1">
-        <v>58</v>
-      </c>
-      <c r="CM145" s="1">
-        <v>38</v>
-      </c>
-      <c r="CN145" s="1">
-        <v>26</v>
-      </c>
-      <c r="CO145" s="1">
-        <v>54</v>
-      </c>
-      <c r="CP145" s="1">
-        <v>39</v>
-      </c>
       <c r="CV145" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CW145" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CX145" s="1">
         <v>7</v>
       </c>
+      <c r="DF145" s="1">
+        <v>46</v>
+      </c>
+      <c r="DG145" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="146" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D146" s="3">
+        <v>44833</v>
+      </c>
+      <c r="E146" s="10">
+        <v>44805</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H146" s="1">
+        <v>6800</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>95</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V146" s="1">
+        <v>55</v>
+      </c>
+      <c r="W146" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>58</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH146" s="1">
+        <v>35</v>
+      </c>
+      <c r="AI146" s="1">
+        <v>22</v>
+      </c>
+      <c r="AJ146" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK146" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO146" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP146" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ146" s="1">
+        <v>48</v>
+      </c>
+      <c r="AR146" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS146" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ146" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA146" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB146" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC146" s="1">
+        <v>33</v>
+      </c>
+      <c r="BD146" s="1">
+        <v>55</v>
+      </c>
+      <c r="BH146" s="1">
+        <v>41</v>
+      </c>
+      <c r="BI146" s="1">
+        <v>28</v>
+      </c>
+      <c r="BJ146" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK146" s="1">
+        <v>35</v>
+      </c>
+      <c r="BO146" s="1">
+        <v>53</v>
+      </c>
+      <c r="BP146" s="1">
+        <v>62</v>
+      </c>
+      <c r="BQ146" s="1">
+        <v>24</v>
+      </c>
+      <c r="BR146" s="1">
+        <v>27</v>
+      </c>
+      <c r="BV146" s="1">
+        <v>24</v>
+      </c>
+      <c r="BW146" s="1">
+        <v>20</v>
+      </c>
+      <c r="BX146" s="1">
+        <v>39</v>
+      </c>
+      <c r="BY146" s="1">
+        <v>52</v>
+      </c>
+      <c r="BZ146" s="1">
+        <v>24</v>
+      </c>
+      <c r="CA146" s="1">
+        <v>61</v>
+      </c>
+      <c r="CB146" s="1">
+        <v>36</v>
+      </c>
+      <c r="CF146" s="1">
+        <v>52</v>
+      </c>
+      <c r="CG146" s="1">
+        <v>65</v>
+      </c>
+      <c r="CH146" s="1">
+        <v>32</v>
+      </c>
+      <c r="CI146" s="1">
+        <v>58</v>
+      </c>
+      <c r="CM146" s="1">
+        <v>38</v>
+      </c>
+      <c r="CN146" s="1">
+        <v>26</v>
+      </c>
+      <c r="CO146" s="1">
+        <v>54</v>
+      </c>
+      <c r="CP146" s="1">
+        <v>39</v>
+      </c>
+      <c r="CV146" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW146" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX146" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147" s="3">
+        <v>44835</v>
+      </c>
+      <c r="E147" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="H147" s="1">
+        <v>3008</v>
+      </c>
+      <c r="I147" s="1">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>95</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L147" s="1">
+        <v>183</v>
+      </c>
+      <c r="V147" s="1">
+        <v>52</v>
+      </c>
+      <c r="W147" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>54</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>51</v>
+      </c>
+      <c r="AH147" s="1">
+        <v>23</v>
+      </c>
+      <c r="AJ147" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK147" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO147" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ147" s="1">
+        <v>47</v>
+      </c>
+      <c r="AR147" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS147" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV147" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ147" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA147" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB147" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC147" s="1">
+        <v>33</v>
+      </c>
+      <c r="BD147" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH147" s="1">
+        <v>28</v>
+      </c>
+      <c r="BJ147" s="1">
+        <v>48</v>
+      </c>
+      <c r="BK147" s="1">
+        <v>32</v>
+      </c>
+      <c r="BO147" s="1">
+        <v>61</v>
+      </c>
+      <c r="BQ147" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR147" s="1">
+        <v>17</v>
+      </c>
+      <c r="BV147" s="1">
+        <v>13</v>
+      </c>
+      <c r="BX147" s="1">
+        <v>38</v>
+      </c>
+      <c r="BY147" s="1">
+        <v>46</v>
+      </c>
+      <c r="BZ147" s="1">
+        <v>14</v>
+      </c>
+      <c r="CA147" s="1">
+        <v>57</v>
+      </c>
+      <c r="CB147" s="1">
+        <v>34</v>
+      </c>
+      <c r="CF147" s="1">
+        <v>60</v>
+      </c>
+      <c r="CH147" s="1">
+        <v>33</v>
+      </c>
+      <c r="CI147" s="1">
+        <v>55</v>
+      </c>
+      <c r="CM147" s="1">
+        <v>26</v>
+      </c>
+      <c r="CO147" s="1">
+        <v>52</v>
+      </c>
+      <c r="CP147" s="1">
+        <v>37</v>
+      </c>
+      <c r="CQ147" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR147" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT147" s="1">
+        <v>12</v>
+      </c>
+      <c r="CV147" s="1">
+        <v>8</v>
+      </c>
+      <c r="CW147" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX147" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B148" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" s="3">
+        <v>44835</v>
+      </c>
+      <c r="E148" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="H148" s="1">
+        <v>12800</v>
+      </c>
+      <c r="I148" s="1">
+        <v>2</v>
+      </c>
+      <c r="J148" s="1">
+        <v>95</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L148" s="1">
+        <v>310</v>
+      </c>
+      <c r="V148" s="1">
+        <v>57</v>
+      </c>
+      <c r="W148" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>54</v>
+      </c>
+      <c r="AH148" s="1">
+        <v>36</v>
+      </c>
+      <c r="AI148" s="1">
+        <v>24</v>
+      </c>
+      <c r="AJ148" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK148" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO148" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP148" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ148" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR148" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS148" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ148" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA148" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB148" s="1">
+        <v>7</v>
+      </c>
+      <c r="BC148" s="1">
+        <v>33</v>
+      </c>
+      <c r="BD148" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH148" s="1">
+        <v>40</v>
+      </c>
+      <c r="BI148" s="1">
+        <v>29</v>
+      </c>
+      <c r="BJ148" s="1">
+        <v>58</v>
+      </c>
+      <c r="BK148" s="1">
+        <v>35</v>
+      </c>
+      <c r="BO148" s="1">
+        <v>54</v>
+      </c>
+      <c r="BP148" s="1">
+        <v>65</v>
+      </c>
+      <c r="BQ148" s="1">
+        <v>21</v>
+      </c>
+      <c r="BR148" s="1">
+        <v>24</v>
+      </c>
+      <c r="BV148" s="1">
+        <v>22</v>
+      </c>
+      <c r="BW148" s="1">
+        <v>21</v>
+      </c>
+      <c r="BX148" s="1">
+        <v>40</v>
+      </c>
+      <c r="BY148" s="1">
+        <v>52</v>
+      </c>
+      <c r="BZ148" s="1">
+        <v>22</v>
+      </c>
+      <c r="CA148" s="1">
+        <v>61</v>
+      </c>
+      <c r="CB148" s="1">
+        <v>35</v>
+      </c>
+      <c r="CF148" s="1">
+        <v>53</v>
+      </c>
+      <c r="CG148" s="1">
+        <v>65</v>
+      </c>
+      <c r="CH148" s="1">
+        <v>32</v>
+      </c>
+      <c r="CI148" s="1">
+        <v>57</v>
+      </c>
+      <c r="CM148" s="1">
+        <v>38</v>
+      </c>
+      <c r="CN148" s="1">
+        <v>26</v>
+      </c>
+      <c r="CO148" s="1">
+        <v>54</v>
+      </c>
+      <c r="CP148" s="1">
+        <v>38</v>
+      </c>
+      <c r="CQ148" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR148" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT148" s="1">
+        <v>8</v>
+      </c>
+      <c r="CU148" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV148" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW148" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX148" s="1">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DI145" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2022" month="9" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DG82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C97E40-DF9C-4AD8-ADE6-99560C9AC734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED1C0C-5309-4404-ABAA-E203E725CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="5145" windowWidth="19140" windowHeight="8670" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="17280" windowHeight="9660" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="583">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1644,6 +1644,147 @@
   </si>
   <si>
     <t>BR-00245/2022</t>
+  </si>
+  <si>
+    <t>out/22_poderdata</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/10/Poderdata-68-5out22.pdf</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-69-11out.pdf</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_2</t>
+  </si>
+  <si>
+    <t>BR-08253/2022</t>
+  </si>
+  <si>
+    <t>BR-09241/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipespe</t>
+  </si>
+  <si>
+    <t>BR-07942/2022</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/wp-content/uploads/2022/10/PESQUISA-IPESPE-AVALIAC%CC%A7A%CC%83O-PRESIDENCIAL-E-ELEIC%CC%A7A%CC%83O-2022_-13-OUTUBRO-2022.pdf</t>
+  </si>
+  <si>
+    <t>out/22_quaest</t>
+  </si>
+  <si>
+    <t>BR-07940/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/06153954/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221006.pdf</t>
+  </si>
+  <si>
+    <t>out/22_quaest_2</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/18185132/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221019.pdf</t>
+  </si>
+  <si>
+    <t>BR-04387/2022</t>
+  </si>
+  <si>
+    <t>out/22_quaest_3</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/13120355/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221013.pdf</t>
+  </si>
+  <si>
+    <t>BR-07106/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_2</t>
+  </si>
+  <si>
+    <t>BR-08438/2022</t>
+  </si>
+  <si>
+    <t>out/22_pr_pesq</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/10/Midia-BR.pdf</t>
+  </si>
+  <si>
+    <t>out/22_ipec_3</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2183/Job_22_1426-10_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>BR‐02707/2022</t>
+  </si>
+  <si>
+    <t>BR‐02853/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2179/Job_22_1426-9_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>out/22_ipec_4</t>
+  </si>
+  <si>
+    <t>BR‐02736/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2175/Job_22_1426-8_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>BR 05514/2022</t>
+  </si>
+  <si>
+    <t>out/22_mda_2</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_3</t>
+  </si>
+  <si>
+    <t>BR-08917/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2020/04/Poderdata-70-18out.pdf</t>
+  </si>
+  <si>
+    <t>out/22_futura</t>
+  </si>
+  <si>
+    <t>BR-08263/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F19%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>out/22_futura_2</t>
+  </si>
+  <si>
+    <t>BR-06280/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F20%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_2</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_3</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_4</t>
+  </si>
+  <si>
+    <t>BR-07340/2022</t>
+  </si>
+  <si>
+    <t>BR-01682/2022</t>
+  </si>
+  <si>
+    <t>BR-02012/2022</t>
   </si>
 </sst>
 </file>
@@ -2202,11 +2343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DI148"/>
+  <dimension ref="A1:DI166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W145" sqref="W145"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24800,6 +24941,9 @@
       <c r="H145" s="1">
         <v>1500</v>
       </c>
+      <c r="I145" s="1">
+        <v>3</v>
+      </c>
       <c r="J145" s="1">
         <v>95</v>
       </c>
@@ -24851,7 +24995,7 @@
       <c r="DF145" s="1">
         <v>46</v>
       </c>
-      <c r="DG145" s="7" t="s">
+      <c r="DG145" s="29" t="s">
         <v>531</v>
       </c>
     </row>
@@ -25375,6 +25519,1531 @@
       </c>
       <c r="CX148" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B149" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D149" s="3">
+        <v>44838</v>
+      </c>
+      <c r="E149" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="H149" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I149" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J149" s="1">
+        <v>95</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N149" s="1">
+        <v>53</v>
+      </c>
+      <c r="O149" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="P149" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S149" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="T149" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="U149" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="CO149" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="CP149" s="1">
+        <v>46</v>
+      </c>
+      <c r="CV149" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="CW149" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="CX149" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="DG149" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="150" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B150" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D150" s="3">
+        <v>44839</v>
+      </c>
+      <c r="E150" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I150" s="1">
+        <v>2</v>
+      </c>
+      <c r="J150" s="1">
+        <v>95</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L150" s="1">
+        <v>129</v>
+      </c>
+      <c r="N150" s="1">
+        <v>55</v>
+      </c>
+      <c r="O150" s="1">
+        <v>27</v>
+      </c>
+      <c r="S150" s="1">
+        <v>18</v>
+      </c>
+      <c r="CA150" s="1">
+        <v>59</v>
+      </c>
+      <c r="CB150" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF150" s="1">
+        <v>58</v>
+      </c>
+      <c r="CH150" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI150" s="1">
+        <v>61</v>
+      </c>
+      <c r="CM150" s="1">
+        <v>34</v>
+      </c>
+      <c r="CO150" s="1">
+        <v>51</v>
+      </c>
+      <c r="CP150" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ150" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR150" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT150" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV150" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW150" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX150" s="1">
+        <v>6</v>
+      </c>
+      <c r="DG150" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="151" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D151" s="3">
+        <v>44839</v>
+      </c>
+      <c r="E151" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H151" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="J151" s="1">
+        <v>95</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L151" s="1">
+        <v>301</v>
+      </c>
+      <c r="M151" s="1">
+        <v>27</v>
+      </c>
+      <c r="N151" s="1">
+        <v>45</v>
+      </c>
+      <c r="O151" s="1">
+        <v>30</v>
+      </c>
+      <c r="P151" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>2</v>
+      </c>
+      <c r="R151" s="1">
+        <v>1</v>
+      </c>
+      <c r="S151" s="1">
+        <v>1</v>
+      </c>
+      <c r="T151" s="1">
+        <v>16</v>
+      </c>
+      <c r="U151" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA151" s="1">
+        <v>59</v>
+      </c>
+      <c r="CB151" s="1">
+        <v>29</v>
+      </c>
+      <c r="CC151" s="1">
+        <v>87</v>
+      </c>
+      <c r="CD151" s="1">
+        <v>29</v>
+      </c>
+      <c r="CE151" s="1">
+        <v>66</v>
+      </c>
+      <c r="CF151" s="1">
+        <v>23</v>
+      </c>
+      <c r="CG151" s="1">
+        <v>52</v>
+      </c>
+      <c r="CH151" s="1">
+        <v>33</v>
+      </c>
+      <c r="CI151" s="1">
+        <v>63</v>
+      </c>
+      <c r="CJ151" s="1">
+        <v>13</v>
+      </c>
+      <c r="CK151" s="1">
+        <v>70</v>
+      </c>
+      <c r="CL151" s="1">
+        <v>28</v>
+      </c>
+      <c r="CM151" s="1">
+        <v>19</v>
+      </c>
+      <c r="CN151" s="1">
+        <v>39</v>
+      </c>
+      <c r="CO151" s="1">
+        <v>48</v>
+      </c>
+      <c r="CP151" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ151" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR151" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT151" s="1">
+        <v>25</v>
+      </c>
+      <c r="CU151" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV151" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW151" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX151" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG151" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="152" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D152" s="3">
+        <v>44839</v>
+      </c>
+      <c r="E152" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H152" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I152" s="1">
+        <v>2</v>
+      </c>
+      <c r="J152" s="1">
+        <v>95</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L152" s="1">
+        <v>120</v>
+      </c>
+      <c r="N152" s="1">
+        <v>53</v>
+      </c>
+      <c r="O152" s="1">
+        <v>28</v>
+      </c>
+      <c r="S152" s="1">
+        <v>5</v>
+      </c>
+      <c r="T152" s="1">
+        <v>14</v>
+      </c>
+      <c r="U152" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO152" s="1">
+        <v>48</v>
+      </c>
+      <c r="CP152" s="1">
+        <v>41</v>
+      </c>
+      <c r="CV152" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW152" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX152" s="1">
+        <v>11</v>
+      </c>
+      <c r="DG152" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="153" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D153" s="3">
+        <v>44841</v>
+      </c>
+      <c r="E153" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H153" s="1">
+        <v>2884</v>
+      </c>
+      <c r="I153" s="1">
+        <v>2</v>
+      </c>
+      <c r="J153" s="1">
+        <v>95</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L153" s="1">
+        <v>170</v>
+      </c>
+      <c r="CA153" s="1">
+        <v>55</v>
+      </c>
+      <c r="CB153" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF153" s="1">
+        <v>50</v>
+      </c>
+      <c r="CG153" s="1">
+        <v>63</v>
+      </c>
+      <c r="CH153" s="1">
+        <v>38</v>
+      </c>
+      <c r="CI153" s="1">
+        <v>62</v>
+      </c>
+      <c r="CM153" s="1">
+        <v>41</v>
+      </c>
+      <c r="CN153" s="1">
+        <v>30</v>
+      </c>
+      <c r="CO153" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP153" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ153" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR153" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT153" s="1">
+        <v>8</v>
+      </c>
+      <c r="CU153" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV153" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW153" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX153" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG153" s="7"/>
+    </row>
+    <row r="154" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B154" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D154" s="3">
+        <v>44844</v>
+      </c>
+      <c r="E154" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="H154" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I154" s="1">
+        <v>2</v>
+      </c>
+      <c r="J154" s="1">
+        <v>95</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L154" s="1">
+        <v>130</v>
+      </c>
+      <c r="N154" s="1">
+        <v>57</v>
+      </c>
+      <c r="O154" s="1">
+        <v>27</v>
+      </c>
+      <c r="S154" s="1">
+        <v>16</v>
+      </c>
+      <c r="CA154" s="1">
+        <v>60</v>
+      </c>
+      <c r="CB154" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF154" s="1">
+        <v>55</v>
+      </c>
+      <c r="CH154" s="1">
+        <v>34</v>
+      </c>
+      <c r="CI154" s="1">
+        <v>63</v>
+      </c>
+      <c r="CM154" s="1">
+        <v>36</v>
+      </c>
+      <c r="CO154" s="1">
+        <v>51</v>
+      </c>
+      <c r="CP154" s="1">
+        <v>42</v>
+      </c>
+      <c r="CQ154" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR154" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS154" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV154" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW154" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX154" s="1">
+        <v>7</v>
+      </c>
+      <c r="DG154" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B155" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D155" s="3">
+        <v>44845</v>
+      </c>
+      <c r="E155" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="H155" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I155" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J155" s="1">
+        <v>95</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L155" s="1">
+        <v>347</v>
+      </c>
+      <c r="M155" s="1">
+        <v>27</v>
+      </c>
+      <c r="N155" s="1">
+        <v>45</v>
+      </c>
+      <c r="O155" s="1">
+        <v>30</v>
+      </c>
+      <c r="P155" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>2</v>
+      </c>
+      <c r="R155" s="1">
+        <v>1</v>
+      </c>
+      <c r="S155" s="1">
+        <v>1</v>
+      </c>
+      <c r="T155" s="1">
+        <v>16</v>
+      </c>
+      <c r="U155" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA155" s="1">
+        <v>52</v>
+      </c>
+      <c r="CB155" s="1">
+        <v>37</v>
+      </c>
+      <c r="CC155" s="1">
+        <v>44</v>
+      </c>
+      <c r="CD155" s="1">
+        <v>75</v>
+      </c>
+      <c r="CE155" s="1">
+        <v>49</v>
+      </c>
+      <c r="CF155" s="1">
+        <v>55</v>
+      </c>
+      <c r="CG155" s="1">
+        <v>56</v>
+      </c>
+      <c r="CH155" s="1">
+        <v>42</v>
+      </c>
+      <c r="CI155" s="1">
+        <v>55</v>
+      </c>
+      <c r="CJ155" s="1">
+        <v>51</v>
+      </c>
+      <c r="CK155" s="1">
+        <v>25</v>
+      </c>
+      <c r="CL155" s="1">
+        <v>44</v>
+      </c>
+      <c r="CM155" s="1">
+        <v>26</v>
+      </c>
+      <c r="CN155" s="1">
+        <v>32</v>
+      </c>
+      <c r="CO155" s="1">
+        <v>48</v>
+      </c>
+      <c r="CP155" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ155" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR155" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS155" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT155" s="1">
+        <v>19</v>
+      </c>
+      <c r="CU155" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV155" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW155" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX155" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG155" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="156" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D156" s="3">
+        <v>44846</v>
+      </c>
+      <c r="E156" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F156" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H156" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I156" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J156" s="1">
+        <v>95</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N156" s="1">
+        <v>50</v>
+      </c>
+      <c r="O156" s="1">
+        <v>28</v>
+      </c>
+      <c r="T156" s="1">
+        <v>21</v>
+      </c>
+      <c r="CA156" s="1">
+        <v>54</v>
+      </c>
+      <c r="CB156" s="1">
+        <v>29</v>
+      </c>
+      <c r="CF156" s="1">
+        <v>63</v>
+      </c>
+      <c r="CH156" s="1">
+        <v>37</v>
+      </c>
+      <c r="CI156" s="1">
+        <v>63</v>
+      </c>
+      <c r="CM156" s="1">
+        <v>31</v>
+      </c>
+      <c r="CO156" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP156" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ156" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR156" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT156" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV156" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW156" s="1">
+        <v>4</v>
+      </c>
+      <c r="CX156" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG156" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="157" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D157" s="3">
+        <v>44846</v>
+      </c>
+      <c r="E157" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="H157" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I157" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J157" s="1">
+        <v>95</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L157" s="1">
+        <v>162</v>
+      </c>
+      <c r="M157" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO157" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="CP157" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="CV157" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="CW157" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="CX157" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="DG157" s="29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="158" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D158" s="3">
+        <v>44846</v>
+      </c>
+      <c r="E158" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="H158" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I158" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J158" s="1">
+        <v>95</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N158" s="1">
+        <v>54</v>
+      </c>
+      <c r="O158" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="P158" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S158" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="T158" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="U158" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="CO158" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="CP158" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="CV158" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="CW158" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="CX158" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="DG158" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="159" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D159" s="3">
+        <v>44847</v>
+      </c>
+      <c r="E159" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="H159" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J159" s="1">
+        <v>95</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L159" s="1">
+        <v>162</v>
+      </c>
+      <c r="M159" s="1">
+        <v>27</v>
+      </c>
+      <c r="CA159" s="1">
+        <v>54</v>
+      </c>
+      <c r="CB159" s="1">
+        <v>32</v>
+      </c>
+      <c r="CF159" s="1">
+        <v>58</v>
+      </c>
+      <c r="CH159" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI159" s="1">
+        <v>59</v>
+      </c>
+      <c r="CM159" s="1">
+        <v>58</v>
+      </c>
+      <c r="CO159" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP159" s="1">
+        <v>41</v>
+      </c>
+      <c r="CQ159" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR159" s="1">
+        <v>7</v>
+      </c>
+      <c r="CS159" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV159" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW159" s="1">
+        <v>4</v>
+      </c>
+      <c r="CX159" s="1">
+        <v>10</v>
+      </c>
+      <c r="DG159" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="160" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D160" s="3">
+        <v>44848</v>
+      </c>
+      <c r="E160" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H160" s="1">
+        <v>2898</v>
+      </c>
+      <c r="I160" s="1">
+        <v>2</v>
+      </c>
+      <c r="J160" s="1">
+        <v>95</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L160" s="1">
+        <v>180</v>
+      </c>
+      <c r="CA160" s="1">
+        <v>57</v>
+      </c>
+      <c r="CB160" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF160" s="1">
+        <v>45</v>
+      </c>
+      <c r="CG160" s="1">
+        <v>64</v>
+      </c>
+      <c r="CH160" s="1">
+        <v>37</v>
+      </c>
+      <c r="CI160" s="1">
+        <v>65</v>
+      </c>
+      <c r="CM160" s="1">
+        <v>44</v>
+      </c>
+      <c r="CN160" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO160" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP160" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ160" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR160" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT160" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU160" s="1">
+        <v>9</v>
+      </c>
+      <c r="CV160" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW160" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX160" s="1">
+        <v>6</v>
+      </c>
+      <c r="DG160" s="7"/>
+    </row>
+    <row r="161" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D161" s="3">
+        <v>44850</v>
+      </c>
+      <c r="E161" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I161" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J161" s="1">
+        <v>95</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N161" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="O161" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="S161" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="T161" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="CA161" s="1">
+        <v>53</v>
+      </c>
+      <c r="CB161" s="1">
+        <v>30</v>
+      </c>
+      <c r="CH161" s="1">
+        <v>37</v>
+      </c>
+      <c r="CI161" s="1">
+        <v>62</v>
+      </c>
+      <c r="CO161" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="CP161" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="CQ161" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR161" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV161" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW161" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CX161" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="DG161" s="7"/>
+    </row>
+    <row r="162" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D162" s="3">
+        <v>44851</v>
+      </c>
+      <c r="E162" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H162" s="1">
+        <v>3008</v>
+      </c>
+      <c r="I162" s="1">
+        <v>2</v>
+      </c>
+      <c r="J162" s="1">
+        <v>95</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L162" s="1">
+        <v>184</v>
+      </c>
+      <c r="N162" s="1">
+        <v>56</v>
+      </c>
+      <c r="O162" s="1">
+        <v>26</v>
+      </c>
+      <c r="S162" s="1">
+        <v>18</v>
+      </c>
+      <c r="CA162" s="1">
+        <v>56</v>
+      </c>
+      <c r="CB162" s="1">
+        <v>32</v>
+      </c>
+      <c r="CF162" s="1">
+        <v>55</v>
+      </c>
+      <c r="CH162" s="1">
+        <v>38</v>
+      </c>
+      <c r="CI162" s="1">
+        <v>60</v>
+      </c>
+      <c r="CM162" s="1">
+        <v>36</v>
+      </c>
+      <c r="CO162" s="1">
+        <v>50</v>
+      </c>
+      <c r="CP162" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ162" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR162" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT162" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV162" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW162" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX162" s="1">
+        <v>7</v>
+      </c>
+      <c r="DG162" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="163" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D163" s="3">
+        <v>44852</v>
+      </c>
+      <c r="E163" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="H163" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>95</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L163" s="1">
+        <v>120</v>
+      </c>
+      <c r="CA163" s="1">
+        <v>54</v>
+      </c>
+      <c r="CB163" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF163" s="1">
+        <v>54</v>
+      </c>
+      <c r="CH163" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI163" s="1">
+        <v>56</v>
+      </c>
+      <c r="CM163" s="1">
+        <v>35</v>
+      </c>
+      <c r="CO163" s="1">
+        <v>47</v>
+      </c>
+      <c r="CP163" s="1">
+        <v>42</v>
+      </c>
+      <c r="CQ163" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR163" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT163" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV163" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW163" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX163" s="1">
+        <v>11</v>
+      </c>
+      <c r="DG163" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="164" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D164" s="3">
+        <v>44852</v>
+      </c>
+      <c r="E164" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="H164" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J164" s="1">
+        <v>95</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L164" s="1">
+        <v>351</v>
+      </c>
+      <c r="M164" s="1">
+        <v>27</v>
+      </c>
+      <c r="N164" s="1">
+        <v>46</v>
+      </c>
+      <c r="O164" s="1">
+        <v>28</v>
+      </c>
+      <c r="P164" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>1</v>
+      </c>
+      <c r="R164" s="1">
+        <v>1</v>
+      </c>
+      <c r="S164" s="1">
+        <v>2</v>
+      </c>
+      <c r="T164" s="1">
+        <v>18</v>
+      </c>
+      <c r="U164" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA164" s="30">
+        <v>47</v>
+      </c>
+      <c r="CB164" s="1">
+        <v>34</v>
+      </c>
+      <c r="CC164" s="1">
+        <v>89</v>
+      </c>
+      <c r="CD164" s="1">
+        <v>36</v>
+      </c>
+      <c r="CE164" s="1">
+        <v>5</v>
+      </c>
+      <c r="CF164" s="1">
+        <v>50</v>
+      </c>
+      <c r="CG164" s="1">
+        <v>67</v>
+      </c>
+      <c r="CH164" s="30">
+        <v>46</v>
+      </c>
+      <c r="CI164" s="1">
+        <v>56</v>
+      </c>
+      <c r="CJ164" s="1">
+        <v>7</v>
+      </c>
+      <c r="CK164" s="30">
+        <v>64</v>
+      </c>
+      <c r="CL164" s="1">
+        <v>18</v>
+      </c>
+      <c r="CM164" s="1">
+        <v>50</v>
+      </c>
+      <c r="CN164" s="1">
+        <v>26</v>
+      </c>
+      <c r="CO164" s="1">
+        <v>48</v>
+      </c>
+      <c r="CP164" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ164" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR164" s="1">
+        <v>6</v>
+      </c>
+      <c r="CS164" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU164" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV164" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW164" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX164" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG164" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="165" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D165" s="3">
+        <v>44853</v>
+      </c>
+      <c r="E165" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H165" s="1">
+        <v>2912</v>
+      </c>
+      <c r="I165" s="1">
+        <v>2</v>
+      </c>
+      <c r="J165" s="1">
+        <v>95</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L165" s="1">
+        <v>181</v>
+      </c>
+      <c r="CA165" s="1">
+        <v>58</v>
+      </c>
+      <c r="CB165" s="1">
+        <v>28</v>
+      </c>
+      <c r="CF165" s="1">
+        <v>47</v>
+      </c>
+      <c r="CG165" s="1">
+        <v>59</v>
+      </c>
+      <c r="CH165" s="1">
+        <v>37</v>
+      </c>
+      <c r="CI165" s="1">
+        <v>66</v>
+      </c>
+      <c r="CM165" s="1">
+        <v>46</v>
+      </c>
+      <c r="CN165" s="1">
+        <v>29</v>
+      </c>
+      <c r="CO165" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP165" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ165" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR165" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT165" s="1">
+        <v>7</v>
+      </c>
+      <c r="CU165" s="1">
+        <v>11</v>
+      </c>
+      <c r="CV165" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW165" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX165" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="I166" s="1">
+        <f>SUM(I2:I165)/165</f>
+        <v>2.1763636363636349</v>
       </c>
     </row>
   </sheetData>
@@ -25481,8 +27150,11 @@
     <hyperlink ref="DG141" r:id="rId99" xr:uid="{E9979C7D-B343-4E12-B8E4-DC66B3912DB8}"/>
     <hyperlink ref="DG142" r:id="rId100" xr:uid="{7CADA12C-3C75-4A9A-9BDD-612D2E4700A5}"/>
     <hyperlink ref="DG143" r:id="rId101" xr:uid="{C096FE4A-9291-4DE8-BE9B-D0CC887AF924}"/>
+    <hyperlink ref="DG156" r:id="rId102" xr:uid="{9944F395-3714-4412-B197-2A25F78A134E}"/>
+    <hyperlink ref="DG157" r:id="rId103" xr:uid="{0CD41FF8-84A9-4C57-BEE4-FD1725069E00}"/>
+    <hyperlink ref="DG145" r:id="rId104" xr:uid="{48A4636C-45C8-4BD3-BBE1-D04DEB1CE8E6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED1C0C-5309-4404-ABAA-E203E725CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49406DC2-2F9F-4055-ABA0-736DA75EF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="17280" windowHeight="9660" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="32310" yWindow="3330" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="590">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1785,6 +1785,27 @@
   </si>
   <si>
     <t>BR-02012/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prpesquisas </t>
+  </si>
+  <si>
+    <t>out/22_pr_pesq_2</t>
+  </si>
+  <si>
+    <t>BR-00525/2022</t>
+  </si>
+  <si>
+    <t>https://www.paranapesquisas.com.br/wp-content/uploads/2022/10/Midia-BR-2.pdf</t>
+  </si>
+  <si>
+    <t>out/22_ipec_5</t>
+  </si>
+  <si>
+    <t>BR‐06043/2022</t>
+  </si>
+  <si>
+    <t>https://www.ipec-inteligencia.com.br/Repository/Files/2194/Job_22_1426-11_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
   </si>
 </sst>
 </file>
@@ -2343,11 +2364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DI166"/>
+  <dimension ref="A1:DI167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I166" sqref="I166"/>
+      <selection pane="topRight" activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27041,9 +27062,145 @@
       </c>
     </row>
     <row r="166" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D166" s="3">
+        <v>44858</v>
+      </c>
+      <c r="E166" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H166" s="1">
+        <v>2020</v>
+      </c>
       <c r="I166" s="1">
-        <f>SUM(I2:I165)/165</f>
-        <v>2.1763636363636349</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J166" s="1">
+        <v>95</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L166" s="1">
+        <v>162</v>
+      </c>
+      <c r="CO166" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="CP166" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="CV166" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW166" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="CX166" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="DG166" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="167" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D167" s="3">
+        <v>44858</v>
+      </c>
+      <c r="E167" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="H167" s="1">
+        <v>3008</v>
+      </c>
+      <c r="I167" s="1">
+        <v>2</v>
+      </c>
+      <c r="J167" s="1">
+        <v>95</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L167" s="1">
+        <v>183</v>
+      </c>
+      <c r="N167" s="1">
+        <v>57</v>
+      </c>
+      <c r="O167" s="1">
+        <v>27</v>
+      </c>
+      <c r="S167" s="1">
+        <v>16</v>
+      </c>
+      <c r="CA167" s="1">
+        <v>56</v>
+      </c>
+      <c r="CB167" s="1">
+        <v>34</v>
+      </c>
+      <c r="CF167" s="1">
+        <v>52</v>
+      </c>
+      <c r="CG167" s="1">
+        <v>37</v>
+      </c>
+      <c r="CH167" s="1">
+        <v>60</v>
+      </c>
+      <c r="CM167" s="1">
+        <v>37</v>
+      </c>
+      <c r="CO167" s="1">
+        <v>50</v>
+      </c>
+      <c r="CP167" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ167" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR167" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT167" s="1">
+        <v>9</v>
+      </c>
+      <c r="CV167" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW167" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX167" s="1">
+        <v>7</v>
+      </c>
+      <c r="DG167" s="7" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49406DC2-2F9F-4055-ABA0-736DA75EF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530ECE6-78D4-401F-A131-E2996EDF35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3330" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="21120" yWindow="3165" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="598">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1806,6 +1806,30 @@
   </si>
   <si>
     <t>https://www.ipec-inteligencia.com.br/Repository/Files/2194/Job_22_1426-11_Brasil_Relatorio_de_tabelas_Imprensa.pdf</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_5</t>
+  </si>
+  <si>
+    <t>out/22_poderdata_4</t>
+  </si>
+  <si>
+    <t>BR-01159/2022</t>
+  </si>
+  <si>
+    <t>https://static.poder360.com.br/2022/10/Poderdata-71-25out.pdf</t>
+  </si>
+  <si>
+    <t>out/22_quaest_4</t>
+  </si>
+  <si>
+    <t>BR-00470/2022</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/25202522/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-outubro-20221026.pdf</t>
+  </si>
+  <si>
+    <t>BR-04208/2022</t>
   </si>
 </sst>
 </file>
@@ -2364,11 +2388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-  <dimension ref="A1:DI167"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:DI170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A146" sqref="A146:XFD146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM167" sqref="CM167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>182</v>
       </c>
@@ -2907,7 +2932,7 @@
       <c r="DH2"/>
       <c r="DI2"/>
     </row>
-    <row r="3" spans="1:113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3038,7 +3063,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3157,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
@@ -3226,7 +3251,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
@@ -3436,7 +3461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
@@ -3530,7 +3555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
@@ -3854,7 +3879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
@@ -3945,7 +3970,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
@@ -4122,7 +4147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4303,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>182</v>
       </c>
@@ -4368,7 +4393,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +4492,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
@@ -4558,7 +4583,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
@@ -4735,7 +4760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
@@ -5032,7 +5057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>195</v>
       </c>
@@ -5131,7 +5156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
@@ -5230,7 +5255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5321,7 +5346,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5501,7 +5526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -5633,7 +5658,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
@@ -5724,7 +5749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
@@ -5823,7 +5848,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>195</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
@@ -6016,7 +6041,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
@@ -6148,7 +6173,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6284,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>195</v>
       </c>
@@ -6358,7 +6383,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
@@ -6452,7 +6477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
@@ -6563,7 +6588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>182</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
@@ -6809,7 +6834,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>195</v>
       </c>
@@ -6908,7 +6933,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
@@ -7206,7 +7231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
@@ -7317,7 +7342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
@@ -7439,7 +7464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
@@ -7737,7 +7762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>195</v>
       </c>
@@ -7987,7 +8012,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
@@ -8109,7 +8134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
@@ -8344,7 +8369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
@@ -8470,7 +8495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>4</v>
       </c>
@@ -8581,7 +8606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
@@ -8704,7 +8729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>46</v>
       </c>
@@ -8991,7 +9016,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>195</v>
       </c>
@@ -9183,7 +9208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>182</v>
       </c>
@@ -9288,7 +9313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>252</v>
       </c>
@@ -9364,7 +9389,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
@@ -9487,7 +9512,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
@@ -9714,7 +9739,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
@@ -9867,7 +9892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
@@ -9990,7 +10015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>4</v>
       </c>
@@ -10137,7 +10162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
@@ -10427,7 +10452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -10586,7 +10611,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>3</v>
       </c>
@@ -10775,7 +10800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>252</v>
       </c>
@@ -10851,7 +10876,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>5</v>
       </c>
@@ -10974,7 +10999,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>195</v>
       </c>
@@ -11205,7 +11230,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>46</v>
       </c>
@@ -11435,7 +11460,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>4</v>
       </c>
@@ -11546,7 +11571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>5</v>
       </c>
@@ -11666,7 +11691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>46</v>
       </c>
@@ -11956,7 +11981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>40</v>
       </c>
@@ -12109,7 +12134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>5</v>
       </c>
@@ -12229,7 +12254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>252</v>
       </c>
@@ -12305,7 +12330,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>46</v>
       </c>
@@ -12532,7 +12557,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
@@ -12685,7 +12710,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>195</v>
       </c>
@@ -12778,7 +12803,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
@@ -12898,7 +12923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>40</v>
       </c>
@@ -13049,7 +13074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>182</v>
       </c>
@@ -13154,7 +13179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>4</v>
       </c>
@@ -13268,7 +13293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>46</v>
       </c>
@@ -13558,7 +13583,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
@@ -13678,7 +13703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>5</v>
       </c>
@@ -13798,7 +13823,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>252</v>
       </c>
@@ -13874,7 +13899,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>195</v>
       </c>
@@ -14120,7 +14145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>46</v>
       </c>
@@ -14347,7 +14372,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>5</v>
       </c>
@@ -14467,7 +14492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>3</v>
       </c>
@@ -14668,7 +14693,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
@@ -14821,7 +14846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
@@ -14971,7 +14996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
@@ -15090,7 +15115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>4</v>
       </c>
@@ -15204,7 +15229,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>46</v>
       </c>
@@ -15490,7 +15515,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
@@ -15643,7 +15668,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>46</v>
       </c>
@@ -15866,7 +15891,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>252</v>
       </c>
@@ -15952,7 +15977,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>3</v>
       </c>
@@ -16074,7 +16099,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
@@ -16232,7 +16257,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>4</v>
       </c>
@@ -16348,7 +16373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>40</v>
       </c>
@@ -16500,7 +16525,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>46</v>
       </c>
@@ -16795,7 +16820,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
@@ -16949,7 +16974,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>46</v>
       </c>
@@ -17202,7 +17227,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>252</v>
       </c>
@@ -17288,7 +17313,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>5</v>
       </c>
@@ -17406,7 +17431,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
@@ -17562,7 +17587,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>195</v>
       </c>
@@ -17666,7 +17691,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>3</v>
       </c>
@@ -17857,7 +17882,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>4</v>
       </c>
@@ -17939,7 +17964,7 @@
       <c r="BA102" s="1">
         <v>6</v>
       </c>
-      <c r="BB102" s="11">
+      <c r="BB102" s="1">
         <f t="shared" ref="BB102:BB108" si="9">BA102+AZ102</f>
         <v>12</v>
       </c>
@@ -17985,7 +18010,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
@@ -18113,7 +18138,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>46</v>
       </c>
@@ -18438,7 +18463,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
@@ -18596,7 +18621,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>4</v>
       </c>
@@ -18724,7 +18749,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="107" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
@@ -18885,7 +18910,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="108" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>2</v>
       </c>
@@ -19070,7 +19095,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
@@ -19212,13 +19237,13 @@
       <c r="AY109" s="1">
         <v>5</v>
       </c>
-      <c r="AZ109">
+      <c r="AZ109" s="1">
         <v>4</v>
       </c>
-      <c r="BA109">
+      <c r="BA109" s="1">
         <v>3</v>
       </c>
-      <c r="BB109">
+      <c r="BB109" s="1">
         <v>7</v>
       </c>
       <c r="CA109" s="1">
@@ -19327,7 +19352,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>3</v>
       </c>
@@ -19430,13 +19455,13 @@
       <c r="AW110" s="1">
         <v>3</v>
       </c>
-      <c r="AZ110">
+      <c r="AZ110" s="1">
         <v>6</v>
       </c>
-      <c r="BA110">
+      <c r="BA110" s="1">
         <v>2</v>
       </c>
-      <c r="BB110">
+      <c r="BB110" s="1">
         <v>8</v>
       </c>
       <c r="BC110" s="1">
@@ -19522,7 +19547,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
@@ -19622,13 +19647,13 @@
       <c r="AY111" s="1">
         <v>1</v>
       </c>
-      <c r="AZ111">
+      <c r="AZ111" s="1">
         <v>4</v>
       </c>
-      <c r="BA111">
+      <c r="BA111" s="1">
         <v>5</v>
       </c>
-      <c r="BB111">
+      <c r="BB111" s="1">
         <v>9</v>
       </c>
       <c r="BX111" s="1">
@@ -19678,7 +19703,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>40</v>
       </c>
@@ -19754,7 +19779,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>252</v>
       </c>
@@ -19838,7 +19863,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>4</v>
       </c>
@@ -19923,13 +19948,13 @@
       <c r="AX114" s="1">
         <v>16</v>
       </c>
-      <c r="AZ114">
+      <c r="AZ114" s="1">
         <v>6</v>
       </c>
-      <c r="BA114">
+      <c r="BA114" s="1">
         <v>5</v>
       </c>
-      <c r="BB114">
+      <c r="BB114" s="1">
         <v>11</v>
       </c>
       <c r="BX114" s="1">
@@ -19964,7 +19989,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>182</v>
       </c>
@@ -20040,13 +20065,13 @@
       <c r="AV115" s="1">
         <v>13</v>
       </c>
-      <c r="AZ115">
+      <c r="AZ115" s="1">
         <v>5</v>
       </c>
-      <c r="BA115">
+      <c r="BA115" s="1">
         <v>7.8</v>
       </c>
-      <c r="BB115">
+      <c r="BB115" s="1">
         <v>12.8</v>
       </c>
       <c r="BX115" s="1">
@@ -20090,7 +20115,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>6</v>
       </c>
@@ -20190,13 +20215,13 @@
       <c r="AY116" s="1">
         <v>5</v>
       </c>
-      <c r="AZ116">
+      <c r="AZ116" s="1">
         <v>4</v>
       </c>
-      <c r="BA116">
+      <c r="BA116" s="1">
         <v>3</v>
       </c>
-      <c r="BB116">
+      <c r="BB116" s="1">
         <v>7</v>
       </c>
       <c r="BX116" s="1">
@@ -20246,7 +20271,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
@@ -20334,9 +20359,6 @@
       <c r="AX117" s="1">
         <v>9</v>
       </c>
-      <c r="AZ117"/>
-      <c r="BA117"/>
-      <c r="BB117"/>
       <c r="BC117" s="1">
         <v>29</v>
       </c>
@@ -20432,7 +20454,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>5</v>
       </c>
@@ -20508,13 +20530,13 @@
       <c r="AS118" s="1">
         <v>9</v>
       </c>
-      <c r="AZ118">
+      <c r="AZ118" s="1">
         <v>4</v>
       </c>
-      <c r="BA118">
+      <c r="BA118" s="1">
         <v>2</v>
       </c>
-      <c r="BB118">
+      <c r="BB118" s="1">
         <v>6</v>
       </c>
       <c r="BX118" s="1">
@@ -20552,7 +20574,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
         <v>46</v>
       </c>
@@ -20688,13 +20710,13 @@
       <c r="AY119" s="1">
         <v>11</v>
       </c>
-      <c r="AZ119">
+      <c r="AZ119" s="1">
         <v>3</v>
       </c>
-      <c r="BA119">
+      <c r="BA119" s="1">
         <v>5</v>
       </c>
-      <c r="BB119">
+      <c r="BB119" s="1">
         <v>8</v>
       </c>
       <c r="BC119" s="1">
@@ -20866,7 +20888,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>40</v>
       </c>
@@ -21007,7 +21029,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>3</v>
       </c>
@@ -21048,6 +21070,9 @@
         <v>32</v>
       </c>
       <c r="AA121" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB121" s="1">
         <v>51</v>
       </c>
       <c r="AC121" s="1">
@@ -21057,6 +21082,9 @@
         <v>48</v>
       </c>
       <c r="AH121" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI121" s="1">
         <v>22</v>
       </c>
       <c r="AJ121" s="1">
@@ -21068,6 +21096,9 @@
       <c r="AO121" s="1">
         <v>12</v>
       </c>
+      <c r="AP121" s="1">
+        <v>12</v>
+      </c>
       <c r="AQ121" s="1">
         <v>45</v>
       </c>
@@ -21086,13 +21117,13 @@
       <c r="AX121" s="1">
         <v>4</v>
       </c>
-      <c r="AZ121">
+      <c r="AZ121" s="1">
         <v>9</v>
       </c>
-      <c r="BA121">
+      <c r="BA121" s="1">
         <v>2</v>
       </c>
-      <c r="BB121">
+      <c r="BB121" s="1">
         <v>11</v>
       </c>
       <c r="BC121" s="1">
@@ -21196,7 +21227,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
         <v>2</v>
       </c>
@@ -21275,13 +21306,13 @@
       <c r="AX122" s="1">
         <v>7</v>
       </c>
-      <c r="AZ122">
+      <c r="AZ122" s="1">
         <v>5</v>
       </c>
-      <c r="BA122">
+      <c r="BA122" s="1">
         <v>5</v>
       </c>
-      <c r="BB122">
+      <c r="BB122" s="1">
         <v>10</v>
       </c>
       <c r="BC122" s="1">
@@ -21370,7 +21401,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>6</v>
       </c>
@@ -21467,13 +21498,13 @@
       <c r="AY123" s="1">
         <v>6</v>
       </c>
-      <c r="AZ123">
+      <c r="AZ123" s="1">
         <v>3</v>
       </c>
-      <c r="BA123">
+      <c r="BA123" s="1">
         <v>4</v>
       </c>
-      <c r="BB123">
+      <c r="BB123" s="1">
         <v>7</v>
       </c>
       <c r="BX123" s="1">
@@ -21523,7 +21554,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
         <v>4</v>
       </c>
@@ -21639,7 +21670,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>40</v>
       </c>
@@ -21789,7 +21820,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
         <v>46</v>
       </c>
@@ -22076,7 +22107,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
@@ -22273,7 +22304,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
         <v>2</v>
       </c>
@@ -22444,7 +22475,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>6</v>
       </c>
@@ -22600,7 +22631,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
         <v>40</v>
       </c>
@@ -22690,7 +22721,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -22989,7 +23020,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
         <v>4</v>
       </c>
@@ -23105,7 +23136,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>182</v>
       </c>
@@ -23228,7 +23259,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>3</v>
       </c>
@@ -23302,7 +23333,7 @@
         <v>45</v>
       </c>
       <c r="AR134" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AS134" s="1">
         <v>8</v>
@@ -23425,7 +23456,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="135" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>2</v>
       </c>
@@ -23592,7 +23623,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>6</v>
       </c>
@@ -23744,7 +23775,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>4</v>
       </c>
@@ -23866,7 +23897,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="138" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
         <v>46</v>
       </c>
@@ -24102,7 +24133,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>5</v>
       </c>
@@ -24227,7 +24258,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>3</v>
       </c>
@@ -24262,28 +24293,28 @@
         <v>343</v>
       </c>
       <c r="V140" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W140" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA140" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AB140" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC140" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD140" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AH140" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI140" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ140" s="1">
         <v>7</v>
@@ -24295,7 +24326,7 @@
         <v>9</v>
       </c>
       <c r="AP140" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ140" s="1">
         <v>47</v>
@@ -24371,6 +24402,9 @@
       </c>
       <c r="BZ140" s="1">
         <v>24</v>
+      </c>
+      <c r="CA140" s="1">
+        <v>53</v>
       </c>
       <c r="CO140" s="1">
         <v>54</v>
@@ -24395,7 +24429,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>6</v>
       </c>
@@ -24595,7 +24629,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
@@ -24780,7 +24814,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="143" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>4</v>
       </c>
@@ -24902,7 +24936,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="144" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
         <v>40</v>
       </c>
@@ -24936,11 +24970,26 @@
       <c r="L144" s="1">
         <v>160</v>
       </c>
+      <c r="AQ144" s="1">
+        <v>47</v>
+      </c>
+      <c r="AR144" s="1">
+        <v>37</v>
+      </c>
+      <c r="AS144" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ144" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA144" s="1">
+        <v>3</v>
+      </c>
       <c r="DG144" s="7" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
         <v>252</v>
       </c>
@@ -25020,7 +25069,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="146" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
         <v>3</v>
       </c>
@@ -27166,10 +27215,10 @@
       <c r="CF167" s="1">
         <v>52</v>
       </c>
-      <c r="CG167" s="1">
+      <c r="CH167" s="1">
         <v>37</v>
       </c>
-      <c r="CH167" s="1">
+      <c r="CI167" s="1">
         <v>60</v>
       </c>
       <c r="CM167" s="1">
@@ -27199,11 +27248,327 @@
       <c r="CX167" s="1">
         <v>7</v>
       </c>
-      <c r="DG167" s="7" t="s">
+      <c r="DG167" s="29" t="s">
         <v>589</v>
+      </c>
+    </row>
+    <row r="168" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D168" s="3">
+        <v>44859</v>
+      </c>
+      <c r="E168" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="H168" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I168" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J168" s="1">
+        <v>95</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L168" s="1">
+        <v>342</v>
+      </c>
+      <c r="M168" s="1">
+        <v>27</v>
+      </c>
+      <c r="N168" s="1">
+        <v>43</v>
+      </c>
+      <c r="O168" s="1">
+        <v>29</v>
+      </c>
+      <c r="P168" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>1</v>
+      </c>
+      <c r="R168" s="1">
+        <v>3</v>
+      </c>
+      <c r="S168" s="1">
+        <v>4</v>
+      </c>
+      <c r="T168" s="1">
+        <v>15</v>
+      </c>
+      <c r="U168" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA168" s="1">
+        <v>56</v>
+      </c>
+      <c r="CB168" s="1">
+        <v>29</v>
+      </c>
+      <c r="CC168" s="1">
+        <v>20</v>
+      </c>
+      <c r="CD168" s="1">
+        <v>87</v>
+      </c>
+      <c r="CE168" s="1">
+        <v>85</v>
+      </c>
+      <c r="CF168" s="1">
+        <v>62</v>
+      </c>
+      <c r="CG168" s="1">
+        <v>54</v>
+      </c>
+      <c r="CH168" s="1">
+        <v>38</v>
+      </c>
+      <c r="CI168" s="1">
+        <v>64</v>
+      </c>
+      <c r="CJ168" s="1">
+        <v>76</v>
+      </c>
+      <c r="CK168" s="1">
+        <v>13</v>
+      </c>
+      <c r="CL168" s="1">
+        <v>5</v>
+      </c>
+      <c r="CM168" s="1">
+        <v>23</v>
+      </c>
+      <c r="CN168" s="1">
+        <v>36</v>
+      </c>
+      <c r="CO168" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP168" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ168" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR168" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS168" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT168" s="1">
+        <v>14</v>
+      </c>
+      <c r="CU168" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV168" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW168" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX168" s="1">
+        <v>7</v>
+      </c>
+      <c r="DG168" s="29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D169" s="3">
+        <v>44859</v>
+      </c>
+      <c r="E169" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="H169" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I169" s="1">
+        <v>2</v>
+      </c>
+      <c r="J169" s="1">
+        <v>95</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L169" s="1">
+        <v>120</v>
+      </c>
+      <c r="N169" s="1">
+        <v>51</v>
+      </c>
+      <c r="O169" s="1">
+        <v>31</v>
+      </c>
+      <c r="S169" s="1">
+        <v>5</v>
+      </c>
+      <c r="T169" s="1">
+        <v>12</v>
+      </c>
+      <c r="U169" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA169" s="1">
+        <v>54</v>
+      </c>
+      <c r="CB169" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF169" s="1">
+        <v>58</v>
+      </c>
+      <c r="CH169" s="1">
+        <v>37</v>
+      </c>
+      <c r="CI169" s="1">
+        <v>61</v>
+      </c>
+      <c r="CM169" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO169" s="1">
+        <v>48</v>
+      </c>
+      <c r="CP169" s="1">
+        <v>42</v>
+      </c>
+      <c r="CV169" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW169" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX169" s="1">
+        <v>10</v>
+      </c>
+      <c r="DG169" s="29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="170" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D170" s="3">
+        <v>44861</v>
+      </c>
+      <c r="E170" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="H170" s="1">
+        <v>4580</v>
+      </c>
+      <c r="I170" s="1">
+        <v>2</v>
+      </c>
+      <c r="J170" s="1">
+        <v>95</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L170" s="1">
+        <v>252</v>
+      </c>
+      <c r="CA170" s="1">
+        <v>55</v>
+      </c>
+      <c r="CB170" s="1">
+        <v>32</v>
+      </c>
+      <c r="CF170" s="1">
+        <v>51</v>
+      </c>
+      <c r="CG170" s="1">
+        <v>65</v>
+      </c>
+      <c r="CH170" s="1">
+        <v>39</v>
+      </c>
+      <c r="CI170" s="1">
+        <v>62</v>
+      </c>
+      <c r="CM170" s="1">
+        <v>40</v>
+      </c>
+      <c r="CN170" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO170" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP170" s="1">
+        <v>44</v>
+      </c>
+      <c r="CQ170" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR170" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT170" s="1">
+        <v>8</v>
+      </c>
+      <c r="CU170" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV170" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW170" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX170" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DI167" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DG82" r:id="rId1" xr:uid="{748DADF1-B9AE-4235-9052-8F0EA9FA85CD}"/>
@@ -27310,8 +27675,11 @@
     <hyperlink ref="DG156" r:id="rId102" xr:uid="{9944F395-3714-4412-B197-2A25F78A134E}"/>
     <hyperlink ref="DG157" r:id="rId103" xr:uid="{0CD41FF8-84A9-4C57-BEE4-FD1725069E00}"/>
     <hyperlink ref="DG145" r:id="rId104" xr:uid="{48A4636C-45C8-4BD3-BBE1-D04DEB1CE8E6}"/>
+    <hyperlink ref="DG169" r:id="rId105" xr:uid="{0751DADA-6F01-456F-920A-5C3EBB608D92}"/>
+    <hyperlink ref="DG168" r:id="rId106" xr:uid="{0D62F25C-D631-42AA-A595-D12E74AF8EC1}"/>
+    <hyperlink ref="DG167" r:id="rId107" xr:uid="{33E128D0-BC4F-4A73-82D2-30D26B03BFB8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530ECE6-78D4-401F-A131-E2996EDF35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C796AFF5-CFF0-4188-8672-E9876681F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21120" yWindow="3165" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$167</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="607">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1830,6 +1830,33 @@
   </si>
   <si>
     <t>BR-04208/2022</t>
+  </si>
+  <si>
+    <t>BR-07903/2022</t>
+  </si>
+  <si>
+    <t>https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F22%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1</t>
+  </si>
+  <si>
+    <t>out/22_quaest_5</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/10/29174328/GENIALQUAESTNACIONAL29OUT.pdf</t>
+  </si>
+  <si>
+    <t>BR-05765/2022</t>
+  </si>
+  <si>
+    <t>out/22_ipec_6</t>
+  </si>
+  <si>
+    <t>out/22_datafolha_6</t>
+  </si>
+  <si>
+    <t>BR-08297/2022</t>
+  </si>
+  <si>
+    <t>BR-05256/2022</t>
   </si>
 </sst>
 </file>
@@ -2389,11 +2416,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:DI170"/>
+  <dimension ref="A1:DI174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM167" sqref="CM167"/>
+      <pane xSplit="3" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CQ174" sqref="CQ174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27477,13 +27504,13 @@
     </row>
     <row r="170" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D170" s="3">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="E170" s="10">
         <v>44835</v>
@@ -27492,73 +27519,399 @@
         <v>2022</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H170" s="1">
-        <v>4580</v>
+        <v>2000</v>
       </c>
       <c r="I170" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J170" s="1">
         <v>95</v>
       </c>
       <c r="K170" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N170" s="1">
+        <v>55</v>
+      </c>
+      <c r="O170" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="P170" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S170" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="T170" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="U170" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="CO170" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="CP170" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="CV170" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="CW170" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="CX170" s="1">
+        <v>6</v>
+      </c>
+      <c r="DG170" s="29" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="171" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D171" s="3">
+        <v>44861</v>
+      </c>
+      <c r="E171" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F171" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="H171" s="1">
+        <v>4580</v>
+      </c>
+      <c r="I171" s="1">
+        <v>2</v>
+      </c>
+      <c r="J171" s="1">
+        <v>95</v>
+      </c>
+      <c r="K171" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L170" s="1">
+      <c r="L171" s="1">
         <v>252</v>
       </c>
-      <c r="CA170" s="1">
+      <c r="CA171" s="1">
         <v>55</v>
       </c>
-      <c r="CB170" s="1">
+      <c r="CB171" s="1">
         <v>32</v>
       </c>
-      <c r="CF170" s="1">
+      <c r="CF171" s="1">
         <v>51</v>
       </c>
-      <c r="CG170" s="1">
+      <c r="CG171" s="1">
         <v>65</v>
       </c>
-      <c r="CH170" s="1">
+      <c r="CH171" s="1">
         <v>39</v>
       </c>
-      <c r="CI170" s="1">
+      <c r="CI171" s="1">
         <v>62</v>
       </c>
-      <c r="CM170" s="1">
+      <c r="CM171" s="1">
         <v>40</v>
       </c>
-      <c r="CN170" s="1">
+      <c r="CN171" s="1">
         <v>27</v>
       </c>
-      <c r="CO170" s="1">
+      <c r="CO171" s="1">
         <v>49</v>
       </c>
-      <c r="CP170" s="1">
+      <c r="CP171" s="1">
         <v>44</v>
       </c>
-      <c r="CQ170" s="1">
+      <c r="CQ171" s="1">
         <v>4</v>
       </c>
-      <c r="CR170" s="1">
+      <c r="CR171" s="1">
         <v>4</v>
       </c>
-      <c r="CT170" s="1">
+      <c r="CT171" s="1">
         <v>8</v>
       </c>
-      <c r="CU170" s="1">
+      <c r="CU171" s="1">
         <v>7</v>
       </c>
-      <c r="CV170" s="1">
+      <c r="CV171" s="1">
         <v>5</v>
       </c>
-      <c r="CW170" s="1">
+      <c r="CW171" s="1">
         <v>2</v>
       </c>
-      <c r="CX170" s="1">
+      <c r="CX171" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D172" s="3">
+        <v>44863</v>
+      </c>
+      <c r="E172" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H172" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I172" s="1">
+        <v>2</v>
+      </c>
+      <c r="J172" s="1">
+        <v>95</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L172" s="1">
+        <v>120</v>
+      </c>
+      <c r="N172" s="1">
+        <v>53</v>
+      </c>
+      <c r="O172" s="1">
+        <v>30</v>
+      </c>
+      <c r="S172" s="1">
+        <v>4</v>
+      </c>
+      <c r="T172" s="1">
+        <v>13</v>
+      </c>
+      <c r="U172" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA172" s="1">
+        <v>52</v>
+      </c>
+      <c r="CB172" s="1">
+        <v>32</v>
+      </c>
+      <c r="CF172" s="1">
+        <v>55</v>
+      </c>
+      <c r="CH172" s="1">
+        <v>39</v>
+      </c>
+      <c r="CI172" s="1">
+        <v>56</v>
+      </c>
+      <c r="CM172" s="1">
+        <v>32</v>
+      </c>
+      <c r="CO172" s="1">
+        <v>46</v>
+      </c>
+      <c r="CP172" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ172" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR172" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT172" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV172" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW172" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX172" s="1">
+        <v>11</v>
+      </c>
+      <c r="DG172" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="173" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D173" s="3">
+        <v>44863</v>
+      </c>
+      <c r="E173" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="H173" s="1">
+        <v>4272</v>
+      </c>
+      <c r="I173" s="1">
+        <v>2</v>
+      </c>
+      <c r="J173" s="1">
+        <v>95</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L173" s="1">
+        <v>236</v>
+      </c>
+      <c r="CA173" s="1">
+        <v>57</v>
+      </c>
+      <c r="CB173" s="1">
+        <v>31</v>
+      </c>
+      <c r="CF173" s="1">
+        <v>54</v>
+      </c>
+      <c r="CH173" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI173" s="1">
+        <v>62</v>
+      </c>
+      <c r="CM173" s="1">
+        <v>37</v>
+      </c>
+      <c r="CO173" s="1">
+        <v>50</v>
+      </c>
+      <c r="CP173" s="1">
+        <v>43</v>
+      </c>
+      <c r="CQ173" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR173" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT173" s="1">
+        <v>4</v>
+      </c>
+      <c r="CV173" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW173" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX173" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D174" s="3">
+        <v>44863</v>
+      </c>
+      <c r="E174" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H174" s="1">
+        <v>8308</v>
+      </c>
+      <c r="I174" s="1">
+        <v>2</v>
+      </c>
+      <c r="J174" s="1">
+        <v>95</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L174" s="1">
+        <v>253</v>
+      </c>
+      <c r="CA174" s="1">
+        <v>56</v>
+      </c>
+      <c r="CB174" s="1">
+        <v>29</v>
+      </c>
+      <c r="CF174" s="1">
+        <v>50</v>
+      </c>
+      <c r="CG174" s="1">
+        <v>65</v>
+      </c>
+      <c r="CH174" s="1">
+        <v>39</v>
+      </c>
+      <c r="CI174" s="1">
+        <v>65</v>
+      </c>
+      <c r="CM174" s="1">
+        <v>42</v>
+      </c>
+      <c r="CN174" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO174" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP174" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ174" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR174" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT174" s="1">
+        <v>7</v>
+      </c>
+      <c r="CU174" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV174" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW174" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX174" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -27678,8 +28031,9 @@
     <hyperlink ref="DG169" r:id="rId105" xr:uid="{0751DADA-6F01-456F-920A-5C3EBB608D92}"/>
     <hyperlink ref="DG168" r:id="rId106" xr:uid="{0D62F25C-D631-42AA-A595-D12E74AF8EC1}"/>
     <hyperlink ref="DG167" r:id="rId107" xr:uid="{33E128D0-BC4F-4A73-82D2-30D26B03BFB8}"/>
+    <hyperlink ref="DG170" r:id="rId108" display="https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F22%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{525BC38A-D9BA-4A24-8A75-2109077B808E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C796AFF5-CFF0-4188-8672-E9876681F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C037B2F-6928-48E6-A581-2A52A3114467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21120" yWindow="3165" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$175</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="610">
   <si>
     <t>nome_instituto</t>
   </si>
@@ -1857,6 +1857,15 @@
   </si>
   <si>
     <t>BR-05256/2022</t>
+  </si>
+  <si>
+    <t>out/22_futura_3</t>
+  </si>
+  <si>
+    <t>out/22_mda</t>
+  </si>
+  <si>
+    <t>BR-01820/2022</t>
   </si>
 </sst>
 </file>
@@ -2416,11 +2425,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:DI174"/>
+  <dimension ref="A1:DI175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CQ174" sqref="CQ174"/>
+      <pane xSplit="3" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS172" sqref="CS172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26675,7 +26684,7 @@
         <v>182</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="D161" s="3">
         <v>44850</v>
@@ -27507,7 +27516,7 @@
         <v>195</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="D170" s="3">
         <v>44860</v>
@@ -27658,13 +27667,13 @@
     </row>
     <row r="172" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="D172" s="3">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="E172" s="10">
         <v>44835</v>
@@ -27673,13 +27682,13 @@
         <v>2022</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="H172" s="1">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="I172" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J172" s="1">
         <v>95</v>
@@ -27687,76 +27696,58 @@
       <c r="K172" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L172" s="1">
-        <v>120</v>
-      </c>
       <c r="N172" s="1">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="O172" s="1">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="S172" s="1">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="T172" s="1">
-        <v>13</v>
-      </c>
-      <c r="U172" s="1">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="CA172" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CB172" s="1">
-        <v>32</v>
-      </c>
-      <c r="CF172" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="CH172" s="1">
         <v>39</v>
       </c>
       <c r="CI172" s="1">
-        <v>56</v>
-      </c>
-      <c r="CM172" s="1">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="CO172" s="1">
-        <v>46</v>
+        <v>46.9</v>
       </c>
       <c r="CP172" s="1">
-        <v>43</v>
+        <v>44.9</v>
       </c>
       <c r="CQ172" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR172" s="1">
         <v>6</v>
       </c>
-      <c r="CT172" s="1">
-        <v>7</v>
-      </c>
       <c r="CV172" s="1">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="CW172" s="1">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="CX172" s="1">
-        <v>11</v>
-      </c>
-      <c r="DG172" s="7" t="s">
-        <v>601</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="173" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D173" s="3">
         <v>44863</v>
@@ -27768,10 +27759,10 @@
         <v>2022</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H173" s="1">
-        <v>4272</v>
+        <v>2000</v>
       </c>
       <c r="I173" s="1">
         <v>2</v>
@@ -27783,57 +27774,75 @@
         <v>280</v>
       </c>
       <c r="L173" s="1">
-        <v>236</v>
+        <v>120</v>
+      </c>
+      <c r="N173" s="1">
+        <v>53</v>
+      </c>
+      <c r="O173" s="1">
+        <v>30</v>
+      </c>
+      <c r="S173" s="1">
+        <v>4</v>
+      </c>
+      <c r="T173" s="1">
+        <v>13</v>
+      </c>
+      <c r="U173" s="1">
+        <v>1</v>
       </c>
       <c r="CA173" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CB173" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CF173" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CH173" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CI173" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="CM173" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="CO173" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="CP173" s="1">
         <v>43</v>
       </c>
       <c r="CQ173" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR173" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT173" s="1">
         <v>7</v>
       </c>
-      <c r="CR173" s="1">
-        <v>4</v>
-      </c>
-      <c r="CT173" s="1">
-        <v>4</v>
-      </c>
       <c r="CV173" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW173" s="1">
         <v>5</v>
       </c>
-      <c r="CW173" s="1">
-        <v>2</v>
-      </c>
       <c r="CX173" s="1">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="DG173" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="174" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D174" s="3">
         <v>44863</v>
@@ -27845,10 +27854,10 @@
         <v>2022</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H174" s="1">
-        <v>8308</v>
+        <v>4272</v>
       </c>
       <c r="I174" s="1">
         <v>2</v>
@@ -27860,62 +27869,139 @@
         <v>280</v>
       </c>
       <c r="L174" s="1">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="CA174" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CB174" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CF174" s="1">
+        <v>54</v>
+      </c>
+      <c r="CH174" s="1">
+        <v>36</v>
+      </c>
+      <c r="CI174" s="1">
+        <v>62</v>
+      </c>
+      <c r="CM174" s="1">
+        <v>37</v>
+      </c>
+      <c r="CO174" s="1">
         <v>50</v>
       </c>
-      <c r="CG174" s="1">
-        <v>65</v>
-      </c>
-      <c r="CH174" s="1">
-        <v>39</v>
-      </c>
-      <c r="CI174" s="1">
-        <v>65</v>
-      </c>
-      <c r="CM174" s="1">
-        <v>42</v>
-      </c>
-      <c r="CN174" s="1">
-        <v>27</v>
-      </c>
-      <c r="CO174" s="1">
-        <v>49</v>
-      </c>
       <c r="CP174" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CQ174" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CR174" s="1">
         <v>4</v>
       </c>
       <c r="CT174" s="1">
-        <v>7</v>
-      </c>
-      <c r="CU174" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CV174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW174" s="1">
         <v>2</v>
       </c>
       <c r="CX174" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D175" s="3">
+        <v>44863</v>
+      </c>
+      <c r="E175" s="10">
+        <v>44835</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H175" s="1">
+        <v>8308</v>
+      </c>
+      <c r="I175" s="1">
+        <v>2</v>
+      </c>
+      <c r="J175" s="1">
+        <v>95</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L175" s="1">
+        <v>253</v>
+      </c>
+      <c r="CA175" s="1">
+        <v>56</v>
+      </c>
+      <c r="CB175" s="1">
+        <v>29</v>
+      </c>
+      <c r="CF175" s="1">
+        <v>50</v>
+      </c>
+      <c r="CG175" s="1">
+        <v>65</v>
+      </c>
+      <c r="CH175" s="1">
+        <v>39</v>
+      </c>
+      <c r="CI175" s="1">
+        <v>65</v>
+      </c>
+      <c r="CM175" s="1">
+        <v>42</v>
+      </c>
+      <c r="CN175" s="1">
+        <v>27</v>
+      </c>
+      <c r="CO175" s="1">
+        <v>49</v>
+      </c>
+      <c r="CP175" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ175" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR175" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT175" s="1">
+        <v>7</v>
+      </c>
+      <c r="CU175" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV175" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW175" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX175" s="1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DI167" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
+  <autoFilter ref="A1:DI175" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>

--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C037B2F-6928-48E6-A581-2A52A3114467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F74AE-CA9A-4231-B1D7-F639562EACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="3165" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="-8175" yWindow="2010" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$175</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2428,8 +2428,8 @@
   <dimension ref="A1:DI175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS172" sqref="CS172"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2968,7 @@
       <c r="DH2"/>
       <c r="DI2"/>
     </row>
-    <row r="3" spans="1:113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>195</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>195</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>4</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>5</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>195</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>5</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>40</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>5</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>40</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>5</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>195</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>5</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>40</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>46</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>5</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>46</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="107" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="108" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>2</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
@@ -19378,7 +19378,7 @@
       <c r="DF109" s="1">
         <v>51</v>
       </c>
-      <c r="DG109" s="7" t="s">
+      <c r="DG109" s="29" t="s">
         <v>418</v>
       </c>
       <c r="DH109" s="1" t="s">
@@ -19583,7 +19583,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>6</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>5</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
         <v>46</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>40</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>3</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
         <v>2</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>6</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>40</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
         <v>46</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
         <v>2</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>6</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>3</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="135" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>2</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>6</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>5</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>3</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>6</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
@@ -24745,16 +24745,13 @@
         <v>6</v>
       </c>
       <c r="AU142" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV142" s="1">
         <v>4</v>
       </c>
       <c r="AX142" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ142" s="1">
         <v>4</v>
@@ -25105,7 +25102,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="146" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
         <v>3</v>
       </c>
@@ -25521,6 +25518,18 @@
       <c r="AS148" s="1">
         <v>5</v>
       </c>
+      <c r="AU148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX148" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY148" s="1">
+        <v>6</v>
+      </c>
       <c r="AZ148" s="1">
         <v>6</v>
       </c>
@@ -25627,7 +25636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
         <v>195</v>
       </c>
@@ -25695,7 +25704,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="150" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>2</v>
       </c>
@@ -25784,7 +25793,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="151" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
         <v>46</v>
       </c>
@@ -25918,7 +25927,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
         <v>4</v>
       </c>
@@ -25986,7 +25995,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="153" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
         <v>3</v>
       </c>
@@ -26073,7 +26082,7 @@
       </c>
       <c r="DG153" s="7"/>
     </row>
-    <row r="154" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
         <v>2</v>
       </c>
@@ -26162,7 +26171,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="155" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
         <v>46</v>
       </c>
@@ -26299,7 +26308,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
         <v>5</v>
       </c>
@@ -26385,7 +26394,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
         <v>40</v>
       </c>
@@ -26441,7 +26450,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="158" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
         <v>195</v>
       </c>
@@ -26509,7 +26518,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="159" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
         <v>4</v>
       </c>
@@ -26592,7 +26601,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="160" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
         <v>3</v>
       </c>
@@ -26679,7 +26688,7 @@
       </c>
       <c r="DG160" s="7"/>
     </row>
-    <row r="161" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
         <v>182</v>
       </c>
@@ -26757,7 +26766,7 @@
       </c>
       <c r="DG161" s="7"/>
     </row>
-    <row r="162" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
         <v>2</v>
       </c>
@@ -26846,7 +26855,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="163" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
         <v>4</v>
       </c>
@@ -26926,7 +26935,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
         <v>46</v>
       </c>
@@ -27060,7 +27069,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="165" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
         <v>3</v>
       </c>
@@ -27146,7 +27155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
         <v>583</v>
       </c>
@@ -27199,7 +27208,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="167" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
         <v>2</v>
       </c>
@@ -27288,7 +27297,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="168" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
         <v>46</v>
       </c>
@@ -27425,7 +27434,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
         <v>4</v>
       </c>
@@ -27511,7 +27520,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="170" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
         <v>195</v>
       </c>
@@ -27579,7 +27588,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="171" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
         <v>3</v>
       </c>
@@ -27665,7 +27674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
         <v>182</v>
       </c>
@@ -27742,7 +27751,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="173" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
         <v>4</v>
       </c>
@@ -27837,7 +27846,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="174" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
         <v>2</v>
       </c>
@@ -27914,7 +27923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
         <v>3</v>
       </c>
@@ -28002,10 +28011,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:DI175" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
-      </filters>
+    <filterColumn colId="40">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28118,8 +28127,9 @@
     <hyperlink ref="DG168" r:id="rId106" xr:uid="{0D62F25C-D631-42AA-A595-D12E74AF8EC1}"/>
     <hyperlink ref="DG167" r:id="rId107" xr:uid="{33E128D0-BC4F-4A73-82D2-30D26B03BFB8}"/>
     <hyperlink ref="DG170" r:id="rId108" display="https://futurainteligencia-my.sharepoint.com/personal/silval_futurainteligencia_com_br/_layouts/15/onedrive.aspx?id=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments%2FR%5FElei%C3%A7%C3%B5es2022%5FModalMais%5F202210%5F22%C2%AAEdi%C3%A7%C3%A3o%5FDivulga%C3%A7%C3%A3o%2Epdf&amp;parent=%2Fpersonal%2Fsilval%5Ffuturainteligencia%5Fcom%5Fbr%2FDocuments&amp;ga=1" xr:uid="{525BC38A-D9BA-4A24-8A75-2109077B808E}"/>
+    <hyperlink ref="DG109" r:id="rId109" xr:uid="{793D1014-14FE-499F-AF8D-F0DF22760FDD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
--- a/resultados_pesquisas_lula_bolsonaro_religião.xlsx
+++ b/resultados_pesquisas_lula_bolsonaro_religião.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre G\Documents\Pesquisa\Scripts Webscraping\Agregador de pesquisas (Streamlit)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F74AE-CA9A-4231-B1D7-F639562EACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54375D0A-F82C-4FE7-A239-32418B885610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8175" yWindow="2010" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
+    <workbookView xWindow="-8025" yWindow="3015" windowWidth="17280" windowHeight="12435" xr2:uid="{0F283B87-9F8E-4153-90F4-FF6844F02BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$DI$175</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2429,7 +2429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C78" sqref="C78"/>
+      <selection pane="topRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2968,7 @@
       <c r="DH2"/>
       <c r="DI2"/>
     </row>
-    <row r="3" spans="1:113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>4</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>5</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>5</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>5</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>5</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>5</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>40</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="107" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="2:113" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>6</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>5</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="2:112" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:112" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>6</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>6</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>6</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>5</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="2:111" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:111" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>3</v>
       </c>
@@ -28012,6 +28012,11 @@
   </sheetData>
   <autoFilter ref="A1:DI175" xr:uid="{FE26412D-A9DC-4336-9DA3-32BDB101E54E}">
     <filterColumn colId="40">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="90">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
